--- a/NOVOB.xlsx
+++ b/NOVOB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365F9A4F-38BD-42F6-B9E7-4742CE166733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECBDA3-DA49-4BAD-A630-46DFA45E268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="585" windowWidth="25035" windowHeight="19590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="25" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -991,6 +991,54 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>12/28/21: Dicerna closes</t>
+  </si>
+  <si>
+    <t>10/14/22: Forma closes</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1357,7 @@
     <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1430,6 +1478,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="% XX, X" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1539,16 +1590,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>73479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1564,9 +1615,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="23736300" y="5476875"/>
-          <a:ext cx="10839450" cy="0"/>
+        <a:xfrm>
+          <a:off x="28599494" y="73479"/>
+          <a:ext cx="0" cy="14121496"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1996,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2013,7 +2064,7 @@
     <col min="7" max="7" width="9.7109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="24"/>
+    <col min="10" max="10" width="10" style="24" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="24"/>
   </cols>
@@ -2067,10 +2118,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="28">
-        <v>2283.3000000000002</v>
+        <v>2268.5</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -2097,7 +2148,7 @@
       </c>
       <c r="J4" s="28">
         <f>J3*J2</f>
-        <v>1760880.9600000002</v>
+        <v>1749467.2000000002</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -2123,11 +2174,10 @@
         <v>16</v>
       </c>
       <c r="J5" s="28">
-        <f>13394+6752+466</f>
-        <v>20612</v>
+        <v>43989</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -2153,11 +2203,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="28">
-        <f>24084+1396</f>
-        <v>25480</v>
+        <v>32552</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -2184,7 +2233,7 @@
       </c>
       <c r="J7" s="28">
         <f>J4-J5+J6</f>
-        <v>1765748.9600000002</v>
+        <v>1738030.2000000002</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -2221,164 +2270,147 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="J11" s="28"/>
+      <c r="B11" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>34</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="30"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="30"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="26"/>
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>47</v>
@@ -2387,31 +2419,82 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="B21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="B23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="14"/>
+      <c r="B24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="24" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -2429,20 +2512,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EH68"/>
+  <dimension ref="A1:EH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CE24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CI32" sqref="CI32"/>
+      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
-    <col min="3" max="67" width="6.85546875" style="6" customWidth="1"/>
+    <col min="3" max="58" width="6.85546875" style="6" customWidth="1"/>
+    <col min="59" max="66" width="7.7109375" style="6" customWidth="1"/>
+    <col min="67" max="67" width="6.85546875" style="6" customWidth="1"/>
     <col min="68" max="75" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="7.7109375" style="6" customWidth="1"/>
     <col min="77" max="78" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -3045,7 +3130,9 @@
       <c r="BH3" s="44">
         <v>3371</v>
       </c>
-      <c r="BI3" s="44"/>
+      <c r="BI3" s="44">
+        <v>3778</v>
+      </c>
       <c r="BJ3" s="44"/>
       <c r="BK3" s="44"/>
       <c r="BL3" s="44"/>
@@ -3213,7 +3300,9 @@
       <c r="BH4" s="44">
         <v>516</v>
       </c>
-      <c r="BI4" s="44"/>
+      <c r="BI4" s="44">
+        <v>485</v>
+      </c>
       <c r="BJ4" s="44"/>
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
@@ -3399,7 +3488,9 @@
       <c r="BH5" s="44">
         <v>1786</v>
       </c>
-      <c r="BI5" s="44"/>
+      <c r="BI5" s="44">
+        <v>1899</v>
+      </c>
       <c r="BJ5" s="44"/>
       <c r="BK5" s="44"/>
       <c r="BL5" s="44"/>
@@ -3567,7 +3658,9 @@
       <c r="BH6" s="44">
         <v>715</v>
       </c>
-      <c r="BI6" s="44"/>
+      <c r="BI6" s="44">
+        <v>807</v>
+      </c>
       <c r="BJ6" s="44"/>
       <c r="BK6" s="44"/>
       <c r="BL6" s="44"/>
@@ -3763,7 +3856,9 @@
       <c r="BH7" s="44">
         <v>2269</v>
       </c>
-      <c r="BI7" s="44"/>
+      <c r="BI7" s="44">
+        <v>2273</v>
+      </c>
       <c r="BJ7" s="44"/>
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
@@ -3949,7 +4044,9 @@
       <c r="BH8" s="44">
         <v>1144</v>
       </c>
-      <c r="BI8" s="44"/>
+      <c r="BI8" s="44">
+        <v>961</v>
+      </c>
       <c r="BJ8" s="44"/>
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
@@ -4117,7 +4214,9 @@
       <c r="BH9" s="44">
         <v>691</v>
       </c>
-      <c r="BI9" s="44"/>
+      <c r="BI9" s="44">
+        <v>705</v>
+      </c>
       <c r="BJ9" s="44"/>
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
@@ -4340,7 +4439,7 @@
       <c r="AV10" s="44"/>
       <c r="AW10" s="44"/>
       <c r="AX10" s="44">
-        <f t="shared" ref="AX10:BH10" si="2">SUM(AX3:AX9)</f>
+        <f t="shared" ref="AX10:BI10" si="2">SUM(AX3:AX9)</f>
         <v>12703</v>
       </c>
       <c r="AY10" s="44">
@@ -4383,7 +4482,10 @@
         <f t="shared" si="2"/>
         <v>10492</v>
       </c>
-      <c r="BI10" s="44"/>
+      <c r="BI10" s="44">
+        <f t="shared" si="2"/>
+        <v>10908</v>
+      </c>
       <c r="BJ10" s="44"/>
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
@@ -4622,7 +4724,9 @@
       <c r="BH11" s="44">
         <v>1851</v>
       </c>
-      <c r="BI11" s="44"/>
+      <c r="BI11" s="44">
+        <v>2053</v>
+      </c>
       <c r="BJ11" s="44"/>
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
@@ -4771,7 +4875,7 @@
       <c r="AV12" s="44"/>
       <c r="AW12" s="44"/>
       <c r="AX12" s="44">
-        <f t="shared" ref="AX12:BH12" si="6">+AX11+AX10</f>
+        <f t="shared" ref="AX12:BI12" si="6">+AX11+AX10</f>
         <v>14907</v>
       </c>
       <c r="AY12" s="44">
@@ -4815,8 +4919,8 @@
         <v>12343</v>
       </c>
       <c r="BI12" s="44">
-        <f>+BE12*0.98</f>
-        <v>13729.8</v>
+        <f t="shared" si="6"/>
+        <v>12961</v>
       </c>
       <c r="BJ12" s="44">
         <f t="shared" ref="BJ12:BN12" si="7">+BF12*0.98</f>
@@ -4832,7 +4936,7 @@
       </c>
       <c r="BM12" s="44">
         <f t="shared" si="7"/>
-        <v>13455.204</v>
+        <v>12701.78</v>
       </c>
       <c r="BN12" s="44">
         <f t="shared" si="7"/>
@@ -5186,11 +5290,10 @@
         <v>2710</v>
       </c>
       <c r="BI14" s="44">
-        <f t="shared" ref="BI14:BN14" si="8">+BE14*0.9</f>
-        <v>3253.5</v>
+        <v>2967</v>
       </c>
       <c r="BJ14" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="BJ14:BN14" si="8">+BF14*0.9</f>
         <v>3449.7000000000003</v>
       </c>
       <c r="BK14" s="44">
@@ -5203,7 +5306,7 @@
       </c>
       <c r="BM14" s="44">
         <f t="shared" si="8"/>
-        <v>2928.15</v>
+        <v>2670.3</v>
       </c>
       <c r="BN14" s="44">
         <f t="shared" si="8"/>
@@ -5384,8 +5487,7 @@
         <v>2172</v>
       </c>
       <c r="BI15" s="44">
-        <f>+BE15*1.8</f>
-        <v>2413.8000000000002</v>
+        <v>3011</v>
       </c>
       <c r="BJ15" s="44">
         <f>+BF15*1.5</f>
@@ -5401,7 +5503,7 @@
       </c>
       <c r="BM15" s="44">
         <f t="shared" si="9"/>
-        <v>3620.7000000000003</v>
+        <v>4516.5</v>
       </c>
       <c r="BN15" s="44">
         <f t="shared" si="9"/>
@@ -5570,8 +5672,7 @@
         <v>14349</v>
       </c>
       <c r="BI16" s="44">
-        <f>+BE16*1.6</f>
-        <v>14227.2</v>
+        <v>16390</v>
       </c>
       <c r="BJ16" s="44">
         <f>+BF16*1.4</f>
@@ -5587,7 +5688,7 @@
       </c>
       <c r="BM16" s="44">
         <f>+BI16*1.3</f>
-        <v>18495.36</v>
+        <v>21307</v>
       </c>
       <c r="BN16" s="44">
         <f>+BJ16*1.3</f>
@@ -5796,7 +5897,7 @@
         <v>1844</v>
       </c>
       <c r="CB17" s="44">
-        <f t="shared" ref="CB17:CB30" si="10">SUM(G17:J17)</f>
+        <f t="shared" ref="CB17:CB28" si="10">SUM(G17:J17)</f>
         <v>2064</v>
       </c>
       <c r="CC17" s="44">
@@ -5933,28 +6034,27 @@
         <v>1181</v>
       </c>
       <c r="BI18" s="44">
-        <f t="shared" ref="BI18:BN18" si="11">+BH18+500</f>
-        <v>1681</v>
+        <v>1157</v>
       </c>
       <c r="BJ18" s="44">
-        <f t="shared" si="11"/>
-        <v>2181</v>
+        <f t="shared" ref="BJ18:BN18" si="11">+BI18+500</f>
+        <v>1657</v>
       </c>
       <c r="BK18" s="44">
         <f t="shared" si="11"/>
-        <v>2681</v>
+        <v>2157</v>
       </c>
       <c r="BL18" s="44">
         <f t="shared" si="11"/>
-        <v>3181</v>
+        <v>2657</v>
       </c>
       <c r="BM18" s="44">
         <f t="shared" si="11"/>
-        <v>3681</v>
+        <v>3157</v>
       </c>
       <c r="BN18" s="44">
         <f t="shared" si="11"/>
-        <v>4181</v>
+        <v>3657</v>
       </c>
       <c r="BO18" s="44"/>
       <c r="BP18" s="43"/>
@@ -6119,8 +6219,7 @@
         <v>2462</v>
       </c>
       <c r="BI19" s="44">
-        <f>+BE19*1.2</f>
-        <v>2877.6</v>
+        <v>3174</v>
       </c>
       <c r="BJ19" s="44">
         <f t="shared" ref="BJ19:BN19" si="12">+BF19*1.1</f>
@@ -6136,7 +6235,7 @@
       </c>
       <c r="BM19" s="44">
         <f t="shared" si="12"/>
-        <v>3165.36</v>
+        <v>3491.4</v>
       </c>
       <c r="BN19" s="44">
         <f t="shared" si="12"/>
@@ -6497,11 +6596,10 @@
         <v>830</v>
       </c>
       <c r="BI21" s="44">
-        <f t="shared" ref="BI21:BN21" si="13">+BE21*0.9</f>
-        <v>773.1</v>
+        <v>798</v>
       </c>
       <c r="BJ21" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="BJ21:BN21" si="13">+BF21*0.9</f>
         <v>734.4</v>
       </c>
       <c r="BK21" s="44">
@@ -6514,7 +6612,7 @@
       </c>
       <c r="BM21" s="44">
         <f t="shared" si="13"/>
-        <v>695.79000000000008</v>
+        <v>718.2</v>
       </c>
       <c r="BN21" s="44">
         <f t="shared" si="13"/>
@@ -6893,27 +6991,26 @@
         <v>2018</v>
       </c>
       <c r="BI23" s="44">
-        <f t="shared" ref="BI23:BI27" si="14">+BE23*0.9</f>
-        <v>1508.4</v>
+        <v>2108</v>
       </c>
       <c r="BJ23" s="44">
-        <f t="shared" ref="BJ23:BJ27" si="15">+BF23*0.9</f>
+        <f t="shared" ref="BJ23:BJ27" si="14">+BF23*0.9</f>
         <v>1521</v>
       </c>
       <c r="BK23" s="44">
-        <f t="shared" ref="BK23:BK27" si="16">+BG23*0.9</f>
+        <f t="shared" ref="BK23:BK27" si="15">+BG23*0.9</f>
         <v>2043.9</v>
       </c>
       <c r="BL23" s="44">
-        <f t="shared" ref="BL23:BL27" si="17">+BH23*0.9</f>
+        <f t="shared" ref="BL23:BL27" si="16">+BH23*0.9</f>
         <v>1816.2</v>
       </c>
       <c r="BM23" s="44">
-        <f t="shared" ref="BM23:BM27" si="18">+BI23*0.9</f>
-        <v>1357.5600000000002</v>
+        <f t="shared" ref="BM23:BM27" si="17">+BI23*0.9</f>
+        <v>1897.2</v>
       </c>
       <c r="BN23" s="44">
-        <f t="shared" ref="BN23:BN27" si="19">+BJ23*0.9</f>
+        <f t="shared" ref="BN23:BN27" si="18">+BJ23*0.9</f>
         <v>1368.9</v>
       </c>
       <c r="BO23" s="44"/>
@@ -7081,27 +7178,26 @@
         <v>619</v>
       </c>
       <c r="BI24" s="44">
+        <v>512</v>
+      </c>
+      <c r="BJ24" s="44">
         <f t="shared" si="14"/>
-        <v>369.90000000000003</v>
-      </c>
-      <c r="BJ24" s="44">
+        <v>522.9</v>
+      </c>
+      <c r="BK24" s="44">
         <f t="shared" si="15"/>
-        <v>522.9</v>
-      </c>
-      <c r="BK24" s="44">
+        <v>508.5</v>
+      </c>
+      <c r="BL24" s="44">
         <f t="shared" si="16"/>
-        <v>508.5</v>
-      </c>
-      <c r="BL24" s="44">
+        <v>557.1</v>
+      </c>
+      <c r="BM24" s="44">
         <f t="shared" si="17"/>
-        <v>557.1</v>
-      </c>
-      <c r="BM24" s="44">
+        <v>460.8</v>
+      </c>
+      <c r="BN24" s="44">
         <f t="shared" si="18"/>
-        <v>332.91</v>
-      </c>
-      <c r="BN24" s="44">
-        <f t="shared" si="19"/>
         <v>470.61</v>
       </c>
       <c r="BO24" s="44"/>
@@ -7267,27 +7363,26 @@
         <v>162</v>
       </c>
       <c r="BI25" s="44">
+        <v>194</v>
+      </c>
+      <c r="BJ25" s="44">
         <f t="shared" si="14"/>
-        <v>149.4</v>
-      </c>
-      <c r="BJ25" s="44">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="BK25" s="44">
         <f t="shared" si="15"/>
+        <v>159.30000000000001</v>
+      </c>
+      <c r="BL25" s="44">
+        <f t="shared" si="16"/>
         <v>145.80000000000001</v>
       </c>
-      <c r="BK25" s="44">
-        <f t="shared" si="16"/>
-        <v>159.30000000000001</v>
-      </c>
-      <c r="BL25" s="44">
+      <c r="BM25" s="44">
         <f t="shared" si="17"/>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="BM25" s="44">
+        <v>174.6</v>
+      </c>
+      <c r="BN25" s="44">
         <f t="shared" si="18"/>
-        <v>134.46</v>
-      </c>
-      <c r="BN25" s="44">
-        <f t="shared" si="19"/>
         <v>131.22000000000003</v>
       </c>
       <c r="BO25" s="44"/>
@@ -7463,27 +7558,27 @@
         <v>64</v>
       </c>
       <c r="BI26" s="44">
+        <f>2885-BI25-BI24-BI23</f>
+        <v>71</v>
+      </c>
+      <c r="BJ26" s="44">
         <f t="shared" si="14"/>
-        <v>65.7</v>
-      </c>
-      <c r="BJ26" s="44">
+        <v>51.300000000000004</v>
+      </c>
+      <c r="BK26" s="44">
         <f t="shared" si="15"/>
-        <v>51.300000000000004</v>
-      </c>
-      <c r="BK26" s="44">
+        <v>57.6</v>
+      </c>
+      <c r="BL26" s="44">
         <f t="shared" si="16"/>
         <v>57.6</v>
       </c>
-      <c r="BL26" s="44">
+      <c r="BM26" s="44">
         <f t="shared" si="17"/>
-        <v>57.6</v>
-      </c>
-      <c r="BM26" s="44">
+        <v>63.9</v>
+      </c>
+      <c r="BN26" s="44">
         <f t="shared" si="18"/>
-        <v>59.13</v>
-      </c>
-      <c r="BN26" s="44">
-        <f t="shared" si="19"/>
         <v>46.17</v>
       </c>
       <c r="BO26" s="44"/>
@@ -7656,27 +7751,27 @@
         <v>2355</v>
       </c>
       <c r="BI27" s="44">
+        <f>430+1793</f>
+        <v>2223</v>
+      </c>
+      <c r="BJ27" s="44">
         <f t="shared" si="14"/>
-        <v>1962.9</v>
-      </c>
-      <c r="BJ27" s="44">
+        <v>2000.7</v>
+      </c>
+      <c r="BK27" s="44">
         <f t="shared" si="15"/>
+        <v>2057.4</v>
+      </c>
+      <c r="BL27" s="44">
+        <f t="shared" si="16"/>
+        <v>2119.5</v>
+      </c>
+      <c r="BM27" s="44">
+        <f t="shared" si="17"/>
         <v>2000.7</v>
       </c>
-      <c r="BK27" s="44">
-        <f t="shared" si="16"/>
-        <v>2057.4</v>
-      </c>
-      <c r="BL27" s="44">
-        <f t="shared" si="17"/>
-        <v>2119.5</v>
-      </c>
-      <c r="BM27" s="44">
+      <c r="BN27" s="44">
         <f t="shared" si="18"/>
-        <v>1766.6100000000001</v>
-      </c>
-      <c r="BN27" s="44">
-        <f t="shared" si="19"/>
         <v>1800.63</v>
       </c>
       <c r="BO27" s="44"/>
@@ -7903,7 +7998,7 @@
         <v>4401</v>
       </c>
       <c r="CC28" s="44">
-        <f t="shared" ref="CC28:CD30" si="20">SUM(K28:N28)</f>
+        <f t="shared" ref="CC28:CC30" si="19">SUM(K28:N28)</f>
         <v>4803</v>
       </c>
       <c r="CD28" s="44">
@@ -8084,7 +8179,7 @@
         <v>1744</v>
       </c>
       <c r="CC29" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1892</v>
       </c>
       <c r="CD29" s="44">
@@ -8282,7 +8377,7 @@
         <v>359</v>
       </c>
       <c r="CC30" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>341</v>
       </c>
       <c r="CD30" s="44">
@@ -8357,55 +8452,55 @@
         <v>211</v>
       </c>
       <c r="C31" s="15">
-        <f>SUM(C10:C30)</f>
+        <f t="shared" ref="C31:O31" si="20">SUM(C10:C30)</f>
         <v>10614</v>
       </c>
       <c r="D31" s="15">
-        <f>SUM(D10:D30)</f>
+        <f t="shared" si="20"/>
         <v>11110</v>
       </c>
       <c r="E31" s="15">
-        <f>SUM(E10:E30)</f>
+        <f t="shared" si="20"/>
         <v>11246</v>
       </c>
       <c r="F31" s="15">
-        <f>SUM(F10:F30)</f>
+        <f t="shared" si="20"/>
         <v>12583</v>
       </c>
       <c r="G31" s="15">
-        <f>SUM(G10:G30)</f>
+        <f t="shared" si="20"/>
         <v>12498</v>
       </c>
       <c r="H31" s="15">
-        <f>SUM(H10:H30)</f>
+        <f t="shared" si="20"/>
         <v>13001</v>
       </c>
       <c r="I31" s="15">
-        <f>SUM(I10:I30)</f>
+        <f t="shared" si="20"/>
         <v>12545</v>
       </c>
       <c r="J31" s="15">
-        <f>SUM(J10:J30)</f>
+        <f t="shared" si="20"/>
         <v>13121</v>
       </c>
       <c r="K31" s="15">
-        <f>SUM(K10:K30)</f>
+        <f t="shared" si="20"/>
         <v>13674</v>
       </c>
       <c r="L31" s="15">
-        <f>SUM(L10:L30)</f>
+        <f t="shared" si="20"/>
         <v>15394</v>
       </c>
       <c r="M31" s="15">
-        <f>SUM(M10:M30)</f>
+        <f t="shared" si="20"/>
         <v>15584</v>
       </c>
       <c r="N31" s="15">
-        <f>SUM(N10:N30)</f>
+        <f t="shared" si="20"/>
         <v>16124</v>
       </c>
       <c r="O31" s="15">
-        <f>SUM(O10:O30)</f>
+        <f t="shared" si="20"/>
         <v>15693</v>
       </c>
       <c r="P31" s="15"/>
@@ -8500,84 +8595,84 @@
         <v>0</v>
       </c>
       <c r="AU31" s="15">
-        <f>SUM(AU12:AU27)</f>
+        <f t="shared" ref="AU31:BN31" si="22">SUM(AU12:AU27)</f>
         <v>0</v>
       </c>
       <c r="AV31" s="15">
-        <f>SUM(AV12:AV27)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW31" s="15">
-        <f>SUM(AW12:AW27)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AX31" s="15">
-        <f>SUM(AX12:AX27)</f>
+        <f t="shared" si="22"/>
         <v>32417</v>
       </c>
       <c r="AY31" s="15">
-        <f>SUM(AY12:AY27)</f>
+        <f t="shared" si="22"/>
         <v>33875</v>
       </c>
       <c r="AZ31" s="15">
-        <f>SUM(AZ12:AZ27)</f>
+        <f t="shared" si="22"/>
         <v>30006</v>
       </c>
       <c r="BA31" s="15">
-        <f>SUM(BA12:BA27)</f>
+        <f t="shared" si="22"/>
         <v>30927</v>
       </c>
       <c r="BB31" s="15">
-        <f>SUM(BB12:BB27)</f>
+        <f t="shared" si="22"/>
         <v>32138</v>
       </c>
       <c r="BC31" s="15">
-        <f>SUM(BC12:BC27)</f>
+        <f t="shared" si="22"/>
         <v>33804</v>
       </c>
       <c r="BD31" s="15">
-        <f>SUM(BD12:BD27)</f>
+        <f t="shared" si="22"/>
         <v>33041</v>
       </c>
       <c r="BE31" s="15">
-        <f>SUM(BE12:BE27)</f>
+        <f t="shared" si="22"/>
         <v>35622</v>
       </c>
       <c r="BF31" s="15">
-        <f>SUM(BF12:BF27)</f>
+        <f t="shared" si="22"/>
         <v>38333</v>
       </c>
       <c r="BG31" s="15">
-        <f>SUM(BG12:BG27)</f>
+        <f t="shared" si="22"/>
         <v>42031</v>
       </c>
       <c r="BH31" s="15">
-        <f>SUM(BH12:BH27)</f>
+        <f t="shared" si="22"/>
         <v>41265</v>
       </c>
       <c r="BI31" s="15">
-        <f>SUM(BI12:BI27)</f>
-        <v>43012.3</v>
+        <f t="shared" si="22"/>
+        <v>45566</v>
       </c>
       <c r="BJ31" s="15">
-        <f>SUM(BJ12:BJ27)</f>
-        <v>44742.140000000007</v>
+        <f t="shared" si="22"/>
+        <v>44218.140000000007</v>
       </c>
       <c r="BK31" s="15">
-        <f>SUM(BK12:BK27)</f>
-        <v>48097.16</v>
+        <f t="shared" si="22"/>
+        <v>47573.16</v>
       </c>
       <c r="BL31" s="15">
-        <f>SUM(BL12:BL27)</f>
-        <v>47779.239999999991</v>
+        <f t="shared" si="22"/>
+        <v>47255.239999999991</v>
       </c>
       <c r="BM31" s="15">
-        <f>SUM(BM12:BM27)</f>
-        <v>49692.234000000004</v>
+        <f t="shared" si="22"/>
+        <v>53159.38</v>
       </c>
       <c r="BN31" s="15">
-        <f>SUM(BN12:BN27)</f>
-        <v>51764.149199999993</v>
+        <f t="shared" si="22"/>
+        <v>51240.149199999993</v>
       </c>
       <c r="BO31" s="15"/>
       <c r="BP31" s="13"/>
@@ -8655,35 +8750,35 @@
         <v>140</v>
       </c>
       <c r="C32" s="44">
-        <f t="shared" ref="C32:J32" si="22">C31-C33</f>
+        <f t="shared" ref="C32:J32" si="23">C31-C33</f>
         <v>2413</v>
       </c>
       <c r="D32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2554</v>
       </c>
       <c r="E32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2606</v>
       </c>
       <c r="F32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2536</v>
       </c>
       <c r="G32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2508</v>
       </c>
       <c r="H32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2610</v>
       </c>
       <c r="I32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2713</v>
       </c>
       <c r="J32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2694</v>
       </c>
       <c r="K32" s="44">
@@ -8748,19 +8843,19 @@
         <v>5432</v>
       </c>
       <c r="AY32" s="44">
-        <f t="shared" ref="AY32:BB32" si="23">AY31-AY33</f>
+        <f t="shared" ref="AY32:BB32" si="24">AY31-AY33</f>
         <v>5386</v>
       </c>
       <c r="AZ32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4772</v>
       </c>
       <c r="BA32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5155</v>
       </c>
       <c r="BB32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5619</v>
       </c>
       <c r="BC32" s="44">
@@ -8786,28 +8881,27 @@
         <v>6069</v>
       </c>
       <c r="BI32" s="44">
-        <f>+BI31-BI33</f>
-        <v>6451.8450000000012</v>
+        <v>7200</v>
       </c>
       <c r="BJ32" s="44">
-        <f t="shared" ref="BJ32:BN32" si="24">+BJ31-BJ33</f>
-        <v>6711.3210000000036</v>
+        <f t="shared" ref="BJ32:BN32" si="25">+BJ31-BJ33</f>
+        <v>6632.721000000005</v>
       </c>
       <c r="BK32" s="44">
-        <f t="shared" si="24"/>
-        <v>6733.6024000000034</v>
+        <f t="shared" si="25"/>
+        <v>6660.2424000000028</v>
       </c>
       <c r="BL32" s="44">
-        <f t="shared" si="24"/>
-        <v>6689.0936000000002</v>
+        <f t="shared" si="25"/>
+        <v>6615.7335999999996</v>
       </c>
       <c r="BM32" s="44">
-        <f t="shared" si="24"/>
-        <v>6459.9904200000019</v>
+        <f t="shared" si="25"/>
+        <v>6910.7194000000018</v>
       </c>
       <c r="BN32" s="44">
-        <f t="shared" si="24"/>
-        <v>6729.3393959999958</v>
+        <f t="shared" si="25"/>
+        <v>6661.2193960000004</v>
       </c>
       <c r="BO32" s="44"/>
       <c r="BP32" s="44"/>
@@ -9027,28 +9121,28 @@
         <v>35196</v>
       </c>
       <c r="BI33" s="44">
-        <f>+BI31*0.85</f>
-        <v>36560.455000000002</v>
+        <f>+BI31-BI32</f>
+        <v>38366</v>
       </c>
       <c r="BJ33" s="44">
-        <f t="shared" ref="BJ33" si="25">+BJ31*0.85</f>
-        <v>38030.819000000003</v>
+        <f t="shared" ref="BJ33" si="26">+BJ31*0.85</f>
+        <v>37585.419000000002</v>
       </c>
       <c r="BK33" s="44">
         <f>+BK31*0.86</f>
-        <v>41363.5576</v>
+        <v>40912.917600000001</v>
       </c>
       <c r="BL33" s="44">
         <f>+BL31*0.86</f>
-        <v>41090.146399999991</v>
+        <v>40639.506399999991</v>
       </c>
       <c r="BM33" s="44">
         <f>+BM31*0.87</f>
-        <v>43232.243580000002</v>
+        <v>46248.660599999996</v>
       </c>
       <c r="BN33" s="44">
         <f>+BN31*0.87</f>
-        <v>45034.809803999997</v>
+        <v>44578.929803999992</v>
       </c>
       <c r="BO33" s="44"/>
       <c r="BP33" s="44"/>
@@ -9281,28 +9375,27 @@
         <v>10840</v>
       </c>
       <c r="BI34" s="44">
-        <f>+BI31*0.26</f>
-        <v>11183.198</v>
+        <v>11451</v>
       </c>
       <c r="BJ34" s="44">
         <f>+BJ31*0.3</f>
-        <v>13422.642000000002</v>
+        <v>13265.442000000001</v>
       </c>
       <c r="BK34" s="44">
         <f>+BK31*0.24</f>
-        <v>11543.3184</v>
+        <v>11417.5584</v>
       </c>
       <c r="BL34" s="44">
         <f>+BL31*0.24</f>
-        <v>11467.017599999997</v>
+        <v>11341.257599999997</v>
       </c>
       <c r="BM34" s="44">
         <f>+BM31*0.26</f>
-        <v>12919.980840000002</v>
+        <v>13821.4388</v>
       </c>
       <c r="BN34" s="44">
         <f>+BN31*0.3</f>
-        <v>15529.244759999998</v>
+        <v>15372.044759999997</v>
       </c>
       <c r="BO34" s="44"/>
       <c r="BP34" s="44"/>
@@ -9530,28 +9623,27 @@
         <v>5123</v>
       </c>
       <c r="BI35" s="44">
-        <f>+BI31*0.11</f>
-        <v>4731.3530000000001</v>
+        <v>5633</v>
       </c>
       <c r="BJ35" s="44">
-        <f t="shared" ref="BJ35:BN35" si="26">+BJ31*0.11</f>
-        <v>4921.635400000001</v>
+        <f t="shared" ref="BJ35:BN35" si="27">+BJ31*0.11</f>
+        <v>4863.9954000000007</v>
       </c>
       <c r="BK35" s="44">
-        <f t="shared" si="26"/>
-        <v>5290.6876000000002</v>
+        <f t="shared" si="27"/>
+        <v>5233.0476000000008</v>
       </c>
       <c r="BL35" s="44">
-        <f t="shared" si="26"/>
-        <v>5255.7163999999993</v>
+        <f t="shared" si="27"/>
+        <v>5198.076399999999</v>
       </c>
       <c r="BM35" s="44">
-        <f t="shared" si="26"/>
-        <v>5466.1457400000008</v>
+        <f t="shared" si="27"/>
+        <v>5847.5317999999997</v>
       </c>
       <c r="BN35" s="44">
-        <f t="shared" si="26"/>
-        <v>5694.056411999999</v>
+        <f t="shared" si="27"/>
+        <v>5636.4164119999996</v>
       </c>
       <c r="BO35" s="44"/>
       <c r="BP35" s="44"/>
@@ -9776,27 +9868,26 @@
         <v>991</v>
       </c>
       <c r="BI36" s="44">
-        <f>+BE36*1.01</f>
-        <v>1034.24</v>
+        <v>1158</v>
       </c>
       <c r="BJ36" s="44">
-        <f t="shared" ref="BJ36:BN36" si="27">+BF36*1.01</f>
+        <f t="shared" ref="BJ36:BN36" si="28">+BF36*1.01</f>
         <v>1201.9000000000001</v>
       </c>
       <c r="BK36" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>979.7</v>
       </c>
       <c r="BL36" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1000.91</v>
       </c>
       <c r="BM36" s="44">
-        <f t="shared" si="27"/>
-        <v>1044.5824</v>
+        <f t="shared" si="28"/>
+        <v>1169.58</v>
       </c>
       <c r="BN36" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1213.9190000000001</v>
       </c>
       <c r="BO36" s="44"/>
@@ -10022,28 +10113,27 @@
         <v>-149</v>
       </c>
       <c r="BI37" s="44">
-        <f t="shared" ref="BI37:BN37" si="28">AVERAGE(BE37:BH37)</f>
-        <v>-154.5</v>
+        <v>-60</v>
       </c>
       <c r="BJ37" s="44">
-        <f t="shared" si="28"/>
-        <v>-172.875</v>
+        <f t="shared" ref="BJ37:BN37" si="29">AVERAGE(BF37:BI37)</f>
+        <v>-149.25</v>
       </c>
       <c r="BK37" s="44">
-        <f t="shared" si="28"/>
-        <v>-217.09375</v>
+        <f t="shared" si="29"/>
+        <v>-187.5625</v>
       </c>
       <c r="BL37" s="44">
-        <f t="shared" si="28"/>
-        <v>-173.3671875</v>
+        <f t="shared" si="29"/>
+        <v>-136.453125</v>
       </c>
       <c r="BM37" s="44">
-        <f t="shared" si="28"/>
-        <v>-179.458984375</v>
+        <f t="shared" si="29"/>
+        <v>-133.31640625</v>
       </c>
       <c r="BN37" s="44">
-        <f t="shared" si="28"/>
-        <v>-185.69873046875</v>
+        <f t="shared" si="29"/>
+        <v>-151.6455078125</v>
       </c>
       <c r="BO37" s="44"/>
       <c r="BP37" s="44"/>
@@ -10146,39 +10236,39 @@
         <v>144</v>
       </c>
       <c r="C38" s="44">
-        <f t="shared" ref="C38:K38" si="29">SUM(C34:C36)-C37</f>
+        <f t="shared" ref="C38:K38" si="30">SUM(C34:C36)-C37</f>
         <v>5152</v>
       </c>
       <c r="D38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5555</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5366</v>
       </c>
       <c r="F38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6673</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6180</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6301</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6018</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7208</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6602</v>
       </c>
       <c r="L38" s="44">
@@ -10235,72 +10325,72 @@
       <c r="AV38" s="44"/>
       <c r="AW38" s="44"/>
       <c r="AX38" s="44">
-        <f t="shared" ref="AX38:BB38" si="30">SUM(AX34:AX37)</f>
+        <f t="shared" ref="AX38:BB38" si="31">SUM(AX34:AX37)</f>
         <v>15112</v>
       </c>
       <c r="AY38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12187</v>
       </c>
       <c r="AZ38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11396</v>
       </c>
       <c r="BA38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12964</v>
       </c>
       <c r="BB38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15341</v>
       </c>
       <c r="BC38" s="44">
-        <f t="shared" ref="BC38:BH38" si="31">SUM(BC34:BC37)</f>
+        <f t="shared" ref="BC38:BH38" si="32">SUM(BC34:BC37)</f>
         <v>13011</v>
       </c>
       <c r="BD38" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12715</v>
       </c>
       <c r="BE38" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14314</v>
       </c>
       <c r="BF38" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18458</v>
       </c>
       <c r="BG38" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15967</v>
       </c>
       <c r="BH38" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>16805</v>
       </c>
       <c r="BI38" s="44">
-        <f t="shared" ref="BI38:BN38" si="32">SUM(BI34:BI37)</f>
-        <v>16794.291000000001</v>
+        <f t="shared" ref="BI38:BN38" si="33">SUM(BI34:BI37)</f>
+        <v>18182</v>
       </c>
       <c r="BJ38" s="44">
-        <f t="shared" si="32"/>
-        <v>19373.302400000004</v>
+        <f t="shared" si="33"/>
+        <v>19182.087400000004</v>
       </c>
       <c r="BK38" s="44">
-        <f t="shared" si="32"/>
-        <v>17596.612250000002</v>
+        <f t="shared" si="33"/>
+        <v>17442.7435</v>
       </c>
       <c r="BL38" s="44">
-        <f t="shared" si="32"/>
-        <v>17550.276812499997</v>
+        <f t="shared" si="33"/>
+        <v>17403.790874999995</v>
       </c>
       <c r="BM38" s="44">
-        <f t="shared" si="32"/>
-        <v>19251.249995625003</v>
+        <f t="shared" si="33"/>
+        <v>20705.234193750002</v>
       </c>
       <c r="BN38" s="44">
-        <f t="shared" si="32"/>
-        <v>22251.521441531248</v>
+        <f t="shared" si="33"/>
+        <v>22070.734664187497</v>
       </c>
       <c r="BO38" s="44"/>
       <c r="BP38" s="44"/>
@@ -10367,15 +10457,15 @@
         <v>46138</v>
       </c>
       <c r="CK38" s="46">
-        <f t="shared" ref="CK38:CN38" si="33">SUM(CK34:CK36)</f>
+        <f t="shared" ref="CK38:CM38" si="34">SUM(CK34:CK36)</f>
         <v>48118</v>
       </c>
       <c r="CL38" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>50050</v>
       </c>
       <c r="CM38" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>52348</v>
       </c>
       <c r="CN38" s="46">
@@ -10435,39 +10525,39 @@
         <v>204</v>
       </c>
       <c r="C39" s="44">
-        <f t="shared" ref="C39:K39" si="34">C33-C38</f>
+        <f t="shared" ref="C39:K39" si="35">C33-C38</f>
         <v>3049</v>
       </c>
       <c r="D39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3001</v>
       </c>
       <c r="E39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3274</v>
       </c>
       <c r="F39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3374</v>
       </c>
       <c r="G39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3810</v>
       </c>
       <c r="H39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4090</v>
       </c>
       <c r="I39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3814</v>
       </c>
       <c r="J39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3219</v>
       </c>
       <c r="K39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4382</v>
       </c>
       <c r="L39" s="44">
@@ -10524,72 +10614,72 @@
       <c r="AV39" s="44"/>
       <c r="AW39" s="44"/>
       <c r="AX39" s="44">
-        <f t="shared" ref="AX39:BB39" si="35">AX33-AX38</f>
+        <f t="shared" ref="AX39:BB39" si="36">AX33-AX38</f>
         <v>11873</v>
       </c>
       <c r="AY39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>16302</v>
       </c>
       <c r="AZ39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13838</v>
       </c>
       <c r="BA39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>12808</v>
       </c>
       <c r="BB39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>11178</v>
       </c>
       <c r="BC39" s="44">
-        <f t="shared" ref="BC39:BH39" si="36">BC33-BC38</f>
+        <f t="shared" ref="BC39:BH39" si="37">BC33-BC38</f>
         <v>14982</v>
       </c>
       <c r="BD39" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14779</v>
       </c>
       <c r="BE39" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15249</v>
       </c>
       <c r="BF39" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13634</v>
       </c>
       <c r="BG39" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>19147</v>
       </c>
       <c r="BH39" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18391</v>
       </c>
       <c r="BI39" s="44">
-        <f t="shared" ref="BI39:BN39" si="37">BI33-BI38</f>
-        <v>19766.164000000001</v>
+        <f t="shared" ref="BI39:BN39" si="38">BI33-BI38</f>
+        <v>20184</v>
       </c>
       <c r="BJ39" s="44">
-        <f t="shared" si="37"/>
-        <v>18657.516599999999</v>
+        <f t="shared" si="38"/>
+        <v>18403.331599999998</v>
       </c>
       <c r="BK39" s="44">
-        <f t="shared" si="37"/>
-        <v>23766.945349999998</v>
+        <f t="shared" si="38"/>
+        <v>23470.1741</v>
       </c>
       <c r="BL39" s="44">
-        <f t="shared" si="37"/>
-        <v>23539.869587499994</v>
+        <f t="shared" si="38"/>
+        <v>23235.715524999996</v>
       </c>
       <c r="BM39" s="44">
-        <f t="shared" si="37"/>
-        <v>23980.993584374999</v>
+        <f t="shared" si="38"/>
+        <v>25543.426406249993</v>
       </c>
       <c r="BN39" s="44">
-        <f t="shared" si="37"/>
-        <v>22783.288362468749</v>
+        <f t="shared" si="38"/>
+        <v>22508.195139812495</v>
       </c>
       <c r="BO39" s="44"/>
       <c r="BP39" s="44"/>
@@ -10621,11 +10711,11 @@
       <c r="BZ39" s="44"/>
       <c r="CA39" s="44"/>
       <c r="CB39" s="44">
-        <f t="shared" ref="CB39:CI39" si="38">CB33-CB38</f>
+        <f t="shared" ref="CB39:CI39" si="39">CB33-CB38</f>
         <v>14592</v>
       </c>
       <c r="CC39" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>18891</v>
       </c>
       <c r="CD39" s="44">
@@ -10637,19 +10727,19 @@
         <v>29474</v>
       </c>
       <c r="CF39" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="CG39" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>34492</v>
       </c>
       <c r="CH39" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>49444</v>
       </c>
       <c r="CI39" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>48432</v>
       </c>
       <c r="CJ39" s="46">
@@ -10657,19 +10747,19 @@
         <v>47926</v>
       </c>
       <c r="CK39" s="46">
-        <f t="shared" ref="CK39:CN39" si="39">CK33-CK38</f>
+        <f t="shared" ref="CK39:CN39" si="40">CK33-CK38</f>
         <v>46096</v>
       </c>
       <c r="CL39" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>51883</v>
       </c>
       <c r="CM39" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>53666</v>
       </c>
       <c r="CN39" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>58312</v>
       </c>
       <c r="CO39" s="46"/>
@@ -11187,57 +11277,57 @@
         <v>1596</v>
       </c>
       <c r="BI42" s="44">
-        <f>AVERAGE(BE42:BH42)</f>
-        <v>870.5</v>
+        <f>-1573+3725</f>
+        <v>2152</v>
       </c>
       <c r="BJ42" s="44">
-        <f t="shared" ref="BJ42:BN42" si="40">AVERAGE(BF42:BI42)</f>
-        <v>1053.875</v>
+        <f t="shared" ref="BJ42:BN42" si="41">AVERAGE(BF42:BI42)</f>
+        <v>1374.25</v>
       </c>
       <c r="BK42" s="44">
-        <f t="shared" si="40"/>
-        <v>1187.09375</v>
+        <f t="shared" si="41"/>
+        <v>1587.5625</v>
       </c>
       <c r="BL42" s="44">
-        <f t="shared" si="40"/>
-        <v>1176.8671875</v>
+        <f t="shared" si="41"/>
+        <v>1677.453125</v>
       </c>
       <c r="BM42" s="44">
-        <f t="shared" si="40"/>
-        <v>1072.083984375</v>
+        <f t="shared" si="41"/>
+        <v>1697.81640625</v>
       </c>
       <c r="BN42" s="44">
-        <f t="shared" si="40"/>
-        <v>1122.47998046875</v>
+        <f t="shared" si="41"/>
+        <v>1584.2705078125</v>
       </c>
       <c r="BO42" s="44"/>
       <c r="BP42" s="44"/>
       <c r="BQ42" s="44">
-        <f t="shared" ref="BQ42:BW42" si="41">BQ38+SUM(BQ39:BQ41)</f>
+        <f t="shared" ref="BQ42:BW42" si="42">BQ38+SUM(BQ39:BQ41)</f>
         <v>3176</v>
       </c>
       <c r="BR42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3349</v>
       </c>
       <c r="BS42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4884</v>
       </c>
       <c r="BT42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5695</v>
       </c>
       <c r="BU42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6328</v>
       </c>
       <c r="BV42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>954</v>
       </c>
       <c r="BW42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>477</v>
       </c>
       <c r="BX42" s="38"/>
@@ -11328,55 +11418,55 @@
         <v>205</v>
       </c>
       <c r="C43" s="44">
-        <f t="shared" ref="C43:O43" si="42">SUM(C39:C42)</f>
+        <f t="shared" ref="C43:O43" si="43">SUM(C39:C42)</f>
         <v>3824</v>
       </c>
       <c r="D43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3406</v>
       </c>
       <c r="E43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3588</v>
       </c>
       <c r="F43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3070</v>
       </c>
       <c r="G43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3505</v>
       </c>
       <c r="H43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3884</v>
       </c>
       <c r="I43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3607</v>
       </c>
       <c r="J43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2992</v>
       </c>
       <c r="K43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4317</v>
       </c>
       <c r="L43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4608</v>
       </c>
       <c r="M43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4656</v>
       </c>
       <c r="N43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4907.2000000000007</v>
       </c>
       <c r="O43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5290</v>
       </c>
       <c r="P43" s="44"/>
@@ -11417,23 +11507,23 @@
       <c r="AV43" s="44"/>
       <c r="AW43" s="44"/>
       <c r="AX43" s="44">
-        <f t="shared" ref="AX43:BB43" si="43">AX39-AX42</f>
+        <f t="shared" ref="AX43:BB43" si="44">AX39-AX42</f>
         <v>11079</v>
       </c>
       <c r="AY43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>15021</v>
       </c>
       <c r="AZ43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13416</v>
       </c>
       <c r="BA43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>12691</v>
       </c>
       <c r="BB43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>12002</v>
       </c>
       <c r="BC43" s="44">
@@ -11445,44 +11535,44 @@
         <v>14917</v>
       </c>
       <c r="BE43" s="44">
-        <f t="shared" ref="BE43:BN43" si="44">BE39-BE42</f>
+        <f t="shared" ref="BE43:BN43" si="45">BE39-BE42</f>
         <v>15112</v>
       </c>
       <c r="BF43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13113</v>
       </c>
       <c r="BG43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>17919</v>
       </c>
       <c r="BH43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>16795</v>
       </c>
       <c r="BI43" s="44">
-        <f t="shared" si="44"/>
-        <v>18895.664000000001</v>
+        <f t="shared" si="45"/>
+        <v>18032</v>
       </c>
       <c r="BJ43" s="44">
-        <f t="shared" si="44"/>
-        <v>17603.641599999999</v>
+        <f t="shared" si="45"/>
+        <v>17029.081599999998</v>
       </c>
       <c r="BK43" s="44">
-        <f t="shared" si="44"/>
-        <v>22579.851599999998</v>
+        <f t="shared" si="45"/>
+        <v>21882.6116</v>
       </c>
       <c r="BL43" s="44">
-        <f t="shared" si="44"/>
-        <v>22363.002399999994</v>
+        <f t="shared" si="45"/>
+        <v>21558.262399999996</v>
       </c>
       <c r="BM43" s="44">
-        <f t="shared" si="44"/>
-        <v>22908.909599999999</v>
+        <f t="shared" si="45"/>
+        <v>23845.609999999993</v>
       </c>
       <c r="BN43" s="44">
-        <f t="shared" si="44"/>
-        <v>21660.808381999999</v>
+        <f t="shared" si="45"/>
+        <v>20923.924631999995</v>
       </c>
       <c r="BO43" s="44"/>
       <c r="BP43" s="44"/>
@@ -11508,23 +11598,23 @@
       <c r="BZ43" s="44"/>
       <c r="CA43" s="44"/>
       <c r="CB43" s="44">
-        <f t="shared" ref="CB43:CI43" si="45">CB39+SUM(CB40:CB42)</f>
+        <f t="shared" ref="CB43:CF43" si="46">CB39+SUM(CB40:CB42)</f>
         <v>14592</v>
       </c>
       <c r="CC43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18286</v>
       </c>
       <c r="CD43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21925</v>
       </c>
       <c r="CE43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>27811</v>
       </c>
       <c r="CF43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="CG43" s="44">
@@ -11597,35 +11687,35 @@
         <v>210</v>
       </c>
       <c r="C44" s="44">
-        <f t="shared" ref="C44:J44" si="46">C43-C45</f>
+        <f t="shared" ref="C44:J44" si="47">C43-C45</f>
         <v>1644</v>
       </c>
       <c r="D44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>935</v>
       </c>
       <c r="E44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>924</v>
       </c>
       <c r="F44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>740</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>806</v>
       </c>
       <c r="H44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>893</v>
       </c>
       <c r="I44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>852</v>
       </c>
       <c r="J44" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>669</v>
       </c>
       <c r="K44" s="44">
@@ -11716,57 +11806,56 @@
         <v>3477</v>
       </c>
       <c r="BI44" s="44">
-        <f>+BI43*0.2</f>
-        <v>3779.1328000000003</v>
+        <v>3627</v>
       </c>
       <c r="BJ44" s="44">
-        <f t="shared" ref="BJ44:BN44" si="47">+BJ43*0.2</f>
-        <v>3520.7283200000002</v>
+        <f t="shared" ref="BJ44:BN44" si="48">+BJ43*0.2</f>
+        <v>3405.8163199999999</v>
       </c>
       <c r="BK44" s="44">
-        <f t="shared" si="47"/>
-        <v>4515.9703199999994</v>
+        <f t="shared" si="48"/>
+        <v>4376.52232</v>
       </c>
       <c r="BL44" s="44">
-        <f t="shared" si="47"/>
-        <v>4472.6004799999992</v>
+        <f t="shared" si="48"/>
+        <v>4311.6524799999997</v>
       </c>
       <c r="BM44" s="44">
-        <f t="shared" si="47"/>
-        <v>4581.7819200000004</v>
+        <f t="shared" si="48"/>
+        <v>4769.1219999999985</v>
       </c>
       <c r="BN44" s="44">
-        <f t="shared" si="47"/>
-        <v>4332.1616764</v>
+        <f t="shared" si="48"/>
+        <v>4184.7849263999988</v>
       </c>
       <c r="BO44" s="44"/>
       <c r="BP44" s="44"/>
       <c r="BQ44" s="44">
-        <f t="shared" ref="BQ44:BW44" si="48">BQ42+BQ43</f>
+        <f t="shared" ref="BQ44:BW44" si="49">BQ42+BQ43</f>
         <v>2016</v>
       </c>
       <c r="BR44" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2001</v>
       </c>
       <c r="BS44" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3154</v>
       </c>
       <c r="BT44" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3620</v>
       </c>
       <c r="BU44" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4116</v>
       </c>
       <c r="BV44" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>954</v>
       </c>
       <c r="BW44" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>477</v>
       </c>
       <c r="BX44" s="38"/>
@@ -11935,23 +12024,23 @@
       <c r="AV45" s="44"/>
       <c r="AW45" s="44"/>
       <c r="AX45" s="44">
-        <f t="shared" ref="AX45:BB45" si="49">AX43-AX44</f>
+        <f t="shared" ref="AX45:BB45" si="50">AX43-AX44</f>
         <v>8717</v>
       </c>
       <c r="AY45" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>11897</v>
       </c>
       <c r="AZ45" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>10625</v>
       </c>
       <c r="BA45" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>10298</v>
       </c>
       <c r="BB45" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9318</v>
       </c>
       <c r="BC45" s="44">
@@ -11963,15 +12052,15 @@
         <v>12123</v>
       </c>
       <c r="BE45" s="44">
-        <f t="shared" ref="BE45:BG45" si="50">BE43-BE44</f>
+        <f t="shared" ref="BE45:BG45" si="51">BE43-BE44</f>
         <v>12119</v>
       </c>
       <c r="BF45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>10892</v>
       </c>
       <c r="BG45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>14210</v>
       </c>
       <c r="BH45" s="44">
@@ -11979,49 +12068,49 @@
         <v>13318</v>
       </c>
       <c r="BI45" s="44">
-        <f t="shared" ref="BI45:BN45" si="51">BI43-BI44</f>
-        <v>15116.531200000001</v>
+        <f t="shared" ref="BI45:BN45" si="52">BI43-BI44</f>
+        <v>14405</v>
       </c>
       <c r="BJ45" s="44">
-        <f t="shared" si="51"/>
-        <v>14082.913279999999</v>
+        <f t="shared" si="52"/>
+        <v>13623.265279999998</v>
       </c>
       <c r="BK45" s="44">
-        <f t="shared" si="51"/>
-        <v>18063.881279999998</v>
+        <f t="shared" si="52"/>
+        <v>17506.08928</v>
       </c>
       <c r="BL45" s="44">
-        <f t="shared" si="51"/>
-        <v>17890.401919999997</v>
+        <f t="shared" si="52"/>
+        <v>17246.609919999995</v>
       </c>
       <c r="BM45" s="44">
-        <f t="shared" si="51"/>
-        <v>18327.127679999998</v>
+        <f t="shared" si="52"/>
+        <v>19076.487999999994</v>
       </c>
       <c r="BN45" s="44">
-        <f t="shared" si="51"/>
-        <v>17328.6467056</v>
+        <f t="shared" si="52"/>
+        <v>16739.139705599995</v>
       </c>
       <c r="BO45" s="44"/>
       <c r="BP45" s="44"/>
       <c r="BQ45" s="11">
-        <f t="shared" ref="BQ45:BU45" si="52">BQ44/BQ46</f>
+        <f t="shared" ref="BQ45:BU45" si="53">BQ44/BQ46</f>
         <v>5.4339622641509431</v>
       </c>
       <c r="BR45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.5909784351966199</v>
       </c>
       <c r="BS45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.0298275927642493</v>
       </c>
       <c r="BT45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10.449736117774917</v>
       </c>
       <c r="BU45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>11.849703476124272</v>
       </c>
       <c r="BV45" s="11"/>
@@ -12031,7 +12120,7 @@
       <c r="BZ45" s="44"/>
       <c r="CA45" s="44"/>
       <c r="CB45" s="44">
-        <f t="shared" ref="CB45:CI45" si="53">CB43-CB44</f>
+        <f t="shared" ref="CB45:CI45" si="54">CB43-CB44</f>
         <v>9484.7999999999993</v>
       </c>
       <c r="CC45" s="44">
@@ -12039,27 +12128,27 @@
         <v>14403</v>
       </c>
       <c r="CD45" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>17097</v>
       </c>
       <c r="CE45" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>21432</v>
       </c>
       <c r="CF45" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="CG45" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>26481</v>
       </c>
       <c r="CH45" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>34860</v>
       </c>
       <c r="CI45" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>37925</v>
       </c>
       <c r="CJ45" s="46"/>
@@ -12068,187 +12157,187 @@
       <c r="CM45" s="46"/>
       <c r="CN45" s="46"/>
       <c r="CO45" s="46">
-        <f t="shared" ref="CO45:DN45" si="54">CN45*(1+$CZ$49)</f>
+        <f t="shared" ref="CO45:DN45" si="55">CN45*(1+$CZ$49)</f>
         <v>0</v>
       </c>
       <c r="CP45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CQ45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CR45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CS45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CT45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CU45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CV45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CW45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CX45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CY45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="CZ45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DA45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DB45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DC45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DD45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DE45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DF45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DG45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DH45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DI45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DJ45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DK45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DL45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DM45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DN45" s="46">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="DO45" s="46">
-        <f t="shared" ref="DO45:EH45" si="55">DN45*(1+$CZ$49)</f>
-        <v>0</v>
-      </c>
-      <c r="DP45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DQ45" s="46">
+      <c r="CQ45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DR45" s="46">
+      <c r="CR45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DS45" s="46">
+      <c r="CS45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DT45" s="46">
+      <c r="CT45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DU45" s="46">
+      <c r="CU45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DV45" s="46">
+      <c r="CV45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DW45" s="46">
+      <c r="CW45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DX45" s="46">
+      <c r="CX45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DY45" s="46">
+      <c r="CY45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="DZ45" s="46">
+      <c r="CZ45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="EA45" s="46">
+      <c r="DA45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="EB45" s="46">
+      <c r="DB45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="EC45" s="46">
+      <c r="DC45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="ED45" s="46">
+      <c r="DD45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="EE45" s="46">
+      <c r="DE45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="EF45" s="46">
+      <c r="DF45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="EG45" s="46">
+      <c r="DG45" s="46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
+      <c r="DH45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DI45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DJ45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DK45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DL45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DM45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DN45" s="46">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DO45" s="46">
+        <f t="shared" ref="DO45:EH45" si="56">DN45*(1+$CZ$49)</f>
+        <v>0</v>
+      </c>
+      <c r="DP45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DQ45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DR45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DS45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DT45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DU45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DV45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DW45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DX45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DY45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="DZ45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="EA45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="EB45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="EC45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="ED45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="EE45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="EF45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="EG45" s="46">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="EH45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -12258,35 +12347,35 @@
         <v>147</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:J46" si="56">C45/C47</f>
+        <f t="shared" ref="C46:J46" si="57">C45/C47</f>
         <v>3.4807600191601473</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.994503718073068</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.3359375</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.7923177083333335</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.4050922147870084</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.9202171409771349</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.5809777186564684</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.9028897849462361</v>
       </c>
       <c r="K46" s="11">
@@ -12347,23 +12436,23 @@
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11">
-        <f t="shared" ref="AX46:BB46" si="57">AX45/AX47</f>
+        <f t="shared" ref="AX46:BB46" si="58">AX45/AX47</f>
         <v>3.6884864384547029</v>
       </c>
       <c r="AY46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5.0522337353490743</v>
       </c>
       <c r="AZ46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.5311100686596442</v>
       </c>
       <c r="BA46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.4100895036615135</v>
       </c>
       <c r="BB46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.0075695669003482</v>
       </c>
       <c r="BC46" s="11">
@@ -12375,15 +12464,15 @@
         <v>5.256471404413996</v>
       </c>
       <c r="BE46" s="11">
-        <f t="shared" ref="BE46:BG46" si="58">BE45/BE47</f>
+        <f t="shared" ref="BE46:BG46" si="59">BE45/BE47</f>
         <v>5.2753232055021106</v>
       </c>
       <c r="BF46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>4.7550860036671621</v>
       </c>
       <c r="BG46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.223448517496605</v>
       </c>
       <c r="BH46" s="11">
@@ -12391,28 +12480,28 @@
         <v>5.8512367646412722</v>
       </c>
       <c r="BI46" s="11">
-        <f t="shared" ref="BI46:BN46" si="59">BI45/BI47</f>
-        <v>6.6414178638899877</v>
+        <f t="shared" ref="BI46:BN46" si="60">BI45/BI47</f>
+        <v>6.3500110204981262</v>
       </c>
       <c r="BJ46" s="11">
-        <f t="shared" si="59"/>
-        <v>6.1872998901629979</v>
+        <f t="shared" si="60"/>
+        <v>6.0054067798104462</v>
       </c>
       <c r="BK46" s="11">
-        <f t="shared" si="59"/>
-        <v>7.9363302491103198</v>
+        <f t="shared" si="60"/>
+        <v>7.7170329645139963</v>
       </c>
       <c r="BL46" s="11">
-        <f t="shared" si="59"/>
-        <v>7.8601124379420924</v>
+        <f t="shared" si="60"/>
+        <v>7.6026492924840179</v>
       </c>
       <c r="BM46" s="11">
-        <f t="shared" si="59"/>
-        <v>8.0519870304468171</v>
+        <f t="shared" si="60"/>
+        <v>8.4092960105796752</v>
       </c>
       <c r="BN46" s="11">
-        <f t="shared" si="59"/>
-        <v>7.6133064037608191</v>
+        <f t="shared" si="60"/>
+        <v>7.3789463106017168</v>
       </c>
       <c r="BO46" s="11"/>
       <c r="BP46" s="10"/>
@@ -12439,15 +12528,15 @@
       <c r="CA46" s="10"/>
       <c r="CB46" s="10"/>
       <c r="CC46" s="11">
-        <f t="shared" ref="CC46:CE46" si="60">CC45/CC47</f>
+        <f t="shared" ref="CC46:CE46" si="61">CC45/CC47</f>
         <v>24.600453988798879</v>
       </c>
       <c r="CD46" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>29.987792300730359</v>
       </c>
       <c r="CE46" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>38.849452931835813</v>
       </c>
       <c r="CF46" s="11"/>
@@ -12567,28 +12656,27 @@
         <v>2276.1</v>
       </c>
       <c r="BI47" s="44">
-        <f>+BH47</f>
-        <v>2276.1</v>
+        <v>2268.5</v>
       </c>
       <c r="BJ47" s="44">
-        <f t="shared" ref="BJ47:BN47" si="61">+BI47</f>
-        <v>2276.1</v>
+        <f t="shared" ref="BJ47:BN47" si="62">+BI47</f>
+        <v>2268.5</v>
       </c>
       <c r="BK47" s="44">
-        <f t="shared" si="61"/>
-        <v>2276.1</v>
+        <f t="shared" si="62"/>
+        <v>2268.5</v>
       </c>
       <c r="BL47" s="44">
-        <f t="shared" si="61"/>
-        <v>2276.1</v>
+        <f t="shared" si="62"/>
+        <v>2268.5</v>
       </c>
       <c r="BM47" s="44">
-        <f t="shared" si="61"/>
-        <v>2276.1</v>
+        <f t="shared" si="62"/>
+        <v>2268.5</v>
       </c>
       <c r="BN47" s="44">
-        <f t="shared" si="61"/>
-        <v>2276.1</v>
+        <f t="shared" si="62"/>
+        <v>2268.5</v>
       </c>
       <c r="BO47" s="44"/>
       <c r="BP47" s="48"/>
@@ -12597,27 +12685,27 @@
         <v>2016</v>
       </c>
       <c r="BR47" s="44">
-        <f t="shared" ref="BR47:BW47" si="62">BR44</f>
+        <f t="shared" ref="BR47:BW47" si="63">BR44</f>
         <v>2001</v>
       </c>
       <c r="BS47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3154</v>
       </c>
       <c r="BT47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3620</v>
       </c>
       <c r="BU47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>4116</v>
       </c>
       <c r="BV47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>954</v>
       </c>
       <c r="BW47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>477</v>
       </c>
       <c r="BX47" s="44"/>
@@ -12838,39 +12926,39 @@
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
       <c r="G49" s="54">
-        <f t="shared" ref="G49:O49" si="63">G31/C31-1</f>
+        <f t="shared" ref="G49:O49" si="64">G31/C31-1</f>
         <v>0.17750141322781232</v>
       </c>
       <c r="H49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.17020702070207028</v>
       </c>
       <c r="I49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.11550773608394094</v>
       </c>
       <c r="J49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.2756099499324574E-2</v>
       </c>
       <c r="K49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>9.4095055208833323E-2</v>
       </c>
       <c r="L49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.18406276440273817</v>
       </c>
       <c r="M49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.24224790753288161</v>
       </c>
       <c r="N49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.22886975078119054</v>
       </c>
       <c r="O49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.14765247915752533</v>
       </c>
       <c r="P49" s="54"/>
@@ -12912,56 +13000,56 @@
       <c r="AZ49" s="54"/>
       <c r="BA49" s="54"/>
       <c r="BB49" s="54">
-        <f t="shared" ref="BB49:BH49" si="64">BB31/AX31-1</f>
+        <f t="shared" ref="BB49:BH49" si="65">BB31/AX31-1</f>
         <v>-8.6065953049325739E-3</v>
       </c>
       <c r="BC49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0959409594095701E-3</v>
       </c>
       <c r="BD49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.10114643737919082</v>
       </c>
       <c r="BE49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.15180909884566884</v>
       </c>
       <c r="BF49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.19276246188312895</v>
       </c>
       <c r="BG49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.24337356525854936</v>
       </c>
       <c r="BH49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.24890287824218404</v>
       </c>
       <c r="BI49" s="54">
-        <f t="shared" ref="BI49:BN49" si="65">BI31/BE31-1</f>
-        <v>0.20746448823760599</v>
+        <f t="shared" ref="BI49:BN49" si="66">BI31/BE31-1</f>
+        <v>0.27915333221043181</v>
       </c>
       <c r="BJ49" s="54">
-        <f t="shared" si="65"/>
-        <v>0.16719641040356881</v>
+        <f t="shared" si="66"/>
+        <v>0.15352672631935937</v>
       </c>
       <c r="BK49" s="54">
-        <f t="shared" si="65"/>
-        <v>0.14432585472627357</v>
+        <f t="shared" si="66"/>
+        <v>0.13185886607503994</v>
       </c>
       <c r="BL49" s="54">
-        <f t="shared" si="65"/>
-        <v>0.15786356476432784</v>
+        <f t="shared" si="66"/>
+        <v>0.14516515206591518</v>
       </c>
       <c r="BM49" s="54">
-        <f t="shared" si="65"/>
-        <v>0.15530287847894675</v>
+        <f t="shared" si="66"/>
+        <v>0.16664574463415693</v>
       </c>
       <c r="BN49" s="54">
-        <f t="shared" si="65"/>
-        <v>0.15694397272906446</v>
+        <f t="shared" si="66"/>
+        <v>0.15880381219110484</v>
       </c>
       <c r="BO49" s="54"/>
       <c r="BP49" s="53"/>
@@ -12993,55 +13081,55 @@
       <c r="CA49" s="55"/>
       <c r="CB49" s="55"/>
       <c r="CC49" s="55">
-        <f t="shared" ref="CC49:CO49" si="66">CC31/CB31-1</f>
+        <f t="shared" ref="CC49:CO49" si="67">CC31/CB31-1</f>
         <v>0.18784325222319942</v>
       </c>
       <c r="CD49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>9.164801895485053E-2</v>
       </c>
       <c r="CE49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.17604678503602322</v>
       </c>
       <c r="CF49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7.1078871145515699E-2</v>
       </c>
       <c r="CG49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>6.262863159910026E-2</v>
       </c>
       <c r="CH49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.21531202846654507</v>
       </c>
       <c r="CI49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3.5700056519684553E-2</v>
       </c>
       <c r="CJ49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-7.5147611379500212E-4</v>
       </c>
       <c r="CK49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.208637730984119E-3</v>
       </c>
       <c r="CL49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>9.1119635879139071E-2</v>
       </c>
       <c r="CM49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4.0361904918005953E-2</v>
       </c>
       <c r="CN49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.10913301718841084</v>
       </c>
       <c r="CO49" s="55">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="CP49" s="40"/>
@@ -13299,55 +13387,55 @@
       <c r="AZ51" s="54"/>
       <c r="BA51" s="54"/>
       <c r="BB51" s="54">
-        <f>BB16/AX16-1</f>
+        <f t="shared" ref="BB51:BN51" si="68">BB16/AX16-1</f>
         <v>0.41764032073310431</v>
       </c>
       <c r="BC51" s="54">
-        <f>BC16/AY16-1</f>
+        <f t="shared" si="68"/>
         <v>0.40105152471083061</v>
       </c>
       <c r="BD51" s="54">
-        <f>BD16/AZ16-1</f>
+        <f t="shared" si="68"/>
         <v>0.53742762613730366</v>
       </c>
       <c r="BE51" s="54">
-        <f>BE16/BA16-1</f>
+        <f t="shared" si="68"/>
         <v>0.63696612665684826</v>
       </c>
       <c r="BF51" s="54">
-        <f>BF16/BB16-1</f>
+        <f t="shared" si="68"/>
         <v>0.73173884938590827</v>
       </c>
       <c r="BG51" s="54">
-        <f>BG16/BC16-1</f>
+        <f t="shared" si="68"/>
         <v>0.80651456019213441</v>
       </c>
       <c r="BH51" s="54">
-        <f>BH16/BD16-1</f>
+        <f t="shared" si="68"/>
         <v>0.9299260255548083</v>
       </c>
       <c r="BI51" s="54">
         <f>BI16/BE16-1</f>
-        <v>0.60000000000000009</v>
+        <v>0.84322986954565904</v>
       </c>
       <c r="BJ51" s="54">
-        <f>BJ16/BF16-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="BK51" s="54">
-        <f>BK16/BG16-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="BL51" s="54">
-        <f>BL16/BH16-1</f>
+        <f t="shared" si="68"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BM51" s="54">
-        <f>BM16/BI16-1</f>
+        <f t="shared" si="68"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BN51" s="54">
-        <f>BN16/BJ16-1</f>
+        <f t="shared" si="68"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BO51" s="54"/>
@@ -13391,7 +13479,7 @@
       </c>
       <c r="CZ51" s="46">
         <f>NPV(CZ50,CE45:ES45)+CD45+Main!J5-Main!J6</f>
-        <v>98966.49383735584</v>
+        <v>115271.49383735584</v>
       </c>
       <c r="DA51" s="40"/>
       <c r="DB51" s="40"/>
@@ -13484,56 +13572,56 @@
       <c r="AZ52" s="54"/>
       <c r="BA52" s="54"/>
       <c r="BB52" s="54">
-        <f>SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
+        <f t="shared" ref="BB52:BN52" si="69">SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
         <v>0.15421707873049262</v>
       </c>
       <c r="BC52" s="54">
-        <f>SUM(BC14:BC19)/SUM(AY14:AY19)-1</f>
+        <f t="shared" si="69"/>
         <v>0.11244806094182835</v>
       </c>
       <c r="BD52" s="54">
-        <f>SUM(BD14:BD19)/SUM(AZ14:AZ19)-1</f>
+        <f t="shared" si="69"/>
         <v>0.31081710612130808</v>
       </c>
       <c r="BE52" s="54">
-        <f>SUM(BE14:BE19)/SUM(BA14:BA19)-1</f>
+        <f t="shared" si="69"/>
         <v>0.35507548586204019</v>
       </c>
       <c r="BF52" s="54">
-        <f>SUM(BF14:BF19)/SUM(BB14:BB19)-1</f>
+        <f t="shared" si="69"/>
         <v>0.43038359285985561</v>
       </c>
       <c r="BG52" s="54">
-        <f>SUM(BG14:BG19)/SUM(BC14:BC19)-1</f>
+        <f t="shared" si="69"/>
         <v>0.62026301455139676</v>
       </c>
       <c r="BH52" s="54">
-        <f>SUM(BH14:BH19)/SUM(BD14:BD19)-1</f>
+        <f t="shared" si="69"/>
         <v>0.62584405430378842</v>
       </c>
       <c r="BI52" s="54">
         <f>SUM(BI14:BI19)/SUM(BE14:BE19)-1</f>
-        <v>0.50517665886987562</v>
+        <v>0.64341991874923066</v>
       </c>
       <c r="BJ52" s="54">
-        <f>SUM(BJ14:BJ19)/SUM(BF14:BF19)-1</f>
-        <v>0.3845520683978545</v>
+        <f t="shared" si="69"/>
+        <v>0.35672561202272846</v>
       </c>
       <c r="BK52" s="54">
-        <f>SUM(BK14:BK19)/SUM(BG14:BG19)-1</f>
-        <v>0.33570742483911231</v>
+        <f t="shared" si="69"/>
+        <v>0.31054173470367874</v>
       </c>
       <c r="BL52" s="54">
-        <f>SUM(BL14:BL19)/SUM(BH14:BH19)-1</f>
-        <v>0.32202063478184839</v>
+        <f t="shared" si="69"/>
+        <v>0.29911252950948675</v>
       </c>
       <c r="BM52" s="54">
-        <f>SUM(BM14:BM19)/SUM(BI14:BI19)-1</f>
-        <v>0.30415243875009712</v>
+        <f t="shared" si="69"/>
+        <v>0.31623656316715976</v>
       </c>
       <c r="BN52" s="54">
-        <f>SUM(BN14:BN19)/SUM(BJ14:BJ19)-1</f>
-        <v>0.29891609933838326</v>
+        <f t="shared" si="69"/>
+        <v>0.30504687163629951</v>
       </c>
       <c r="BO52" s="54"/>
       <c r="BP52" s="53"/>
@@ -13576,7 +13664,7 @@
       </c>
       <c r="CZ52" s="52">
         <f>CZ51/Main!$J$3</f>
-        <v>43.343622755378547</v>
+        <v>50.813971275008086</v>
       </c>
       <c r="DA52" s="40"/>
       <c r="DB52" s="40"/>
@@ -13669,55 +13757,55 @@
       <c r="AZ53" s="54"/>
       <c r="BA53" s="54"/>
       <c r="BB53" s="54">
-        <f>BB19/AX19-1</f>
+        <f t="shared" ref="BB53:BN53" si="70">BB19/AX19-1</f>
         <v>-0.11445012787723785</v>
       </c>
       <c r="BC53" s="54">
-        <f>BC19/AY19-1</f>
+        <f t="shared" si="70"/>
         <v>-1.6487000634115456E-2</v>
       </c>
       <c r="BD53" s="54">
-        <f>BD19/AZ19-1</f>
+        <f t="shared" si="70"/>
         <v>0.52293577981651373</v>
       </c>
       <c r="BE53" s="54">
-        <f>BE19/BA19-1</f>
+        <f t="shared" si="70"/>
         <v>0.79222720478325859</v>
       </c>
       <c r="BF53" s="54">
-        <f>BF19/BB19-1</f>
+        <f t="shared" si="70"/>
         <v>0.77545126353790605</v>
       </c>
       <c r="BG53" s="54">
-        <f>BG19/BC19-1</f>
+        <f t="shared" si="70"/>
         <v>0.28820116054158618</v>
       </c>
       <c r="BH53" s="54">
-        <f>BH19/BD19-1</f>
+        <f t="shared" si="70"/>
         <v>0.23594377510040165</v>
       </c>
       <c r="BI53" s="54">
         <f>BI19/BE19-1</f>
-        <v>0.19999999999999996</v>
+        <v>0.32360300250208507</v>
       </c>
       <c r="BJ53" s="54">
-        <f>BJ19/BF19-1</f>
+        <f t="shared" si="70"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BK53" s="54">
-        <f>BK19/BG19-1</f>
+        <f t="shared" si="70"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BL53" s="54">
-        <f>BL19/BH19-1</f>
+        <f t="shared" si="70"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BM53" s="54">
-        <f>BM19/BI19-1</f>
+        <f t="shared" si="70"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BN53" s="54">
-        <f>BN19/BJ19-1</f>
+        <f t="shared" si="70"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BO53" s="54"/>
@@ -13849,55 +13937,55 @@
       <c r="AZ54" s="54"/>
       <c r="BA54" s="54"/>
       <c r="BB54" s="54">
-        <f>BB12/AX12-1</f>
+        <f t="shared" ref="BB54:BN54" si="71">BB12/AX12-1</f>
         <v>-8.5865700677534074E-2</v>
       </c>
       <c r="BC54" s="54">
-        <f>BC12/AY12-1</f>
+        <f t="shared" si="71"/>
         <v>-6.5853965062209419E-2</v>
       </c>
       <c r="BD54" s="54">
-        <f>BD12/AZ12-1</f>
+        <f t="shared" si="71"/>
         <v>-3.3000146993973245E-2</v>
       </c>
       <c r="BE54" s="54">
-        <f>BE12/BA12-1</f>
+        <f t="shared" si="71"/>
         <v>4.5288368275759217E-2</v>
       </c>
       <c r="BF54" s="54">
-        <f>BF12/BB12-1</f>
+        <f t="shared" si="71"/>
         <v>2.5390768327584912E-2</v>
       </c>
       <c r="BG54" s="54">
-        <f>BG12/BC12-1</f>
+        <f t="shared" si="71"/>
         <v>6.4576886855913784E-3</v>
       </c>
       <c r="BH54" s="54">
-        <f>BH12/BD12-1</f>
+        <f t="shared" si="71"/>
         <v>-6.1868207038078604E-2</v>
       </c>
       <c r="BI54" s="54">
         <f>BI12/BE12-1</f>
+        <v>-7.487508922198427E-2</v>
+      </c>
+      <c r="BJ54" s="54">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="BJ54" s="54">
-        <f>BJ12/BF12-1</f>
+      <c r="BK54" s="54">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="BK54" s="54">
-        <f>BK12/BG12-1</f>
+      <c r="BL54" s="54">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="BL54" s="54">
-        <f>BL12/BH12-1</f>
-        <v>-2.0000000000000018E-2</v>
-      </c>
       <c r="BM54" s="54">
-        <f>BM12/BI12-1</f>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="BN54" s="54">
-        <f>BN12/BJ12-1</f>
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="BO54" s="54"/>
@@ -13978,51 +14066,51 @@
         <v>154</v>
       </c>
       <c r="C55" s="56">
-        <f t="shared" ref="C55:N55" si="67">C33/C31</f>
+        <f t="shared" ref="C55:N55" si="72">C33/C31</f>
         <v>0.77265875259091765</v>
       </c>
       <c r="D55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.77011701170117008</v>
       </c>
       <c r="E55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.76827316379157029</v>
       </c>
       <c r="F55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.79845823730429943</v>
       </c>
       <c r="G55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.79932789246279401</v>
       </c>
       <c r="H55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.79924621182985922</v>
       </c>
       <c r="I55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.78373854125149467</v>
       </c>
       <c r="J55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.79468028351497599</v>
       </c>
       <c r="K55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.80327629077080587</v>
       </c>
       <c r="L55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.80713264908405868</v>
       </c>
       <c r="M55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.8116016427104723</v>
       </c>
       <c r="N55" s="56">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.8</v>
       </c>
       <c r="O55" s="56"/>
@@ -14061,39 +14149,39 @@
       <c r="AV55" s="56"/>
       <c r="AW55" s="56"/>
       <c r="AX55" s="56">
-        <f t="shared" ref="AX55" si="68">AX33/AX31</f>
+        <f t="shared" ref="AX55" si="73">AX33/AX31</f>
         <v>0.83243359965450225</v>
       </c>
       <c r="AY55" s="56">
-        <f t="shared" ref="AY55:BB55" si="69">AY33/AY31</f>
+        <f t="shared" ref="AY55:BB55" si="74">AY33/AY31</f>
         <v>0.84100369003690034</v>
       </c>
       <c r="AZ55" s="56">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.84096514030527225</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.83331716623015484</v>
       </c>
       <c r="BB55" s="56">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.8251602464372394</v>
       </c>
       <c r="BC55" s="56">
-        <f t="shared" ref="BC55:BF55" si="70">BC33/BC31</f>
+        <f t="shared" ref="BC55:BF55" si="75">BC33/BC31</f>
         <v>0.82809726659566918</v>
       </c>
       <c r="BD55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.83211767198329345</v>
       </c>
       <c r="BE55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.82990848352141933</v>
       </c>
       <c r="BF55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.83718988860772703</v>
       </c>
       <c r="BG55" s="56">
@@ -14101,32 +14189,32 @@
         <v>0.83543099141110133</v>
       </c>
       <c r="BH55" s="56">
-        <f t="shared" ref="BH55:BN55" si="71">BH33/BH31</f>
+        <f t="shared" ref="BH55:BN55" si="76">BH33/BH31</f>
         <v>0.85292620865139945</v>
       </c>
       <c r="BI55" s="56">
-        <f t="shared" si="71"/>
-        <v>0.85</v>
+        <f>BI33/BI31</f>
+        <v>0.8419874467804942</v>
       </c>
       <c r="BJ55" s="56">
-        <f t="shared" si="71"/>
-        <v>0.85</v>
+        <f t="shared" si="76"/>
+        <v>0.84999999999999987</v>
       </c>
       <c r="BK55" s="56">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.86</v>
       </c>
       <c r="BL55" s="56">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.86</v>
       </c>
       <c r="BM55" s="56">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.87</v>
       </c>
       <c r="BN55" s="56">
-        <f t="shared" si="71"/>
-        <v>0.87000000000000011</v>
+        <f t="shared" si="76"/>
+        <v>0.87</v>
       </c>
       <c r="BO55" s="56"/>
       <c r="BP55" s="39"/>
@@ -14142,63 +14230,63 @@
       <c r="BZ55" s="39"/>
       <c r="CA55" s="39"/>
       <c r="CB55" s="56">
-        <f t="shared" ref="CB55:CP55" si="72">CB33/CB31</f>
+        <f t="shared" ref="CB55:CP55" si="77">CB33/CB31</f>
         <v>0.79429297371249874</v>
       </c>
       <c r="CC55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.80781887587205481</v>
       </c>
       <c r="CD55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.81025231362855332</v>
       </c>
       <c r="CE55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.82742931843231748</v>
       </c>
       <c r="CF55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="CG55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.83602459293290998</v>
       </c>
       <c r="CH55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.85000972879816916</v>
       </c>
       <c r="CI55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.84627840400787258</v>
       </c>
       <c r="CJ55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.84214295946139517</v>
       </c>
       <c r="CK55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.84246765208215968</v>
       </c>
       <c r="CL55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.8353725997983954</v>
       </c>
       <c r="CM55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.83511099207537065</v>
       </c>
       <c r="CN55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.83197443181818187</v>
       </c>
       <c r="CO55" s="56" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CP55" s="56" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CQ55" s="40"/>
@@ -14298,23 +14386,23 @@
       <c r="AV56" s="56"/>
       <c r="AW56" s="56"/>
       <c r="AX56" s="56">
-        <f t="shared" ref="AX56" si="73">+AX34/AX31</f>
+        <f t="shared" ref="AX56" si="78">+AX34/AX31</f>
         <v>0.29416664095999012</v>
       </c>
       <c r="AY56" s="56">
-        <f t="shared" ref="AY56:BB56" si="74">+AY34/AY31</f>
+        <f t="shared" ref="AY56:BB56" si="79">+AY34/AY31</f>
         <v>0.22405904059040591</v>
       </c>
       <c r="AZ56" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.24655068986202761</v>
       </c>
       <c r="BA56" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.26429980276134124</v>
       </c>
       <c r="BB56" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.30387703030680191</v>
       </c>
       <c r="BC56" s="56">
@@ -14322,47 +14410,47 @@
         <v>0.24423145189918352</v>
       </c>
       <c r="BD56" s="56">
-        <f t="shared" ref="BD56:BN56" si="75">+BD34/BD31</f>
+        <f t="shared" ref="BD56:BN56" si="80">+BD34/BD31</f>
         <v>0.24215368784237765</v>
       </c>
       <c r="BE56" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>0.25599348717084947</v>
       </c>
       <c r="BF56" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>0.30344611692275586</v>
       </c>
       <c r="BG56" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>0.24227355999143491</v>
       </c>
       <c r="BH56" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>0.26269235429540772</v>
       </c>
       <c r="BI56" s="56">
-        <f t="shared" si="75"/>
+        <f>+BI34/BI31</f>
+        <v>0.25130579818285564</v>
+      </c>
+      <c r="BJ56" s="56">
+        <f t="shared" si="80"/>
+        <v>0.3</v>
+      </c>
+      <c r="BK56" s="56">
+        <f t="shared" si="80"/>
+        <v>0.24</v>
+      </c>
+      <c r="BL56" s="56">
+        <f t="shared" si="80"/>
+        <v>0.24</v>
+      </c>
+      <c r="BM56" s="56">
+        <f t="shared" si="80"/>
         <v>0.26</v>
       </c>
-      <c r="BJ56" s="56">
-        <f t="shared" si="75"/>
-        <v>0.3</v>
-      </c>
-      <c r="BK56" s="56">
-        <f t="shared" si="75"/>
-        <v>0.24</v>
-      </c>
-      <c r="BL56" s="56">
-        <f t="shared" si="75"/>
-        <v>0.24</v>
-      </c>
-      <c r="BM56" s="56">
-        <f t="shared" si="75"/>
-        <v>0.26</v>
-      </c>
       <c r="BN56" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>0.3</v>
       </c>
       <c r="BO56" s="56"/>
@@ -14490,7 +14578,7 @@
       <c r="AV57" s="56"/>
       <c r="AW57" s="56"/>
       <c r="AX57" s="56">
-        <f t="shared" ref="AX57" si="76">+AX35/AX31</f>
+        <f t="shared" ref="AX57" si="81">+AX35/AX31</f>
         <v>0.13523768393127064</v>
       </c>
       <c r="AY57" s="56">
@@ -14498,64 +14586,64 @@
         <v>0.11149815498154982</v>
       </c>
       <c r="AZ57" s="56">
-        <f t="shared" ref="AZ57:BN57" si="77">+AZ35/AZ31</f>
+        <f t="shared" ref="AZ57:BN57" si="82">+AZ35/AZ31</f>
         <v>0.10967806438712258</v>
       </c>
       <c r="BA57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.12645908106185533</v>
       </c>
       <c r="BB57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.13949218993092288</v>
       </c>
       <c r="BC57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.11667258312625725</v>
       </c>
       <c r="BD57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.11936684725038589</v>
       </c>
       <c r="BE57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.11936443770703498</v>
       </c>
       <c r="BF57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.14692301672188454</v>
       </c>
       <c r="BG57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.12386095976779044</v>
       </c>
       <c r="BH57" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.124148794377802</v>
       </c>
       <c r="BI57" s="56">
-        <f t="shared" si="77"/>
+        <f>+BI35/BI31</f>
+        <v>0.12362287670631611</v>
+      </c>
+      <c r="BJ57" s="56">
+        <f t="shared" si="82"/>
         <v>0.11</v>
       </c>
-      <c r="BJ57" s="56">
-        <f t="shared" si="77"/>
+      <c r="BK57" s="56">
+        <f t="shared" si="82"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="BL57" s="56">
+        <f t="shared" si="82"/>
         <v>0.11</v>
       </c>
-      <c r="BK57" s="56">
-        <f t="shared" si="77"/>
+      <c r="BM57" s="56">
+        <f t="shared" si="82"/>
         <v>0.11</v>
       </c>
-      <c r="BL57" s="56">
-        <f t="shared" si="77"/>
+      <c r="BN57" s="56">
+        <f t="shared" si="82"/>
         <v>0.11000000000000001</v>
-      </c>
-      <c r="BM57" s="56">
-        <f t="shared" si="77"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="BN57" s="56">
-        <f t="shared" si="77"/>
-        <v>0.11</v>
       </c>
       <c r="BO57" s="56"/>
       <c r="BP57" s="39"/>
@@ -14639,43 +14727,43 @@
         <v>0.42991631799163182</v>
       </c>
       <c r="D58" s="56">
-        <f t="shared" ref="D58:M58" si="78">D44/D43</f>
+        <f t="shared" ref="D58:M58" si="83">D44/D43</f>
         <v>0.27451556077510275</v>
       </c>
       <c r="E58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.25752508361204013</v>
       </c>
       <c r="F58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.24104234527687296</v>
       </c>
       <c r="G58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.22995720399429387</v>
       </c>
       <c r="H58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.22991761071060762</v>
       </c>
       <c r="I58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.23620737454948712</v>
       </c>
       <c r="J58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.22359625668449198</v>
       </c>
       <c r="K58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.23002084781097984</v>
       </c>
       <c r="L58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.23003472222222221</v>
       </c>
       <c r="M58" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.23002577319587628</v>
       </c>
       <c r="N58" s="56">
@@ -14718,43 +14806,43 @@
       <c r="AV58" s="56"/>
       <c r="AW58" s="56"/>
       <c r="AX58" s="56">
-        <f t="shared" ref="AX58" si="79">+AX44/AX43</f>
+        <f t="shared" ref="AX58" si="84">+AX44/AX43</f>
         <v>0.21319613683545446</v>
       </c>
       <c r="AY58" s="56">
-        <f t="shared" ref="AY58:BB58" si="80">+AY44/AY43</f>
+        <f t="shared" ref="AY58:BB58" si="85">+AY44/AY43</f>
         <v>0.20797550096531522</v>
       </c>
       <c r="AZ58" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0.20803518187239117</v>
       </c>
       <c r="BA58" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0.18855882121188244</v>
       </c>
       <c r="BB58" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0.22362939510081653</v>
       </c>
       <c r="BC58" s="56">
-        <f t="shared" ref="BC58:BG58" si="81">+BC44/BC43</f>
+        <f t="shared" ref="BC58:BG58" si="86">+BC44/BC43</f>
         <v>0.20799347471451876</v>
       </c>
       <c r="BD58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>0.18730307702621171</v>
       </c>
       <c r="BE58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>0.19805452620434091</v>
       </c>
       <c r="BF58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>0.16937390375962785</v>
       </c>
       <c r="BG58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>0.20698699704224566</v>
       </c>
       <c r="BH58" s="56">
@@ -14762,28 +14850,28 @@
         <v>0.20702590056564454</v>
       </c>
       <c r="BI58" s="56">
-        <f t="shared" ref="BI58:BN58" si="82">+BI44/BI43</f>
+        <f>+BI44/BI43</f>
+        <v>0.20114241348713399</v>
+      </c>
+      <c r="BJ58" s="56">
+        <f t="shared" ref="BJ58:BN58" si="87">+BJ44/BJ43</f>
         <v>0.2</v>
       </c>
-      <c r="BJ58" s="56">
-        <f t="shared" si="82"/>
+      <c r="BK58" s="56">
+        <f t="shared" si="87"/>
         <v>0.2</v>
       </c>
-      <c r="BK58" s="56">
-        <f t="shared" si="82"/>
+      <c r="BL58" s="56">
+        <f t="shared" si="87"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BM58" s="56">
+        <f t="shared" si="87"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="BL58" s="56">
-        <f t="shared" si="82"/>
-        <v>0.2</v>
-      </c>
-      <c r="BM58" s="56">
-        <f t="shared" si="82"/>
-        <v>0.2</v>
-      </c>
       <c r="BN58" s="56">
-        <f t="shared" si="82"/>
-        <v>0.2</v>
+        <f t="shared" si="87"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="BO58" s="56"/>
       <c r="BP58" s="39"/>
@@ -14867,35 +14955,35 @@
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="56">
-        <f t="shared" ref="G59:N59" si="83">+G46/C46-1</f>
+        <f t="shared" ref="G59:N59" si="88">+G46/C46-1</f>
         <v>0.26555470372527656</v>
       </c>
       <c r="H59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.2317467921523495</v>
       </c>
       <c r="I59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.6513780158608862E-2</v>
       </c>
       <c r="J59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.9156860030458143E-2</v>
       </c>
       <c r="K59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.27248103257280354</v>
       </c>
       <c r="L59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.2244971740943098</v>
       </c>
       <c r="M59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.34395333855076848</v>
       </c>
       <c r="N59" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.59020839337398123</v>
       </c>
       <c r="O59" s="56"/>
@@ -15811,14 +15899,24 @@
       <c r="BC68" s="57">
         <v>45157</v>
       </c>
-      <c r="BD68" s="57"/>
-      <c r="BE68" s="57"/>
-      <c r="BF68" s="57"/>
+      <c r="BD68" s="57">
+        <v>45971</v>
+      </c>
+      <c r="BE68" s="57">
+        <v>46982</v>
+      </c>
+      <c r="BF68" s="57">
+        <v>47792</v>
+      </c>
       <c r="BG68" s="57">
         <v>49295</v>
       </c>
-      <c r="BH68" s="39"/>
-      <c r="BI68" s="39"/>
+      <c r="BH68" s="57">
+        <v>50816</v>
+      </c>
+      <c r="BI68" s="57">
+        <v>52696</v>
+      </c>
       <c r="BJ68" s="39"/>
       <c r="BK68" s="39"/>
       <c r="BL68" s="39"/>
@@ -15915,6 +16013,152 @@
       <c r="EG68" s="40"/>
       <c r="EH68" s="40"/>
     </row>
+    <row r="70" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI70" s="64">
+        <f>+BI71-BI80</f>
+        <v>11437</v>
+      </c>
+    </row>
+    <row r="71" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI71" s="64">
+        <f>28465+5277+9008+781+458</f>
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="72" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI72" s="64">
+        <f>5406+247</f>
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="73" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI73" s="64">
+        <f>2541+11303</f>
+        <v>13844</v>
+      </c>
+    </row>
+    <row r="74" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI74" s="64">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="75" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="BI75" s="64">
+        <v>23222</v>
+      </c>
+    </row>
+    <row r="76" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI76" s="64">
+        <v>63641</v>
+      </c>
+    </row>
+    <row r="77" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI77" s="64">
+        <v>46924</v>
+      </c>
+    </row>
+    <row r="78" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="BI78" s="64">
+        <f>SUM(BI71:BI77)</f>
+        <v>242836</v>
+      </c>
+    </row>
+    <row r="80" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI80" s="64">
+        <f>24136+1833+6583</f>
+        <v>32552</v>
+      </c>
+    </row>
+    <row r="81" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI81" s="64">
+        <f>84745+5300</f>
+        <v>90045</v>
+      </c>
+    </row>
+    <row r="82" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI82" s="64">
+        <f>21389+240</f>
+        <v>21629</v>
+      </c>
+    </row>
+    <row r="83" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI83" s="64">
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="84" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI84" s="64">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="85" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI85" s="64">
+        <f>5640+583</f>
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="86" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI86" s="64">
+        <v>76680</v>
+      </c>
+    </row>
+    <row r="87" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="BI87" s="64">
+        <f>SUM(BI80:BI86)</f>
+        <v>242836</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>

--- a/NOVOB.xlsx
+++ b/NOVOB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECBDA3-DA49-4BAD-A630-46DFA45E268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338288F1-F82A-4D71-8F55-7A3BF75FDEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="7395" windowWidth="21420" windowHeight="13530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="25" r:id="rId1"/>
@@ -1590,16 +1590,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>73479</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>73479</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>152404</xdr:rowOff>
+      <xdr:rowOff>78925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1616,8 +1616,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28599494" y="73479"/>
-          <a:ext cx="0" cy="14121496"/>
+          <a:off x="29356050" y="0"/>
+          <a:ext cx="0" cy="14284782"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2515,18 +2515,18 @@
   <dimension ref="A1:EH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BE22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
+      <selection pane="bottomRight" activeCell="BJ32" sqref="BJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
-    <col min="3" max="58" width="6.85546875" style="6" customWidth="1"/>
-    <col min="59" max="66" width="7.7109375" style="6" customWidth="1"/>
+    <col min="3" max="56" width="6.85546875" style="6" customWidth="1"/>
+    <col min="57" max="66" width="7.85546875" style="6" customWidth="1"/>
     <col min="67" max="67" width="6.85546875" style="6" customWidth="1"/>
     <col min="68" max="75" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="7.7109375" style="6" customWidth="1"/>
@@ -3133,7 +3133,9 @@
       <c r="BI3" s="44">
         <v>3778</v>
       </c>
-      <c r="BJ3" s="44"/>
+      <c r="BJ3" s="44">
+        <v>3966</v>
+      </c>
       <c r="BK3" s="44"/>
       <c r="BL3" s="44"/>
       <c r="BM3" s="44"/>
@@ -3303,7 +3305,9 @@
       <c r="BI4" s="44">
         <v>485</v>
       </c>
-      <c r="BJ4" s="44"/>
+      <c r="BJ4" s="44">
+        <v>505</v>
+      </c>
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
       <c r="BM4" s="44"/>
@@ -3491,7 +3495,9 @@
       <c r="BI5" s="44">
         <v>1899</v>
       </c>
-      <c r="BJ5" s="44"/>
+      <c r="BJ5" s="44">
+        <v>1613</v>
+      </c>
       <c r="BK5" s="44"/>
       <c r="BL5" s="44"/>
       <c r="BM5" s="44"/>
@@ -3661,7 +3667,9 @@
       <c r="BI6" s="44">
         <v>807</v>
       </c>
-      <c r="BJ6" s="44"/>
+      <c r="BJ6" s="44">
+        <v>730</v>
+      </c>
       <c r="BK6" s="44"/>
       <c r="BL6" s="44"/>
       <c r="BM6" s="44"/>
@@ -3859,7 +3867,9 @@
       <c r="BI7" s="44">
         <v>2273</v>
       </c>
-      <c r="BJ7" s="44"/>
+      <c r="BJ7" s="44">
+        <v>2247</v>
+      </c>
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
       <c r="BM7" s="44"/>
@@ -4047,7 +4057,9 @@
       <c r="BI8" s="44">
         <v>961</v>
       </c>
-      <c r="BJ8" s="44"/>
+      <c r="BJ8" s="44">
+        <v>959</v>
+      </c>
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
       <c r="BM8" s="44"/>
@@ -4217,7 +4229,9 @@
       <c r="BI9" s="44">
         <v>705</v>
       </c>
-      <c r="BJ9" s="44"/>
+      <c r="BJ9" s="44">
+        <v>696</v>
+      </c>
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
       <c r="BM9" s="44"/>
@@ -4439,7 +4453,7 @@
       <c r="AV10" s="44"/>
       <c r="AW10" s="44"/>
       <c r="AX10" s="44">
-        <f t="shared" ref="AX10:BI10" si="2">SUM(AX3:AX9)</f>
+        <f t="shared" ref="AX10:BJ10" si="2">SUM(AX3:AX9)</f>
         <v>12703</v>
       </c>
       <c r="AY10" s="44">
@@ -4486,7 +4500,10 @@
         <f t="shared" si="2"/>
         <v>10908</v>
       </c>
-      <c r="BJ10" s="44"/>
+      <c r="BJ10" s="44">
+        <f t="shared" si="2"/>
+        <v>10716</v>
+      </c>
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
       <c r="BM10" s="44"/>
@@ -4727,7 +4744,9 @@
       <c r="BI11" s="44">
         <v>2053</v>
       </c>
-      <c r="BJ11" s="44"/>
+      <c r="BJ11" s="44">
+        <v>1970</v>
+      </c>
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
       <c r="BM11" s="44"/>
@@ -4875,7 +4894,7 @@
       <c r="AV12" s="44"/>
       <c r="AW12" s="44"/>
       <c r="AX12" s="44">
-        <f t="shared" ref="AX12:BI12" si="6">+AX11+AX10</f>
+        <f t="shared" ref="AX12:BJ12" si="6">+AX11+AX10</f>
         <v>14907</v>
       </c>
       <c r="AY12" s="44">
@@ -4907,40 +4926,40 @@
         <v>14010</v>
       </c>
       <c r="BF12" s="44">
-        <f t="shared" si="6"/>
+        <f>+BF11+BF10</f>
         <v>13973</v>
       </c>
       <c r="BG12" s="44">
-        <f t="shared" si="6"/>
+        <f>+BG11+BG10</f>
         <v>14962</v>
       </c>
       <c r="BH12" s="44">
-        <f t="shared" si="6"/>
+        <f>+BH11+BH10</f>
         <v>12343</v>
       </c>
       <c r="BI12" s="44">
-        <f t="shared" si="6"/>
+        <f>+BI11+BI10</f>
         <v>12961</v>
       </c>
       <c r="BJ12" s="44">
-        <f t="shared" ref="BJ12:BN12" si="7">+BF12*0.98</f>
-        <v>13693.539999999999</v>
+        <f>+BJ11+BJ10</f>
+        <v>12686</v>
       </c>
       <c r="BK12" s="44">
-        <f t="shared" si="7"/>
-        <v>14662.76</v>
+        <f>+BG12*0.95</f>
+        <v>14213.9</v>
       </c>
       <c r="BL12" s="44">
-        <f t="shared" si="7"/>
-        <v>12096.14</v>
+        <f>+BH12*0.95</f>
+        <v>11725.849999999999</v>
       </c>
       <c r="BM12" s="44">
-        <f t="shared" si="7"/>
-        <v>12701.78</v>
+        <f>+BI12*0.95</f>
+        <v>12312.949999999999</v>
       </c>
       <c r="BN12" s="44">
-        <f t="shared" si="7"/>
-        <v>13419.669199999998</v>
+        <f>+BJ12*0.95</f>
+        <v>12051.699999999999</v>
       </c>
       <c r="BO12" s="44"/>
       <c r="BP12" s="43"/>
@@ -5293,24 +5312,23 @@
         <v>2967</v>
       </c>
       <c r="BJ14" s="44">
-        <f t="shared" ref="BJ14:BN14" si="8">+BF14*0.9</f>
-        <v>3449.7000000000003</v>
+        <v>3323</v>
       </c>
       <c r="BK14" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="BJ14:BN14" si="7">+BG14*0.9</f>
         <v>2989.8</v>
       </c>
       <c r="BL14" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2439</v>
       </c>
       <c r="BM14" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2670.3</v>
       </c>
       <c r="BN14" s="44">
-        <f t="shared" si="8"/>
-        <v>3104.7300000000005</v>
+        <f t="shared" si="7"/>
+        <v>2990.7000000000003</v>
       </c>
       <c r="BO14" s="44"/>
       <c r="BP14" s="43"/>
@@ -5490,24 +5508,23 @@
         <v>3011</v>
       </c>
       <c r="BJ15" s="44">
-        <f>+BF15*1.5</f>
-        <v>2734.5</v>
+        <v>4053</v>
       </c>
       <c r="BK15" s="44">
-        <f t="shared" ref="BK15:BN15" si="9">+BG15*1.5</f>
+        <f t="shared" ref="BK15:BN15" si="8">+BG15*1.5</f>
         <v>3094.5</v>
       </c>
       <c r="BL15" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3258</v>
       </c>
       <c r="BM15" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4516.5</v>
       </c>
       <c r="BN15" s="44">
-        <f t="shared" si="9"/>
-        <v>4101.75</v>
+        <f t="shared" si="8"/>
+        <v>6079.5</v>
       </c>
       <c r="BO15" s="44"/>
       <c r="BP15" s="43"/>
@@ -5675,8 +5692,7 @@
         <v>16390</v>
       </c>
       <c r="BJ16" s="44">
-        <f>+BF16*1.4</f>
-        <v>15002.4</v>
+        <v>16976</v>
       </c>
       <c r="BK16" s="44">
         <f>+BG16*1.4</f>
@@ -5692,7 +5708,7 @@
       </c>
       <c r="BN16" s="44">
         <f>+BJ16*1.3</f>
-        <v>19503.12</v>
+        <v>22068.799999999999</v>
       </c>
       <c r="BO16" s="44"/>
       <c r="BP16" s="43"/>
@@ -5897,7 +5913,7 @@
         <v>1844</v>
       </c>
       <c r="CB17" s="44">
-        <f t="shared" ref="CB17:CB28" si="10">SUM(G17:J17)</f>
+        <f t="shared" ref="CB17:CB28" si="9">SUM(G17:J17)</f>
         <v>2064</v>
       </c>
       <c r="CC17" s="44">
@@ -6037,24 +6053,23 @@
         <v>1157</v>
       </c>
       <c r="BJ18" s="44">
-        <f t="shared" ref="BJ18:BN18" si="11">+BI18+500</f>
-        <v>1657</v>
+        <v>2446</v>
       </c>
       <c r="BK18" s="44">
-        <f t="shared" si="11"/>
-        <v>2157</v>
+        <f t="shared" ref="BJ18:BN18" si="10">+BJ18+500</f>
+        <v>2946</v>
       </c>
       <c r="BL18" s="44">
-        <f t="shared" si="11"/>
-        <v>2657</v>
+        <f t="shared" si="10"/>
+        <v>3446</v>
       </c>
       <c r="BM18" s="44">
-        <f t="shared" si="11"/>
-        <v>3157</v>
+        <f t="shared" si="10"/>
+        <v>3946</v>
       </c>
       <c r="BN18" s="44">
-        <f t="shared" si="11"/>
-        <v>3657</v>
+        <f t="shared" si="10"/>
+        <v>4446</v>
       </c>
       <c r="BO18" s="44"/>
       <c r="BP18" s="43"/>
@@ -6222,24 +6237,23 @@
         <v>3174</v>
       </c>
       <c r="BJ19" s="44">
-        <f t="shared" ref="BJ19:BN19" si="12">+BF19*1.1</f>
-        <v>2704.9</v>
+        <v>3042</v>
       </c>
       <c r="BK19" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="BJ19:BN19" si="11">+BG19*1.1</f>
         <v>2197.8000000000002</v>
       </c>
       <c r="BL19" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2708.2000000000003</v>
       </c>
       <c r="BM19" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3491.4</v>
       </c>
       <c r="BN19" s="44">
-        <f t="shared" si="12"/>
-        <v>2975.3900000000003</v>
+        <f t="shared" si="11"/>
+        <v>3346.2000000000003</v>
       </c>
       <c r="BO19" s="44"/>
       <c r="BP19" s="43"/>
@@ -6599,24 +6613,23 @@
         <v>798</v>
       </c>
       <c r="BJ21" s="44">
-        <f t="shared" ref="BJ21:BN21" si="13">+BF21*0.9</f>
-        <v>734.4</v>
+        <v>713</v>
       </c>
       <c r="BK21" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="BJ21:BN21" si="12">+BG21*0.9</f>
         <v>795.6</v>
       </c>
       <c r="BL21" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>747</v>
       </c>
       <c r="BM21" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>718.2</v>
       </c>
       <c r="BN21" s="44">
-        <f t="shared" si="13"/>
-        <v>660.96</v>
+        <f t="shared" si="12"/>
+        <v>641.70000000000005</v>
       </c>
       <c r="BO21" s="44"/>
       <c r="BP21" s="43"/>
@@ -6635,7 +6648,7 @@
         <v>2391</v>
       </c>
       <c r="CB21" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2652</v>
       </c>
       <c r="CC21" s="44">
@@ -6994,24 +7007,23 @@
         <v>2108</v>
       </c>
       <c r="BJ23" s="44">
-        <f t="shared" ref="BJ23:BJ27" si="14">+BF23*0.9</f>
-        <v>1521</v>
+        <v>1911</v>
       </c>
       <c r="BK23" s="44">
-        <f t="shared" ref="BK23:BK27" si="15">+BG23*0.9</f>
+        <f t="shared" ref="BK23:BK27" si="13">+BG23*0.9</f>
         <v>2043.9</v>
       </c>
       <c r="BL23" s="44">
-        <f t="shared" ref="BL23:BL27" si="16">+BH23*0.9</f>
+        <f t="shared" ref="BL23:BL27" si="14">+BH23*0.9</f>
         <v>1816.2</v>
       </c>
       <c r="BM23" s="44">
-        <f t="shared" ref="BM23:BM27" si="17">+BI23*0.9</f>
+        <f t="shared" ref="BM23:BM27" si="15">+BI23*0.9</f>
         <v>1897.2</v>
       </c>
       <c r="BN23" s="44">
-        <f t="shared" ref="BN23:BN27" si="18">+BJ23*0.9</f>
-        <v>1368.9</v>
+        <f t="shared" ref="BN23:BN27" si="16">+BJ23*0.9</f>
+        <v>1719.9</v>
       </c>
       <c r="BO23" s="44"/>
       <c r="BP23" s="43"/>
@@ -7030,7 +7042,7 @@
         <v>6396</v>
       </c>
       <c r="CB23" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7072</v>
       </c>
       <c r="CC23" s="44">
@@ -7181,24 +7193,23 @@
         <v>512</v>
       </c>
       <c r="BJ24" s="44">
+        <v>642</v>
+      </c>
+      <c r="BK24" s="44">
+        <f t="shared" si="13"/>
+        <v>508.5</v>
+      </c>
+      <c r="BL24" s="44">
         <f t="shared" si="14"/>
-        <v>522.9</v>
-      </c>
-      <c r="BK24" s="44">
+        <v>557.1</v>
+      </c>
+      <c r="BM24" s="44">
         <f t="shared" si="15"/>
-        <v>508.5</v>
-      </c>
-      <c r="BL24" s="44">
+        <v>460.8</v>
+      </c>
+      <c r="BN24" s="44">
         <f t="shared" si="16"/>
-        <v>557.1</v>
-      </c>
-      <c r="BM24" s="44">
-        <f t="shared" si="17"/>
-        <v>460.8</v>
-      </c>
-      <c r="BN24" s="44">
-        <f t="shared" si="18"/>
-        <v>470.61</v>
+        <v>577.80000000000007</v>
       </c>
       <c r="BO24" s="44"/>
       <c r="BP24" s="43"/>
@@ -7366,24 +7377,23 @@
         <v>194</v>
       </c>
       <c r="BJ25" s="44">
+        <v>226</v>
+      </c>
+      <c r="BK25" s="44">
+        <f t="shared" si="13"/>
+        <v>159.30000000000001</v>
+      </c>
+      <c r="BL25" s="44">
         <f t="shared" si="14"/>
         <v>145.80000000000001</v>
       </c>
-      <c r="BK25" s="44">
+      <c r="BM25" s="44">
         <f t="shared" si="15"/>
-        <v>159.30000000000001</v>
-      </c>
-      <c r="BL25" s="44">
+        <v>174.6</v>
+      </c>
+      <c r="BN25" s="44">
         <f t="shared" si="16"/>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="BM25" s="44">
-        <f t="shared" si="17"/>
-        <v>174.6</v>
-      </c>
-      <c r="BN25" s="44">
-        <f t="shared" si="18"/>
-        <v>131.22000000000003</v>
+        <v>203.4</v>
       </c>
       <c r="BO25" s="44"/>
       <c r="BP25" s="43"/>
@@ -7562,24 +7572,24 @@
         <v>71</v>
       </c>
       <c r="BJ26" s="44">
+        <f>2881-BJ25-BJ24-BJ23</f>
+        <v>102</v>
+      </c>
+      <c r="BK26" s="44">
+        <f t="shared" si="13"/>
+        <v>57.6</v>
+      </c>
+      <c r="BL26" s="44">
         <f t="shared" si="14"/>
-        <v>51.300000000000004</v>
-      </c>
-      <c r="BK26" s="44">
+        <v>57.6</v>
+      </c>
+      <c r="BM26" s="44">
         <f t="shared" si="15"/>
-        <v>57.6</v>
-      </c>
-      <c r="BL26" s="44">
+        <v>63.9</v>
+      </c>
+      <c r="BN26" s="44">
         <f t="shared" si="16"/>
-        <v>57.6</v>
-      </c>
-      <c r="BM26" s="44">
-        <f t="shared" si="17"/>
-        <v>63.9</v>
-      </c>
-      <c r="BN26" s="44">
-        <f t="shared" si="18"/>
-        <v>46.17</v>
+        <v>91.8</v>
       </c>
       <c r="BO26" s="44"/>
       <c r="BP26" s="43"/>
@@ -7755,24 +7765,24 @@
         <v>2223</v>
       </c>
       <c r="BJ27" s="44">
+        <f>370+1602</f>
+        <v>1972</v>
+      </c>
+      <c r="BK27" s="44">
+        <f t="shared" si="13"/>
+        <v>2057.4</v>
+      </c>
+      <c r="BL27" s="44">
         <f t="shared" si="14"/>
+        <v>2119.5</v>
+      </c>
+      <c r="BM27" s="44">
+        <f t="shared" si="15"/>
         <v>2000.7</v>
       </c>
-      <c r="BK27" s="44">
-        <f t="shared" si="15"/>
-        <v>2057.4</v>
-      </c>
-      <c r="BL27" s="44">
+      <c r="BN27" s="44">
         <f t="shared" si="16"/>
-        <v>2119.5</v>
-      </c>
-      <c r="BM27" s="44">
-        <f t="shared" si="17"/>
-        <v>2000.7</v>
-      </c>
-      <c r="BN27" s="44">
-        <f t="shared" si="18"/>
-        <v>1800.63</v>
+        <v>1774.8</v>
       </c>
       <c r="BO27" s="44"/>
       <c r="BP27" s="43"/>
@@ -7994,11 +8004,11 @@
         <v>3865</v>
       </c>
       <c r="CB28" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4401</v>
       </c>
       <c r="CC28" s="44">
-        <f t="shared" ref="CC28:CC30" si="19">SUM(K28:N28)</f>
+        <f t="shared" ref="CC28:CC30" si="17">SUM(K28:N28)</f>
         <v>4803</v>
       </c>
       <c r="CD28" s="44">
@@ -8179,7 +8189,7 @@
         <v>1744</v>
       </c>
       <c r="CC29" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1892</v>
       </c>
       <c r="CD29" s="44">
@@ -8377,7 +8387,7 @@
         <v>359</v>
       </c>
       <c r="CC30" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>341</v>
       </c>
       <c r="CD30" s="44">
@@ -8452,55 +8462,55 @@
         <v>211</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31:O31" si="20">SUM(C10:C30)</f>
+        <f t="shared" ref="C31:O31" si="18">SUM(C10:C30)</f>
         <v>10614</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>11110</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>11246</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>12583</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>12498</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>13001</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>12545</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>13121</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>13674</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>15394</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>15584</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>16124</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>15693</v>
       </c>
       <c r="P31" s="15"/>
@@ -8523,156 +8533,156 @@
         <v>21629</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" ref="AC31:AT31" si="21">SUM(AC10:AC30)</f>
+        <f t="shared" ref="AC31:AT31" si="19">SUM(AC10:AC30)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>24929</v>
       </c>
       <c r="AF31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>26729</v>
       </c>
       <c r="AG31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>26416</v>
       </c>
       <c r="AH31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>28415</v>
       </c>
       <c r="AI31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>26586</v>
       </c>
       <c r="AJ31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>26476</v>
       </c>
       <c r="AK31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>26394</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>27865</v>
       </c>
       <c r="AM31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AN31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AS31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AT31" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU31" s="15">
-        <f t="shared" ref="AU31:BN31" si="22">SUM(AU12:AU27)</f>
+        <f t="shared" ref="AU31:BN31" si="20">SUM(AU12:AU27)</f>
         <v>0</v>
       </c>
       <c r="AV31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AX31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>32417</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>33875</v>
       </c>
       <c r="AZ31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>30006</v>
       </c>
       <c r="BA31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>30927</v>
       </c>
       <c r="BB31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>32138</v>
       </c>
       <c r="BC31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>33804</v>
       </c>
       <c r="BD31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>33041</v>
       </c>
       <c r="BE31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>35622</v>
       </c>
       <c r="BF31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>38333</v>
       </c>
       <c r="BG31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>42031</v>
       </c>
       <c r="BH31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>41265</v>
       </c>
       <c r="BI31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>45566</v>
       </c>
       <c r="BJ31" s="15">
-        <f t="shared" si="22"/>
-        <v>44218.140000000007</v>
+        <f>SUM(BJ12:BJ27)</f>
+        <v>48092</v>
       </c>
       <c r="BK31" s="15">
-        <f t="shared" si="22"/>
-        <v>47573.16</v>
+        <f t="shared" si="20"/>
+        <v>47913.3</v>
       </c>
       <c r="BL31" s="15">
-        <f t="shared" si="22"/>
-        <v>47255.239999999991</v>
+        <f t="shared" si="20"/>
+        <v>47673.95</v>
       </c>
       <c r="BM31" s="15">
-        <f t="shared" si="22"/>
-        <v>53159.38</v>
+        <f t="shared" si="20"/>
+        <v>53559.549999999996</v>
       </c>
       <c r="BN31" s="15">
-        <f t="shared" si="22"/>
-        <v>51240.149199999993</v>
+        <f t="shared" si="20"/>
+        <v>55992.3</v>
       </c>
       <c r="BO31" s="15"/>
       <c r="BP31" s="13"/>
@@ -8750,35 +8760,35 @@
         <v>140</v>
       </c>
       <c r="C32" s="44">
-        <f t="shared" ref="C32:J32" si="23">C31-C33</f>
+        <f t="shared" ref="C32:J32" si="21">C31-C33</f>
         <v>2413</v>
       </c>
       <c r="D32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2554</v>
       </c>
       <c r="E32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2606</v>
       </c>
       <c r="F32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2536</v>
       </c>
       <c r="G32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2508</v>
       </c>
       <c r="H32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2610</v>
       </c>
       <c r="I32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2713</v>
       </c>
       <c r="J32" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2694</v>
       </c>
       <c r="K32" s="44">
@@ -8843,19 +8853,19 @@
         <v>5432</v>
       </c>
       <c r="AY32" s="44">
-        <f t="shared" ref="AY32:BB32" si="24">AY31-AY33</f>
+        <f t="shared" ref="AY32:BB32" si="22">AY31-AY33</f>
         <v>5386</v>
       </c>
       <c r="AZ32" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4772</v>
       </c>
       <c r="BA32" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>5155</v>
       </c>
       <c r="BB32" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>5619</v>
       </c>
       <c r="BC32" s="44">
@@ -8884,24 +8894,24 @@
         <v>7200</v>
       </c>
       <c r="BJ32" s="44">
-        <f t="shared" ref="BJ32:BN32" si="25">+BJ31-BJ33</f>
-        <v>6632.721000000005</v>
+        <f t="shared" ref="BJ32:BN32" si="23">+BJ31-BJ33</f>
+        <v>7213.8000000000029</v>
       </c>
       <c r="BK32" s="44">
-        <f t="shared" si="25"/>
-        <v>6660.2424000000028</v>
+        <f t="shared" si="23"/>
+        <v>6707.862000000001</v>
       </c>
       <c r="BL32" s="44">
-        <f t="shared" si="25"/>
-        <v>6615.7335999999996</v>
+        <f t="shared" si="23"/>
+        <v>6674.3530000000028</v>
       </c>
       <c r="BM32" s="44">
-        <f t="shared" si="25"/>
-        <v>6910.7194000000018</v>
+        <f t="shared" si="23"/>
+        <v>6962.7414999999964</v>
       </c>
       <c r="BN32" s="44">
-        <f t="shared" si="25"/>
-        <v>6661.2193960000004</v>
+        <f t="shared" si="23"/>
+        <v>7278.9990000000034</v>
       </c>
       <c r="BO32" s="44"/>
       <c r="BP32" s="44"/>
@@ -9125,24 +9135,24 @@
         <v>38366</v>
       </c>
       <c r="BJ33" s="44">
-        <f t="shared" ref="BJ33" si="26">+BJ31*0.85</f>
-        <v>37585.419000000002</v>
+        <f t="shared" ref="BJ33" si="24">+BJ31*0.85</f>
+        <v>40878.199999999997</v>
       </c>
       <c r="BK33" s="44">
         <f>+BK31*0.86</f>
-        <v>40912.917600000001</v>
+        <v>41205.438000000002</v>
       </c>
       <c r="BL33" s="44">
         <f>+BL31*0.86</f>
-        <v>40639.506399999991</v>
+        <v>40999.596999999994</v>
       </c>
       <c r="BM33" s="44">
         <f>+BM31*0.87</f>
-        <v>46248.660599999996</v>
+        <v>46596.808499999999</v>
       </c>
       <c r="BN33" s="44">
         <f>+BN31*0.87</f>
-        <v>44578.929803999992</v>
+        <v>48713.300999999999</v>
       </c>
       <c r="BO33" s="44"/>
       <c r="BP33" s="44"/>
@@ -9379,23 +9389,23 @@
       </c>
       <c r="BJ34" s="44">
         <f>+BJ31*0.3</f>
-        <v>13265.442000000001</v>
+        <v>14427.6</v>
       </c>
       <c r="BK34" s="44">
         <f>+BK31*0.24</f>
-        <v>11417.5584</v>
+        <v>11499.192000000001</v>
       </c>
       <c r="BL34" s="44">
         <f>+BL31*0.24</f>
-        <v>11341.257599999997</v>
+        <v>11441.748</v>
       </c>
       <c r="BM34" s="44">
         <f>+BM31*0.26</f>
-        <v>13821.4388</v>
+        <v>13925.483</v>
       </c>
       <c r="BN34" s="44">
         <f>+BN31*0.3</f>
-        <v>15372.044759999997</v>
+        <v>16797.689999999999</v>
       </c>
       <c r="BO34" s="44"/>
       <c r="BP34" s="44"/>
@@ -9626,24 +9636,24 @@
         <v>5633</v>
       </c>
       <c r="BJ35" s="44">
-        <f t="shared" ref="BJ35:BN35" si="27">+BJ31*0.11</f>
-        <v>4863.9954000000007</v>
+        <f t="shared" ref="BJ35:BN35" si="25">+BJ31*0.11</f>
+        <v>5290.12</v>
       </c>
       <c r="BK35" s="44">
-        <f t="shared" si="27"/>
-        <v>5233.0476000000008</v>
+        <f t="shared" si="25"/>
+        <v>5270.4630000000006</v>
       </c>
       <c r="BL35" s="44">
-        <f t="shared" si="27"/>
-        <v>5198.076399999999</v>
+        <f t="shared" si="25"/>
+        <v>5244.1345000000001</v>
       </c>
       <c r="BM35" s="44">
-        <f t="shared" si="27"/>
-        <v>5847.5317999999997</v>
+        <f t="shared" si="25"/>
+        <v>5891.5504999999994</v>
       </c>
       <c r="BN35" s="44">
-        <f t="shared" si="27"/>
-        <v>5636.4164119999996</v>
+        <f t="shared" si="25"/>
+        <v>6159.1530000000002</v>
       </c>
       <c r="BO35" s="44"/>
       <c r="BP35" s="44"/>
@@ -9871,23 +9881,23 @@
         <v>1158</v>
       </c>
       <c r="BJ36" s="44">
-        <f t="shared" ref="BJ36:BN36" si="28">+BF36*1.01</f>
+        <f t="shared" ref="BJ36:BN36" si="26">+BF36*1.01</f>
         <v>1201.9000000000001</v>
       </c>
       <c r="BK36" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>979.7</v>
       </c>
       <c r="BL36" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1000.91</v>
       </c>
       <c r="BM36" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1169.58</v>
       </c>
       <c r="BN36" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1213.9190000000001</v>
       </c>
       <c r="BO36" s="44"/>
@@ -10116,23 +10126,23 @@
         <v>-60</v>
       </c>
       <c r="BJ37" s="44">
-        <f t="shared" ref="BJ37:BN37" si="29">AVERAGE(BF37:BI37)</f>
+        <f t="shared" ref="BJ37:BN37" si="27">AVERAGE(BF37:BI37)</f>
         <v>-149.25</v>
       </c>
       <c r="BK37" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-187.5625</v>
       </c>
       <c r="BL37" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-136.453125</v>
       </c>
       <c r="BM37" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-133.31640625</v>
       </c>
       <c r="BN37" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-151.6455078125</v>
       </c>
       <c r="BO37" s="44"/>
@@ -10236,39 +10246,39 @@
         <v>144</v>
       </c>
       <c r="C38" s="44">
-        <f t="shared" ref="C38:K38" si="30">SUM(C34:C36)-C37</f>
+        <f t="shared" ref="C38:K38" si="28">SUM(C34:C36)-C37</f>
         <v>5152</v>
       </c>
       <c r="D38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>5555</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>5366</v>
       </c>
       <c r="F38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6673</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6180</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6301</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6018</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7208</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6602</v>
       </c>
       <c r="L38" s="44">
@@ -10325,72 +10335,72 @@
       <c r="AV38" s="44"/>
       <c r="AW38" s="44"/>
       <c r="AX38" s="44">
-        <f t="shared" ref="AX38:BB38" si="31">SUM(AX34:AX37)</f>
+        <f t="shared" ref="AX38:BB38" si="29">SUM(AX34:AX37)</f>
         <v>15112</v>
       </c>
       <c r="AY38" s="44">
+        <f t="shared" si="29"/>
+        <v>12187</v>
+      </c>
+      <c r="AZ38" s="44">
+        <f t="shared" si="29"/>
+        <v>11396</v>
+      </c>
+      <c r="BA38" s="44">
+        <f t="shared" si="29"/>
+        <v>12964</v>
+      </c>
+      <c r="BB38" s="44">
+        <f t="shared" si="29"/>
+        <v>15341</v>
+      </c>
+      <c r="BC38" s="44">
+        <f t="shared" ref="BC38:BH38" si="30">SUM(BC34:BC37)</f>
+        <v>13011</v>
+      </c>
+      <c r="BD38" s="44">
+        <f t="shared" si="30"/>
+        <v>12715</v>
+      </c>
+      <c r="BE38" s="44">
+        <f t="shared" si="30"/>
+        <v>14314</v>
+      </c>
+      <c r="BF38" s="44">
+        <f t="shared" si="30"/>
+        <v>18458</v>
+      </c>
+      <c r="BG38" s="44">
+        <f t="shared" si="30"/>
+        <v>15967</v>
+      </c>
+      <c r="BH38" s="44">
+        <f t="shared" si="30"/>
+        <v>16805</v>
+      </c>
+      <c r="BI38" s="44">
+        <f t="shared" ref="BI38:BN38" si="31">SUM(BI34:BI37)</f>
+        <v>18182</v>
+      </c>
+      <c r="BJ38" s="44">
         <f t="shared" si="31"/>
-        <v>12187</v>
-      </c>
-      <c r="AZ38" s="44">
+        <v>20770.370000000003</v>
+      </c>
+      <c r="BK38" s="44">
         <f t="shared" si="31"/>
-        <v>11396</v>
-      </c>
-      <c r="BA38" s="44">
+        <v>17561.792500000003</v>
+      </c>
+      <c r="BL38" s="44">
         <f t="shared" si="31"/>
-        <v>12964</v>
-      </c>
-      <c r="BB38" s="44">
+        <v>17550.339375</v>
+      </c>
+      <c r="BM38" s="44">
         <f t="shared" si="31"/>
-        <v>15341</v>
-      </c>
-      <c r="BC38" s="44">
-        <f t="shared" ref="BC38:BH38" si="32">SUM(BC34:BC37)</f>
-        <v>13011</v>
-      </c>
-      <c r="BD38" s="44">
-        <f t="shared" si="32"/>
-        <v>12715</v>
-      </c>
-      <c r="BE38" s="44">
-        <f t="shared" si="32"/>
-        <v>14314</v>
-      </c>
-      <c r="BF38" s="44">
-        <f t="shared" si="32"/>
-        <v>18458</v>
-      </c>
-      <c r="BG38" s="44">
-        <f t="shared" si="32"/>
-        <v>15967</v>
-      </c>
-      <c r="BH38" s="44">
-        <f t="shared" si="32"/>
-        <v>16805</v>
-      </c>
-      <c r="BI38" s="44">
-        <f t="shared" ref="BI38:BN38" si="33">SUM(BI34:BI37)</f>
-        <v>18182</v>
-      </c>
-      <c r="BJ38" s="44">
-        <f t="shared" si="33"/>
-        <v>19182.087400000004</v>
-      </c>
-      <c r="BK38" s="44">
-        <f t="shared" si="33"/>
-        <v>17442.7435</v>
-      </c>
-      <c r="BL38" s="44">
-        <f t="shared" si="33"/>
-        <v>17403.790874999995</v>
-      </c>
-      <c r="BM38" s="44">
-        <f t="shared" si="33"/>
-        <v>20705.234193750002</v>
+        <v>20853.297093749999</v>
       </c>
       <c r="BN38" s="44">
-        <f t="shared" si="33"/>
-        <v>22070.734664187497</v>
+        <f t="shared" si="31"/>
+        <v>24019.116492187502</v>
       </c>
       <c r="BO38" s="44"/>
       <c r="BP38" s="44"/>
@@ -10457,15 +10467,15 @@
         <v>46138</v>
       </c>
       <c r="CK38" s="46">
-        <f t="shared" ref="CK38:CM38" si="34">SUM(CK34:CK36)</f>
+        <f t="shared" ref="CK38:CM38" si="32">SUM(CK34:CK36)</f>
         <v>48118</v>
       </c>
       <c r="CL38" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>50050</v>
       </c>
       <c r="CM38" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>52348</v>
       </c>
       <c r="CN38" s="46">
@@ -10525,39 +10535,39 @@
         <v>204</v>
       </c>
       <c r="C39" s="44">
-        <f t="shared" ref="C39:K39" si="35">C33-C38</f>
+        <f t="shared" ref="C39:K39" si="33">C33-C38</f>
         <v>3049</v>
       </c>
       <c r="D39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3001</v>
       </c>
       <c r="E39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3274</v>
       </c>
       <c r="F39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3374</v>
       </c>
       <c r="G39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3810</v>
       </c>
       <c r="H39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4090</v>
       </c>
       <c r="I39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3814</v>
       </c>
       <c r="J39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3219</v>
       </c>
       <c r="K39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4382</v>
       </c>
       <c r="L39" s="44">
@@ -10614,72 +10624,72 @@
       <c r="AV39" s="44"/>
       <c r="AW39" s="44"/>
       <c r="AX39" s="44">
-        <f t="shared" ref="AX39:BB39" si="36">AX33-AX38</f>
+        <f t="shared" ref="AX39:BB39" si="34">AX33-AX38</f>
         <v>11873</v>
       </c>
       <c r="AY39" s="44">
+        <f t="shared" si="34"/>
+        <v>16302</v>
+      </c>
+      <c r="AZ39" s="44">
+        <f t="shared" si="34"/>
+        <v>13838</v>
+      </c>
+      <c r="BA39" s="44">
+        <f t="shared" si="34"/>
+        <v>12808</v>
+      </c>
+      <c r="BB39" s="44">
+        <f t="shared" si="34"/>
+        <v>11178</v>
+      </c>
+      <c r="BC39" s="44">
+        <f t="shared" ref="BC39:BH39" si="35">BC33-BC38</f>
+        <v>14982</v>
+      </c>
+      <c r="BD39" s="44">
+        <f t="shared" si="35"/>
+        <v>14779</v>
+      </c>
+      <c r="BE39" s="44">
+        <f t="shared" si="35"/>
+        <v>15249</v>
+      </c>
+      <c r="BF39" s="44">
+        <f t="shared" si="35"/>
+        <v>13634</v>
+      </c>
+      <c r="BG39" s="44">
+        <f t="shared" si="35"/>
+        <v>19147</v>
+      </c>
+      <c r="BH39" s="44">
+        <f t="shared" si="35"/>
+        <v>18391</v>
+      </c>
+      <c r="BI39" s="44">
+        <f t="shared" ref="BI39:BN39" si="36">BI33-BI38</f>
+        <v>20184</v>
+      </c>
+      <c r="BJ39" s="44">
         <f t="shared" si="36"/>
-        <v>16302</v>
-      </c>
-      <c r="AZ39" s="44">
+        <v>20107.829999999994</v>
+      </c>
+      <c r="BK39" s="44">
         <f t="shared" si="36"/>
-        <v>13838</v>
-      </c>
-      <c r="BA39" s="44">
+        <v>23643.645499999999</v>
+      </c>
+      <c r="BL39" s="44">
         <f t="shared" si="36"/>
-        <v>12808</v>
-      </c>
-      <c r="BB39" s="44">
+        <v>23449.257624999995</v>
+      </c>
+      <c r="BM39" s="44">
         <f t="shared" si="36"/>
-        <v>11178</v>
-      </c>
-      <c r="BC39" s="44">
-        <f t="shared" ref="BC39:BH39" si="37">BC33-BC38</f>
-        <v>14982</v>
-      </c>
-      <c r="BD39" s="44">
-        <f t="shared" si="37"/>
-        <v>14779</v>
-      </c>
-      <c r="BE39" s="44">
-        <f t="shared" si="37"/>
-        <v>15249</v>
-      </c>
-      <c r="BF39" s="44">
-        <f t="shared" si="37"/>
-        <v>13634</v>
-      </c>
-      <c r="BG39" s="44">
-        <f t="shared" si="37"/>
-        <v>19147</v>
-      </c>
-      <c r="BH39" s="44">
-        <f t="shared" si="37"/>
-        <v>18391</v>
-      </c>
-      <c r="BI39" s="44">
-        <f t="shared" ref="BI39:BN39" si="38">BI33-BI38</f>
-        <v>20184</v>
-      </c>
-      <c r="BJ39" s="44">
-        <f t="shared" si="38"/>
-        <v>18403.331599999998</v>
-      </c>
-      <c r="BK39" s="44">
-        <f t="shared" si="38"/>
-        <v>23470.1741</v>
-      </c>
-      <c r="BL39" s="44">
-        <f t="shared" si="38"/>
-        <v>23235.715524999996</v>
-      </c>
-      <c r="BM39" s="44">
-        <f t="shared" si="38"/>
-        <v>25543.426406249993</v>
+        <v>25743.51140625</v>
       </c>
       <c r="BN39" s="44">
-        <f t="shared" si="38"/>
-        <v>22508.195139812495</v>
+        <f t="shared" si="36"/>
+        <v>24694.184507812497</v>
       </c>
       <c r="BO39" s="44"/>
       <c r="BP39" s="44"/>
@@ -10711,11 +10721,11 @@
       <c r="BZ39" s="44"/>
       <c r="CA39" s="44"/>
       <c r="CB39" s="44">
-        <f t="shared" ref="CB39:CI39" si="39">CB33-CB38</f>
+        <f t="shared" ref="CB39:CI39" si="37">CB33-CB38</f>
         <v>14592</v>
       </c>
       <c r="CC39" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>18891</v>
       </c>
       <c r="CD39" s="44">
@@ -10727,19 +10737,19 @@
         <v>29474</v>
       </c>
       <c r="CF39" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CG39" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>34492</v>
       </c>
       <c r="CH39" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>49444</v>
       </c>
       <c r="CI39" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>48432</v>
       </c>
       <c r="CJ39" s="46">
@@ -10747,19 +10757,19 @@
         <v>47926</v>
       </c>
       <c r="CK39" s="46">
-        <f t="shared" ref="CK39:CN39" si="40">CK33-CK38</f>
+        <f t="shared" ref="CK39:CN39" si="38">CK33-CK38</f>
         <v>46096</v>
       </c>
       <c r="CL39" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>51883</v>
       </c>
       <c r="CM39" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>53666</v>
       </c>
       <c r="CN39" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>58312</v>
       </c>
       <c r="CO39" s="46"/>
@@ -11281,53 +11291,53 @@
         <v>2152</v>
       </c>
       <c r="BJ42" s="44">
-        <f t="shared" ref="BJ42:BN42" si="41">AVERAGE(BF42:BI42)</f>
+        <f t="shared" ref="BJ42:BN42" si="39">AVERAGE(BF42:BI42)</f>
         <v>1374.25</v>
       </c>
       <c r="BK42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1587.5625</v>
       </c>
       <c r="BL42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1677.453125</v>
       </c>
       <c r="BM42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1697.81640625</v>
       </c>
       <c r="BN42" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1584.2705078125</v>
       </c>
       <c r="BO42" s="44"/>
       <c r="BP42" s="44"/>
       <c r="BQ42" s="44">
-        <f t="shared" ref="BQ42:BW42" si="42">BQ38+SUM(BQ39:BQ41)</f>
+        <f t="shared" ref="BQ42:BW42" si="40">BQ38+SUM(BQ39:BQ41)</f>
         <v>3176</v>
       </c>
       <c r="BR42" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>3349</v>
       </c>
       <c r="BS42" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4884</v>
       </c>
       <c r="BT42" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>5695</v>
       </c>
       <c r="BU42" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>6328</v>
       </c>
       <c r="BV42" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>954</v>
       </c>
       <c r="BW42" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>477</v>
       </c>
       <c r="BX42" s="38"/>
@@ -11418,55 +11428,55 @@
         <v>205</v>
       </c>
       <c r="C43" s="44">
-        <f t="shared" ref="C43:O43" si="43">SUM(C39:C42)</f>
+        <f t="shared" ref="C43:O43" si="41">SUM(C39:C42)</f>
         <v>3824</v>
       </c>
       <c r="D43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3406</v>
       </c>
       <c r="E43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3588</v>
       </c>
       <c r="F43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3070</v>
       </c>
       <c r="G43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3505</v>
       </c>
       <c r="H43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3884</v>
       </c>
       <c r="I43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3607</v>
       </c>
       <c r="J43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>2992</v>
       </c>
       <c r="K43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>4317</v>
       </c>
       <c r="L43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>4608</v>
       </c>
       <c r="M43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>4656</v>
       </c>
       <c r="N43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>4907.2000000000007</v>
       </c>
       <c r="O43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>5290</v>
       </c>
       <c r="P43" s="44"/>
@@ -11507,23 +11517,23 @@
       <c r="AV43" s="44"/>
       <c r="AW43" s="44"/>
       <c r="AX43" s="44">
-        <f t="shared" ref="AX43:BB43" si="44">AX39-AX42</f>
+        <f t="shared" ref="AX43:BB43" si="42">AX39-AX42</f>
         <v>11079</v>
       </c>
       <c r="AY43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>15021</v>
       </c>
       <c r="AZ43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>13416</v>
       </c>
       <c r="BA43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>12691</v>
       </c>
       <c r="BB43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>12002</v>
       </c>
       <c r="BC43" s="44">
@@ -11535,44 +11545,44 @@
         <v>14917</v>
       </c>
       <c r="BE43" s="44">
-        <f t="shared" ref="BE43:BN43" si="45">BE39-BE42</f>
+        <f t="shared" ref="BE43:BN43" si="43">BE39-BE42</f>
         <v>15112</v>
       </c>
       <c r="BF43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>13113</v>
       </c>
       <c r="BG43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>17919</v>
       </c>
       <c r="BH43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>16795</v>
       </c>
       <c r="BI43" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>18032</v>
       </c>
       <c r="BJ43" s="44">
-        <f t="shared" si="45"/>
-        <v>17029.081599999998</v>
+        <f t="shared" si="43"/>
+        <v>18733.579999999994</v>
       </c>
       <c r="BK43" s="44">
-        <f t="shared" si="45"/>
-        <v>21882.6116</v>
+        <f t="shared" si="43"/>
+        <v>22056.082999999999</v>
       </c>
       <c r="BL43" s="44">
-        <f t="shared" si="45"/>
-        <v>21558.262399999996</v>
+        <f t="shared" si="43"/>
+        <v>21771.804499999995</v>
       </c>
       <c r="BM43" s="44">
-        <f t="shared" si="45"/>
-        <v>23845.609999999993</v>
+        <f t="shared" si="43"/>
+        <v>24045.695</v>
       </c>
       <c r="BN43" s="44">
-        <f t="shared" si="45"/>
-        <v>20923.924631999995</v>
+        <f t="shared" si="43"/>
+        <v>23109.913999999997</v>
       </c>
       <c r="BO43" s="44"/>
       <c r="BP43" s="44"/>
@@ -11598,23 +11608,23 @@
       <c r="BZ43" s="44"/>
       <c r="CA43" s="44"/>
       <c r="CB43" s="44">
-        <f t="shared" ref="CB43:CF43" si="46">CB39+SUM(CB40:CB42)</f>
+        <f t="shared" ref="CB43:CF43" si="44">CB39+SUM(CB40:CB42)</f>
         <v>14592</v>
       </c>
       <c r="CC43" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>18286</v>
       </c>
       <c r="CD43" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>21925</v>
       </c>
       <c r="CE43" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>27811</v>
       </c>
       <c r="CF43" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="CG43" s="44">
@@ -11687,35 +11697,35 @@
         <v>210</v>
       </c>
       <c r="C44" s="44">
-        <f t="shared" ref="C44:J44" si="47">C43-C45</f>
+        <f t="shared" ref="C44:J44" si="45">C43-C45</f>
         <v>1644</v>
       </c>
       <c r="D44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>935</v>
       </c>
       <c r="E44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>924</v>
       </c>
       <c r="F44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>740</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>806</v>
       </c>
       <c r="H44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>893</v>
       </c>
       <c r="I44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>852</v>
       </c>
       <c r="J44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>669</v>
       </c>
       <c r="K44" s="44">
@@ -11809,53 +11819,53 @@
         <v>3627</v>
       </c>
       <c r="BJ44" s="44">
-        <f t="shared" ref="BJ44:BN44" si="48">+BJ43*0.2</f>
-        <v>3405.8163199999999</v>
+        <f t="shared" ref="BJ44:BN44" si="46">+BJ43*0.2</f>
+        <v>3746.715999999999</v>
       </c>
       <c r="BK44" s="44">
-        <f t="shared" si="48"/>
-        <v>4376.52232</v>
+        <f t="shared" si="46"/>
+        <v>4411.2165999999997</v>
       </c>
       <c r="BL44" s="44">
-        <f t="shared" si="48"/>
-        <v>4311.6524799999997</v>
+        <f t="shared" si="46"/>
+        <v>4354.3608999999988</v>
       </c>
       <c r="BM44" s="44">
-        <f t="shared" si="48"/>
-        <v>4769.1219999999985</v>
+        <f t="shared" si="46"/>
+        <v>4809.1390000000001</v>
       </c>
       <c r="BN44" s="44">
-        <f t="shared" si="48"/>
-        <v>4184.7849263999988</v>
+        <f t="shared" si="46"/>
+        <v>4621.9827999999998</v>
       </c>
       <c r="BO44" s="44"/>
       <c r="BP44" s="44"/>
       <c r="BQ44" s="44">
-        <f t="shared" ref="BQ44:BW44" si="49">BQ42+BQ43</f>
+        <f t="shared" ref="BQ44:BW44" si="47">BQ42+BQ43</f>
         <v>2016</v>
       </c>
       <c r="BR44" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>2001</v>
       </c>
       <c r="BS44" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>3154</v>
       </c>
       <c r="BT44" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>3620</v>
       </c>
       <c r="BU44" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>4116</v>
       </c>
       <c r="BV44" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>954</v>
       </c>
       <c r="BW44" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>477</v>
       </c>
       <c r="BX44" s="38"/>
@@ -12024,23 +12034,23 @@
       <c r="AV45" s="44"/>
       <c r="AW45" s="44"/>
       <c r="AX45" s="44">
-        <f t="shared" ref="AX45:BB45" si="50">AX43-AX44</f>
+        <f t="shared" ref="AX45:BB45" si="48">AX43-AX44</f>
         <v>8717</v>
       </c>
       <c r="AY45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>11897</v>
       </c>
       <c r="AZ45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>10625</v>
       </c>
       <c r="BA45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>10298</v>
       </c>
       <c r="BB45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>9318</v>
       </c>
       <c r="BC45" s="44">
@@ -12052,15 +12062,15 @@
         <v>12123</v>
       </c>
       <c r="BE45" s="44">
-        <f t="shared" ref="BE45:BG45" si="51">BE43-BE44</f>
+        <f t="shared" ref="BE45:BG45" si="49">BE43-BE44</f>
         <v>12119</v>
       </c>
       <c r="BF45" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>10892</v>
       </c>
       <c r="BG45" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>14210</v>
       </c>
       <c r="BH45" s="44">
@@ -12068,49 +12078,49 @@
         <v>13318</v>
       </c>
       <c r="BI45" s="44">
-        <f t="shared" ref="BI45:BN45" si="52">BI43-BI44</f>
+        <f t="shared" ref="BI45:BN45" si="50">BI43-BI44</f>
         <v>14405</v>
       </c>
       <c r="BJ45" s="44">
-        <f t="shared" si="52"/>
-        <v>13623.265279999998</v>
+        <f t="shared" si="50"/>
+        <v>14986.863999999996</v>
       </c>
       <c r="BK45" s="44">
-        <f t="shared" si="52"/>
-        <v>17506.08928</v>
+        <f t="shared" si="50"/>
+        <v>17644.866399999999</v>
       </c>
       <c r="BL45" s="44">
-        <f t="shared" si="52"/>
-        <v>17246.609919999995</v>
+        <f t="shared" si="50"/>
+        <v>17417.443599999995</v>
       </c>
       <c r="BM45" s="44">
-        <f t="shared" si="52"/>
-        <v>19076.487999999994</v>
+        <f t="shared" si="50"/>
+        <v>19236.556</v>
       </c>
       <c r="BN45" s="44">
-        <f t="shared" si="52"/>
-        <v>16739.139705599995</v>
+        <f t="shared" si="50"/>
+        <v>18487.931199999999</v>
       </c>
       <c r="BO45" s="44"/>
       <c r="BP45" s="44"/>
       <c r="BQ45" s="11">
-        <f t="shared" ref="BQ45:BU45" si="53">BQ44/BQ46</f>
+        <f t="shared" ref="BQ45:BU45" si="51">BQ44/BQ46</f>
         <v>5.4339622641509431</v>
       </c>
       <c r="BR45" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>5.5909784351966199</v>
       </c>
       <c r="BS45" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>9.0298275927642493</v>
       </c>
       <c r="BT45" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>10.449736117774917</v>
       </c>
       <c r="BU45" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>11.849703476124272</v>
       </c>
       <c r="BV45" s="11"/>
@@ -12120,7 +12130,7 @@
       <c r="BZ45" s="44"/>
       <c r="CA45" s="44"/>
       <c r="CB45" s="44">
-        <f t="shared" ref="CB45:CI45" si="54">CB43-CB44</f>
+        <f t="shared" ref="CB45:CI45" si="52">CB43-CB44</f>
         <v>9484.7999999999993</v>
       </c>
       <c r="CC45" s="44">
@@ -12128,27 +12138,27 @@
         <v>14403</v>
       </c>
       <c r="CD45" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>17097</v>
       </c>
       <c r="CE45" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>21432</v>
       </c>
       <c r="CF45" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="CG45" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>26481</v>
       </c>
       <c r="CH45" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>34860</v>
       </c>
       <c r="CI45" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>37925</v>
       </c>
       <c r="CJ45" s="46"/>
@@ -12157,187 +12167,187 @@
       <c r="CM45" s="46"/>
       <c r="CN45" s="46"/>
       <c r="CO45" s="46">
-        <f t="shared" ref="CO45:DN45" si="55">CN45*(1+$CZ$49)</f>
+        <f t="shared" ref="CO45:DN45" si="53">CN45*(1+$CZ$49)</f>
         <v>0</v>
       </c>
       <c r="CP45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CQ45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CR45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CS45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CT45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CU45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CV45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CW45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CX45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CY45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CZ45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DA45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DB45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DC45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DD45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DE45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DF45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DG45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DH45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DI45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DJ45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DK45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DL45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DM45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DN45" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DO45" s="46">
-        <f t="shared" ref="DO45:EH45" si="56">DN45*(1+$CZ$49)</f>
+        <f t="shared" ref="DO45:EH45" si="54">DN45*(1+$CZ$49)</f>
         <v>0</v>
       </c>
       <c r="DP45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DQ45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DR45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DS45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DT45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DU45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DV45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DW45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DX45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DY45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="DZ45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EA45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EB45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EC45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="ED45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EE45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EF45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EG45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EH45" s="46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -12347,35 +12357,35 @@
         <v>147</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:J46" si="57">C45/C47</f>
+        <f t="shared" ref="C46:J46" si="55">C45/C47</f>
         <v>3.4807600191601473</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>3.994503718073068</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>4.3359375</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>3.7923177083333335</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>4.4050922147870084</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>4.9202171409771349</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>4.5809777186564684</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>3.9028897849462361</v>
       </c>
       <c r="K46" s="11">
@@ -12436,23 +12446,23 @@
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11">
-        <f t="shared" ref="AX46:BB46" si="58">AX45/AX47</f>
+        <f t="shared" ref="AX46:BB46" si="56">AX45/AX47</f>
         <v>3.6884864384547029</v>
       </c>
       <c r="AY46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>5.0522337353490743</v>
       </c>
       <c r="AZ46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>4.5311100686596442</v>
       </c>
       <c r="BA46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>4.4100895036615135</v>
       </c>
       <c r="BB46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>4.0075695669003482</v>
       </c>
       <c r="BC46" s="11">
@@ -12464,15 +12474,15 @@
         <v>5.256471404413996</v>
       </c>
       <c r="BE46" s="11">
-        <f t="shared" ref="BE46:BG46" si="59">BE45/BE47</f>
+        <f t="shared" ref="BE46:BG46" si="57">BE45/BE47</f>
         <v>5.2753232055021106</v>
       </c>
       <c r="BF46" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>4.7550860036671621</v>
       </c>
       <c r="BG46" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>6.223448517496605</v>
       </c>
       <c r="BH46" s="11">
@@ -12480,28 +12490,28 @@
         <v>5.8512367646412722</v>
       </c>
       <c r="BI46" s="11">
-        <f t="shared" ref="BI46:BN46" si="60">BI45/BI47</f>
+        <f t="shared" ref="BI46:BN46" si="58">BI45/BI47</f>
         <v>6.3500110204981262</v>
       </c>
       <c r="BJ46" s="11">
-        <f t="shared" si="60"/>
-        <v>6.0054067798104462</v>
+        <f t="shared" si="58"/>
+        <v>6.6065082653735931</v>
       </c>
       <c r="BK46" s="11">
-        <f t="shared" si="60"/>
-        <v>7.7170329645139963</v>
+        <f t="shared" si="58"/>
+        <v>7.7782086841525233</v>
       </c>
       <c r="BL46" s="11">
-        <f t="shared" si="60"/>
-        <v>7.6026492924840179</v>
+        <f t="shared" si="58"/>
+        <v>7.6779561824994467</v>
       </c>
       <c r="BM46" s="11">
-        <f t="shared" si="60"/>
-        <v>8.4092960105796752</v>
+        <f t="shared" si="58"/>
+        <v>8.4798571743442803</v>
       </c>
       <c r="BN46" s="11">
-        <f t="shared" si="60"/>
-        <v>7.3789463106017168</v>
+        <f t="shared" si="58"/>
+        <v>8.1498484461097629</v>
       </c>
       <c r="BO46" s="11"/>
       <c r="BP46" s="10"/>
@@ -12528,15 +12538,15 @@
       <c r="CA46" s="10"/>
       <c r="CB46" s="10"/>
       <c r="CC46" s="11">
-        <f t="shared" ref="CC46:CE46" si="61">CC45/CC47</f>
+        <f t="shared" ref="CC46:CE46" si="59">CC45/CC47</f>
         <v>24.600453988798879</v>
       </c>
       <c r="CD46" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>29.987792300730359</v>
       </c>
       <c r="CE46" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>38.849452931835813</v>
       </c>
       <c r="CF46" s="11"/>
@@ -12659,23 +12669,23 @@
         <v>2268.5</v>
       </c>
       <c r="BJ47" s="44">
-        <f t="shared" ref="BJ47:BN47" si="62">+BI47</f>
+        <f t="shared" ref="BJ47:BN47" si="60">+BI47</f>
         <v>2268.5</v>
       </c>
       <c r="BK47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>2268.5</v>
       </c>
       <c r="BL47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>2268.5</v>
       </c>
       <c r="BM47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>2268.5</v>
       </c>
       <c r="BN47" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>2268.5</v>
       </c>
       <c r="BO47" s="44"/>
@@ -12685,27 +12695,27 @@
         <v>2016</v>
       </c>
       <c r="BR47" s="44">
-        <f t="shared" ref="BR47:BW47" si="63">BR44</f>
+        <f t="shared" ref="BR47:BW47" si="61">BR44</f>
         <v>2001</v>
       </c>
       <c r="BS47" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>3154</v>
       </c>
       <c r="BT47" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>3620</v>
       </c>
       <c r="BU47" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>4116</v>
       </c>
       <c r="BV47" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>954</v>
       </c>
       <c r="BW47" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>477</v>
       </c>
       <c r="BX47" s="44"/>
@@ -12926,39 +12936,39 @@
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
       <c r="G49" s="54">
-        <f t="shared" ref="G49:O49" si="64">G31/C31-1</f>
+        <f t="shared" ref="G49:O49" si="62">G31/C31-1</f>
         <v>0.17750141322781232</v>
       </c>
       <c r="H49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.17020702070207028</v>
       </c>
       <c r="I49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.11550773608394094</v>
       </c>
       <c r="J49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>4.2756099499324574E-2</v>
       </c>
       <c r="K49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>9.4095055208833323E-2</v>
       </c>
       <c r="L49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.18406276440273817</v>
       </c>
       <c r="M49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.24224790753288161</v>
       </c>
       <c r="N49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.22886975078119054</v>
       </c>
       <c r="O49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.14765247915752533</v>
       </c>
       <c r="P49" s="54"/>
@@ -13000,56 +13010,56 @@
       <c r="AZ49" s="54"/>
       <c r="BA49" s="54"/>
       <c r="BB49" s="54">
-        <f t="shared" ref="BB49:BH49" si="65">BB31/AX31-1</f>
+        <f t="shared" ref="BB49:BH49" si="63">BB31/AX31-1</f>
         <v>-8.6065953049325739E-3</v>
       </c>
       <c r="BC49" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>-2.0959409594095701E-3</v>
       </c>
       <c r="BD49" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0.10114643737919082</v>
       </c>
       <c r="BE49" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0.15180909884566884</v>
       </c>
       <c r="BF49" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0.19276246188312895</v>
       </c>
       <c r="BG49" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0.24337356525854936</v>
       </c>
       <c r="BH49" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0.24890287824218404</v>
       </c>
       <c r="BI49" s="54">
-        <f t="shared" ref="BI49:BN49" si="66">BI31/BE31-1</f>
+        <f t="shared" ref="BI49:BN49" si="64">BI31/BE31-1</f>
         <v>0.27915333221043181</v>
       </c>
       <c r="BJ49" s="54">
-        <f t="shared" si="66"/>
-        <v>0.15352672631935937</v>
+        <f t="shared" si="64"/>
+        <v>0.2545848224767171</v>
       </c>
       <c r="BK49" s="54">
-        <f t="shared" si="66"/>
-        <v>0.13185886607503994</v>
+        <f t="shared" si="64"/>
+        <v>0.13995146439532724</v>
       </c>
       <c r="BL49" s="54">
-        <f t="shared" si="66"/>
-        <v>0.14516515206591518</v>
+        <f t="shared" si="64"/>
+        <v>0.15531200775475584</v>
       </c>
       <c r="BM49" s="54">
-        <f t="shared" si="66"/>
-        <v>0.16664574463415693</v>
+        <f t="shared" si="64"/>
+        <v>0.17542795066496941</v>
       </c>
       <c r="BN49" s="54">
-        <f t="shared" si="66"/>
-        <v>0.15880381219110484</v>
+        <f t="shared" si="64"/>
+        <v>0.16427472344672722</v>
       </c>
       <c r="BO49" s="54"/>
       <c r="BP49" s="53"/>
@@ -13081,55 +13091,55 @@
       <c r="CA49" s="55"/>
       <c r="CB49" s="55"/>
       <c r="CC49" s="55">
-        <f t="shared" ref="CC49:CO49" si="67">CC31/CB31-1</f>
+        <f t="shared" ref="CC49:CO49" si="65">CC31/CB31-1</f>
         <v>0.18784325222319942</v>
       </c>
       <c r="CD49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>9.164801895485053E-2</v>
       </c>
       <c r="CE49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0.17604678503602322</v>
       </c>
       <c r="CF49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>7.1078871145515699E-2</v>
       </c>
       <c r="CG49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>6.262863159910026E-2</v>
       </c>
       <c r="CH49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0.21531202846654507</v>
       </c>
       <c r="CI49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>3.5700056519684553E-2</v>
       </c>
       <c r="CJ49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-7.5147611379500212E-4</v>
       </c>
       <c r="CK49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1.208637730984119E-3</v>
       </c>
       <c r="CL49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>9.1119635879139071E-2</v>
       </c>
       <c r="CM49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>4.0361904918005953E-2</v>
       </c>
       <c r="CN49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0.10913301718841084</v>
       </c>
       <c r="CO49" s="55">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="CP49" s="40"/>
@@ -13387,31 +13397,31 @@
       <c r="AZ51" s="54"/>
       <c r="BA51" s="54"/>
       <c r="BB51" s="54">
-        <f t="shared" ref="BB51:BN51" si="68">BB16/AX16-1</f>
+        <f t="shared" ref="BB51:BN51" si="66">BB16/AX16-1</f>
         <v>0.41764032073310431</v>
       </c>
       <c r="BC51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.40105152471083061</v>
       </c>
       <c r="BD51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.53742762613730366</v>
       </c>
       <c r="BE51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.63696612665684826</v>
       </c>
       <c r="BF51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.73173884938590827</v>
       </c>
       <c r="BG51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.80651456019213441</v>
       </c>
       <c r="BH51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.9299260255548083</v>
       </c>
       <c r="BI51" s="54">
@@ -13419,23 +13429,23 @@
         <v>0.84322986954565904</v>
       </c>
       <c r="BJ51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
+        <v>0.58417319895483399</v>
+      </c>
+      <c r="BK51" s="54">
+        <f t="shared" si="66"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BK51" s="54">
-        <f t="shared" si="68"/>
-        <v>0.39999999999999991</v>
-      </c>
       <c r="BL51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BM51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BN51" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BO51" s="54"/>
@@ -13572,31 +13582,31 @@
       <c r="AZ52" s="54"/>
       <c r="BA52" s="54"/>
       <c r="BB52" s="54">
-        <f t="shared" ref="BB52:BN52" si="69">SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
+        <f t="shared" ref="BB52:BN52" si="67">SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
         <v>0.15421707873049262</v>
       </c>
       <c r="BC52" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.11244806094182835</v>
       </c>
       <c r="BD52" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31081710612130808</v>
       </c>
       <c r="BE52" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.35507548586204019</v>
       </c>
       <c r="BF52" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.43038359285985561</v>
       </c>
       <c r="BG52" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.62026301455139676</v>
       </c>
       <c r="BH52" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.62584405430378842</v>
       </c>
       <c r="BI52" s="54">
@@ -13604,24 +13614,24 @@
         <v>0.64341991874923066</v>
       </c>
       <c r="BJ52" s="54">
-        <f t="shared" si="69"/>
-        <v>0.35672561202272846</v>
+        <f t="shared" si="67"/>
+        <v>0.58462110349954854</v>
       </c>
       <c r="BK52" s="54">
-        <f t="shared" si="69"/>
-        <v>0.31054173470367874</v>
+        <f t="shared" si="67"/>
+        <v>0.34843434828546727</v>
       </c>
       <c r="BL52" s="54">
-        <f t="shared" si="69"/>
-        <v>0.29911252950948675</v>
+        <f t="shared" si="67"/>
+        <v>0.33360584069248933</v>
       </c>
       <c r="BM52" s="54">
-        <f t="shared" si="69"/>
-        <v>0.31623656316715976</v>
+        <f t="shared" si="67"/>
+        <v>0.34578823176897999</v>
       </c>
       <c r="BN52" s="54">
-        <f t="shared" si="69"/>
-        <v>0.30504687163629951</v>
+        <f t="shared" si="67"/>
+        <v>0.30466487935656827</v>
       </c>
       <c r="BO52" s="54"/>
       <c r="BP52" s="53"/>
@@ -13757,31 +13767,31 @@
       <c r="AZ53" s="54"/>
       <c r="BA53" s="54"/>
       <c r="BB53" s="54">
-        <f t="shared" ref="BB53:BN53" si="70">BB19/AX19-1</f>
+        <f t="shared" ref="BB53:BN53" si="68">BB19/AX19-1</f>
         <v>-0.11445012787723785</v>
       </c>
       <c r="BC53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>-1.6487000634115456E-2</v>
       </c>
       <c r="BD53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.52293577981651373</v>
       </c>
       <c r="BE53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.79222720478325859</v>
       </c>
       <c r="BF53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.77545126353790605</v>
       </c>
       <c r="BG53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.28820116054158618</v>
       </c>
       <c r="BH53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.23594377510040165</v>
       </c>
       <c r="BI53" s="54">
@@ -13789,23 +13799,23 @@
         <v>0.32360300250208507</v>
       </c>
       <c r="BJ53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
+        <v>0.23708824725498179</v>
+      </c>
+      <c r="BK53" s="54">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BK53" s="54">
-        <f t="shared" si="70"/>
+      <c r="BL53" s="54">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BL53" s="54">
-        <f t="shared" si="70"/>
+      <c r="BM53" s="54">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BM53" s="54">
-        <f t="shared" si="70"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="BN53" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BO53" s="54"/>
@@ -13937,31 +13947,31 @@
       <c r="AZ54" s="54"/>
       <c r="BA54" s="54"/>
       <c r="BB54" s="54">
-        <f t="shared" ref="BB54:BN54" si="71">BB12/AX12-1</f>
+        <f t="shared" ref="BB54:BN54" si="69">BB12/AX12-1</f>
         <v>-8.5865700677534074E-2</v>
       </c>
       <c r="BC54" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>-6.5853965062209419E-2</v>
       </c>
       <c r="BD54" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>-3.3000146993973245E-2</v>
       </c>
       <c r="BE54" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>4.5288368275759217E-2</v>
       </c>
       <c r="BF54" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>2.5390768327584912E-2</v>
       </c>
       <c r="BG54" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>6.4576886855913784E-3</v>
       </c>
       <c r="BH54" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>-6.1868207038078604E-2</v>
       </c>
       <c r="BI54" s="54">
@@ -13969,24 +13979,24 @@
         <v>-7.487508922198427E-2</v>
       </c>
       <c r="BJ54" s="54">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="69"/>
+        <v>-9.2106204823588333E-2</v>
       </c>
       <c r="BK54" s="54">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="69"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="BL54" s="54">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="69"/>
+        <v>-5.0000000000000155E-2</v>
       </c>
       <c r="BM54" s="54">
-        <f t="shared" si="71"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="69"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="BN54" s="54">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="69"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="BO54" s="54"/>
       <c r="BP54" s="53"/>
@@ -14066,51 +14076,51 @@
         <v>154</v>
       </c>
       <c r="C55" s="56">
-        <f t="shared" ref="C55:N55" si="72">C33/C31</f>
+        <f t="shared" ref="C55:N55" si="70">C33/C31</f>
         <v>0.77265875259091765</v>
       </c>
       <c r="D55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.77011701170117008</v>
       </c>
       <c r="E55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.76827316379157029</v>
       </c>
       <c r="F55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.79845823730429943</v>
       </c>
       <c r="G55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.79932789246279401</v>
       </c>
       <c r="H55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.79924621182985922</v>
       </c>
       <c r="I55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.78373854125149467</v>
       </c>
       <c r="J55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.79468028351497599</v>
       </c>
       <c r="K55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.80327629077080587</v>
       </c>
       <c r="L55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.80713264908405868</v>
       </c>
       <c r="M55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.8116016427104723</v>
       </c>
       <c r="N55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.8</v>
       </c>
       <c r="O55" s="56"/>
@@ -14149,39 +14159,39 @@
       <c r="AV55" s="56"/>
       <c r="AW55" s="56"/>
       <c r="AX55" s="56">
-        <f t="shared" ref="AX55" si="73">AX33/AX31</f>
+        <f t="shared" ref="AX55" si="71">AX33/AX31</f>
         <v>0.83243359965450225</v>
       </c>
       <c r="AY55" s="56">
-        <f t="shared" ref="AY55:BB55" si="74">AY33/AY31</f>
+        <f t="shared" ref="AY55:BB55" si="72">AY33/AY31</f>
         <v>0.84100369003690034</v>
       </c>
       <c r="AZ55" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0.84096514030527225</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0.83331716623015484</v>
       </c>
       <c r="BB55" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0.8251602464372394</v>
       </c>
       <c r="BC55" s="56">
-        <f t="shared" ref="BC55:BF55" si="75">BC33/BC31</f>
+        <f t="shared" ref="BC55:BF55" si="73">BC33/BC31</f>
         <v>0.82809726659566918</v>
       </c>
       <c r="BD55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>0.83211767198329345</v>
       </c>
       <c r="BE55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>0.82990848352141933</v>
       </c>
       <c r="BF55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>0.83718988860772703</v>
       </c>
       <c r="BG55" s="56">
@@ -14189,7 +14199,7 @@
         <v>0.83543099141110133</v>
       </c>
       <c r="BH55" s="56">
-        <f t="shared" ref="BH55:BN55" si="76">BH33/BH31</f>
+        <f t="shared" ref="BH55:BN55" si="74">BH33/BH31</f>
         <v>0.85292620865139945</v>
       </c>
       <c r="BI55" s="56">
@@ -14197,23 +14207,23 @@
         <v>0.8419874467804942</v>
       </c>
       <c r="BJ55" s="56">
-        <f t="shared" si="76"/>
-        <v>0.84999999999999987</v>
+        <f t="shared" si="74"/>
+        <v>0.85</v>
       </c>
       <c r="BK55" s="56">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>0.86</v>
       </c>
       <c r="BL55" s="56">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>0.86</v>
       </c>
       <c r="BM55" s="56">
-        <f t="shared" si="76"/>
-        <v>0.87</v>
+        <f t="shared" si="74"/>
+        <v>0.87000000000000011</v>
       </c>
       <c r="BN55" s="56">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>0.87</v>
       </c>
       <c r="BO55" s="56"/>
@@ -14230,63 +14240,63 @@
       <c r="BZ55" s="39"/>
       <c r="CA55" s="39"/>
       <c r="CB55" s="56">
-        <f t="shared" ref="CB55:CP55" si="77">CB33/CB31</f>
+        <f t="shared" ref="CB55:CP55" si="75">CB33/CB31</f>
         <v>0.79429297371249874</v>
       </c>
       <c r="CC55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.80781887587205481</v>
       </c>
       <c r="CD55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.81025231362855332</v>
       </c>
       <c r="CE55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.82742931843231748</v>
       </c>
       <c r="CF55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CG55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.83602459293290998</v>
       </c>
       <c r="CH55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.85000972879816916</v>
       </c>
       <c r="CI55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.84627840400787258</v>
       </c>
       <c r="CJ55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.84214295946139517</v>
       </c>
       <c r="CK55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.84246765208215968</v>
       </c>
       <c r="CL55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.8353725997983954</v>
       </c>
       <c r="CM55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.83511099207537065</v>
       </c>
       <c r="CN55" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.83197443181818187</v>
       </c>
       <c r="CO55" s="56" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CP55" s="56" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CQ55" s="40"/>
@@ -14386,23 +14396,23 @@
       <c r="AV56" s="56"/>
       <c r="AW56" s="56"/>
       <c r="AX56" s="56">
-        <f t="shared" ref="AX56" si="78">+AX34/AX31</f>
+        <f t="shared" ref="AX56" si="76">+AX34/AX31</f>
         <v>0.29416664095999012</v>
       </c>
       <c r="AY56" s="56">
-        <f t="shared" ref="AY56:BB56" si="79">+AY34/AY31</f>
+        <f t="shared" ref="AY56:BB56" si="77">+AY34/AY31</f>
         <v>0.22405904059040591</v>
       </c>
       <c r="AZ56" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>0.24655068986202761</v>
       </c>
       <c r="BA56" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>0.26429980276134124</v>
       </c>
       <c r="BB56" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>0.30387703030680191</v>
       </c>
       <c r="BC56" s="56">
@@ -14410,23 +14420,23 @@
         <v>0.24423145189918352</v>
       </c>
       <c r="BD56" s="56">
-        <f t="shared" ref="BD56:BN56" si="80">+BD34/BD31</f>
+        <f t="shared" ref="BD56:BN56" si="78">+BD34/BD31</f>
         <v>0.24215368784237765</v>
       </c>
       <c r="BE56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.25599348717084947</v>
       </c>
       <c r="BF56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.30344611692275586</v>
       </c>
       <c r="BG56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.24227355999143491</v>
       </c>
       <c r="BH56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.26269235429540772</v>
       </c>
       <c r="BI56" s="56">
@@ -14434,24 +14444,24 @@
         <v>0.25130579818285564</v>
       </c>
       <c r="BJ56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.3</v>
       </c>
       <c r="BK56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.24</v>
       </c>
       <c r="BL56" s="56">
-        <f t="shared" si="80"/>
-        <v>0.24</v>
+        <f t="shared" si="78"/>
+        <v>0.24000000000000002</v>
       </c>
       <c r="BM56" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.26</v>
       </c>
       <c r="BN56" s="56">
-        <f t="shared" si="80"/>
-        <v>0.3</v>
+        <f t="shared" si="78"/>
+        <v>0.29999999999999993</v>
       </c>
       <c r="BO56" s="56"/>
       <c r="BP56" s="39"/>
@@ -14578,7 +14588,7 @@
       <c r="AV57" s="56"/>
       <c r="AW57" s="56"/>
       <c r="AX57" s="56">
-        <f t="shared" ref="AX57" si="81">+AX35/AX31</f>
+        <f t="shared" ref="AX57" si="79">+AX35/AX31</f>
         <v>0.13523768393127064</v>
       </c>
       <c r="AY57" s="56">
@@ -14586,39 +14596,39 @@
         <v>0.11149815498154982</v>
       </c>
       <c r="AZ57" s="56">
-        <f t="shared" ref="AZ57:BN57" si="82">+AZ35/AZ31</f>
+        <f t="shared" ref="AZ57:BN57" si="80">+AZ35/AZ31</f>
         <v>0.10967806438712258</v>
       </c>
       <c r="BA57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.12645908106185533</v>
       </c>
       <c r="BB57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.13949218993092288</v>
       </c>
       <c r="BC57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.11667258312625725</v>
       </c>
       <c r="BD57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.11936684725038589</v>
       </c>
       <c r="BE57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.11936443770703498</v>
       </c>
       <c r="BF57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.14692301672188454</v>
       </c>
       <c r="BG57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.12386095976779044</v>
       </c>
       <c r="BH57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.124148794377802</v>
       </c>
       <c r="BI57" s="56">
@@ -14626,24 +14636,24 @@
         <v>0.12362287670631611</v>
       </c>
       <c r="BJ57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0.11</v>
       </c>
       <c r="BK57" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
+        <v>0.11</v>
+      </c>
+      <c r="BL57" s="56">
+        <f t="shared" si="80"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="BL57" s="56">
-        <f t="shared" si="82"/>
+      <c r="BM57" s="56">
+        <f t="shared" si="80"/>
         <v>0.11</v>
       </c>
-      <c r="BM57" s="56">
-        <f t="shared" si="82"/>
+      <c r="BN57" s="56">
+        <f t="shared" si="80"/>
         <v>0.11</v>
-      </c>
-      <c r="BN57" s="56">
-        <f t="shared" si="82"/>
-        <v>0.11000000000000001</v>
       </c>
       <c r="BO57" s="56"/>
       <c r="BP57" s="39"/>
@@ -14727,43 +14737,43 @@
         <v>0.42991631799163182</v>
       </c>
       <c r="D58" s="56">
-        <f t="shared" ref="D58:M58" si="83">D44/D43</f>
+        <f t="shared" ref="D58:M58" si="81">D44/D43</f>
         <v>0.27451556077510275</v>
       </c>
       <c r="E58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.25752508361204013</v>
       </c>
       <c r="F58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.24104234527687296</v>
       </c>
       <c r="G58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.22995720399429387</v>
       </c>
       <c r="H58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.22991761071060762</v>
       </c>
       <c r="I58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.23620737454948712</v>
       </c>
       <c r="J58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.22359625668449198</v>
       </c>
       <c r="K58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.23002084781097984</v>
       </c>
       <c r="L58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.23003472222222221</v>
       </c>
       <c r="M58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.23002577319587628</v>
       </c>
       <c r="N58" s="56">
@@ -14806,43 +14816,43 @@
       <c r="AV58" s="56"/>
       <c r="AW58" s="56"/>
       <c r="AX58" s="56">
-        <f t="shared" ref="AX58" si="84">+AX44/AX43</f>
+        <f t="shared" ref="AX58" si="82">+AX44/AX43</f>
         <v>0.21319613683545446</v>
       </c>
       <c r="AY58" s="56">
-        <f t="shared" ref="AY58:BB58" si="85">+AY44/AY43</f>
+        <f t="shared" ref="AY58:BB58" si="83">+AY44/AY43</f>
         <v>0.20797550096531522</v>
       </c>
       <c r="AZ58" s="56">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>0.20803518187239117</v>
       </c>
       <c r="BA58" s="56">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>0.18855882121188244</v>
       </c>
       <c r="BB58" s="56">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>0.22362939510081653</v>
       </c>
       <c r="BC58" s="56">
-        <f t="shared" ref="BC58:BG58" si="86">+BC44/BC43</f>
+        <f t="shared" ref="BC58:BG58" si="84">+BC44/BC43</f>
         <v>0.20799347471451876</v>
       </c>
       <c r="BD58" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0.18730307702621171</v>
       </c>
       <c r="BE58" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0.19805452620434091</v>
       </c>
       <c r="BF58" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0.16937390375962785</v>
       </c>
       <c r="BG58" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0.20698699704224566</v>
       </c>
       <c r="BH58" s="56">
@@ -14854,24 +14864,24 @@
         <v>0.20114241348713399</v>
       </c>
       <c r="BJ58" s="56">
-        <f t="shared" ref="BJ58:BN58" si="87">+BJ44/BJ43</f>
+        <f t="shared" ref="BJ58:BN58" si="85">+BJ44/BJ43</f>
         <v>0.2</v>
       </c>
       <c r="BK58" s="56">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0.2</v>
       </c>
       <c r="BL58" s="56">
-        <f t="shared" si="87"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="85"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="BM58" s="56">
-        <f t="shared" si="87"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="85"/>
+        <v>0.2</v>
       </c>
       <c r="BN58" s="56">
-        <f t="shared" si="87"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="85"/>
+        <v>0.2</v>
       </c>
       <c r="BO58" s="56"/>
       <c r="BP58" s="39"/>
@@ -14955,35 +14965,35 @@
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="56">
-        <f t="shared" ref="G59:N59" si="88">+G46/C46-1</f>
+        <f t="shared" ref="G59:N59" si="86">+G46/C46-1</f>
         <v>0.26555470372527656</v>
       </c>
       <c r="H59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0.2317467921523495</v>
       </c>
       <c r="I59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>5.6513780158608862E-2</v>
       </c>
       <c r="J59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>2.9156860030458143E-2</v>
       </c>
       <c r="K59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0.27248103257280354</v>
       </c>
       <c r="L59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0.2244971740943098</v>
       </c>
       <c r="M59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0.34395333855076848</v>
       </c>
       <c r="N59" s="56">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0.59020839337398123</v>
       </c>
       <c r="O59" s="56"/>

--- a/NOVOB.xlsx
+++ b/NOVOB.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338288F1-F82A-4D71-8F55-7A3BF75FDEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8CB01-521F-4AB2-9CFD-6CC339E2A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="7395" windowWidth="21420" windowHeight="13530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2700" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="25" r:id="rId1"/>
     <sheet name="Model" sheetId="6" r:id="rId2"/>
-    <sheet name="Type 2 Diabetes" sheetId="29" r:id="rId3"/>
-    <sheet name="Victoza" sheetId="26" r:id="rId4"/>
-    <sheet name="NovoLog" sheetId="27" r:id="rId5"/>
-    <sheet name="Levemir" sheetId="28" r:id="rId6"/>
+    <sheet name="Ozempic" sheetId="31" r:id="rId3"/>
+    <sheet name="Wegovy" sheetId="30" r:id="rId4"/>
+    <sheet name="Type 2 Diabetes" sheetId="29" r:id="rId5"/>
+    <sheet name="Victoza" sheetId="26" r:id="rId6"/>
+    <sheet name="NovoLog" sheetId="27" r:id="rId7"/>
+    <sheet name="Levemir" sheetId="28" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Analyst">#REF!</definedName>
@@ -276,6 +278,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alistair Campbell</author>
+    <author>tc={FF59098B-CDEA-4E95-99E9-B148257A5966}</author>
   </authors>
   <commentList>
     <comment ref="BS40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -350,12 +353,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="BK49" authorId="1" shapeId="0" xr:uid="{FF59098B-CDEA-4E95-99E9-B148257A5966}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    25% CER</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -471,15 +482,9 @@
     <t>rhFXIII</t>
   </si>
   <si>
-    <t>NN9535 (semaglutide)</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
-    <t>QW SC</t>
-  </si>
-  <si>
     <t>NN7999</t>
   </si>
   <si>
@@ -1039,12 +1044,93 @@
   </si>
   <si>
     <t>10/14/22: Forma closes</t>
+  </si>
+  <si>
+    <t>5/4/23: Q123 results</t>
+  </si>
+  <si>
+    <t>Wegovy (semaglutide)</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>semaglutide</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>subcutaneous once-weekly</t>
+  </si>
+  <si>
+    <t>0.25mg, 0.5mg, 1.0mg, 1.7mg, 2.4mg</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>GLP-1 agonist</t>
+  </si>
+  <si>
+    <t>6/24/2021 FDA</t>
+  </si>
+  <si>
+    <t>Ozempic (semaglutide)</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Wegovy, fka NN9535</t>
+  </si>
+  <si>
+    <t>Rybelsus (semaglutide)</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>7762994 needle delivery expires 2024</t>
+  </si>
+  <si>
+    <t>8114833 formulation expires 2025</t>
+  </si>
+  <si>
+    <t>8129343 acylated GLP-1 expires 2031</t>
+  </si>
+  <si>
+    <t>8536122 acylated GLP-1 expires 2026</t>
+  </si>
+  <si>
+    <t>8579869 needle mounting expires 2023</t>
+  </si>
+  <si>
+    <t>8684969 injection device expires 2025</t>
+  </si>
+  <si>
+    <t>8920383 injection device expires 2026</t>
+  </si>
+  <si>
+    <t>9108002 injection device expires 2026</t>
+  </si>
+  <si>
+    <t>9132239 injectiond evice expires 2032</t>
+  </si>
+  <si>
+    <t>Saxenda (liraglutide)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="13">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1060,7 +1146,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0"/>
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1156,6 +1242,19 @@
       <b/>
       <u/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1357,7 +1456,7 @@
     <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1481,6 +1580,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="% XX, X" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1506,7 +1606,9 @@
     <cellStyle name="Währung_Bayer Kennz. 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{110E60CA-C530-4483-9081-BEE591688290}"/>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1590,14 +1692,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>73479</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>35379</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>73479</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>35379</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>78925</xdr:rowOff>
     </xdr:to>
@@ -1616,7 +1718,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="29356050" y="0"/>
+          <a:off x="29992865" y="0"/>
           <a:ext cx="0" cy="14284782"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1645,13 +1747,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>92</xdr:col>
-      <xdr:colOff>69397</xdr:colOff>
+      <xdr:colOff>4083</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>92</xdr:col>
-      <xdr:colOff>69397</xdr:colOff>
+      <xdr:colOff>4083</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>107497</xdr:rowOff>
     </xdr:to>
@@ -1670,8 +1772,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="39928120" y="5442177"/>
-          <a:ext cx="10884354" cy="0"/>
+          <a:off x="39062706" y="5523820"/>
+          <a:ext cx="11047640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1697,6 +1799,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{1928DA2E-AA96-44E0-A017-EBF35EB40633}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2045,15 +2153,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BK49" dT="2023-05-16T03:34:34.88" personId="{1928DA2E-AA96-44E0-A017-EBF35EB40633}" id="{FF59098B-CDEA-4E95-99E9-B148257A5966}">
+    <text>25% CER</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" style="24" bestFit="1" customWidth="1"/>
@@ -2069,7 +2185,7 @@
     <col min="12" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
@@ -2092,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="25">
-        <v>771.2</v>
+        <v>1162</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2118,13 +2234,13 @@
         <v>11</v>
       </c>
       <c r="J3" s="28">
-        <v>2268.5</v>
+        <v>2256.6</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2148,10 +2264,10 @@
       </c>
       <c r="J4" s="28">
         <f>J3*J2</f>
-        <v>1749467.2000000002</v>
+        <v>2622169.1999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2177,10 +2293,10 @@
         <v>43989</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2206,10 +2322,10 @@
         <v>32552</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
@@ -2233,10 +2349,10 @@
       </c>
       <c r="J7" s="28">
         <f>J4-J5+J6</f>
-        <v>1738030.2000000002</v>
+        <v>2610732.1999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +2366,7 @@
       <c r="F8" s="26"/>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
@@ -2268,83 +2384,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20">
+        <v>44371</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+        <v>238</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43074</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1</v>
+      </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="19" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1</v>
+      </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="30"/>
-      <c r="J13" s="28"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="30"/>
+      <c r="J14" s="28"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D16" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>34</v>
@@ -2352,148 +2505,151 @@
       <c r="F16" s="26"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F17" s="26"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="E18" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="E19" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>47</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="E27" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="E28" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="E30" s="24" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2503,6 +2659,7 @@
     <hyperlink ref="B3" location="NovoLog!A1" display="NovoLog/NovoRapid (insulin aspart)" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B4" location="NovoLog!A1" display="NovoLog Mix/NovoMix (insulin aspart/protamine)" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B5" location="Levemir!A1" display="Levemir (insulin detemir)" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" location="Wegovy!A1" display="Wegovy (semaglutide)" xr:uid="{94316FA9-3948-421D-A0D7-91AAA32E59A3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2514,14 +2671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EH87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BE22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AZ42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ32" sqref="BJ32"/>
+      <selection pane="bottomRight" activeCell="BB51" sqref="BB51:BG58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
@@ -2532,13 +2689,13 @@
     <col min="76" max="76" width="7.7109375" style="6" customWidth="1"/>
     <col min="77" max="78" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="79" max="86" width="7.7109375" style="6" customWidth="1"/>
-    <col min="87" max="92" width="7.7109375" style="7" customWidth="1"/>
-    <col min="93" max="16384" width="9.140625" style="7"/>
+    <col min="87" max="101" width="7.7109375" style="7" customWidth="1"/>
+    <col min="102" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:138" ht="12.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38"/>
@@ -2678,223 +2835,223 @@
       <c r="EG1" s="40"/>
       <c r="EH1" s="40"/>
     </row>
-    <row r="2" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:138" ht="12.75" customHeight="1">
       <c r="A2" s="41"/>
       <c r="B2" s="36"/>
       <c r="C2" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="G2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="I2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="J2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="K2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="L2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="M2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="N2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="O2" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="P2" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="Q2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="R2" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="S2" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="T2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="U2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="V2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="W2" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="X2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="Y2" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="Z2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="AA2" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="Z2" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA2" s="42" t="s">
-        <v>87</v>
       </c>
       <c r="AB2" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AC2" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AF2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AG2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AH2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AI2" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AK2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AL2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="42" t="s">
+      <c r="AM2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AN2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AO2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AP2" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="AO2" s="42" t="s">
+      <c r="AQ2" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="42" t="s">
+      <c r="AR2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AQ2" s="42" t="s">
+      <c r="AS2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="AR2" s="42" t="s">
+      <c r="AT2" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="AS2" s="42" t="s">
+      <c r="AU2" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="AT2" s="42" t="s">
+      <c r="AV2" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="AU2" s="42" t="s">
+      <c r="AW2" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="42" t="s">
+      <c r="AX2" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AW2" s="42" t="s">
+      <c r="AY2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AX2" s="42" t="s">
+      <c r="AZ2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="AY2" s="42" t="s">
+      <c r="BA2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="BB2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BC2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BD2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BE2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BF2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="BE2" s="42" t="s">
+      <c r="BG2" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="BF2" s="42" t="s">
+      <c r="BH2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="BG2" s="42" t="s">
+      <c r="BI2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="BH2" s="42" t="s">
+      <c r="BJ2" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="BI2" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ2" s="42" t="s">
-        <v>121</v>
-      </c>
       <c r="BK2" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL2" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM2" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="BL2" s="42" t="s">
+      <c r="BN2" s="42" t="s">
         <v>199</v>
-      </c>
-      <c r="BM2" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN2" s="42" t="s">
-        <v>201</v>
       </c>
       <c r="BO2" s="42"/>
       <c r="BP2" s="43"/>
       <c r="BQ2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS2" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="BR2" s="42" t="s">
+      <c r="BT2" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="BS2" s="42" t="s">
+      <c r="BU2" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="BT2" s="42" t="s">
+      <c r="BV2" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="BU2" s="42" t="s">
+      <c r="BW2" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="BV2" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW2" s="42" t="s">
-        <v>128</v>
       </c>
       <c r="BX2" s="42">
         <v>2005</v>
@@ -2953,39 +3110,39 @@
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="CO2" s="58">
+      <c r="CO2" s="60">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="CP2" s="58">
+      <c r="CP2" s="60">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="CQ2" s="58">
+      <c r="CQ2" s="60">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="CR2" s="58">
+      <c r="CR2" s="60">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="CS2" s="58">
+      <c r="CS2" s="60">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="CT2" s="58">
+      <c r="CT2" s="60">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="CU2" s="58">
+      <c r="CU2" s="60">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="CV2" s="58">
+      <c r="CV2" s="60">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="CW2" s="58">
+      <c r="CW2" s="60">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
@@ -3027,10 +3184,10 @@
       <c r="EG2" s="40"/>
       <c r="EH2" s="40"/>
     </row>
-    <row r="3" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3136,10 +3293,21 @@
       <c r="BJ3" s="44">
         <v>3966</v>
       </c>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
+      <c r="BK3" s="44">
+        <v>3970</v>
+      </c>
+      <c r="BL3" s="44">
+        <f>BH3*0.9</f>
+        <v>3033.9</v>
+      </c>
+      <c r="BM3" s="44">
+        <f t="shared" ref="BM3:BM11" si="1">BI3*0.9</f>
+        <v>3400.2000000000003</v>
+      </c>
+      <c r="BN3" s="44">
+        <f t="shared" ref="BN3:BN11" si="2">BJ3*0.9</f>
+        <v>3569.4</v>
+      </c>
       <c r="BO3" s="44"/>
       <c r="BP3" s="45"/>
       <c r="BQ3" s="44"/>
@@ -3165,13 +3333,21 @@
       <c r="CK3" s="46"/>
       <c r="CL3" s="46"/>
       <c r="CM3" s="46">
+        <f>SUM(AY3:BB3)</f>
         <v>16928</v>
       </c>
       <c r="CN3" s="46">
+        <f>SUM(BC3:BF3)</f>
         <v>15939</v>
       </c>
-      <c r="CO3" s="46"/>
-      <c r="CP3" s="46"/>
+      <c r="CO3" s="46">
+        <f>SUM(BG3:BJ3)</f>
+        <v>15460</v>
+      </c>
+      <c r="CP3" s="46">
+        <f>SUM(BK3:BN3)</f>
+        <v>13973.5</v>
+      </c>
       <c r="CQ3" s="46"/>
       <c r="CR3" s="46"/>
       <c r="CS3" s="46"/>
@@ -3217,10 +3393,10 @@
       <c r="EG3" s="46"/>
       <c r="EH3" s="46"/>
     </row>
-    <row r="4" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3308,10 +3484,21 @@
       <c r="BJ4" s="44">
         <v>505</v>
       </c>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
+      <c r="BK4" s="44">
+        <v>518</v>
+      </c>
+      <c r="BL4" s="44">
+        <f t="shared" ref="BL4:BL11" si="3">BH4*0.9</f>
+        <v>464.40000000000003</v>
+      </c>
+      <c r="BM4" s="44">
+        <f t="shared" si="1"/>
+        <v>436.5</v>
+      </c>
+      <c r="BN4" s="44">
+        <f t="shared" si="2"/>
+        <v>454.5</v>
+      </c>
       <c r="BO4" s="44"/>
       <c r="BP4" s="45"/>
       <c r="BQ4" s="44"/>
@@ -3337,13 +3524,21 @@
       <c r="CK4" s="46"/>
       <c r="CL4" s="46"/>
       <c r="CM4" s="46">
+        <f t="shared" ref="CM4:CM9" si="4">SUM(AY4:BB4)</f>
         <v>1385</v>
       </c>
       <c r="CN4" s="46">
+        <f t="shared" ref="CN4:CN9" si="5">SUM(BC4:BF4)</f>
         <v>1748</v>
       </c>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
+      <c r="CO4" s="46">
+        <f t="shared" ref="CO4:CO9" si="6">SUM(BG4:BJ4)</f>
+        <v>2003</v>
+      </c>
+      <c r="CP4" s="46">
+        <f t="shared" ref="CP4:CP9" si="7">SUM(BK4:BN4)</f>
+        <v>1873.4</v>
+      </c>
       <c r="CQ4" s="46"/>
       <c r="CR4" s="46"/>
       <c r="CS4" s="46"/>
@@ -3389,10 +3584,10 @@
       <c r="EG4" s="46"/>
       <c r="EH4" s="46"/>
     </row>
-    <row r="5" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -3498,10 +3693,21 @@
       <c r="BJ5" s="44">
         <v>1613</v>
       </c>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
+      <c r="BK5" s="44">
+        <v>1805</v>
+      </c>
+      <c r="BL5" s="44">
+        <f t="shared" si="3"/>
+        <v>1607.4</v>
+      </c>
+      <c r="BM5" s="44">
+        <f t="shared" si="1"/>
+        <v>1709.1000000000001</v>
+      </c>
+      <c r="BN5" s="44">
+        <f t="shared" si="2"/>
+        <v>1451.7</v>
+      </c>
       <c r="BO5" s="44"/>
       <c r="BP5" s="45"/>
       <c r="BQ5" s="44"/>
@@ -3527,13 +3733,21 @@
       <c r="CK5" s="46"/>
       <c r="CL5" s="46"/>
       <c r="CM5" s="46">
+        <f t="shared" si="4"/>
         <v>9634</v>
       </c>
       <c r="CN5" s="46">
+        <f t="shared" si="5"/>
         <v>9492</v>
       </c>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
+      <c r="CO5" s="46">
+        <f t="shared" si="6"/>
+        <v>7673</v>
+      </c>
+      <c r="CP5" s="46">
+        <f t="shared" si="7"/>
+        <v>6573.2</v>
+      </c>
       <c r="CQ5" s="46"/>
       <c r="CR5" s="46"/>
       <c r="CS5" s="46"/>
@@ -3579,10 +3793,10 @@
       <c r="EG5" s="46"/>
       <c r="EH5" s="46"/>
     </row>
-    <row r="6" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -3670,10 +3884,21 @@
       <c r="BJ6" s="44">
         <v>730</v>
       </c>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="44"/>
+      <c r="BK6" s="44">
+        <v>971</v>
+      </c>
+      <c r="BL6" s="44">
+        <f t="shared" si="3"/>
+        <v>643.5</v>
+      </c>
+      <c r="BM6" s="44">
+        <f t="shared" si="1"/>
+        <v>726.30000000000007</v>
+      </c>
+      <c r="BN6" s="44">
+        <f t="shared" si="2"/>
+        <v>657</v>
+      </c>
       <c r="BO6" s="44"/>
       <c r="BP6" s="45"/>
       <c r="BQ6" s="44"/>
@@ -3699,13 +3924,21 @@
       <c r="CK6" s="46"/>
       <c r="CL6" s="46"/>
       <c r="CM6" s="46">
+        <f t="shared" si="4"/>
         <v>1291</v>
       </c>
       <c r="CN6" s="46">
+        <f t="shared" si="5"/>
         <v>1711</v>
       </c>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="46"/>
+      <c r="CO6" s="46">
+        <f t="shared" si="6"/>
+        <v>2889</v>
+      </c>
+      <c r="CP6" s="46">
+        <f t="shared" si="7"/>
+        <v>2997.8</v>
+      </c>
       <c r="CQ6" s="46"/>
       <c r="CR6" s="46"/>
       <c r="CS6" s="46"/>
@@ -3751,10 +3984,10 @@
       <c r="EG6" s="46"/>
       <c r="EH6" s="46"/>
     </row>
-    <row r="7" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -3870,10 +4103,21 @@
       <c r="BJ7" s="44">
         <v>2247</v>
       </c>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
-      <c r="BM7" s="44"/>
-      <c r="BN7" s="44"/>
+      <c r="BK7" s="44">
+        <v>2179</v>
+      </c>
+      <c r="BL7" s="44">
+        <f t="shared" si="3"/>
+        <v>2042.1000000000001</v>
+      </c>
+      <c r="BM7" s="44">
+        <f t="shared" si="1"/>
+        <v>2045.7</v>
+      </c>
+      <c r="BN7" s="44">
+        <f t="shared" si="2"/>
+        <v>2022.3</v>
+      </c>
       <c r="BO7" s="44"/>
       <c r="BP7" s="45"/>
       <c r="BQ7" s="44"/>
@@ -3899,13 +4143,21 @@
       <c r="CK7" s="46"/>
       <c r="CL7" s="46"/>
       <c r="CM7" s="46">
+        <f t="shared" si="4"/>
         <v>8968</v>
       </c>
       <c r="CN7" s="46">
+        <f t="shared" si="5"/>
         <v>9729</v>
       </c>
-      <c r="CO7" s="46"/>
-      <c r="CP7" s="46"/>
+      <c r="CO7" s="46">
+        <f t="shared" si="6"/>
+        <v>9353</v>
+      </c>
+      <c r="CP7" s="46">
+        <f t="shared" si="7"/>
+        <v>8289.1</v>
+      </c>
       <c r="CQ7" s="46"/>
       <c r="CR7" s="46"/>
       <c r="CS7" s="46"/>
@@ -3951,10 +4203,10 @@
       <c r="EG7" s="46"/>
       <c r="EH7" s="46"/>
     </row>
-    <row r="8" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -4060,10 +4312,21 @@
       <c r="BJ8" s="44">
         <v>959</v>
       </c>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
+      <c r="BK8" s="44">
+        <v>1173</v>
+      </c>
+      <c r="BL8" s="44">
+        <f t="shared" si="3"/>
+        <v>1029.6000000000001</v>
+      </c>
+      <c r="BM8" s="44">
+        <f t="shared" si="1"/>
+        <v>864.9</v>
+      </c>
+      <c r="BN8" s="44">
+        <f t="shared" si="2"/>
+        <v>863.1</v>
+      </c>
       <c r="BO8" s="44"/>
       <c r="BP8" s="45"/>
       <c r="BQ8" s="44"/>
@@ -4089,13 +4352,21 @@
       <c r="CK8" s="46"/>
       <c r="CL8" s="46"/>
       <c r="CM8" s="46">
+        <f t="shared" si="4"/>
         <v>7027</v>
       </c>
       <c r="CN8" s="46">
+        <f t="shared" si="5"/>
         <v>5678</v>
       </c>
-      <c r="CO8" s="46"/>
-      <c r="CP8" s="46"/>
+      <c r="CO8" s="46">
+        <f t="shared" si="6"/>
+        <v>4579</v>
+      </c>
+      <c r="CP8" s="46">
+        <f t="shared" si="7"/>
+        <v>3930.6000000000004</v>
+      </c>
       <c r="CQ8" s="46"/>
       <c r="CR8" s="46"/>
       <c r="CS8" s="46"/>
@@ -4141,10 +4412,10 @@
       <c r="EG8" s="46"/>
       <c r="EH8" s="46"/>
     </row>
-    <row r="9" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -4232,10 +4503,21 @@
       <c r="BJ9" s="44">
         <v>696</v>
       </c>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44"/>
-      <c r="BM9" s="44"/>
-      <c r="BN9" s="44"/>
+      <c r="BK9" s="44">
+        <v>781</v>
+      </c>
+      <c r="BL9" s="44">
+        <f t="shared" si="3"/>
+        <v>621.9</v>
+      </c>
+      <c r="BM9" s="44">
+        <f t="shared" si="1"/>
+        <v>634.5</v>
+      </c>
+      <c r="BN9" s="44">
+        <f t="shared" si="2"/>
+        <v>626.4</v>
+      </c>
       <c r="BO9" s="44"/>
       <c r="BP9" s="45"/>
       <c r="BQ9" s="44"/>
@@ -4261,13 +4543,21 @@
       <c r="CK9" s="46"/>
       <c r="CL9" s="46"/>
       <c r="CM9" s="46">
+        <f t="shared" si="4"/>
         <v>2444</v>
       </c>
       <c r="CN9" s="46">
+        <f t="shared" si="5"/>
         <v>2657</v>
       </c>
-      <c r="CO9" s="46"/>
-      <c r="CP9" s="46"/>
+      <c r="CO9" s="46">
+        <f t="shared" si="6"/>
+        <v>2809</v>
+      </c>
+      <c r="CP9" s="46">
+        <f t="shared" si="7"/>
+        <v>2663.8</v>
+      </c>
       <c r="CQ9" s="46"/>
       <c r="CR9" s="46"/>
       <c r="CS9" s="46"/>
@@ -4313,10 +4603,10 @@
       <c r="EG9" s="46"/>
       <c r="EH9" s="46"/>
     </row>
-    <row r="10" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="45">
         <v>3821</v>
@@ -4364,55 +4654,55 @@
         <v>6705</v>
       </c>
       <c r="P10" s="44">
-        <f t="shared" ref="P10:AB10" si="1">SUM(P3:P8)</f>
+        <f t="shared" ref="P10:AB10" si="8">SUM(P3:P8)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="X10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="Y10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="Z10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="AA10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9457</v>
       </c>
       <c r="AB10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10492</v>
       </c>
       <c r="AC10" s="46"/>
@@ -4453,61 +4743,73 @@
       <c r="AV10" s="44"/>
       <c r="AW10" s="44"/>
       <c r="AX10" s="44">
-        <f t="shared" ref="AX10:BJ10" si="2">SUM(AX3:AX9)</f>
+        <f t="shared" ref="AX10:BN10" si="9">SUM(AX3:AX9)</f>
         <v>12703</v>
       </c>
       <c r="AY10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>13227</v>
       </c>
       <c r="AZ10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11292</v>
       </c>
       <c r="BA10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11209</v>
       </c>
       <c r="BB10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11949</v>
       </c>
       <c r="BC10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>12331</v>
       </c>
       <c r="BD10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11116</v>
       </c>
       <c r="BE10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11619</v>
       </c>
       <c r="BF10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11888</v>
       </c>
       <c r="BG10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>12650</v>
       </c>
       <c r="BH10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10492</v>
       </c>
       <c r="BI10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10908</v>
       </c>
       <c r="BJ10" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10716</v>
       </c>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="44"/>
+      <c r="BK10" s="44">
+        <f t="shared" si="9"/>
+        <v>11397</v>
+      </c>
+      <c r="BL10" s="44">
+        <f t="shared" si="9"/>
+        <v>9442.8000000000011</v>
+      </c>
+      <c r="BM10" s="44">
+        <f t="shared" si="9"/>
+        <v>9817.2000000000007</v>
+      </c>
+      <c r="BN10" s="44">
+        <f t="shared" si="9"/>
+        <v>9644.4</v>
+      </c>
       <c r="BO10" s="44"/>
       <c r="BP10" s="45"/>
       <c r="BQ10" s="44"/>
@@ -4525,11 +4827,11 @@
         <v>17317</v>
       </c>
       <c r="CB10" s="44">
-        <f t="shared" ref="CB10:CB11" si="3">SUM(G10:J10)</f>
+        <f t="shared" ref="CB10:CB11" si="10">SUM(G10:J10)</f>
         <v>21471</v>
       </c>
       <c r="CC10" s="44">
-        <f t="shared" ref="CC10:CC11" si="4">SUM(K10:N10)</f>
+        <f t="shared" ref="CC10:CC11" si="11">SUM(K10:N10)</f>
         <v>26601</v>
       </c>
       <c r="CD10" s="44">
@@ -4550,11 +4852,17 @@
         <v>47677</v>
       </c>
       <c r="CN10" s="46">
-        <f>SUM(CN3:CN9)</f>
+        <f t="shared" ref="CN10:CP10" si="12">SUM(CN3:CN9)</f>
         <v>46954</v>
       </c>
-      <c r="CO10" s="46"/>
-      <c r="CP10" s="46"/>
+      <c r="CO10" s="46">
+        <f t="shared" si="12"/>
+        <v>44766</v>
+      </c>
+      <c r="CP10" s="46">
+        <f t="shared" si="12"/>
+        <v>40301.4</v>
+      </c>
       <c r="CQ10" s="46"/>
       <c r="CR10" s="46"/>
       <c r="CS10" s="46"/>
@@ -4600,10 +4908,10 @@
       <c r="EG10" s="46"/>
       <c r="EH10" s="46"/>
     </row>
-    <row r="11" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:138" ht="12.75" customHeight="1">
       <c r="A11" s="41"/>
       <c r="B11" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="45">
         <v>2939</v>
@@ -4747,10 +5055,21 @@
       <c r="BJ11" s="44">
         <v>1970</v>
       </c>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
+      <c r="BK11" s="44">
+        <v>2012</v>
+      </c>
+      <c r="BL11" s="44">
+        <f t="shared" si="3"/>
+        <v>1665.9</v>
+      </c>
+      <c r="BM11" s="44">
+        <f t="shared" si="1"/>
+        <v>1847.7</v>
+      </c>
+      <c r="BN11" s="44">
+        <f t="shared" si="2"/>
+        <v>1773</v>
+      </c>
       <c r="BO11" s="44"/>
       <c r="BP11" s="43"/>
       <c r="BQ11" s="42"/>
@@ -4764,15 +5083,15 @@
       <c r="BY11" s="42"/>
       <c r="BZ11" s="42"/>
       <c r="CA11" s="44">
-        <f t="shared" ref="CA11:CA30" si="5">SUM(C11:F11)</f>
+        <f t="shared" ref="CA11:CA30" si="13">SUM(C11:F11)</f>
         <v>11804</v>
       </c>
       <c r="CB11" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>11315</v>
       </c>
       <c r="CC11" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11827</v>
       </c>
       <c r="CD11" s="44">
@@ -4789,20 +5108,28 @@
       <c r="CK11" s="46"/>
       <c r="CL11" s="46"/>
       <c r="CM11" s="46">
+        <f t="shared" ref="CM11" si="14">SUM(AY11:BB11)</f>
         <v>8873</v>
       </c>
       <c r="CN11" s="46">
+        <f t="shared" ref="CN11" si="15">SUM(BC11:BF11)</f>
         <v>9052</v>
       </c>
-      <c r="CO11" s="40"/>
-      <c r="CP11" s="40"/>
-      <c r="CQ11" s="40"/>
-      <c r="CR11" s="40"/>
-      <c r="CS11" s="40"/>
-      <c r="CT11" s="40"/>
-      <c r="CU11" s="40"/>
-      <c r="CV11" s="40"/>
-      <c r="CW11" s="40"/>
+      <c r="CO11" s="46">
+        <f t="shared" ref="CO11" si="16">SUM(BG11:BJ11)</f>
+        <v>8186</v>
+      </c>
+      <c r="CP11" s="46">
+        <f t="shared" ref="CP11" si="17">SUM(BK11:BN11)</f>
+        <v>7298.6</v>
+      </c>
+      <c r="CQ11" s="46"/>
+      <c r="CR11" s="46"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="46"/>
+      <c r="CU11" s="46"/>
+      <c r="CV11" s="46"/>
+      <c r="CW11" s="46"/>
       <c r="CX11" s="40"/>
       <c r="CY11" s="40"/>
       <c r="CZ11" s="40"/>
@@ -4841,10 +5168,10 @@
       <c r="EG11" s="40"/>
       <c r="EH11" s="40"/>
     </row>
-    <row r="12" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:138" ht="12.75" customHeight="1">
       <c r="A12" s="41"/>
       <c r="B12" s="47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -4894,35 +5221,35 @@
       <c r="AV12" s="44"/>
       <c r="AW12" s="44"/>
       <c r="AX12" s="44">
-        <f t="shared" ref="AX12:BJ12" si="6">+AX11+AX10</f>
+        <f t="shared" ref="AX12:BE12" si="18">+AX11+AX10</f>
         <v>14907</v>
       </c>
       <c r="AY12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>15914</v>
       </c>
       <c r="AZ12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13606</v>
       </c>
       <c r="BA12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13403</v>
       </c>
       <c r="BB12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13627</v>
       </c>
       <c r="BC12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>14866</v>
       </c>
       <c r="BD12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13157</v>
       </c>
       <c r="BE12" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>14010</v>
       </c>
       <c r="BF12" s="44">
@@ -4946,20 +5273,20 @@
         <v>12686</v>
       </c>
       <c r="BK12" s="44">
-        <f>+BG12*0.95</f>
-        <v>14213.9</v>
+        <f>+BK11+BK10</f>
+        <v>13409</v>
       </c>
       <c r="BL12" s="44">
-        <f>+BH12*0.95</f>
-        <v>11725.849999999999</v>
+        <f t="shared" ref="BL12:BN12" si="19">+BL11+BL10</f>
+        <v>11108.7</v>
       </c>
       <c r="BM12" s="44">
-        <f>+BI12*0.95</f>
-        <v>12312.949999999999</v>
+        <f t="shared" si="19"/>
+        <v>11664.900000000001</v>
       </c>
       <c r="BN12" s="44">
-        <f>+BJ12*0.95</f>
-        <v>12051.699999999999</v>
+        <f t="shared" si="19"/>
+        <v>11417.4</v>
       </c>
       <c r="BO12" s="44"/>
       <c r="BP12" s="43"/>
@@ -4993,15 +5320,21 @@
         <f>CN11+CN10</f>
         <v>56006</v>
       </c>
-      <c r="CO12" s="40"/>
-      <c r="CP12" s="40"/>
-      <c r="CQ12" s="40"/>
-      <c r="CR12" s="40"/>
-      <c r="CS12" s="40"/>
-      <c r="CT12" s="40"/>
-      <c r="CU12" s="40"/>
-      <c r="CV12" s="40"/>
-      <c r="CW12" s="40"/>
+      <c r="CO12" s="46">
+        <f>CO11+CO10</f>
+        <v>52952</v>
+      </c>
+      <c r="CP12" s="46">
+        <f>CP11+CP10</f>
+        <v>47600</v>
+      </c>
+      <c r="CQ12" s="46"/>
+      <c r="CR12" s="46"/>
+      <c r="CS12" s="46"/>
+      <c r="CT12" s="46"/>
+      <c r="CU12" s="46"/>
+      <c r="CV12" s="46"/>
+      <c r="CW12" s="46"/>
       <c r="CX12" s="40"/>
       <c r="CY12" s="40"/>
       <c r="CZ12" s="40"/>
@@ -5040,7 +5373,7 @@
       <c r="EG12" s="40"/>
       <c r="EH12" s="40"/>
     </row>
-    <row r="13" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:138" ht="12.75" customHeight="1">
       <c r="A13" s="41"/>
       <c r="B13" s="47"/>
       <c r="C13" s="45"/>
@@ -5133,15 +5466,15 @@
       <c r="CL13" s="46"/>
       <c r="CM13" s="46"/>
       <c r="CN13" s="46"/>
-      <c r="CO13" s="40"/>
-      <c r="CP13" s="40"/>
-      <c r="CQ13" s="40"/>
-      <c r="CR13" s="40"/>
-      <c r="CS13" s="40"/>
-      <c r="CT13" s="40"/>
-      <c r="CU13" s="40"/>
-      <c r="CV13" s="40"/>
-      <c r="CW13" s="40"/>
+      <c r="CO13" s="46"/>
+      <c r="CP13" s="46"/>
+      <c r="CQ13" s="46"/>
+      <c r="CR13" s="46"/>
+      <c r="CS13" s="46"/>
+      <c r="CT13" s="46"/>
+      <c r="CU13" s="46"/>
+      <c r="CV13" s="46"/>
+      <c r="CW13" s="46"/>
       <c r="CX13" s="40"/>
       <c r="CY13" s="40"/>
       <c r="CZ13" s="40"/>
@@ -5180,10 +5513,10 @@
       <c r="EG13" s="40"/>
       <c r="EH13" s="40"/>
     </row>
-    <row r="14" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:138" ht="12.75" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -5315,19 +5648,18 @@
         <v>3323</v>
       </c>
       <c r="BK14" s="44">
-        <f t="shared" ref="BJ14:BN14" si="7">+BG14*0.9</f>
-        <v>2989.8</v>
+        <v>2815</v>
       </c>
       <c r="BL14" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="BK14:BN14" si="20">+BH14*0.9</f>
         <v>2439</v>
       </c>
       <c r="BM14" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2670.3</v>
       </c>
       <c r="BN14" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2990.7000000000003</v>
       </c>
       <c r="BO14" s="44"/>
@@ -5367,20 +5699,28 @@
       <c r="CK14" s="46"/>
       <c r="CL14" s="46"/>
       <c r="CM14" s="46">
+        <f t="shared" ref="CM14:CM19" si="21">SUM(AY14:BB14)</f>
         <v>18747</v>
       </c>
       <c r="CN14" s="46">
+        <f t="shared" ref="CN14:CN19" si="22">SUM(BC14:BF14)</f>
         <v>15054</v>
       </c>
-      <c r="CO14" s="40"/>
-      <c r="CP14" s="40"/>
-      <c r="CQ14" s="40"/>
-      <c r="CR14" s="40"/>
-      <c r="CS14" s="40"/>
-      <c r="CT14" s="40"/>
-      <c r="CU14" s="40"/>
-      <c r="CV14" s="40"/>
-      <c r="CW14" s="40"/>
+      <c r="CO14" s="46">
+        <f t="shared" ref="CO14:CO19" si="23">SUM(BG14:BJ14)</f>
+        <v>12322</v>
+      </c>
+      <c r="CP14" s="46">
+        <f t="shared" ref="CP14:CP19" si="24">SUM(BK14:BN14)</f>
+        <v>10915</v>
+      </c>
+      <c r="CQ14" s="46"/>
+      <c r="CR14" s="46"/>
+      <c r="CS14" s="46"/>
+      <c r="CT14" s="46"/>
+      <c r="CU14" s="46"/>
+      <c r="CV14" s="46"/>
+      <c r="CW14" s="46"/>
       <c r="CX14" s="40"/>
       <c r="CY14" s="40"/>
       <c r="CZ14" s="40"/>
@@ -5419,10 +5759,10 @@
       <c r="EG14" s="40"/>
       <c r="EH14" s="40"/>
     </row>
-    <row r="15" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:138" ht="12.75" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -5511,20 +5851,19 @@
         <v>4053</v>
       </c>
       <c r="BK15" s="44">
-        <f t="shared" ref="BK15:BN15" si="8">+BG15*1.5</f>
-        <v>3094.5</v>
+        <v>4356</v>
       </c>
       <c r="BL15" s="44">
-        <f t="shared" si="8"/>
-        <v>3258</v>
+        <f>+BH15*1.8</f>
+        <v>3909.6</v>
       </c>
       <c r="BM15" s="44">
-        <f t="shared" si="8"/>
-        <v>4516.5</v>
+        <f>+BI15*1.6</f>
+        <v>4817.6000000000004</v>
       </c>
       <c r="BN15" s="44">
-        <f t="shared" si="8"/>
-        <v>6079.5</v>
+        <f>+BJ15*1.7</f>
+        <v>6890.0999999999995</v>
       </c>
       <c r="BO15" s="44"/>
       <c r="BP15" s="43"/>
@@ -5551,20 +5890,28 @@
       <c r="CK15" s="46"/>
       <c r="CL15" s="46"/>
       <c r="CM15" s="46">
+        <f t="shared" si="21"/>
         <v>1873</v>
       </c>
       <c r="CN15" s="46">
+        <f t="shared" si="22"/>
         <v>4838</v>
       </c>
-      <c r="CO15" s="40"/>
-      <c r="CP15" s="40"/>
-      <c r="CQ15" s="40"/>
-      <c r="CR15" s="40"/>
-      <c r="CS15" s="40"/>
-      <c r="CT15" s="40"/>
-      <c r="CU15" s="40"/>
-      <c r="CV15" s="40"/>
-      <c r="CW15" s="40"/>
+      <c r="CO15" s="46">
+        <f t="shared" si="23"/>
+        <v>11299</v>
+      </c>
+      <c r="CP15" s="46">
+        <f t="shared" si="24"/>
+        <v>19973.3</v>
+      </c>
+      <c r="CQ15" s="46"/>
+      <c r="CR15" s="46"/>
+      <c r="CS15" s="46"/>
+      <c r="CT15" s="46"/>
+      <c r="CU15" s="46"/>
+      <c r="CV15" s="46"/>
+      <c r="CW15" s="46"/>
       <c r="CX15" s="40"/>
       <c r="CY15" s="40"/>
       <c r="CZ15" s="40"/>
@@ -5603,10 +5950,10 @@
       <c r="EG15" s="40"/>
       <c r="EH15" s="40"/>
     </row>
-    <row r="16" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:138" ht="12.75" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -5695,8 +6042,7 @@
         <v>16976</v>
       </c>
       <c r="BK16" s="44">
-        <f>+BG16*1.4</f>
-        <v>16849</v>
+        <v>19640</v>
       </c>
       <c r="BL16" s="44">
         <f>+BH16*1.3</f>
@@ -5735,20 +6081,28 @@
       <c r="CK16" s="46"/>
       <c r="CL16" s="46"/>
       <c r="CM16" s="46">
+        <f t="shared" si="21"/>
         <v>21211</v>
       </c>
       <c r="CN16" s="46">
+        <f t="shared" si="22"/>
         <v>33705</v>
       </c>
-      <c r="CO16" s="40"/>
-      <c r="CP16" s="40"/>
-      <c r="CQ16" s="40"/>
-      <c r="CR16" s="40"/>
-      <c r="CS16" s="40"/>
-      <c r="CT16" s="40"/>
-      <c r="CU16" s="40"/>
-      <c r="CV16" s="40"/>
-      <c r="CW16" s="40"/>
+      <c r="CO16" s="46">
+        <f t="shared" si="23"/>
+        <v>59750</v>
+      </c>
+      <c r="CP16" s="46">
+        <f t="shared" si="24"/>
+        <v>81669.5</v>
+      </c>
+      <c r="CQ16" s="46"/>
+      <c r="CR16" s="46"/>
+      <c r="CS16" s="46"/>
+      <c r="CT16" s="46"/>
+      <c r="CU16" s="46"/>
+      <c r="CV16" s="46"/>
+      <c r="CW16" s="46"/>
       <c r="CX16" s="40"/>
       <c r="CY16" s="40"/>
       <c r="CZ16" s="40"/>
@@ -5787,10 +6141,10 @@
       <c r="EG16" s="40"/>
       <c r="EH16" s="40"/>
     </row>
-    <row r="17" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:138" ht="12.75" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="45">
         <v>443</v>
@@ -5909,11 +6263,11 @@
       <c r="BY17" s="42"/>
       <c r="BZ17" s="42"/>
       <c r="CA17" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1844</v>
       </c>
       <c r="CB17" s="44">
-        <f t="shared" ref="CB17:CB28" si="9">SUM(G17:J17)</f>
+        <f t="shared" ref="CB17:CB28" si="25">SUM(G17:J17)</f>
         <v>2064</v>
       </c>
       <c r="CC17" s="44">
@@ -5933,17 +6287,29 @@
       <c r="CJ17" s="46"/>
       <c r="CK17" s="46"/>
       <c r="CL17" s="46"/>
-      <c r="CM17" s="46"/>
-      <c r="CN17" s="46"/>
-      <c r="CO17" s="40"/>
-      <c r="CP17" s="40"/>
-      <c r="CQ17" s="40"/>
-      <c r="CR17" s="40"/>
-      <c r="CS17" s="40"/>
-      <c r="CT17" s="40"/>
-      <c r="CU17" s="40"/>
-      <c r="CV17" s="40"/>
-      <c r="CW17" s="40"/>
+      <c r="CM17" s="46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="CN17" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="CO17" s="46">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="CP17" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="46"/>
+      <c r="CR17" s="46"/>
+      <c r="CS17" s="46"/>
+      <c r="CT17" s="46"/>
+      <c r="CU17" s="46"/>
+      <c r="CV17" s="46"/>
+      <c r="CW17" s="46"/>
       <c r="CX17" s="40"/>
       <c r="CY17" s="40"/>
       <c r="CZ17" s="40"/>
@@ -5982,10 +6348,10 @@
       <c r="EG17" s="40"/>
       <c r="EH17" s="40"/>
     </row>
-    <row r="18" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:138" ht="12.75" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -6056,20 +6422,19 @@
         <v>2446</v>
       </c>
       <c r="BK18" s="44">
-        <f t="shared" ref="BJ18:BN18" si="10">+BJ18+500</f>
-        <v>2946</v>
+        <v>4563</v>
       </c>
       <c r="BL18" s="44">
-        <f t="shared" si="10"/>
-        <v>3446</v>
+        <f t="shared" ref="BK18:BN18" si="26">+BK18+500</f>
+        <v>5063</v>
       </c>
       <c r="BM18" s="44">
-        <f t="shared" si="10"/>
-        <v>3946</v>
+        <f t="shared" si="26"/>
+        <v>5563</v>
       </c>
       <c r="BN18" s="44">
-        <f t="shared" si="10"/>
-        <v>4446</v>
+        <f t="shared" si="26"/>
+        <v>6063</v>
       </c>
       <c r="BO18" s="44"/>
       <c r="BP18" s="43"/>
@@ -6096,20 +6461,28 @@
       <c r="CK18" s="46"/>
       <c r="CL18" s="46"/>
       <c r="CM18" s="46">
-        <v>5608</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="CN18" s="46">
-        <v>8400</v>
-      </c>
-      <c r="CO18" s="40"/>
-      <c r="CP18" s="40"/>
-      <c r="CQ18" s="40"/>
-      <c r="CR18" s="40"/>
-      <c r="CS18" s="40"/>
-      <c r="CT18" s="40"/>
-      <c r="CU18" s="40"/>
-      <c r="CV18" s="40"/>
-      <c r="CW18" s="40"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="CO18" s="46">
+        <f t="shared" si="23"/>
+        <v>6188</v>
+      </c>
+      <c r="CP18" s="46">
+        <f t="shared" si="24"/>
+        <v>21252</v>
+      </c>
+      <c r="CQ18" s="46"/>
+      <c r="CR18" s="46"/>
+      <c r="CS18" s="46"/>
+      <c r="CT18" s="46"/>
+      <c r="CU18" s="46"/>
+      <c r="CV18" s="46"/>
+      <c r="CW18" s="46"/>
       <c r="CX18" s="40"/>
       <c r="CY18" s="40"/>
       <c r="CZ18" s="40"/>
@@ -6148,10 +6521,10 @@
       <c r="EG18" s="40"/>
       <c r="EH18" s="40"/>
     </row>
-    <row r="19" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:138" ht="12.75" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -6240,20 +6613,19 @@
         <v>3042</v>
       </c>
       <c r="BK19" s="44">
-        <f t="shared" ref="BJ19:BN19" si="11">+BG19*1.1</f>
-        <v>2197.8000000000002</v>
+        <v>3279</v>
       </c>
       <c r="BL19" s="44">
-        <f t="shared" si="11"/>
-        <v>2708.2000000000003</v>
+        <f>+BH19*1.3</f>
+        <v>3200.6</v>
       </c>
       <c r="BM19" s="44">
-        <f t="shared" si="11"/>
-        <v>3491.4</v>
+        <f>+BI19*1.3</f>
+        <v>4126.2</v>
       </c>
       <c r="BN19" s="44">
-        <f t="shared" si="11"/>
-        <v>3346.2000000000003</v>
+        <f>+BJ19*1.3</f>
+        <v>3954.6</v>
       </c>
       <c r="BO19" s="44"/>
       <c r="BP19" s="43"/>
@@ -6279,17 +6651,29 @@
       <c r="CJ19" s="46"/>
       <c r="CK19" s="46"/>
       <c r="CL19" s="46"/>
-      <c r="CM19" s="46"/>
-      <c r="CN19" s="46"/>
-      <c r="CO19" s="40"/>
-      <c r="CP19" s="40"/>
-      <c r="CQ19" s="40"/>
-      <c r="CR19" s="40"/>
-      <c r="CS19" s="40"/>
-      <c r="CT19" s="40"/>
-      <c r="CU19" s="40"/>
-      <c r="CV19" s="40"/>
-      <c r="CW19" s="40"/>
+      <c r="CM19" s="46">
+        <f t="shared" si="21"/>
+        <v>5608</v>
+      </c>
+      <c r="CN19" s="46">
+        <f t="shared" si="22"/>
+        <v>8400</v>
+      </c>
+      <c r="CO19" s="46">
+        <f t="shared" si="23"/>
+        <v>10676</v>
+      </c>
+      <c r="CP19" s="46">
+        <f t="shared" si="24"/>
+        <v>14560.4</v>
+      </c>
+      <c r="CQ19" s="46"/>
+      <c r="CR19" s="46"/>
+      <c r="CS19" s="46"/>
+      <c r="CT19" s="46"/>
+      <c r="CU19" s="46"/>
+      <c r="CV19" s="46"/>
+      <c r="CW19" s="46"/>
       <c r="CX19" s="40"/>
       <c r="CY19" s="40"/>
       <c r="CZ19" s="40"/>
@@ -6328,7 +6712,7 @@
       <c r="EG19" s="40"/>
       <c r="EH19" s="40"/>
     </row>
-    <row r="20" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:138" ht="12.75" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="47"/>
       <c r="C20" s="45"/>
@@ -6421,15 +6805,15 @@
       <c r="CL20" s="46"/>
       <c r="CM20" s="46"/>
       <c r="CN20" s="46"/>
-      <c r="CO20" s="40"/>
-      <c r="CP20" s="40"/>
-      <c r="CQ20" s="40"/>
-      <c r="CR20" s="40"/>
-      <c r="CS20" s="40"/>
-      <c r="CT20" s="40"/>
-      <c r="CU20" s="40"/>
-      <c r="CV20" s="40"/>
-      <c r="CW20" s="40"/>
+      <c r="CO20" s="46"/>
+      <c r="CP20" s="46"/>
+      <c r="CQ20" s="46"/>
+      <c r="CR20" s="46"/>
+      <c r="CS20" s="46"/>
+      <c r="CT20" s="46"/>
+      <c r="CU20" s="46"/>
+      <c r="CV20" s="46"/>
+      <c r="CW20" s="46"/>
       <c r="CX20" s="40"/>
       <c r="CY20" s="40"/>
       <c r="CZ20" s="40"/>
@@ -6468,10 +6852,10 @@
       <c r="EG20" s="40"/>
       <c r="EH20" s="40"/>
     </row>
-    <row r="21" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:138" ht="12.75" customHeight="1">
       <c r="A21" s="41"/>
       <c r="B21" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="45">
         <v>640</v>
@@ -6616,19 +7000,18 @@
         <v>713</v>
       </c>
       <c r="BK21" s="44">
-        <f t="shared" ref="BJ21:BN21" si="12">+BG21*0.9</f>
-        <v>795.6</v>
+        <v>729</v>
       </c>
       <c r="BL21" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="BK21:BN21" si="27">+BH21*0.9</f>
         <v>747</v>
       </c>
       <c r="BM21" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>718.2</v>
       </c>
       <c r="BN21" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>641.70000000000005</v>
       </c>
       <c r="BO21" s="44"/>
@@ -6644,11 +7027,11 @@
       <c r="BY21" s="42"/>
       <c r="BZ21" s="42"/>
       <c r="CA21" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2391</v>
       </c>
       <c r="CB21" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>2652</v>
       </c>
       <c r="CC21" s="44">
@@ -6669,20 +7052,28 @@
       <c r="CK21" s="46"/>
       <c r="CL21" s="46"/>
       <c r="CM21" s="46">
+        <f t="shared" ref="CM21" si="28">SUM(AY21:BB21)</f>
         <v>4031</v>
       </c>
       <c r="CN21" s="46">
+        <f t="shared" ref="CN21" si="29">SUM(BC21:BF21)</f>
         <v>3594</v>
       </c>
-      <c r="CO21" s="40"/>
-      <c r="CP21" s="40"/>
-      <c r="CQ21" s="40"/>
-      <c r="CR21" s="40"/>
-      <c r="CS21" s="40"/>
-      <c r="CT21" s="40"/>
-      <c r="CU21" s="40"/>
-      <c r="CV21" s="40"/>
-      <c r="CW21" s="40"/>
+      <c r="CO21" s="46">
+        <f t="shared" ref="CO21" si="30">SUM(BG21:BJ21)</f>
+        <v>3225</v>
+      </c>
+      <c r="CP21" s="46">
+        <f t="shared" ref="CP21" si="31">SUM(BK21:BN21)</f>
+        <v>2835.8999999999996</v>
+      </c>
+      <c r="CQ21" s="46"/>
+      <c r="CR21" s="46"/>
+      <c r="CS21" s="46"/>
+      <c r="CT21" s="46"/>
+      <c r="CU21" s="46"/>
+      <c r="CV21" s="46"/>
+      <c r="CW21" s="46"/>
       <c r="CX21" s="40"/>
       <c r="CY21" s="40"/>
       <c r="CZ21" s="40"/>
@@ -6721,7 +7112,7 @@
       <c r="EG21" s="40"/>
       <c r="EH21" s="40"/>
     </row>
-    <row r="22" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:138" ht="12.75" customHeight="1">
       <c r="A22" s="41"/>
       <c r="B22" s="47"/>
       <c r="C22" s="45"/>
@@ -6814,15 +7205,15 @@
       <c r="CL22" s="46"/>
       <c r="CM22" s="46"/>
       <c r="CN22" s="46"/>
-      <c r="CO22" s="40"/>
-      <c r="CP22" s="40"/>
-      <c r="CQ22" s="40"/>
-      <c r="CR22" s="40"/>
-      <c r="CS22" s="40"/>
-      <c r="CT22" s="40"/>
-      <c r="CU22" s="40"/>
-      <c r="CV22" s="40"/>
-      <c r="CW22" s="40"/>
+      <c r="CO22" s="46"/>
+      <c r="CP22" s="46"/>
+      <c r="CQ22" s="46"/>
+      <c r="CR22" s="46"/>
+      <c r="CS22" s="46"/>
+      <c r="CT22" s="46"/>
+      <c r="CU22" s="46"/>
+      <c r="CV22" s="46"/>
+      <c r="CW22" s="46"/>
       <c r="CX22" s="40"/>
       <c r="CY22" s="40"/>
       <c r="CZ22" s="40"/>
@@ -6861,7 +7252,7 @@
       <c r="EG22" s="40"/>
       <c r="EH22" s="40"/>
     </row>
-    <row r="23" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:138" ht="12.75" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="47" t="s">
         <v>28</v>
@@ -7010,19 +7401,18 @@
         <v>1911</v>
       </c>
       <c r="BK23" s="44">
-        <f t="shared" ref="BK23:BK27" si="13">+BG23*0.9</f>
-        <v>2043.9</v>
+        <v>2101</v>
       </c>
       <c r="BL23" s="44">
-        <f t="shared" ref="BL23:BL27" si="14">+BH23*0.9</f>
+        <f t="shared" ref="BL23:BL27" si="32">+BH23*0.9</f>
         <v>1816.2</v>
       </c>
       <c r="BM23" s="44">
-        <f t="shared" ref="BM23:BM27" si="15">+BI23*0.9</f>
+        <f t="shared" ref="BM23:BM27" si="33">+BI23*0.9</f>
         <v>1897.2</v>
       </c>
       <c r="BN23" s="44">
-        <f t="shared" ref="BN23:BN27" si="16">+BJ23*0.9</f>
+        <f t="shared" ref="BN23:BN27" si="34">+BJ23*0.9</f>
         <v>1719.9</v>
       </c>
       <c r="BO23" s="44"/>
@@ -7038,11 +7428,11 @@
       <c r="BY23" s="42"/>
       <c r="BZ23" s="42"/>
       <c r="CA23" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6396</v>
       </c>
       <c r="CB23" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>7072</v>
       </c>
       <c r="CC23" s="44">
@@ -7063,20 +7453,28 @@
       <c r="CK23" s="46"/>
       <c r="CL23" s="46"/>
       <c r="CM23" s="46">
+        <f t="shared" ref="CM23:CM30" si="35">SUM(AY23:BB23)</f>
         <v>7203</v>
       </c>
       <c r="CN23" s="46">
+        <f t="shared" ref="CN23:CN30" si="36">SUM(BC23:BF23)</f>
         <v>7221</v>
       </c>
-      <c r="CO23" s="40"/>
-      <c r="CP23" s="40"/>
-      <c r="CQ23" s="40"/>
-      <c r="CR23" s="40"/>
-      <c r="CS23" s="40"/>
-      <c r="CT23" s="40"/>
-      <c r="CU23" s="40"/>
-      <c r="CV23" s="40"/>
-      <c r="CW23" s="40"/>
+      <c r="CO23" s="46">
+        <f t="shared" ref="CO23:CO30" si="37">SUM(BG23:BJ23)</f>
+        <v>8308</v>
+      </c>
+      <c r="CP23" s="46">
+        <f t="shared" ref="CP23:CP30" si="38">SUM(BK23:BN23)</f>
+        <v>7534.2999999999993</v>
+      </c>
+      <c r="CQ23" s="46"/>
+      <c r="CR23" s="46"/>
+      <c r="CS23" s="46"/>
+      <c r="CT23" s="46"/>
+      <c r="CU23" s="46"/>
+      <c r="CV23" s="46"/>
+      <c r="CW23" s="46"/>
       <c r="CX23" s="40"/>
       <c r="CY23" s="40"/>
       <c r="CZ23" s="40"/>
@@ -7115,10 +7513,10 @@
       <c r="EG23" s="40"/>
       <c r="EH23" s="40"/>
     </row>
-    <row r="24" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:138" ht="12.75" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -7196,19 +7594,18 @@
         <v>642</v>
       </c>
       <c r="BK24" s="44">
-        <f t="shared" si="13"/>
-        <v>508.5</v>
+        <v>660</v>
       </c>
       <c r="BL24" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>557.1</v>
       </c>
       <c r="BM24" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>460.8</v>
       </c>
       <c r="BN24" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>577.80000000000007</v>
       </c>
       <c r="BO24" s="44"/>
@@ -7236,20 +7633,28 @@
       <c r="CK24" s="46"/>
       <c r="CL24" s="46"/>
       <c r="CM24" s="46">
-        <v>1713</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
       <c r="CN24" s="46">
+        <f t="shared" si="36"/>
         <v>2112</v>
       </c>
-      <c r="CO24" s="40"/>
-      <c r="CP24" s="40"/>
-      <c r="CQ24" s="40"/>
-      <c r="CR24" s="40"/>
-      <c r="CS24" s="40"/>
-      <c r="CT24" s="40"/>
-      <c r="CU24" s="40"/>
-      <c r="CV24" s="40"/>
-      <c r="CW24" s="40"/>
+      <c r="CO24" s="46">
+        <f t="shared" si="37"/>
+        <v>2338</v>
+      </c>
+      <c r="CP24" s="46">
+        <f t="shared" si="38"/>
+        <v>2255.6999999999998</v>
+      </c>
+      <c r="CQ24" s="46"/>
+      <c r="CR24" s="46"/>
+      <c r="CS24" s="46"/>
+      <c r="CT24" s="46"/>
+      <c r="CU24" s="46"/>
+      <c r="CV24" s="46"/>
+      <c r="CW24" s="46"/>
       <c r="CX24" s="40"/>
       <c r="CY24" s="40"/>
       <c r="CZ24" s="40"/>
@@ -7288,10 +7693,10 @@
       <c r="EG24" s="40"/>
       <c r="EH24" s="40"/>
     </row>
-    <row r="25" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:138" ht="12.75" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -7380,19 +7785,18 @@
         <v>226</v>
       </c>
       <c r="BK25" s="44">
-        <f t="shared" si="13"/>
-        <v>159.30000000000001</v>
+        <v>197</v>
       </c>
       <c r="BL25" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>145.80000000000001</v>
       </c>
       <c r="BM25" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>174.6</v>
       </c>
       <c r="BN25" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>203.4</v>
       </c>
       <c r="BO25" s="44"/>
@@ -7420,20 +7824,28 @@
       <c r="CK25" s="46"/>
       <c r="CL25" s="46"/>
       <c r="CM25" s="46">
-        <v>518</v>
+        <f t="shared" si="35"/>
+        <v>1462</v>
       </c>
       <c r="CN25" s="46">
+        <f t="shared" si="36"/>
         <v>637</v>
       </c>
-      <c r="CO25" s="40"/>
-      <c r="CP25" s="40"/>
-      <c r="CQ25" s="40"/>
-      <c r="CR25" s="40"/>
-      <c r="CS25" s="40"/>
-      <c r="CT25" s="40"/>
-      <c r="CU25" s="40"/>
-      <c r="CV25" s="40"/>
-      <c r="CW25" s="40"/>
+      <c r="CO25" s="46">
+        <f t="shared" si="37"/>
+        <v>759</v>
+      </c>
+      <c r="CP25" s="46">
+        <f t="shared" si="38"/>
+        <v>720.8</v>
+      </c>
+      <c r="CQ25" s="46"/>
+      <c r="CR25" s="46"/>
+      <c r="CS25" s="46"/>
+      <c r="CT25" s="46"/>
+      <c r="CU25" s="46"/>
+      <c r="CV25" s="46"/>
+      <c r="CW25" s="46"/>
       <c r="CX25" s="40"/>
       <c r="CY25" s="40"/>
       <c r="CZ25" s="40"/>
@@ -7472,10 +7884,10 @@
       <c r="EG25" s="40"/>
       <c r="EH25" s="40"/>
     </row>
-    <row r="26" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:138" ht="12.75" customHeight="1">
       <c r="A26" s="41"/>
       <c r="B26" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -7576,19 +7988,19 @@
         <v>102</v>
       </c>
       <c r="BK26" s="44">
-        <f t="shared" si="13"/>
+        <f>3049-BK25-BK24-BK23</f>
+        <v>91</v>
+      </c>
+      <c r="BL26" s="44">
+        <f t="shared" si="32"/>
         <v>57.6</v>
       </c>
-      <c r="BL26" s="44">
-        <f t="shared" si="14"/>
-        <v>57.6</v>
-      </c>
       <c r="BM26" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>63.9</v>
       </c>
       <c r="BN26" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>91.8</v>
       </c>
       <c r="BO26" s="44"/>
@@ -7615,17 +8027,29 @@
       <c r="CJ26" s="46"/>
       <c r="CK26" s="46"/>
       <c r="CL26" s="46"/>
-      <c r="CM26" s="46"/>
-      <c r="CN26" s="46"/>
-      <c r="CO26" s="40"/>
-      <c r="CP26" s="40"/>
-      <c r="CQ26" s="40"/>
-      <c r="CR26" s="40"/>
-      <c r="CS26" s="40"/>
-      <c r="CT26" s="40"/>
-      <c r="CU26" s="40"/>
-      <c r="CV26" s="40"/>
-      <c r="CW26" s="40"/>
+      <c r="CM26" s="46">
+        <f t="shared" si="35"/>
+        <v>997</v>
+      </c>
+      <c r="CN26" s="46">
+        <f t="shared" si="36"/>
+        <v>247</v>
+      </c>
+      <c r="CO26" s="46">
+        <f t="shared" si="37"/>
+        <v>301</v>
+      </c>
+      <c r="CP26" s="46">
+        <f t="shared" si="38"/>
+        <v>304.3</v>
+      </c>
+      <c r="CQ26" s="46"/>
+      <c r="CR26" s="46"/>
+      <c r="CS26" s="46"/>
+      <c r="CT26" s="46"/>
+      <c r="CU26" s="46"/>
+      <c r="CV26" s="46"/>
+      <c r="CW26" s="46"/>
       <c r="CX26" s="40"/>
       <c r="CY26" s="40"/>
       <c r="CZ26" s="40"/>
@@ -7664,10 +8088,10 @@
       <c r="EG26" s="40"/>
       <c r="EH26" s="40"/>
     </row>
-    <row r="27" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:138" ht="12.75" customHeight="1">
       <c r="A27" s="41"/>
       <c r="B27" s="47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -7769,19 +8193,19 @@
         <v>1972</v>
       </c>
       <c r="BK27" s="44">
-        <f t="shared" si="13"/>
-        <v>2057.4</v>
+        <f>399+1128</f>
+        <v>1527</v>
       </c>
       <c r="BL27" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>2119.5</v>
       </c>
       <c r="BM27" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>2000.7</v>
       </c>
       <c r="BN27" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1774.8</v>
       </c>
       <c r="BO27" s="44"/>
@@ -7809,20 +8233,28 @@
       <c r="CK27" s="46"/>
       <c r="CL27" s="46"/>
       <c r="CM27" s="46">
-        <v>7707</v>
+        <f t="shared" si="35"/>
+        <v>9264</v>
       </c>
       <c r="CN27" s="46">
-        <v>7303</v>
-      </c>
-      <c r="CO27" s="40"/>
-      <c r="CP27" s="40"/>
-      <c r="CQ27" s="40"/>
-      <c r="CR27" s="40"/>
-      <c r="CS27" s="40"/>
-      <c r="CT27" s="40"/>
-      <c r="CU27" s="40"/>
-      <c r="CV27" s="40"/>
-      <c r="CW27" s="40"/>
+        <f t="shared" si="36"/>
+        <v>8986</v>
+      </c>
+      <c r="CO27" s="46">
+        <f t="shared" si="37"/>
+        <v>8836</v>
+      </c>
+      <c r="CP27" s="46">
+        <f t="shared" si="38"/>
+        <v>7422</v>
+      </c>
+      <c r="CQ27" s="46"/>
+      <c r="CR27" s="46"/>
+      <c r="CS27" s="46"/>
+      <c r="CT27" s="46"/>
+      <c r="CU27" s="46"/>
+      <c r="CV27" s="46"/>
+      <c r="CW27" s="46"/>
       <c r="CX27" s="40"/>
       <c r="CY27" s="40"/>
       <c r="CZ27" s="40"/>
@@ -7861,7 +8293,7 @@
       <c r="EG27" s="40"/>
       <c r="EH27" s="40"/>
     </row>
-    <row r="28" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:138" ht="12.75" customHeight="1">
       <c r="A28" s="41"/>
       <c r="B28" s="47" t="s">
         <v>24</v>
@@ -8000,15 +8432,15 @@
       <c r="BY28" s="42"/>
       <c r="BZ28" s="42"/>
       <c r="CA28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>3865</v>
       </c>
       <c r="CB28" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>4401</v>
       </c>
       <c r="CC28" s="44">
-        <f t="shared" ref="CC28:CC30" si="17">SUM(K28:N28)</f>
+        <f t="shared" ref="CC28:CC30" si="39">SUM(K28:N28)</f>
         <v>4803</v>
       </c>
       <c r="CD28" s="44">
@@ -8024,17 +8456,29 @@
       <c r="CJ28" s="46"/>
       <c r="CK28" s="46"/>
       <c r="CL28" s="46"/>
-      <c r="CM28" s="46"/>
-      <c r="CN28" s="46"/>
-      <c r="CO28" s="40"/>
-      <c r="CP28" s="40"/>
-      <c r="CQ28" s="40"/>
-      <c r="CR28" s="40"/>
-      <c r="CS28" s="40"/>
-      <c r="CT28" s="40"/>
-      <c r="CU28" s="40"/>
-      <c r="CV28" s="40"/>
-      <c r="CW28" s="40"/>
+      <c r="CM28" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CN28" s="46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CO28" s="46">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CP28" s="46">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="46"/>
+      <c r="CR28" s="46"/>
+      <c r="CS28" s="46"/>
+      <c r="CT28" s="46"/>
+      <c r="CU28" s="46"/>
+      <c r="CV28" s="46"/>
+      <c r="CW28" s="46"/>
       <c r="CX28" s="40"/>
       <c r="CY28" s="40"/>
       <c r="CZ28" s="40"/>
@@ -8073,10 +8517,10 @@
       <c r="EG28" s="40"/>
       <c r="EH28" s="40"/>
     </row>
-    <row r="29" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:138" ht="12.75" customHeight="1">
       <c r="A29" s="41"/>
       <c r="B29" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="45">
         <v>385</v>
@@ -8182,14 +8626,14 @@
       <c r="BY29" s="42"/>
       <c r="BZ29" s="42"/>
       <c r="CA29" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1612</v>
       </c>
       <c r="CB29" s="44">
         <v>1744</v>
       </c>
       <c r="CC29" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>1892</v>
       </c>
       <c r="CD29" s="44">
@@ -8205,17 +8649,29 @@
       <c r="CJ29" s="46"/>
       <c r="CK29" s="46"/>
       <c r="CL29" s="46"/>
-      <c r="CM29" s="46"/>
-      <c r="CN29" s="46"/>
-      <c r="CO29" s="40"/>
-      <c r="CP29" s="40"/>
-      <c r="CQ29" s="40"/>
-      <c r="CR29" s="40"/>
-      <c r="CS29" s="40"/>
-      <c r="CT29" s="40"/>
-      <c r="CU29" s="40"/>
-      <c r="CV29" s="40"/>
-      <c r="CW29" s="40"/>
+      <c r="CM29" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CN29" s="46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CO29" s="46">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CP29" s="46">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="46"/>
+      <c r="CR29" s="46"/>
+      <c r="CS29" s="46"/>
+      <c r="CT29" s="46"/>
+      <c r="CU29" s="46"/>
+      <c r="CV29" s="46"/>
+      <c r="CW29" s="46"/>
       <c r="CX29" s="40"/>
       <c r="CY29" s="40"/>
       <c r="CZ29" s="40"/>
@@ -8254,10 +8710,10 @@
       <c r="EG29" s="40"/>
       <c r="EH29" s="40"/>
     </row>
-    <row r="30" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:138" ht="12.75" customHeight="1">
       <c r="A30" s="41"/>
       <c r="B30" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="45">
         <v>68</v>
@@ -8380,14 +8836,14 @@
       <c r="BY30" s="42"/>
       <c r="BZ30" s="42"/>
       <c r="CA30" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>324</v>
       </c>
       <c r="CB30" s="44">
         <v>359</v>
       </c>
       <c r="CC30" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>341</v>
       </c>
       <c r="CD30" s="44">
@@ -8404,20 +8860,28 @@
       <c r="CK30" s="46"/>
       <c r="CL30" s="46"/>
       <c r="CM30" s="46">
-        <v>1557</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
       <c r="CN30" s="46">
-        <v>1683</v>
-      </c>
-      <c r="CO30" s="40"/>
-      <c r="CP30" s="40"/>
-      <c r="CQ30" s="40"/>
-      <c r="CR30" s="40"/>
-      <c r="CS30" s="40"/>
-      <c r="CT30" s="40"/>
-      <c r="CU30" s="40"/>
-      <c r="CV30" s="40"/>
-      <c r="CW30" s="40"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CO30" s="46">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CP30" s="46">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="46"/>
+      <c r="CR30" s="46"/>
+      <c r="CS30" s="46"/>
+      <c r="CT30" s="46"/>
+      <c r="CU30" s="46"/>
+      <c r="CV30" s="46"/>
+      <c r="CW30" s="46"/>
       <c r="CX30" s="40"/>
       <c r="CY30" s="40"/>
       <c r="CZ30" s="40"/>
@@ -8456,61 +8920,61 @@
       <c r="EG30" s="40"/>
       <c r="EH30" s="40"/>
     </row>
-    <row r="31" spans="1:138" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:138" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31:O31" si="18">SUM(C10:C30)</f>
+        <f t="shared" ref="C31:O31" si="40">SUM(C10:C30)</f>
         <v>10614</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>11110</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>11246</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>12583</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>12498</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>13001</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>12545</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>13121</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>13674</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>15394</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>15584</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>16124</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
         <v>15693</v>
       </c>
       <c r="P31" s="15"/>
@@ -8533,135 +8997,135 @@
         <v>21629</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" ref="AC31:AT31" si="19">SUM(AC10:AC30)</f>
+        <f t="shared" ref="AC31:AT31" si="41">SUM(AC10:AC30)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AE31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>24929</v>
       </c>
       <c r="AF31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>26729</v>
       </c>
       <c r="AG31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>26416</v>
       </c>
       <c r="AH31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>28415</v>
       </c>
       <c r="AI31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>26586</v>
       </c>
       <c r="AJ31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>26476</v>
       </c>
       <c r="AK31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>26394</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>27865</v>
       </c>
       <c r="AM31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AN31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AT31" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AU31" s="15">
-        <f t="shared" ref="AU31:BN31" si="20">SUM(AU12:AU27)</f>
+        <f t="shared" ref="AU31:BN31" si="42">SUM(AU12:AU27)</f>
         <v>0</v>
       </c>
       <c r="AV31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AW31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>32417</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>33875</v>
       </c>
       <c r="AZ31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>30006</v>
       </c>
       <c r="BA31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>30927</v>
       </c>
       <c r="BB31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>32138</v>
       </c>
       <c r="BC31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>33804</v>
       </c>
       <c r="BD31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>33041</v>
       </c>
       <c r="BE31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>35622</v>
       </c>
       <c r="BF31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>38333</v>
       </c>
       <c r="BG31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>42031</v>
       </c>
       <c r="BH31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>41265</v>
       </c>
       <c r="BI31" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>45566</v>
       </c>
       <c r="BJ31" s="15">
@@ -8669,20 +9133,20 @@
         <v>48092</v>
       </c>
       <c r="BK31" s="15">
-        <f t="shared" si="20"/>
-        <v>47913.3</v>
+        <f>SUM(BK12:BK27)</f>
+        <v>53367</v>
       </c>
       <c r="BL31" s="15">
-        <f t="shared" si="20"/>
-        <v>47673.95</v>
+        <f>SUM(BL12:BL27)</f>
+        <v>49817.799999999996</v>
       </c>
       <c r="BM31" s="15">
-        <f t="shared" si="20"/>
-        <v>53559.549999999996</v>
+        <f>SUM(BM12:BM27)</f>
+        <v>55464.399999999994</v>
       </c>
       <c r="BN31" s="15">
-        <f t="shared" si="20"/>
-        <v>55992.3</v>
+        <f>SUM(BN12:BN27)</f>
+        <v>58394.000000000007</v>
       </c>
       <c r="BO31" s="15"/>
       <c r="BP31" s="13"/>
@@ -8748,47 +9212,64 @@
         <v>122021</v>
       </c>
       <c r="CM31" s="59">
+        <f>SUM(CM12:CM30)</f>
         <v>126946</v>
       </c>
       <c r="CN31" s="59">
+        <f>SUM(CN12:CN30)</f>
         <v>140800</v>
       </c>
+      <c r="CO31" s="59">
+        <f>SUM(CO12:CO30)</f>
+        <v>176954</v>
+      </c>
+      <c r="CP31" s="59">
+        <f>SUM(CP12:CP30)</f>
+        <v>217043.19999999995</v>
+      </c>
+      <c r="CQ31" s="59"/>
+      <c r="CR31" s="59"/>
+      <c r="CS31" s="59"/>
+      <c r="CT31" s="59"/>
+      <c r="CU31" s="59"/>
+      <c r="CV31" s="59"/>
+      <c r="CW31" s="59"/>
     </row>
-    <row r="32" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:138" ht="12.75" customHeight="1">
       <c r="A32" s="41"/>
       <c r="B32" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="44">
-        <f t="shared" ref="C32:J32" si="21">C31-C33</f>
+        <f t="shared" ref="C32:J32" si="43">C31-C33</f>
         <v>2413</v>
       </c>
       <c r="D32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2554</v>
       </c>
       <c r="E32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2606</v>
       </c>
       <c r="F32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2536</v>
       </c>
       <c r="G32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2508</v>
       </c>
       <c r="H32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2610</v>
       </c>
       <c r="I32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2713</v>
       </c>
       <c r="J32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>2694</v>
       </c>
       <c r="K32" s="44">
@@ -8853,19 +9334,19 @@
         <v>5432</v>
       </c>
       <c r="AY32" s="44">
-        <f t="shared" ref="AY32:BB32" si="22">AY31-AY33</f>
+        <f t="shared" ref="AY32:BB32" si="44">AY31-AY33</f>
         <v>5386</v>
       </c>
       <c r="AZ32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>4772</v>
       </c>
       <c r="BA32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>5155</v>
       </c>
       <c r="BB32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>5619</v>
       </c>
       <c r="BC32" s="44">
@@ -8894,24 +9375,24 @@
         <v>7200</v>
       </c>
       <c r="BJ32" s="44">
-        <f t="shared" ref="BJ32:BN32" si="23">+BJ31-BJ33</f>
+        <f t="shared" ref="BJ32:BN32" si="45">+BJ31-BJ33</f>
         <v>7213.8000000000029</v>
       </c>
       <c r="BK32" s="44">
-        <f t="shared" si="23"/>
-        <v>6707.862000000001</v>
+        <f>+BK31-BK33</f>
+        <v>7471.3799999999974</v>
       </c>
       <c r="BL32" s="44">
-        <f t="shared" si="23"/>
-        <v>6674.3530000000028</v>
+        <f t="shared" si="45"/>
+        <v>6974.4919999999984</v>
       </c>
       <c r="BM32" s="44">
-        <f t="shared" si="23"/>
-        <v>6962.7414999999964</v>
+        <f t="shared" si="45"/>
+        <v>7210.372000000003</v>
       </c>
       <c r="BN32" s="44">
-        <f t="shared" si="23"/>
-        <v>7278.9990000000034</v>
+        <f t="shared" si="45"/>
+        <v>7591.2200000000012</v>
       </c>
       <c r="BO32" s="44"/>
       <c r="BP32" s="44"/>
@@ -8967,15 +9448,15 @@
       <c r="CL32" s="46"/>
       <c r="CM32" s="46"/>
       <c r="CN32" s="46"/>
-      <c r="CO32" s="40"/>
-      <c r="CP32" s="40"/>
-      <c r="CQ32" s="40"/>
-      <c r="CR32" s="40"/>
-      <c r="CS32" s="40"/>
-      <c r="CT32" s="40"/>
-      <c r="CU32" s="40"/>
-      <c r="CV32" s="40"/>
-      <c r="CW32" s="40"/>
+      <c r="CO32" s="46"/>
+      <c r="CP32" s="46"/>
+      <c r="CQ32" s="46"/>
+      <c r="CR32" s="46"/>
+      <c r="CS32" s="46"/>
+      <c r="CT32" s="46"/>
+      <c r="CU32" s="46"/>
+      <c r="CV32" s="46"/>
+      <c r="CW32" s="46"/>
       <c r="CX32" s="40"/>
       <c r="CY32" s="40"/>
       <c r="CZ32" s="40"/>
@@ -9014,10 +9495,10 @@
       <c r="EG32" s="40"/>
       <c r="EH32" s="40"/>
     </row>
-    <row r="33" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:138" ht="12.75" customHeight="1">
       <c r="A33" s="41"/>
       <c r="B33" s="47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33" s="44">
         <v>8201</v>
@@ -9135,24 +9616,24 @@
         <v>38366</v>
       </c>
       <c r="BJ33" s="44">
-        <f t="shared" ref="BJ33" si="24">+BJ31*0.85</f>
+        <f t="shared" ref="BJ33" si="46">+BJ31*0.85</f>
         <v>40878.199999999997</v>
       </c>
       <c r="BK33" s="44">
         <f>+BK31*0.86</f>
-        <v>41205.438000000002</v>
+        <v>45895.62</v>
       </c>
       <c r="BL33" s="44">
         <f>+BL31*0.86</f>
-        <v>40999.596999999994</v>
+        <v>42843.307999999997</v>
       </c>
       <c r="BM33" s="44">
         <f>+BM31*0.87</f>
-        <v>46596.808499999999</v>
+        <v>48254.027999999991</v>
       </c>
       <c r="BN33" s="44">
         <f>+BN31*0.87</f>
-        <v>48713.300999999999</v>
+        <v>50802.780000000006</v>
       </c>
       <c r="BO33" s="44"/>
       <c r="BP33" s="44"/>
@@ -9223,15 +9704,15 @@
       <c r="CN33" s="46">
         <v>117142</v>
       </c>
-      <c r="CO33" s="40"/>
-      <c r="CP33" s="40"/>
-      <c r="CQ33" s="40"/>
-      <c r="CR33" s="40"/>
-      <c r="CS33" s="40"/>
-      <c r="CT33" s="40"/>
-      <c r="CU33" s="40"/>
-      <c r="CV33" s="40"/>
-      <c r="CW33" s="40"/>
+      <c r="CO33" s="46"/>
+      <c r="CP33" s="46"/>
+      <c r="CQ33" s="46"/>
+      <c r="CR33" s="46"/>
+      <c r="CS33" s="46"/>
+      <c r="CT33" s="46"/>
+      <c r="CU33" s="46"/>
+      <c r="CV33" s="46"/>
+      <c r="CW33" s="46"/>
       <c r="CX33" s="40"/>
       <c r="CY33" s="40"/>
       <c r="CZ33" s="40"/>
@@ -9270,10 +9751,10 @@
       <c r="EG33" s="40"/>
       <c r="EH33" s="40"/>
     </row>
-    <row r="34" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:138" ht="12.75" customHeight="1">
       <c r="A34" s="41"/>
       <c r="B34" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="44">
         <v>2975</v>
@@ -9393,19 +9874,19 @@
       </c>
       <c r="BK34" s="44">
         <f>+BK31*0.24</f>
-        <v>11499.192000000001</v>
+        <v>12808.08</v>
       </c>
       <c r="BL34" s="44">
         <f>+BL31*0.24</f>
-        <v>11441.748</v>
+        <v>11956.271999999999</v>
       </c>
       <c r="BM34" s="44">
         <f>+BM31*0.26</f>
-        <v>13925.483</v>
+        <v>14420.743999999999</v>
       </c>
       <c r="BN34" s="44">
         <f>+BN31*0.3</f>
-        <v>16797.689999999999</v>
+        <v>17518.2</v>
       </c>
       <c r="BO34" s="44"/>
       <c r="BP34" s="44"/>
@@ -9468,15 +9949,15 @@
       <c r="CN34" s="46">
         <v>37008</v>
       </c>
-      <c r="CO34" s="40"/>
-      <c r="CP34" s="40"/>
-      <c r="CQ34" s="40"/>
-      <c r="CR34" s="40"/>
-      <c r="CS34" s="40"/>
-      <c r="CT34" s="40"/>
-      <c r="CU34" s="40"/>
-      <c r="CV34" s="40"/>
-      <c r="CW34" s="40"/>
+      <c r="CO34" s="46"/>
+      <c r="CP34" s="46"/>
+      <c r="CQ34" s="46"/>
+      <c r="CR34" s="46"/>
+      <c r="CS34" s="46"/>
+      <c r="CT34" s="46"/>
+      <c r="CU34" s="46"/>
+      <c r="CV34" s="46"/>
+      <c r="CW34" s="46"/>
       <c r="CX34" s="40"/>
       <c r="CY34" s="40"/>
       <c r="CZ34" s="40"/>
@@ -9515,10 +9996,10 @@
       <c r="EG34" s="40"/>
       <c r="EH34" s="40"/>
     </row>
-    <row r="35" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:138" ht="12.75" customHeight="1">
       <c r="A35" s="41"/>
       <c r="B35" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="44">
         <f>1858-220</f>
@@ -9636,24 +10117,24 @@
         <v>5633</v>
       </c>
       <c r="BJ35" s="44">
-        <f t="shared" ref="BJ35:BN35" si="25">+BJ31*0.11</f>
+        <f t="shared" ref="BJ35:BN35" si="47">+BJ31*0.11</f>
         <v>5290.12</v>
       </c>
       <c r="BK35" s="44">
-        <f t="shared" si="25"/>
-        <v>5270.4630000000006</v>
+        <f t="shared" si="47"/>
+        <v>5870.37</v>
       </c>
       <c r="BL35" s="44">
-        <f t="shared" si="25"/>
-        <v>5244.1345000000001</v>
+        <f t="shared" si="47"/>
+        <v>5479.9579999999996</v>
       </c>
       <c r="BM35" s="44">
-        <f t="shared" si="25"/>
-        <v>5891.5504999999994</v>
+        <f t="shared" si="47"/>
+        <v>6101.0839999999998</v>
       </c>
       <c r="BN35" s="44">
-        <f t="shared" si="25"/>
-        <v>6159.1530000000002</v>
+        <f t="shared" si="47"/>
+        <v>6423.3400000000011</v>
       </c>
       <c r="BO35" s="44"/>
       <c r="BP35" s="44"/>
@@ -9716,15 +10197,15 @@
       <c r="CN35" s="46">
         <v>17772</v>
       </c>
-      <c r="CO35" s="40"/>
-      <c r="CP35" s="40"/>
-      <c r="CQ35" s="40"/>
-      <c r="CR35" s="40"/>
-      <c r="CS35" s="40"/>
-      <c r="CT35" s="40"/>
-      <c r="CU35" s="40"/>
-      <c r="CV35" s="40"/>
-      <c r="CW35" s="40"/>
+      <c r="CO35" s="46"/>
+      <c r="CP35" s="46"/>
+      <c r="CQ35" s="46"/>
+      <c r="CR35" s="46"/>
+      <c r="CS35" s="46"/>
+      <c r="CT35" s="46"/>
+      <c r="CU35" s="46"/>
+      <c r="CV35" s="46"/>
+      <c r="CW35" s="46"/>
       <c r="CX35" s="40"/>
       <c r="CY35" s="40"/>
       <c r="CZ35" s="40"/>
@@ -9763,10 +10244,10 @@
       <c r="EG35" s="40"/>
       <c r="EH35" s="40"/>
     </row>
-    <row r="36" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:138" ht="12.75" customHeight="1">
       <c r="A36" s="41"/>
       <c r="B36" s="47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C36" s="44">
         <v>627</v>
@@ -9881,23 +10362,23 @@
         <v>1158</v>
       </c>
       <c r="BJ36" s="44">
-        <f t="shared" ref="BJ36:BN36" si="26">+BF36*1.01</f>
+        <f t="shared" ref="BJ36:BN36" si="48">+BF36*1.01</f>
         <v>1201.9000000000001</v>
       </c>
       <c r="BK36" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>979.7</v>
       </c>
       <c r="BL36" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>1000.91</v>
       </c>
       <c r="BM36" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>1169.58</v>
       </c>
       <c r="BN36" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>1213.9190000000001</v>
       </c>
       <c r="BO36" s="44"/>
@@ -9961,15 +10442,15 @@
       <c r="CN36" s="46">
         <v>4050</v>
       </c>
-      <c r="CO36" s="40"/>
-      <c r="CP36" s="40"/>
-      <c r="CQ36" s="40"/>
-      <c r="CR36" s="40"/>
-      <c r="CS36" s="40"/>
-      <c r="CT36" s="40"/>
-      <c r="CU36" s="40"/>
-      <c r="CV36" s="40"/>
-      <c r="CW36" s="40"/>
+      <c r="CO36" s="46"/>
+      <c r="CP36" s="46"/>
+      <c r="CQ36" s="46"/>
+      <c r="CR36" s="46"/>
+      <c r="CS36" s="46"/>
+      <c r="CT36" s="46"/>
+      <c r="CU36" s="46"/>
+      <c r="CV36" s="46"/>
+      <c r="CW36" s="46"/>
       <c r="CX36" s="40"/>
       <c r="CY36" s="40"/>
       <c r="CZ36" s="40"/>
@@ -10008,10 +10489,10 @@
       <c r="EG36" s="40"/>
       <c r="EH36" s="40"/>
     </row>
-    <row r="37" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:138" ht="12.75" customHeight="1">
       <c r="A37" s="41"/>
       <c r="B37" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" s="44">
         <v>88</v>
@@ -10126,23 +10607,23 @@
         <v>-60</v>
       </c>
       <c r="BJ37" s="44">
-        <f t="shared" ref="BJ37:BN37" si="27">AVERAGE(BF37:BI37)</f>
+        <f t="shared" ref="BJ37:BN37" si="49">AVERAGE(BF37:BI37)</f>
         <v>-149.25</v>
       </c>
       <c r="BK37" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>-187.5625</v>
       </c>
       <c r="BL37" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>-136.453125</v>
       </c>
       <c r="BM37" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>-133.31640625</v>
       </c>
       <c r="BN37" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>-151.6455078125</v>
       </c>
       <c r="BO37" s="44"/>
@@ -10193,15 +10674,15 @@
       <c r="CL37" s="46"/>
       <c r="CM37" s="46"/>
       <c r="CN37" s="46"/>
-      <c r="CO37" s="40"/>
-      <c r="CP37" s="40"/>
-      <c r="CQ37" s="40"/>
-      <c r="CR37" s="40"/>
-      <c r="CS37" s="40"/>
-      <c r="CT37" s="40"/>
-      <c r="CU37" s="40"/>
-      <c r="CV37" s="40"/>
-      <c r="CW37" s="40"/>
+      <c r="CO37" s="46"/>
+      <c r="CP37" s="46"/>
+      <c r="CQ37" s="46"/>
+      <c r="CR37" s="46"/>
+      <c r="CS37" s="46"/>
+      <c r="CT37" s="46"/>
+      <c r="CU37" s="46"/>
+      <c r="CV37" s="46"/>
+      <c r="CW37" s="46"/>
       <c r="CX37" s="40"/>
       <c r="CY37" s="40"/>
       <c r="CZ37" s="40"/>
@@ -10240,45 +10721,45 @@
       <c r="EG37" s="40"/>
       <c r="EH37" s="40"/>
     </row>
-    <row r="38" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:138" ht="12.75" customHeight="1">
       <c r="A38" s="41"/>
       <c r="B38" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38" s="44">
-        <f t="shared" ref="C38:K38" si="28">SUM(C34:C36)-C37</f>
+        <f t="shared" ref="C38:K38" si="50">SUM(C34:C36)-C37</f>
         <v>5152</v>
       </c>
       <c r="D38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>5555</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>5366</v>
       </c>
       <c r="F38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>6673</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>6180</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>6301</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>6018</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>7208</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>6602</v>
       </c>
       <c r="L38" s="44">
@@ -10335,72 +10816,72 @@
       <c r="AV38" s="44"/>
       <c r="AW38" s="44"/>
       <c r="AX38" s="44">
-        <f t="shared" ref="AX38:BB38" si="29">SUM(AX34:AX37)</f>
+        <f t="shared" ref="AX38:BB38" si="51">SUM(AX34:AX37)</f>
         <v>15112</v>
       </c>
       <c r="AY38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>12187</v>
       </c>
       <c r="AZ38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>11396</v>
       </c>
       <c r="BA38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>12964</v>
       </c>
       <c r="BB38" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>15341</v>
       </c>
       <c r="BC38" s="44">
-        <f t="shared" ref="BC38:BH38" si="30">SUM(BC34:BC37)</f>
+        <f t="shared" ref="BC38:BH38" si="52">SUM(BC34:BC37)</f>
         <v>13011</v>
       </c>
       <c r="BD38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>12715</v>
       </c>
       <c r="BE38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>14314</v>
       </c>
       <c r="BF38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>18458</v>
       </c>
       <c r="BG38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>15967</v>
       </c>
       <c r="BH38" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="52"/>
         <v>16805</v>
       </c>
       <c r="BI38" s="44">
-        <f t="shared" ref="BI38:BN38" si="31">SUM(BI34:BI37)</f>
+        <f t="shared" ref="BI38:BN38" si="53">SUM(BI34:BI37)</f>
         <v>18182</v>
       </c>
       <c r="BJ38" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="53"/>
         <v>20770.370000000003</v>
       </c>
       <c r="BK38" s="44">
-        <f t="shared" si="31"/>
-        <v>17561.792500000003</v>
+        <f t="shared" si="53"/>
+        <v>19470.587500000001</v>
       </c>
       <c r="BL38" s="44">
-        <f t="shared" si="31"/>
-        <v>17550.339375</v>
+        <f t="shared" si="53"/>
+        <v>18300.686874999999</v>
       </c>
       <c r="BM38" s="44">
-        <f t="shared" si="31"/>
-        <v>20853.297093749999</v>
+        <f t="shared" si="53"/>
+        <v>21558.091593749996</v>
       </c>
       <c r="BN38" s="44">
-        <f t="shared" si="31"/>
-        <v>24019.116492187502</v>
+        <f t="shared" si="53"/>
+        <v>25003.813492187503</v>
       </c>
       <c r="BO38" s="44"/>
       <c r="BP38" s="44"/>
@@ -10467,15 +10948,15 @@
         <v>46138</v>
       </c>
       <c r="CK38" s="46">
-        <f t="shared" ref="CK38:CM38" si="32">SUM(CK34:CK36)</f>
+        <f t="shared" ref="CK38:CM38" si="54">SUM(CK34:CK36)</f>
         <v>48118</v>
       </c>
       <c r="CL38" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="54"/>
         <v>50050</v>
       </c>
       <c r="CM38" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="54"/>
         <v>52348</v>
       </c>
       <c r="CN38" s="46">
@@ -10483,14 +10964,14 @@
         <v>58830</v>
       </c>
       <c r="CO38" s="46"/>
-      <c r="CP38" s="40"/>
-      <c r="CQ38" s="40"/>
-      <c r="CR38" s="40"/>
-      <c r="CS38" s="40"/>
-      <c r="CT38" s="40"/>
-      <c r="CU38" s="40"/>
-      <c r="CV38" s="40"/>
-      <c r="CW38" s="40"/>
+      <c r="CP38" s="46"/>
+      <c r="CQ38" s="46"/>
+      <c r="CR38" s="46"/>
+      <c r="CS38" s="46"/>
+      <c r="CT38" s="46"/>
+      <c r="CU38" s="46"/>
+      <c r="CV38" s="46"/>
+      <c r="CW38" s="46"/>
       <c r="CX38" s="40"/>
       <c r="CY38" s="40"/>
       <c r="CZ38" s="40"/>
@@ -10529,45 +11010,45 @@
       <c r="EG38" s="40"/>
       <c r="EH38" s="40"/>
     </row>
-    <row r="39" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:138" ht="12.75" customHeight="1">
       <c r="A39" s="41"/>
       <c r="B39" s="47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C39" s="44">
-        <f t="shared" ref="C39:K39" si="33">C33-C38</f>
+        <f t="shared" ref="C39:K39" si="55">C33-C38</f>
         <v>3049</v>
       </c>
       <c r="D39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>3001</v>
       </c>
       <c r="E39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>3274</v>
       </c>
       <c r="F39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>3374</v>
       </c>
       <c r="G39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>3810</v>
       </c>
       <c r="H39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>4090</v>
       </c>
       <c r="I39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>3814</v>
       </c>
       <c r="J39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>3219</v>
       </c>
       <c r="K39" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="55"/>
         <v>4382</v>
       </c>
       <c r="L39" s="44">
@@ -10624,72 +11105,72 @@
       <c r="AV39" s="44"/>
       <c r="AW39" s="44"/>
       <c r="AX39" s="44">
-        <f t="shared" ref="AX39:BB39" si="34">AX33-AX38</f>
+        <f t="shared" ref="AX39:BB39" si="56">AX33-AX38</f>
         <v>11873</v>
       </c>
       <c r="AY39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="56"/>
         <v>16302</v>
       </c>
       <c r="AZ39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="56"/>
         <v>13838</v>
       </c>
       <c r="BA39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="56"/>
         <v>12808</v>
       </c>
       <c r="BB39" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="56"/>
         <v>11178</v>
       </c>
       <c r="BC39" s="44">
-        <f t="shared" ref="BC39:BH39" si="35">BC33-BC38</f>
+        <f t="shared" ref="BC39:BH39" si="57">BC33-BC38</f>
         <v>14982</v>
       </c>
       <c r="BD39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>14779</v>
       </c>
       <c r="BE39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>15249</v>
       </c>
       <c r="BF39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>13634</v>
       </c>
       <c r="BG39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>19147</v>
       </c>
       <c r="BH39" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>18391</v>
       </c>
       <c r="BI39" s="44">
-        <f t="shared" ref="BI39:BN39" si="36">BI33-BI38</f>
+        <f t="shared" ref="BI39:BN39" si="58">BI33-BI38</f>
         <v>20184</v>
       </c>
       <c r="BJ39" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>20107.829999999994</v>
       </c>
       <c r="BK39" s="44">
-        <f t="shared" si="36"/>
-        <v>23643.645499999999</v>
+        <f t="shared" si="58"/>
+        <v>26425.032500000001</v>
       </c>
       <c r="BL39" s="44">
-        <f t="shared" si="36"/>
-        <v>23449.257624999995</v>
+        <f t="shared" si="58"/>
+        <v>24542.621124999998</v>
       </c>
       <c r="BM39" s="44">
-        <f t="shared" si="36"/>
-        <v>25743.51140625</v>
+        <f t="shared" si="58"/>
+        <v>26695.936406249995</v>
       </c>
       <c r="BN39" s="44">
-        <f t="shared" si="36"/>
-        <v>24694.184507812497</v>
+        <f t="shared" si="58"/>
+        <v>25798.966507812504</v>
       </c>
       <c r="BO39" s="44"/>
       <c r="BP39" s="44"/>
@@ -10721,11 +11202,11 @@
       <c r="BZ39" s="44"/>
       <c r="CA39" s="44"/>
       <c r="CB39" s="44">
-        <f t="shared" ref="CB39:CI39" si="37">CB33-CB38</f>
+        <f t="shared" ref="CB39:CI39" si="59">CB33-CB38</f>
         <v>14592</v>
       </c>
       <c r="CC39" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>18891</v>
       </c>
       <c r="CD39" s="44">
@@ -10737,19 +11218,19 @@
         <v>29474</v>
       </c>
       <c r="CF39" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="CG39" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>34492</v>
       </c>
       <c r="CH39" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>49444</v>
       </c>
       <c r="CI39" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>48432</v>
       </c>
       <c r="CJ39" s="46">
@@ -10757,30 +11238,30 @@
         <v>47926</v>
       </c>
       <c r="CK39" s="46">
-        <f t="shared" ref="CK39:CN39" si="38">CK33-CK38</f>
+        <f t="shared" ref="CK39:CN39" si="60">CK33-CK38</f>
         <v>46096</v>
       </c>
       <c r="CL39" s="46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>51883</v>
       </c>
       <c r="CM39" s="46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>53666</v>
       </c>
       <c r="CN39" s="46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>58312</v>
       </c>
       <c r="CO39" s="46"/>
-      <c r="CP39" s="40"/>
-      <c r="CQ39" s="40"/>
-      <c r="CR39" s="40"/>
-      <c r="CS39" s="40"/>
-      <c r="CT39" s="40"/>
-      <c r="CU39" s="40"/>
-      <c r="CV39" s="40"/>
-      <c r="CW39" s="40"/>
+      <c r="CP39" s="46"/>
+      <c r="CQ39" s="46"/>
+      <c r="CR39" s="46"/>
+      <c r="CS39" s="46"/>
+      <c r="CT39" s="46"/>
+      <c r="CU39" s="46"/>
+      <c r="CV39" s="46"/>
+      <c r="CW39" s="46"/>
       <c r="CX39" s="40"/>
       <c r="CY39" s="40"/>
       <c r="CZ39" s="40"/>
@@ -10819,10 +11300,10 @@
       <c r="EG39" s="40"/>
       <c r="EH39" s="40"/>
     </row>
-    <row r="40" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:138" ht="12.75" customHeight="1">
       <c r="A40" s="41"/>
       <c r="B40" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" s="44">
         <v>-67</v>
@@ -10946,15 +11427,15 @@
       <c r="CL40" s="46"/>
       <c r="CM40" s="46"/>
       <c r="CN40" s="46"/>
-      <c r="CO40" s="40"/>
-      <c r="CP40" s="40"/>
-      <c r="CQ40" s="40"/>
-      <c r="CR40" s="40"/>
-      <c r="CS40" s="40"/>
-      <c r="CT40" s="40"/>
-      <c r="CU40" s="40"/>
-      <c r="CV40" s="40"/>
-      <c r="CW40" s="40"/>
+      <c r="CO40" s="46"/>
+      <c r="CP40" s="46"/>
+      <c r="CQ40" s="46"/>
+      <c r="CR40" s="46"/>
+      <c r="CS40" s="46"/>
+      <c r="CT40" s="46"/>
+      <c r="CU40" s="46"/>
+      <c r="CV40" s="46"/>
+      <c r="CW40" s="46"/>
       <c r="CX40" s="40"/>
       <c r="CY40" s="40"/>
       <c r="CZ40" s="40"/>
@@ -10993,10 +11474,10 @@
       <c r="EG40" s="40"/>
       <c r="EH40" s="40"/>
     </row>
-    <row r="41" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:138" ht="12.75" customHeight="1">
       <c r="A41" s="41"/>
       <c r="B41" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="44">
         <v>474</v>
@@ -11122,15 +11603,15 @@
       <c r="CL41" s="46"/>
       <c r="CM41" s="46"/>
       <c r="CN41" s="46"/>
-      <c r="CO41" s="40"/>
-      <c r="CP41" s="40"/>
-      <c r="CQ41" s="40"/>
-      <c r="CR41" s="40"/>
-      <c r="CS41" s="40"/>
-      <c r="CT41" s="40"/>
-      <c r="CU41" s="40"/>
-      <c r="CV41" s="40"/>
-      <c r="CW41" s="40"/>
+      <c r="CO41" s="46"/>
+      <c r="CP41" s="46"/>
+      <c r="CQ41" s="46"/>
+      <c r="CR41" s="46"/>
+      <c r="CS41" s="46"/>
+      <c r="CT41" s="46"/>
+      <c r="CU41" s="46"/>
+      <c r="CV41" s="46"/>
+      <c r="CW41" s="46"/>
       <c r="CX41" s="40"/>
       <c r="CY41" s="40"/>
       <c r="CZ41" s="40"/>
@@ -11169,10 +11650,10 @@
       <c r="EG41" s="40"/>
       <c r="EH41" s="40"/>
     </row>
-    <row r="42" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:138" ht="12.75" customHeight="1">
       <c r="A42" s="41"/>
       <c r="B42" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="44">
         <v>368</v>
@@ -11291,53 +11772,53 @@
         <v>2152</v>
       </c>
       <c r="BJ42" s="44">
-        <f t="shared" ref="BJ42:BN42" si="39">AVERAGE(BF42:BI42)</f>
+        <f t="shared" ref="BJ42:BN42" si="61">AVERAGE(BF42:BI42)</f>
         <v>1374.25</v>
       </c>
       <c r="BK42" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>1587.5625</v>
       </c>
       <c r="BL42" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>1677.453125</v>
       </c>
       <c r="BM42" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>1697.81640625</v>
       </c>
       <c r="BN42" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>1584.2705078125</v>
       </c>
       <c r="BO42" s="44"/>
       <c r="BP42" s="44"/>
       <c r="BQ42" s="44">
-        <f t="shared" ref="BQ42:BW42" si="40">BQ38+SUM(BQ39:BQ41)</f>
+        <f t="shared" ref="BQ42:BW42" si="62">BQ38+SUM(BQ39:BQ41)</f>
         <v>3176</v>
       </c>
       <c r="BR42" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>3349</v>
       </c>
       <c r="BS42" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>4884</v>
       </c>
       <c r="BT42" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>5695</v>
       </c>
       <c r="BU42" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>6328</v>
       </c>
       <c r="BV42" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>954</v>
       </c>
       <c r="BW42" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>477</v>
       </c>
       <c r="BX42" s="38"/>
@@ -11375,15 +11856,15 @@
       <c r="CL42" s="46"/>
       <c r="CM42" s="46"/>
       <c r="CN42" s="46"/>
-      <c r="CO42" s="40"/>
-      <c r="CP42" s="40"/>
-      <c r="CQ42" s="40"/>
-      <c r="CR42" s="40"/>
-      <c r="CS42" s="40"/>
-      <c r="CT42" s="40"/>
-      <c r="CU42" s="40"/>
-      <c r="CV42" s="40"/>
-      <c r="CW42" s="40"/>
+      <c r="CO42" s="46"/>
+      <c r="CP42" s="46"/>
+      <c r="CQ42" s="46"/>
+      <c r="CR42" s="46"/>
+      <c r="CS42" s="46"/>
+      <c r="CT42" s="46"/>
+      <c r="CU42" s="46"/>
+      <c r="CV42" s="46"/>
+      <c r="CW42" s="46"/>
       <c r="CX42" s="40"/>
       <c r="CY42" s="40"/>
       <c r="CZ42" s="40"/>
@@ -11422,61 +11903,61 @@
       <c r="EG42" s="40"/>
       <c r="EH42" s="40"/>
     </row>
-    <row r="43" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:138" ht="12.75" customHeight="1">
       <c r="A43" s="41"/>
       <c r="B43" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" s="44">
-        <f t="shared" ref="C43:O43" si="41">SUM(C39:C42)</f>
+        <f t="shared" ref="C43:O43" si="63">SUM(C39:C42)</f>
         <v>3824</v>
       </c>
       <c r="D43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>3406</v>
       </c>
       <c r="E43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>3588</v>
       </c>
       <c r="F43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>3070</v>
       </c>
       <c r="G43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>3505</v>
       </c>
       <c r="H43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>3884</v>
       </c>
       <c r="I43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>3607</v>
       </c>
       <c r="J43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>2992</v>
       </c>
       <c r="K43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>4317</v>
       </c>
       <c r="L43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>4608</v>
       </c>
       <c r="M43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>4656</v>
       </c>
       <c r="N43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>4907.2000000000007</v>
       </c>
       <c r="O43" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>5290</v>
       </c>
       <c r="P43" s="44"/>
@@ -11517,23 +11998,23 @@
       <c r="AV43" s="44"/>
       <c r="AW43" s="44"/>
       <c r="AX43" s="44">
-        <f t="shared" ref="AX43:BB43" si="42">AX39-AX42</f>
+        <f t="shared" ref="AX43:BB43" si="64">AX39-AX42</f>
         <v>11079</v>
       </c>
       <c r="AY43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="64"/>
         <v>15021</v>
       </c>
       <c r="AZ43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="64"/>
         <v>13416</v>
       </c>
       <c r="BA43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="64"/>
         <v>12691</v>
       </c>
       <c r="BB43" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="64"/>
         <v>12002</v>
       </c>
       <c r="BC43" s="44">
@@ -11545,44 +12026,44 @@
         <v>14917</v>
       </c>
       <c r="BE43" s="44">
-        <f t="shared" ref="BE43:BN43" si="43">BE39-BE42</f>
+        <f t="shared" ref="BE43:BN43" si="65">BE39-BE42</f>
         <v>15112</v>
       </c>
       <c r="BF43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>13113</v>
       </c>
       <c r="BG43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>17919</v>
       </c>
       <c r="BH43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>16795</v>
       </c>
       <c r="BI43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>18032</v>
       </c>
       <c r="BJ43" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>18733.579999999994</v>
       </c>
       <c r="BK43" s="44">
-        <f t="shared" si="43"/>
-        <v>22056.082999999999</v>
+        <f t="shared" si="65"/>
+        <v>24837.47</v>
       </c>
       <c r="BL43" s="44">
-        <f t="shared" si="43"/>
-        <v>21771.804499999995</v>
+        <f t="shared" si="65"/>
+        <v>22865.167999999998</v>
       </c>
       <c r="BM43" s="44">
-        <f t="shared" si="43"/>
-        <v>24045.695</v>
+        <f t="shared" si="65"/>
+        <v>24998.119999999995</v>
       </c>
       <c r="BN43" s="44">
-        <f t="shared" si="43"/>
-        <v>23109.913999999997</v>
+        <f t="shared" si="65"/>
+        <v>24214.696000000004</v>
       </c>
       <c r="BO43" s="44"/>
       <c r="BP43" s="44"/>
@@ -11608,23 +12089,23 @@
       <c r="BZ43" s="44"/>
       <c r="CA43" s="44"/>
       <c r="CB43" s="44">
-        <f t="shared" ref="CB43:CF43" si="44">CB39+SUM(CB40:CB42)</f>
+        <f t="shared" ref="CB43:CF43" si="66">CB39+SUM(CB40:CB42)</f>
         <v>14592</v>
       </c>
       <c r="CC43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>18286</v>
       </c>
       <c r="CD43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>21925</v>
       </c>
       <c r="CE43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>27811</v>
       </c>
       <c r="CF43" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="CG43" s="44">
@@ -11644,15 +12125,15 @@
       <c r="CL43" s="46"/>
       <c r="CM43" s="46"/>
       <c r="CN43" s="46"/>
-      <c r="CO43" s="40"/>
-      <c r="CP43" s="40"/>
-      <c r="CQ43" s="40"/>
-      <c r="CR43" s="40"/>
-      <c r="CS43" s="40"/>
-      <c r="CT43" s="40"/>
-      <c r="CU43" s="40"/>
-      <c r="CV43" s="40"/>
-      <c r="CW43" s="40"/>
+      <c r="CO43" s="46"/>
+      <c r="CP43" s="46"/>
+      <c r="CQ43" s="46"/>
+      <c r="CR43" s="46"/>
+      <c r="CS43" s="46"/>
+      <c r="CT43" s="46"/>
+      <c r="CU43" s="46"/>
+      <c r="CV43" s="46"/>
+      <c r="CW43" s="46"/>
       <c r="CX43" s="40"/>
       <c r="CY43" s="40"/>
       <c r="CZ43" s="40"/>
@@ -11691,41 +12172,41 @@
       <c r="EG43" s="40"/>
       <c r="EH43" s="40"/>
     </row>
-    <row r="44" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:138" ht="12.75" customHeight="1">
       <c r="A44" s="41"/>
       <c r="B44" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C44" s="44">
-        <f t="shared" ref="C44:J44" si="45">C43-C45</f>
+        <f t="shared" ref="C44:J44" si="67">C43-C45</f>
         <v>1644</v>
       </c>
       <c r="D44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>935</v>
       </c>
       <c r="E44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>924</v>
       </c>
       <c r="F44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>740</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>806</v>
       </c>
       <c r="H44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>893</v>
       </c>
       <c r="I44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>852</v>
       </c>
       <c r="J44" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>669</v>
       </c>
       <c r="K44" s="44">
@@ -11819,53 +12300,53 @@
         <v>3627</v>
       </c>
       <c r="BJ44" s="44">
-        <f t="shared" ref="BJ44:BN44" si="46">+BJ43*0.2</f>
+        <f t="shared" ref="BJ44:BN44" si="68">+BJ43*0.2</f>
         <v>3746.715999999999</v>
       </c>
       <c r="BK44" s="44">
-        <f t="shared" si="46"/>
-        <v>4411.2165999999997</v>
+        <f t="shared" si="68"/>
+        <v>4967.4940000000006</v>
       </c>
       <c r="BL44" s="44">
-        <f t="shared" si="46"/>
-        <v>4354.3608999999988</v>
+        <f t="shared" si="68"/>
+        <v>4573.0335999999998</v>
       </c>
       <c r="BM44" s="44">
-        <f t="shared" si="46"/>
-        <v>4809.1390000000001</v>
+        <f t="shared" si="68"/>
+        <v>4999.6239999999998</v>
       </c>
       <c r="BN44" s="44">
-        <f t="shared" si="46"/>
-        <v>4621.9827999999998</v>
+        <f t="shared" si="68"/>
+        <v>4842.9392000000007</v>
       </c>
       <c r="BO44" s="44"/>
       <c r="BP44" s="44"/>
       <c r="BQ44" s="44">
-        <f t="shared" ref="BQ44:BW44" si="47">BQ42+BQ43</f>
+        <f t="shared" ref="BQ44:BW44" si="69">BQ42+BQ43</f>
         <v>2016</v>
       </c>
       <c r="BR44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>2001</v>
       </c>
       <c r="BS44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>3154</v>
       </c>
       <c r="BT44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>3620</v>
       </c>
       <c r="BU44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>4116</v>
       </c>
       <c r="BV44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>954</v>
       </c>
       <c r="BW44" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>477</v>
       </c>
       <c r="BX44" s="38"/>
@@ -11900,15 +12381,15 @@
       <c r="CL44" s="46"/>
       <c r="CM44" s="46"/>
       <c r="CN44" s="46"/>
-      <c r="CO44" s="40"/>
-      <c r="CP44" s="40"/>
-      <c r="CQ44" s="40"/>
-      <c r="CR44" s="40"/>
-      <c r="CS44" s="40"/>
-      <c r="CT44" s="40"/>
-      <c r="CU44" s="40"/>
-      <c r="CV44" s="40"/>
-      <c r="CW44" s="40"/>
+      <c r="CO44" s="46"/>
+      <c r="CP44" s="46"/>
+      <c r="CQ44" s="46"/>
+      <c r="CR44" s="46"/>
+      <c r="CS44" s="46"/>
+      <c r="CT44" s="46"/>
+      <c r="CU44" s="46"/>
+      <c r="CV44" s="46"/>
+      <c r="CW44" s="46"/>
       <c r="CX44" s="40"/>
       <c r="CY44" s="40"/>
       <c r="CZ44" s="40"/>
@@ -11947,10 +12428,10 @@
       <c r="EG44" s="40"/>
       <c r="EH44" s="40"/>
     </row>
-    <row r="45" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:138" ht="12.75" customHeight="1">
       <c r="A45" s="41"/>
       <c r="B45" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" s="44">
         <v>2180</v>
@@ -12034,23 +12515,23 @@
       <c r="AV45" s="44"/>
       <c r="AW45" s="44"/>
       <c r="AX45" s="44">
-        <f t="shared" ref="AX45:BB45" si="48">AX43-AX44</f>
+        <f t="shared" ref="AX45:BB45" si="70">AX43-AX44</f>
         <v>8717</v>
       </c>
       <c r="AY45" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="70"/>
         <v>11897</v>
       </c>
       <c r="AZ45" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="70"/>
         <v>10625</v>
       </c>
       <c r="BA45" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="70"/>
         <v>10298</v>
       </c>
       <c r="BB45" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="70"/>
         <v>9318</v>
       </c>
       <c r="BC45" s="44">
@@ -12062,15 +12543,15 @@
         <v>12123</v>
       </c>
       <c r="BE45" s="44">
-        <f t="shared" ref="BE45:BG45" si="49">BE43-BE44</f>
+        <f t="shared" ref="BE45:BG45" si="71">BE43-BE44</f>
         <v>12119</v>
       </c>
       <c r="BF45" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>10892</v>
       </c>
       <c r="BG45" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>14210</v>
       </c>
       <c r="BH45" s="44">
@@ -12078,49 +12559,49 @@
         <v>13318</v>
       </c>
       <c r="BI45" s="44">
-        <f t="shared" ref="BI45:BN45" si="50">BI43-BI44</f>
+        <f t="shared" ref="BI45:BN45" si="72">BI43-BI44</f>
         <v>14405</v>
       </c>
       <c r="BJ45" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="72"/>
         <v>14986.863999999996</v>
       </c>
       <c r="BK45" s="44">
-        <f t="shared" si="50"/>
-        <v>17644.866399999999</v>
+        <f t="shared" si="72"/>
+        <v>19869.976000000002</v>
       </c>
       <c r="BL45" s="44">
-        <f t="shared" si="50"/>
-        <v>17417.443599999995</v>
+        <f t="shared" si="72"/>
+        <v>18292.134399999999</v>
       </c>
       <c r="BM45" s="44">
-        <f t="shared" si="50"/>
-        <v>19236.556</v>
+        <f t="shared" si="72"/>
+        <v>19998.495999999996</v>
       </c>
       <c r="BN45" s="44">
-        <f t="shared" si="50"/>
-        <v>18487.931199999999</v>
+        <f t="shared" si="72"/>
+        <v>19371.756800000003</v>
       </c>
       <c r="BO45" s="44"/>
       <c r="BP45" s="44"/>
       <c r="BQ45" s="11">
-        <f t="shared" ref="BQ45:BU45" si="51">BQ44/BQ46</f>
+        <f t="shared" ref="BQ45:BU45" si="73">BQ44/BQ46</f>
         <v>5.4339622641509431</v>
       </c>
       <c r="BR45" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v>5.5909784351966199</v>
       </c>
       <c r="BS45" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v>9.0298275927642493</v>
       </c>
       <c r="BT45" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v>10.449736117774917</v>
       </c>
       <c r="BU45" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v>11.849703476124272</v>
       </c>
       <c r="BV45" s="11"/>
@@ -12130,7 +12611,7 @@
       <c r="BZ45" s="44"/>
       <c r="CA45" s="44"/>
       <c r="CB45" s="44">
-        <f t="shared" ref="CB45:CI45" si="52">CB43-CB44</f>
+        <f t="shared" ref="CB45:CI45" si="74">CB43-CB44</f>
         <v>9484.7999999999993</v>
       </c>
       <c r="CC45" s="44">
@@ -12138,27 +12619,27 @@
         <v>14403</v>
       </c>
       <c r="CD45" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="74"/>
         <v>17097</v>
       </c>
       <c r="CE45" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="74"/>
         <v>21432</v>
       </c>
       <c r="CF45" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="CG45" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="74"/>
         <v>26481</v>
       </c>
       <c r="CH45" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="74"/>
         <v>34860</v>
       </c>
       <c r="CI45" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="74"/>
         <v>37925</v>
       </c>
       <c r="CJ45" s="46"/>
@@ -12167,225 +12648,225 @@
       <c r="CM45" s="46"/>
       <c r="CN45" s="46"/>
       <c r="CO45" s="46">
-        <f t="shared" ref="CO45:DN45" si="53">CN45*(1+$CZ$49)</f>
+        <f t="shared" ref="CO45:DN45" si="75">CN45*(1+$CZ$49)</f>
         <v>0</v>
       </c>
       <c r="CP45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CQ45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CR45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CS45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CT45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CU45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CV45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CW45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CX45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CY45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CZ45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DA45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DB45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DC45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DD45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DE45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DF45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DG45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DH45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DI45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DJ45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DK45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DL45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DM45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DN45" s="46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="DO45" s="46">
-        <f t="shared" ref="DO45:EH45" si="54">DN45*(1+$CZ$49)</f>
+        <f t="shared" ref="DO45:EH45" si="76">DN45*(1+$CZ$49)</f>
         <v>0</v>
       </c>
       <c r="DP45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DQ45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DR45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DS45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DT45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DU45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DV45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DW45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DX45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DY45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DZ45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EA45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EB45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EC45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="ED45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EE45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EF45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EG45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="EH45" s="46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:138" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:138" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:J46" si="55">C45/C47</f>
+        <f t="shared" ref="C46:J46" si="77">C45/C47</f>
         <v>3.4807600191601473</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>3.994503718073068</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>4.3359375</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>3.7923177083333335</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>4.4050922147870084</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>4.9202171409771349</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>4.5809777186564684</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>3.9028897849462361</v>
       </c>
       <c r="K46" s="11">
@@ -12446,23 +12927,23 @@
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11">
-        <f t="shared" ref="AX46:BB46" si="56">AX45/AX47</f>
+        <f t="shared" ref="AX46:BB46" si="78">AX45/AX47</f>
         <v>3.6884864384547029</v>
       </c>
       <c r="AY46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>5.0522337353490743</v>
       </c>
       <c r="AZ46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.5311100686596442</v>
       </c>
       <c r="BA46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.4100895036615135</v>
       </c>
       <c r="BB46" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.0075695669003482</v>
       </c>
       <c r="BC46" s="11">
@@ -12474,15 +12955,15 @@
         <v>5.256471404413996</v>
       </c>
       <c r="BE46" s="11">
-        <f t="shared" ref="BE46:BG46" si="57">BE45/BE47</f>
+        <f t="shared" ref="BE46:BG46" si="79">BE45/BE47</f>
         <v>5.2753232055021106</v>
       </c>
       <c r="BF46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>4.7550860036671621</v>
       </c>
       <c r="BG46" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>6.223448517496605</v>
       </c>
       <c r="BH46" s="11">
@@ -12490,28 +12971,28 @@
         <v>5.8512367646412722</v>
       </c>
       <c r="BI46" s="11">
-        <f t="shared" ref="BI46:BN46" si="58">BI45/BI47</f>
+        <f t="shared" ref="BI46:BN46" si="80">BI45/BI47</f>
         <v>6.3500110204981262</v>
       </c>
       <c r="BJ46" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>6.6065082653735931</v>
       </c>
       <c r="BK46" s="11">
-        <f t="shared" si="58"/>
-        <v>7.7782086841525233</v>
+        <f t="shared" si="80"/>
+        <v>8.7590813312761746</v>
       </c>
       <c r="BL46" s="11">
-        <f t="shared" si="58"/>
-        <v>7.6779561824994467</v>
+        <f t="shared" si="80"/>
+        <v>8.0635373154066556</v>
       </c>
       <c r="BM46" s="11">
-        <f t="shared" si="58"/>
-        <v>8.4798571743442803</v>
+        <f t="shared" si="80"/>
+        <v>8.8157355080449609</v>
       </c>
       <c r="BN46" s="11">
-        <f t="shared" si="58"/>
-        <v>8.1498484461097629</v>
+        <f t="shared" si="80"/>
+        <v>8.5394563808684172</v>
       </c>
       <c r="BO46" s="11"/>
       <c r="BP46" s="10"/>
@@ -12538,22 +13019,22 @@
       <c r="CA46" s="10"/>
       <c r="CB46" s="10"/>
       <c r="CC46" s="11">
-        <f t="shared" ref="CC46:CE46" si="59">CC45/CC47</f>
+        <f t="shared" ref="CC46:CE46" si="81">CC45/CC47</f>
         <v>24.600453988798879</v>
       </c>
       <c r="CD46" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="81"/>
         <v>29.987792300730359</v>
       </c>
       <c r="CE46" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="81"/>
         <v>38.849452931835813</v>
       </c>
       <c r="CF46" s="11"/>
       <c r="CG46" s="11"/>
       <c r="CH46" s="11"/>
     </row>
-    <row r="47" spans="1:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:138" ht="12.75" customHeight="1">
       <c r="B47" s="47" t="s">
         <v>11</v>
       </c>
@@ -12669,23 +13150,23 @@
         <v>2268.5</v>
       </c>
       <c r="BJ47" s="44">
-        <f t="shared" ref="BJ47:BN47" si="60">+BI47</f>
+        <f t="shared" ref="BJ47:BN47" si="82">+BI47</f>
         <v>2268.5</v>
       </c>
       <c r="BK47" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>2268.5</v>
       </c>
       <c r="BL47" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>2268.5</v>
       </c>
       <c r="BM47" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>2268.5</v>
       </c>
       <c r="BN47" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>2268.5</v>
       </c>
       <c r="BO47" s="44"/>
@@ -12695,27 +13176,27 @@
         <v>2016</v>
       </c>
       <c r="BR47" s="44">
-        <f t="shared" ref="BR47:BW47" si="61">BR44</f>
+        <f t="shared" ref="BR47:BW47" si="83">BR44</f>
         <v>2001</v>
       </c>
       <c r="BS47" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>3154</v>
       </c>
       <c r="BT47" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>3620</v>
       </c>
       <c r="BU47" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>4116</v>
       </c>
       <c r="BV47" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>954</v>
       </c>
       <c r="BW47" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>477</v>
       </c>
       <c r="BX47" s="44"/>
@@ -12792,7 +13273,7 @@
       <c r="EG47" s="40"/>
       <c r="EH47" s="40"/>
     </row>
-    <row r="48" spans="1:138" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:138" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B48" s="47"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
@@ -12927,48 +13408,48 @@
       <c r="EG48" s="41"/>
       <c r="EH48" s="41"/>
     </row>
-    <row r="49" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:138" ht="12.75" customHeight="1">
       <c r="B49" s="47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
       <c r="G49" s="54">
-        <f t="shared" ref="G49:O49" si="62">G31/C31-1</f>
+        <f t="shared" ref="G49:O49" si="84">G31/C31-1</f>
         <v>0.17750141322781232</v>
       </c>
       <c r="H49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>0.17020702070207028</v>
       </c>
       <c r="I49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>0.11550773608394094</v>
       </c>
       <c r="J49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>4.2756099499324574E-2</v>
       </c>
       <c r="K49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>9.4095055208833323E-2</v>
       </c>
       <c r="L49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>0.18406276440273817</v>
       </c>
       <c r="M49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>0.24224790753288161</v>
       </c>
       <c r="N49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>0.22886975078119054</v>
       </c>
       <c r="O49" s="54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="84"/>
         <v>0.14765247915752533</v>
       </c>
       <c r="P49" s="54"/>
@@ -13010,56 +13491,56 @@
       <c r="AZ49" s="54"/>
       <c r="BA49" s="54"/>
       <c r="BB49" s="54">
-        <f t="shared" ref="BB49:BH49" si="63">BB31/AX31-1</f>
+        <f t="shared" ref="BB49:BH49" si="85">BB31/AX31-1</f>
         <v>-8.6065953049325739E-3</v>
       </c>
       <c r="BC49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="85"/>
         <v>-2.0959409594095701E-3</v>
       </c>
       <c r="BD49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="85"/>
         <v>0.10114643737919082</v>
       </c>
       <c r="BE49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="85"/>
         <v>0.15180909884566884</v>
       </c>
       <c r="BF49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="85"/>
         <v>0.19276246188312895</v>
       </c>
       <c r="BG49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="85"/>
         <v>0.24337356525854936</v>
       </c>
       <c r="BH49" s="54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="85"/>
         <v>0.24890287824218404</v>
       </c>
       <c r="BI49" s="54">
-        <f t="shared" ref="BI49:BN49" si="64">BI31/BE31-1</f>
+        <f t="shared" ref="BI49:BN49" si="86">BI31/BE31-1</f>
         <v>0.27915333221043181</v>
       </c>
       <c r="BJ49" s="54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="86"/>
         <v>0.2545848224767171</v>
       </c>
       <c r="BK49" s="54">
-        <f t="shared" si="64"/>
-        <v>0.13995146439532724</v>
+        <f>BK31/BG31-1</f>
+        <v>0.26970569341676387</v>
       </c>
       <c r="BL49" s="54">
-        <f t="shared" si="64"/>
-        <v>0.15531200775475584</v>
+        <f>BL31/BH31-1</f>
+        <v>0.20726523688355747</v>
       </c>
       <c r="BM49" s="54">
-        <f t="shared" si="64"/>
-        <v>0.17542795066496941</v>
+        <f>BM31/BI31-1</f>
+        <v>0.21723214677610492</v>
       </c>
       <c r="BN49" s="54">
-        <f t="shared" si="64"/>
-        <v>0.16427472344672722</v>
+        <f>BN31/BJ31-1</f>
+        <v>0.21421442235714894</v>
       </c>
       <c r="BO49" s="54"/>
       <c r="BP49" s="53"/>
@@ -13091,68 +13572,68 @@
       <c r="CA49" s="55"/>
       <c r="CB49" s="55"/>
       <c r="CC49" s="55">
-        <f t="shared" ref="CC49:CO49" si="65">CC31/CB31-1</f>
+        <f t="shared" ref="CC49:CO49" si="87">CC31/CB31-1</f>
         <v>0.18784325222319942</v>
       </c>
       <c r="CD49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>9.164801895485053E-2</v>
       </c>
       <c r="CE49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>0.17604678503602322</v>
       </c>
       <c r="CF49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>7.1078871145515699E-2</v>
       </c>
       <c r="CG49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>6.262863159910026E-2</v>
       </c>
       <c r="CH49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>0.21531202846654507</v>
       </c>
       <c r="CI49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>3.5700056519684553E-2</v>
       </c>
       <c r="CJ49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>-7.5147611379500212E-4</v>
       </c>
       <c r="CK49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>1.208637730984119E-3</v>
       </c>
       <c r="CL49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>9.1119635879139071E-2</v>
       </c>
       <c r="CM49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>4.0361904918005953E-2</v>
       </c>
       <c r="CN49" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="87"/>
         <v>0.10913301718841084</v>
       </c>
       <c r="CO49" s="55">
-        <f t="shared" si="65"/>
-        <v>-1</v>
-      </c>
-      <c r="CP49" s="40"/>
-      <c r="CQ49" s="40"/>
-      <c r="CR49" s="40"/>
-      <c r="CS49" s="40"/>
-      <c r="CT49" s="40"/>
-      <c r="CU49" s="40"/>
-      <c r="CV49" s="40"/>
-      <c r="CW49" s="40"/>
+        <f t="shared" si="87"/>
+        <v>0.25677556818181824</v>
+      </c>
+      <c r="CP49" s="55"/>
+      <c r="CQ49" s="55"/>
+      <c r="CR49" s="55"/>
+      <c r="CS49" s="55"/>
+      <c r="CT49" s="55"/>
+      <c r="CU49" s="55"/>
+      <c r="CV49" s="55"/>
+      <c r="CW49" s="55"/>
       <c r="CX49" s="40"/>
       <c r="CY49" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="CZ49" s="50">
         <v>0.02</v>
@@ -13192,9 +13673,9 @@
       <c r="EG49" s="40"/>
       <c r="EH49" s="40"/>
     </row>
-    <row r="50" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:138" ht="12.75" customHeight="1">
       <c r="B50" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
@@ -13277,7 +13758,7 @@
       <c r="CA50" s="55"/>
       <c r="CB50" s="55"/>
       <c r="CC50" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CD50" s="55"/>
       <c r="CE50" s="55"/>
@@ -13301,7 +13782,7 @@
       <c r="CW50" s="40"/>
       <c r="CX50" s="40"/>
       <c r="CY50" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="CZ50" s="50">
         <v>0.1</v>
@@ -13341,9 +13822,9 @@
       <c r="EG50" s="40"/>
       <c r="EH50" s="40"/>
     </row>
-    <row r="51" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:138" ht="12.75" customHeight="1">
       <c r="B51" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
@@ -13396,56 +13877,56 @@
       <c r="AY51" s="54"/>
       <c r="AZ51" s="54"/>
       <c r="BA51" s="54"/>
-      <c r="BB51" s="54">
-        <f t="shared" ref="BB51:BN51" si="66">BB16/AX16-1</f>
+      <c r="BB51" s="55">
+        <f t="shared" ref="BB51:BN51" si="88">BB16/AX16-1</f>
         <v>0.41764032073310431</v>
       </c>
-      <c r="BC51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BC51" s="55">
+        <f t="shared" si="88"/>
         <v>0.40105152471083061</v>
       </c>
-      <c r="BD51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BD51" s="55">
+        <f t="shared" si="88"/>
         <v>0.53742762613730366</v>
       </c>
-      <c r="BE51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BE51" s="55">
+        <f t="shared" si="88"/>
         <v>0.63696612665684826</v>
       </c>
-      <c r="BF51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BF51" s="55">
+        <f t="shared" si="88"/>
         <v>0.73173884938590827</v>
       </c>
-      <c r="BG51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BG51" s="55">
+        <f t="shared" si="88"/>
         <v>0.80651456019213441</v>
       </c>
-      <c r="BH51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BH51" s="55">
+        <f t="shared" si="88"/>
         <v>0.9299260255548083</v>
       </c>
-      <c r="BI51" s="54">
+      <c r="BI51" s="55">
         <f>BI16/BE16-1</f>
         <v>0.84322986954565904</v>
       </c>
-      <c r="BJ51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BJ51" s="55">
+        <f>BJ16/BF16-1</f>
         <v>0.58417319895483399</v>
       </c>
-      <c r="BK51" s="54">
-        <f t="shared" si="66"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="BL51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BK51" s="55">
+        <f>BK16/BG16-1</f>
+        <v>0.63190693809721643</v>
+      </c>
+      <c r="BL51" s="55">
+        <f>BL16/BH16-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BM51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BM51" s="55">
+        <f>BM16/BI16-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BN51" s="54">
-        <f t="shared" si="66"/>
+      <c r="BN51" s="55">
+        <f>BN16/BJ16-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="BO51" s="54"/>
@@ -13485,7 +13966,7 @@
       <c r="CW51" s="40"/>
       <c r="CX51" s="40"/>
       <c r="CY51" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CZ51" s="46">
         <f>NPV(CZ50,CE45:ES45)+CD45+Main!J5-Main!J6</f>
@@ -13526,9 +14007,9 @@
       <c r="EG51" s="40"/>
       <c r="EH51" s="40"/>
     </row>
-    <row r="52" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:138" ht="12.75" customHeight="1">
       <c r="B52" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
@@ -13581,57 +14062,57 @@
       <c r="AY52" s="54"/>
       <c r="AZ52" s="54"/>
       <c r="BA52" s="54"/>
-      <c r="BB52" s="54">
-        <f t="shared" ref="BB52:BN52" si="67">SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
+      <c r="BB52" s="55">
+        <f t="shared" ref="BB52:BN52" si="89">SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
         <v>0.15421707873049262</v>
       </c>
-      <c r="BC52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BC52" s="55">
+        <f t="shared" si="89"/>
         <v>0.11244806094182835</v>
       </c>
-      <c r="BD52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BD52" s="55">
+        <f t="shared" si="89"/>
         <v>0.31081710612130808</v>
       </c>
-      <c r="BE52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BE52" s="55">
+        <f t="shared" si="89"/>
         <v>0.35507548586204019</v>
       </c>
-      <c r="BF52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BF52" s="55">
+        <f t="shared" si="89"/>
         <v>0.43038359285985561</v>
       </c>
-      <c r="BG52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BG52" s="55">
+        <f t="shared" si="89"/>
         <v>0.62026301455139676</v>
       </c>
-      <c r="BH52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BH52" s="55">
+        <f t="shared" si="89"/>
         <v>0.62584405430378842</v>
       </c>
-      <c r="BI52" s="54">
+      <c r="BI52" s="55">
         <f>SUM(BI14:BI19)/SUM(BE14:BE19)-1</f>
         <v>0.64341991874923066</v>
       </c>
-      <c r="BJ52" s="54">
-        <f t="shared" si="67"/>
+      <c r="BJ52" s="55">
+        <f t="shared" si="89"/>
         <v>0.58462110349954854</v>
       </c>
-      <c r="BK52" s="54">
-        <f t="shared" si="67"/>
-        <v>0.34843434828546727</v>
-      </c>
-      <c r="BL52" s="54">
-        <f t="shared" si="67"/>
-        <v>0.33360584069248933</v>
-      </c>
-      <c r="BM52" s="54">
-        <f t="shared" si="67"/>
-        <v>0.34578823176897999</v>
-      </c>
-      <c r="BN52" s="54">
-        <f t="shared" si="67"/>
-        <v>0.30466487935656827</v>
+      <c r="BK52" s="55">
+        <f t="shared" si="89"/>
+        <v>0.66424935164729604</v>
+      </c>
+      <c r="BL52" s="55">
+        <f t="shared" si="89"/>
+        <v>0.45431057095392147</v>
+      </c>
+      <c r="BM52" s="55">
+        <f t="shared" si="89"/>
+        <v>0.44140604517023108</v>
+      </c>
+      <c r="BN52" s="55">
+        <f t="shared" si="89"/>
+        <v>0.40640750670241288</v>
       </c>
       <c r="BO52" s="54"/>
       <c r="BP52" s="53"/>
@@ -13670,11 +14151,11 @@
       <c r="CW52" s="40"/>
       <c r="CX52" s="40"/>
       <c r="CY52" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CZ52" s="52">
         <f>CZ51/Main!$J$3</f>
-        <v>50.813971275008086</v>
+        <v>51.081934697046819</v>
       </c>
       <c r="DA52" s="40"/>
       <c r="DB52" s="40"/>
@@ -13711,9 +14192,9 @@
       <c r="EG52" s="40"/>
       <c r="EH52" s="40"/>
     </row>
-    <row r="53" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:138" ht="12.75" customHeight="1">
       <c r="B53" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C53" s="53"/>
       <c r="D53" s="53"/>
@@ -13766,57 +14247,57 @@
       <c r="AY53" s="54"/>
       <c r="AZ53" s="54"/>
       <c r="BA53" s="54"/>
-      <c r="BB53" s="54">
-        <f t="shared" ref="BB53:BN53" si="68">BB19/AX19-1</f>
+      <c r="BB53" s="55">
+        <f t="shared" ref="BB53:BN53" si="90">BB19/AX19-1</f>
         <v>-0.11445012787723785</v>
       </c>
-      <c r="BC53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BC53" s="55">
+        <f t="shared" si="90"/>
         <v>-1.6487000634115456E-2</v>
       </c>
-      <c r="BD53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BD53" s="55">
+        <f t="shared" si="90"/>
         <v>0.52293577981651373</v>
       </c>
-      <c r="BE53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BE53" s="55">
+        <f t="shared" si="90"/>
         <v>0.79222720478325859</v>
       </c>
-      <c r="BF53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BF53" s="55">
+        <f t="shared" si="90"/>
         <v>0.77545126353790605</v>
       </c>
-      <c r="BG53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BG53" s="55">
+        <f t="shared" si="90"/>
         <v>0.28820116054158618</v>
       </c>
-      <c r="BH53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BH53" s="55">
+        <f t="shared" si="90"/>
         <v>0.23594377510040165</v>
       </c>
-      <c r="BI53" s="54">
+      <c r="BI53" s="55">
         <f>BI19/BE19-1</f>
         <v>0.32360300250208507</v>
       </c>
-      <c r="BJ53" s="54">
-        <f t="shared" si="68"/>
+      <c r="BJ53" s="55">
+        <f t="shared" si="90"/>
         <v>0.23708824725498179</v>
       </c>
-      <c r="BK53" s="54">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="BL53" s="54">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="BM53" s="54">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="BN53" s="54">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+      <c r="BK53" s="55">
+        <f>BK19/BG19-1</f>
+        <v>0.64114114114114118</v>
+      </c>
+      <c r="BL53" s="55">
+        <f t="shared" si="90"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="BM53" s="55">
+        <f t="shared" si="90"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="BN53" s="55">
+        <f t="shared" si="90"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="BO53" s="54"/>
       <c r="BP53" s="53"/>
@@ -13891,9 +14372,9 @@
       <c r="EG53" s="40"/>
       <c r="EH53" s="40"/>
     </row>
-    <row r="54" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:138" ht="12.75" customHeight="1">
       <c r="B54" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C54" s="53"/>
       <c r="D54" s="53"/>
@@ -13946,57 +14427,57 @@
       <c r="AY54" s="54"/>
       <c r="AZ54" s="54"/>
       <c r="BA54" s="54"/>
-      <c r="BB54" s="54">
-        <f t="shared" ref="BB54:BN54" si="69">BB12/AX12-1</f>
+      <c r="BB54" s="55">
+        <f t="shared" ref="BB54:BN54" si="91">BB12/AX12-1</f>
         <v>-8.5865700677534074E-2</v>
       </c>
-      <c r="BC54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BC54" s="55">
+        <f t="shared" si="91"/>
         <v>-6.5853965062209419E-2</v>
       </c>
-      <c r="BD54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BD54" s="55">
+        <f t="shared" si="91"/>
         <v>-3.3000146993973245E-2</v>
       </c>
-      <c r="BE54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BE54" s="55">
+        <f t="shared" si="91"/>
         <v>4.5288368275759217E-2</v>
       </c>
-      <c r="BF54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BF54" s="55">
+        <f t="shared" si="91"/>
         <v>2.5390768327584912E-2</v>
       </c>
-      <c r="BG54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BG54" s="55">
+        <f t="shared" si="91"/>
         <v>6.4576886855913784E-3</v>
       </c>
-      <c r="BH54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BH54" s="55">
+        <f t="shared" si="91"/>
         <v>-6.1868207038078604E-2</v>
       </c>
-      <c r="BI54" s="54">
+      <c r="BI54" s="55">
         <f>BI12/BE12-1</f>
         <v>-7.487508922198427E-2</v>
       </c>
-      <c r="BJ54" s="54">
-        <f t="shared" si="69"/>
+      <c r="BJ54" s="55">
+        <f t="shared" si="91"/>
         <v>-9.2106204823588333E-2</v>
       </c>
-      <c r="BK54" s="54">
-        <f t="shared" si="69"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="BL54" s="54">
-        <f t="shared" si="69"/>
-        <v>-5.0000000000000155E-2</v>
-      </c>
-      <c r="BM54" s="54">
-        <f t="shared" si="69"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="BN54" s="54">
-        <f t="shared" si="69"/>
-        <v>-5.0000000000000044E-2</v>
+      <c r="BK54" s="55">
+        <f t="shared" si="91"/>
+        <v>-0.1037962839192621</v>
+      </c>
+      <c r="BL54" s="55">
+        <f t="shared" si="91"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="BM54" s="55">
+        <f t="shared" si="91"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="BN54" s="55">
+        <f t="shared" si="91"/>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BO54" s="54"/>
       <c r="BP54" s="53"/>
@@ -14071,56 +14552,56 @@
       <c r="EG54" s="40"/>
       <c r="EH54" s="40"/>
     </row>
-    <row r="55" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:138" ht="12.75" customHeight="1">
       <c r="B55" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="56">
-        <f t="shared" ref="C55:N55" si="70">C33/C31</f>
+        <f t="shared" ref="C55:N55" si="92">C33/C31</f>
         <v>0.77265875259091765</v>
       </c>
       <c r="D55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.77011701170117008</v>
       </c>
       <c r="E55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.76827316379157029</v>
       </c>
       <c r="F55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.79845823730429943</v>
       </c>
       <c r="G55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.79932789246279401</v>
       </c>
       <c r="H55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.79924621182985922</v>
       </c>
       <c r="I55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.78373854125149467</v>
       </c>
       <c r="J55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.79468028351497599</v>
       </c>
       <c r="K55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.80327629077080587</v>
       </c>
       <c r="L55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.80713264908405868</v>
       </c>
       <c r="M55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.8116016427104723</v>
       </c>
       <c r="N55" s="56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>0.8</v>
       </c>
       <c r="O55" s="56"/>
@@ -14159,39 +14640,39 @@
       <c r="AV55" s="56"/>
       <c r="AW55" s="56"/>
       <c r="AX55" s="56">
-        <f t="shared" ref="AX55" si="71">AX33/AX31</f>
+        <f t="shared" ref="AX55" si="93">AX33/AX31</f>
         <v>0.83243359965450225</v>
       </c>
       <c r="AY55" s="56">
-        <f t="shared" ref="AY55:BB55" si="72">AY33/AY31</f>
+        <f t="shared" ref="AY55:BB55" si="94">AY33/AY31</f>
         <v>0.84100369003690034</v>
       </c>
       <c r="AZ55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>0.84096514030527225</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>0.83331716623015484</v>
       </c>
       <c r="BB55" s="56">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>0.8251602464372394</v>
       </c>
       <c r="BC55" s="56">
-        <f t="shared" ref="BC55:BF55" si="73">BC33/BC31</f>
+        <f t="shared" ref="BC55:BF55" si="95">BC33/BC31</f>
         <v>0.82809726659566918</v>
       </c>
       <c r="BD55" s="56">
-        <f t="shared" si="73"/>
+        <f t="shared" si="95"/>
         <v>0.83211767198329345</v>
       </c>
       <c r="BE55" s="56">
-        <f t="shared" si="73"/>
+        <f t="shared" si="95"/>
         <v>0.82990848352141933</v>
       </c>
       <c r="BF55" s="56">
-        <f t="shared" si="73"/>
+        <f t="shared" si="95"/>
         <v>0.83718988860772703</v>
       </c>
       <c r="BG55" s="56">
@@ -14199,7 +14680,7 @@
         <v>0.83543099141110133</v>
       </c>
       <c r="BH55" s="56">
-        <f t="shared" ref="BH55:BN55" si="74">BH33/BH31</f>
+        <f t="shared" ref="BH55:BN55" si="96">BH33/BH31</f>
         <v>0.85292620865139945</v>
       </c>
       <c r="BI55" s="56">
@@ -14207,23 +14688,23 @@
         <v>0.8419874467804942</v>
       </c>
       <c r="BJ55" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="96"/>
         <v>0.85</v>
       </c>
       <c r="BK55" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="96"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="BL55" s="56">
+        <f t="shared" si="96"/>
         <v>0.86</v>
       </c>
-      <c r="BL55" s="56">
-        <f t="shared" si="74"/>
-        <v>0.86</v>
-      </c>
       <c r="BM55" s="56">
-        <f t="shared" si="74"/>
-        <v>0.87000000000000011</v>
+        <f t="shared" si="96"/>
+        <v>0.86999999999999988</v>
       </c>
       <c r="BN55" s="56">
-        <f t="shared" si="74"/>
+        <f t="shared" si="96"/>
         <v>0.87</v>
       </c>
       <c r="BO55" s="56"/>
@@ -14240,72 +14721,72 @@
       <c r="BZ55" s="39"/>
       <c r="CA55" s="39"/>
       <c r="CB55" s="56">
-        <f t="shared" ref="CB55:CP55" si="75">CB33/CB31</f>
+        <f t="shared" ref="CB55:CP55" si="97">CB33/CB31</f>
         <v>0.79429297371249874</v>
       </c>
       <c r="CC55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.80781887587205481</v>
       </c>
       <c r="CD55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.81025231362855332</v>
       </c>
       <c r="CE55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.82742931843231748</v>
       </c>
       <c r="CF55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="CG55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.83602459293290998</v>
       </c>
       <c r="CH55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.85000972879816916</v>
       </c>
       <c r="CI55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.84627840400787258</v>
       </c>
       <c r="CJ55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.84214295946139517</v>
       </c>
       <c r="CK55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.84246765208215968</v>
       </c>
       <c r="CL55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.8353725997983954</v>
       </c>
       <c r="CM55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.83511099207537065</v>
       </c>
       <c r="CN55" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="97"/>
         <v>0.83197443181818187</v>
       </c>
-      <c r="CO55" s="56" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP55" s="56" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CQ55" s="40"/>
-      <c r="CR55" s="40"/>
-      <c r="CS55" s="40"/>
-      <c r="CT55" s="40"/>
-      <c r="CU55" s="40"/>
-      <c r="CV55" s="40"/>
-      <c r="CW55" s="40"/>
+      <c r="CO55" s="56">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CP55" s="56">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CQ55" s="56"/>
+      <c r="CR55" s="56"/>
+      <c r="CS55" s="56"/>
+      <c r="CT55" s="56"/>
+      <c r="CU55" s="56"/>
+      <c r="CV55" s="56"/>
+      <c r="CW55" s="56"/>
       <c r="CX55" s="40"/>
       <c r="CY55" s="40"/>
       <c r="CZ55" s="40"/>
@@ -14344,9 +14825,9 @@
       <c r="EG55" s="40"/>
       <c r="EH55" s="40"/>
     </row>
-    <row r="56" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:138" ht="12.75" customHeight="1">
       <c r="B56" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
@@ -14396,23 +14877,23 @@
       <c r="AV56" s="56"/>
       <c r="AW56" s="56"/>
       <c r="AX56" s="56">
-        <f t="shared" ref="AX56" si="76">+AX34/AX31</f>
+        <f t="shared" ref="AX56" si="98">+AX34/AX31</f>
         <v>0.29416664095999012</v>
       </c>
       <c r="AY56" s="56">
-        <f t="shared" ref="AY56:BB56" si="77">+AY34/AY31</f>
+        <f t="shared" ref="AY56:BB56" si="99">+AY34/AY31</f>
         <v>0.22405904059040591</v>
       </c>
       <c r="AZ56" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="99"/>
         <v>0.24655068986202761</v>
       </c>
       <c r="BA56" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="99"/>
         <v>0.26429980276134124</v>
       </c>
       <c r="BB56" s="56">
-        <f t="shared" si="77"/>
+        <f t="shared" si="99"/>
         <v>0.30387703030680191</v>
       </c>
       <c r="BC56" s="56">
@@ -14420,23 +14901,23 @@
         <v>0.24423145189918352</v>
       </c>
       <c r="BD56" s="56">
-        <f t="shared" ref="BD56:BN56" si="78">+BD34/BD31</f>
+        <f t="shared" ref="BD56:BN56" si="100">+BD34/BD31</f>
         <v>0.24215368784237765</v>
       </c>
       <c r="BE56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.25599348717084947</v>
       </c>
       <c r="BF56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.30344611692275586</v>
       </c>
       <c r="BG56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.24227355999143491</v>
       </c>
       <c r="BH56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.26269235429540772</v>
       </c>
       <c r="BI56" s="56">
@@ -14444,24 +14925,24 @@
         <v>0.25130579818285564</v>
       </c>
       <c r="BJ56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.3</v>
       </c>
       <c r="BK56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.24</v>
       </c>
       <c r="BL56" s="56">
-        <f t="shared" si="78"/>
-        <v>0.24000000000000002</v>
+        <f t="shared" si="100"/>
+        <v>0.24</v>
       </c>
       <c r="BM56" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="100"/>
         <v>0.26</v>
       </c>
       <c r="BN56" s="56">
-        <f t="shared" si="78"/>
-        <v>0.29999999999999993</v>
+        <f t="shared" si="100"/>
+        <v>0.3</v>
       </c>
       <c r="BO56" s="56"/>
       <c r="BP56" s="39"/>
@@ -14536,9 +15017,9 @@
       <c r="EG56" s="40"/>
       <c r="EH56" s="40"/>
     </row>
-    <row r="57" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:138" ht="12.75" customHeight="1">
       <c r="B57" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
@@ -14588,7 +15069,7 @@
       <c r="AV57" s="56"/>
       <c r="AW57" s="56"/>
       <c r="AX57" s="56">
-        <f t="shared" ref="AX57" si="79">+AX35/AX31</f>
+        <f t="shared" ref="AX57" si="101">+AX35/AX31</f>
         <v>0.13523768393127064</v>
       </c>
       <c r="AY57" s="56">
@@ -14596,39 +15077,39 @@
         <v>0.11149815498154982</v>
       </c>
       <c r="AZ57" s="56">
-        <f t="shared" ref="AZ57:BN57" si="80">+AZ35/AZ31</f>
+        <f t="shared" ref="AZ57:BN57" si="102">+AZ35/AZ31</f>
         <v>0.10967806438712258</v>
       </c>
       <c r="BA57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.12645908106185533</v>
       </c>
       <c r="BB57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.13949218993092288</v>
       </c>
       <c r="BC57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.11667258312625725</v>
       </c>
       <c r="BD57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.11936684725038589</v>
       </c>
       <c r="BE57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.11936443770703498</v>
       </c>
       <c r="BF57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.14692301672188454</v>
       </c>
       <c r="BG57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.12386095976779044</v>
       </c>
       <c r="BH57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.124148794377802</v>
       </c>
       <c r="BI57" s="56">
@@ -14636,23 +15117,23 @@
         <v>0.12362287670631611</v>
       </c>
       <c r="BJ57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.11</v>
       </c>
       <c r="BK57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.11</v>
       </c>
       <c r="BL57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
+        <v>0.11</v>
+      </c>
+      <c r="BM57" s="56">
+        <f t="shared" si="102"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="BM57" s="56">
-        <f t="shared" si="80"/>
-        <v>0.11</v>
-      </c>
       <c r="BN57" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.11</v>
       </c>
       <c r="BO57" s="56"/>
@@ -14728,52 +15209,52 @@
       <c r="EG57" s="40"/>
       <c r="EH57" s="40"/>
     </row>
-    <row r="58" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:138" ht="12.75" customHeight="1">
       <c r="B58" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="56">
         <f>C44/C43</f>
         <v>0.42991631799163182</v>
       </c>
       <c r="D58" s="56">
-        <f t="shared" ref="D58:M58" si="81">D44/D43</f>
+        <f t="shared" ref="D58:M58" si="103">D44/D43</f>
         <v>0.27451556077510275</v>
       </c>
       <c r="E58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.25752508361204013</v>
       </c>
       <c r="F58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.24104234527687296</v>
       </c>
       <c r="G58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.22995720399429387</v>
       </c>
       <c r="H58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.22991761071060762</v>
       </c>
       <c r="I58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.23620737454948712</v>
       </c>
       <c r="J58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.22359625668449198</v>
       </c>
       <c r="K58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.23002084781097984</v>
       </c>
       <c r="L58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.23003472222222221</v>
       </c>
       <c r="M58" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.23002577319587628</v>
       </c>
       <c r="N58" s="56">
@@ -14816,43 +15297,43 @@
       <c r="AV58" s="56"/>
       <c r="AW58" s="56"/>
       <c r="AX58" s="56">
-        <f t="shared" ref="AX58" si="82">+AX44/AX43</f>
+        <f t="shared" ref="AX58" si="104">+AX44/AX43</f>
         <v>0.21319613683545446</v>
       </c>
       <c r="AY58" s="56">
-        <f t="shared" ref="AY58:BB58" si="83">+AY44/AY43</f>
+        <f t="shared" ref="AY58:BB58" si="105">+AY44/AY43</f>
         <v>0.20797550096531522</v>
       </c>
       <c r="AZ58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="105"/>
         <v>0.20803518187239117</v>
       </c>
       <c r="BA58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="105"/>
         <v>0.18855882121188244</v>
       </c>
       <c r="BB58" s="56">
-        <f t="shared" si="83"/>
+        <f t="shared" si="105"/>
         <v>0.22362939510081653</v>
       </c>
       <c r="BC58" s="56">
-        <f t="shared" ref="BC58:BG58" si="84">+BC44/BC43</f>
+        <f t="shared" ref="BC58:BG58" si="106">+BC44/BC43</f>
         <v>0.20799347471451876</v>
       </c>
       <c r="BD58" s="56">
-        <f t="shared" si="84"/>
+        <f t="shared" si="106"/>
         <v>0.18730307702621171</v>
       </c>
       <c r="BE58" s="56">
-        <f t="shared" si="84"/>
+        <f t="shared" si="106"/>
         <v>0.19805452620434091</v>
       </c>
       <c r="BF58" s="56">
-        <f t="shared" si="84"/>
+        <f t="shared" si="106"/>
         <v>0.16937390375962785</v>
       </c>
       <c r="BG58" s="56">
-        <f t="shared" si="84"/>
+        <f t="shared" si="106"/>
         <v>0.20698699704224566</v>
       </c>
       <c r="BH58" s="56">
@@ -14864,23 +15345,23 @@
         <v>0.20114241348713399</v>
       </c>
       <c r="BJ58" s="56">
-        <f t="shared" ref="BJ58:BN58" si="85">+BJ44/BJ43</f>
+        <f t="shared" ref="BJ58:BN58" si="107">+BJ44/BJ43</f>
         <v>0.2</v>
       </c>
       <c r="BK58" s="56">
-        <f t="shared" si="85"/>
+        <f t="shared" si="107"/>
         <v>0.2</v>
       </c>
       <c r="BL58" s="56">
-        <f t="shared" si="85"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="107"/>
+        <v>0.2</v>
       </c>
       <c r="BM58" s="56">
-        <f t="shared" si="85"/>
-        <v>0.2</v>
+        <f t="shared" si="107"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="BN58" s="56">
-        <f t="shared" si="85"/>
+        <f t="shared" si="107"/>
         <v>0.2</v>
       </c>
       <c r="BO58" s="56"/>
@@ -14956,44 +15437,44 @@
       <c r="EG58" s="40"/>
       <c r="EH58" s="40"/>
     </row>
-    <row r="59" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:138" ht="12.75" customHeight="1">
       <c r="B59" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="56">
-        <f t="shared" ref="G59:N59" si="86">+G46/C46-1</f>
+        <f t="shared" ref="G59:N59" si="108">+G46/C46-1</f>
         <v>0.26555470372527656</v>
       </c>
       <c r="H59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>0.2317467921523495</v>
       </c>
       <c r="I59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>5.6513780158608862E-2</v>
       </c>
       <c r="J59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>2.9156860030458143E-2</v>
       </c>
       <c r="K59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>0.27248103257280354</v>
       </c>
       <c r="L59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>0.2244971740943098</v>
       </c>
       <c r="M59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>0.34395333855076848</v>
       </c>
       <c r="N59" s="56">
-        <f t="shared" si="86"/>
+        <f t="shared" si="108"/>
         <v>0.59020839337398123</v>
       </c>
       <c r="O59" s="56"/>
@@ -15121,9 +15602,9 @@
       <c r="EG59" s="40"/>
       <c r="EH59" s="40"/>
     </row>
-    <row r="61" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:138" ht="12.75" customHeight="1">
       <c r="B61" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
@@ -15264,9 +15745,9 @@
       <c r="EG61" s="40"/>
       <c r="EH61" s="40"/>
     </row>
-    <row r="63" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:138" ht="12.75" customHeight="1">
       <c r="B63" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
@@ -15407,9 +15888,9 @@
       <c r="EG63" s="40"/>
       <c r="EH63" s="40"/>
     </row>
-    <row r="64" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:138" ht="12.75" customHeight="1">
       <c r="B64" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
@@ -15550,9 +16031,9 @@
       <c r="EG64" s="40"/>
       <c r="EH64" s="40"/>
     </row>
-    <row r="65" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:138" ht="12.75" customHeight="1">
       <c r="B65" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
@@ -15693,9 +16174,9 @@
       <c r="EG65" s="40"/>
       <c r="EH65" s="40"/>
     </row>
-    <row r="66" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:138" ht="12.75" customHeight="1">
       <c r="B66" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
@@ -15836,9 +16317,9 @@
       <c r="EG66" s="40"/>
       <c r="EH66" s="40"/>
     </row>
-    <row r="68" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:138" ht="12.75" customHeight="1">
       <c r="B68" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
@@ -16023,146 +16504,154 @@
       <c r="EG68" s="40"/>
       <c r="EH68" s="40"/>
     </row>
-    <row r="70" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:138" ht="12.75" customHeight="1">
       <c r="B70" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BI70" s="64">
         <f>+BI71-BI80</f>
         <v>11437</v>
       </c>
+      <c r="BJ70" s="64">
+        <f t="shared" ref="BJ70:BK70" si="109">+BJ71-BJ80</f>
+        <v>0</v>
+      </c>
+      <c r="BK70" s="64">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:138" ht="12.75" customHeight="1">
       <c r="B71" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BI71" s="64">
         <f>28465+5277+9008+781+458</f>
         <v>43989</v>
       </c>
     </row>
-    <row r="72" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:138" ht="12.75" customHeight="1">
       <c r="B72" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BI72" s="64">
         <f>5406+247</f>
         <v>5653</v>
       </c>
     </row>
-    <row r="73" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:138" ht="12.75" customHeight="1">
       <c r="B73" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BI73" s="64">
         <f>2541+11303</f>
         <v>13844</v>
       </c>
     </row>
-    <row r="74" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:138" ht="12.75" customHeight="1">
       <c r="B74" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI74" s="64">
         <v>45563</v>
       </c>
     </row>
-    <row r="75" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:138" ht="12.75" customHeight="1">
       <c r="B75" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BI75" s="64">
         <v>23222</v>
       </c>
     </row>
-    <row r="76" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:138" ht="12.75" customHeight="1">
       <c r="B76" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BI76" s="64">
         <v>63641</v>
       </c>
     </row>
-    <row r="77" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:138" ht="12.75" customHeight="1">
       <c r="B77" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BI77" s="64">
         <v>46924</v>
       </c>
     </row>
-    <row r="78" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:138" ht="12.75" customHeight="1">
       <c r="B78" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BI78" s="64">
         <f>SUM(BI71:BI77)</f>
         <v>242836</v>
       </c>
     </row>
-    <row r="80" spans="2:138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:138" ht="12.75" customHeight="1">
       <c r="B80" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BI80" s="64">
         <f>24136+1833+6583</f>
         <v>32552</v>
       </c>
     </row>
-    <row r="81" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:61" ht="12.75" customHeight="1">
       <c r="B81" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BI81" s="64">
         <f>84745+5300</f>
         <v>90045</v>
       </c>
     </row>
-    <row r="82" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:61" ht="12.75" customHeight="1">
       <c r="B82" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BI82" s="64">
         <f>21389+240</f>
         <v>21629</v>
       </c>
     </row>
-    <row r="83" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:61" ht="12.75" customHeight="1">
       <c r="B83" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BI83" s="64">
         <v>7397</v>
       </c>
     </row>
-    <row r="84" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:61" ht="12.75" customHeight="1">
       <c r="B84" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BI84" s="64">
         <v>8310</v>
       </c>
     </row>
-    <row r="85" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:61" ht="12.75" customHeight="1">
       <c r="B85" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BI85" s="64">
         <f>5640+583</f>
         <v>6223</v>
       </c>
     </row>
-    <row r="86" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:61" ht="12.75" customHeight="1">
       <c r="B86" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BI86" s="64">
         <v>76680</v>
       </c>
     </row>
-    <row r="87" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:61" ht="12.75" customHeight="1">
       <c r="B87" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BI87" s="64">
         <f>SUM(BI80:BI86)</f>
@@ -16183,20 +16672,194 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F92FB-C887-4608-8562-B19F03734CE9}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4D74E2C0-CE77-4509-AF4F-7EE8A8441B4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAD9CEC-A88D-4DC0-AD39-2C4A128DD628}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FCD08E1D-6D9D-41B9-8C14-7430FC775682}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E68064B-B3CC-424E-9268-F7CDEC53E6BD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -16208,7 +16871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -16216,85 +16879,85 @@
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="24" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+    <row r="10" spans="1:3">
+      <c r="C10" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+    <row r="12" spans="1:3">
+      <c r="C12" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
+    <row r="15" spans="1:3">
+      <c r="C15" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+    <row r="16" spans="1:3">
+      <c r="C16" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -16308,7 +16971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -16316,45 +16979,45 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="24" t="s">
         <v>177</v>
       </c>
+      <c r="C4" s="24" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -16366,49 +17029,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/NOVOB.xlsx
+++ b/NOVOB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8CB01-521F-4AB2-9CFD-6CC339E2A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76C3AE-B3CB-4F4E-8EBF-552B91929653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="2700" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38160" yWindow="500" windowWidth="22140" windowHeight="19640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="25" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <definedName name="PreviousButton">"Button 19"</definedName>
     <definedName name="price">#REF!</definedName>
     <definedName name="PrimaryDataType">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Model!$A$2:$CH$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Model!$A$2:$CK$47</definedName>
     <definedName name="range">#REF!</definedName>
     <definedName name="risk">#REF!</definedName>
     <definedName name="Sector">#REF!</definedName>
@@ -281,7 +281,7 @@
     <author>tc={FF59098B-CDEA-4E95-99E9-B148257A5966}</author>
   </authors>
   <commentList>
-    <comment ref="BS40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="BV40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="BW40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="BX40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -1125,6 +1125,18 @@
   </si>
   <si>
     <t>Saxenda (liraglutide)</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1158,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0"/>
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1243,12 +1255,6 @@
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1580,7 +1586,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="% XX, X" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1692,14 +1698,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>35379</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>11188</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>35379</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>11188</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>78925</xdr:rowOff>
     </xdr:to>
@@ -1718,8 +1724,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="29992865" y="0"/>
-          <a:ext cx="0" cy="14284782"/>
+          <a:off x="35927998" y="0"/>
+          <a:ext cx="0" cy="13232496"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1746,13 +1752,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>92</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>4083</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>4083</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>107497</xdr:rowOff>
@@ -2165,24 +2171,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
-    <col min="7" max="7" width="9.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="24"/>
+    <col min="7" max="7" width="9.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="24" customWidth="1"/>
     <col min="10" max="10" width="10" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="24"/>
+    <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -2669,31 +2675,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EH87"/>
+  <dimension ref="A1:EK87"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AZ42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB51" sqref="BB51:BG58"/>
+      <selection pane="bottomRight" activeCell="BM8" sqref="BM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
-    <col min="3" max="56" width="6.85546875" style="6" customWidth="1"/>
-    <col min="57" max="66" width="7.85546875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="6.85546875" style="6" customWidth="1"/>
-    <col min="68" max="75" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="7.7109375" style="6" customWidth="1"/>
-    <col min="77" max="78" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="79" max="86" width="7.7109375" style="6" customWidth="1"/>
-    <col min="87" max="101" width="7.7109375" style="7" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.1640625" style="18" customWidth="1"/>
+    <col min="3" max="56" width="6.83203125" style="6" customWidth="1"/>
+    <col min="57" max="68" width="7.83203125" style="6" customWidth="1"/>
+    <col min="69" max="70" width="6.83203125" style="6" customWidth="1"/>
+    <col min="71" max="78" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.6640625" style="6" customWidth="1"/>
+    <col min="80" max="81" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="89" width="7.6640625" style="6" customWidth="1"/>
+    <col min="90" max="104" width="7.6640625" style="7" customWidth="1"/>
+    <col min="105" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" ht="12.75" customHeight="1">
+    <row r="1" spans="1:141" ht="12.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>60</v>
       </c>
@@ -2761,13 +2767,13 @@
       <c r="BK1" s="38"/>
       <c r="BL1" s="38"/>
       <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
+      <c r="BN1" s="55"/>
       <c r="BO1" s="38"/>
       <c r="BP1" s="38"/>
       <c r="BQ1" s="38"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
       <c r="BU1" s="39"/>
       <c r="BV1" s="39"/>
       <c r="BW1" s="39"/>
@@ -2782,9 +2788,9 @@
       <c r="CF1" s="39"/>
       <c r="CG1" s="39"/>
       <c r="CH1" s="39"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="40"/>
-      <c r="CK1" s="40"/>
+      <c r="CI1" s="39"/>
+      <c r="CJ1" s="39"/>
+      <c r="CK1" s="39"/>
       <c r="CL1" s="40"/>
       <c r="CM1" s="40"/>
       <c r="CN1" s="40"/>
@@ -2834,8 +2840,11 @@
       <c r="EF1" s="40"/>
       <c r="EG1" s="40"/>
       <c r="EH1" s="40"/>
+      <c r="EI1" s="40"/>
+      <c r="EJ1" s="40"/>
+      <c r="EK1" s="40"/>
     </row>
-    <row r="2" spans="1:138" ht="12.75" customHeight="1">
+    <row r="2" spans="1:141" ht="12.75" customHeight="1">
       <c r="A2" s="41"/>
       <c r="B2" s="36"/>
       <c r="C2" s="42" t="s">
@@ -3030,126 +3039,134 @@
       <c r="BN2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="43"/>
+      <c r="BO2" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP2" s="42" t="s">
+        <v>254</v>
+      </c>
       <c r="BQ2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR2" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="BR2" s="42" t="s">
+      <c r="BU2" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="BS2" s="42" t="s">
+      <c r="BV2" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="BT2" s="42" t="s">
+      <c r="BW2" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="BU2" s="42" t="s">
+      <c r="BX2" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="BV2" s="42" t="s">
+      <c r="BY2" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="BW2" s="42" t="s">
+      <c r="BZ2" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="BX2" s="42">
+      <c r="CA2" s="42">
         <v>2005</v>
       </c>
-      <c r="BY2" s="42">
+      <c r="CB2" s="42">
         <v>2006</v>
       </c>
-      <c r="BZ2" s="42">
+      <c r="CC2" s="42">
         <v>2007</v>
       </c>
-      <c r="CA2" s="42">
+      <c r="CD2" s="42">
         <v>2008</v>
       </c>
-      <c r="CB2" s="42">
+      <c r="CE2" s="42">
         <v>2009</v>
       </c>
-      <c r="CC2" s="42">
+      <c r="CF2" s="42">
         <v>2010</v>
       </c>
-      <c r="CD2" s="42">
+      <c r="CG2" s="42">
         <v>2011</v>
       </c>
-      <c r="CE2" s="42">
+      <c r="CH2" s="42">
         <v>2012</v>
       </c>
-      <c r="CF2" s="42">
+      <c r="CI2" s="42">
         <v>2013</v>
       </c>
-      <c r="CG2" s="42">
+      <c r="CJ2" s="42">
         <v>2014</v>
       </c>
-      <c r="CH2" s="42">
+      <c r="CK2" s="42">
         <v>2015</v>
       </c>
-      <c r="CI2" s="60">
-        <f>+CH2+1</f>
+      <c r="CL2" s="60">
+        <f>+CK2+1</f>
         <v>2016</v>
       </c>
-      <c r="CJ2" s="60">
-        <f t="shared" ref="CJ2:CW2" si="0">+CI2+1</f>
+      <c r="CM2" s="60">
+        <f t="shared" ref="CM2:CZ2" si="0">+CL2+1</f>
         <v>2017</v>
       </c>
-      <c r="CK2" s="60">
+      <c r="CN2" s="60">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="CL2" s="60">
+      <c r="CO2" s="60">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="CM2" s="60">
+      <c r="CP2" s="60">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="CN2" s="60">
+      <c r="CQ2" s="60">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="CO2" s="60">
+      <c r="CR2" s="60">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="CP2" s="60">
+      <c r="CS2" s="60">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="CQ2" s="60">
+      <c r="CT2" s="60">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="CR2" s="60">
+      <c r="CU2" s="60">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="CS2" s="60">
+      <c r="CV2" s="60">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="CT2" s="60">
+      <c r="CW2" s="60">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="CU2" s="60">
+      <c r="CX2" s="60">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="CV2" s="60">
+      <c r="CY2" s="60">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="CW2" s="60">
+      <c r="CZ2" s="60">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="CX2" s="58"/>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
-      <c r="DA2" s="40"/>
+      <c r="DA2" s="58"/>
       <c r="DB2" s="40"/>
       <c r="DC2" s="40"/>
       <c r="DD2" s="40"/>
@@ -3183,8 +3200,11 @@
       <c r="EF2" s="40"/>
       <c r="EG2" s="40"/>
       <c r="EH2" s="40"/>
+      <c r="EI2" s="40"/>
+      <c r="EJ2" s="40"/>
+      <c r="EK2" s="40"/>
     </row>
-    <row r="3" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
         <v>127</v>
@@ -3248,12 +3268,24 @@
       <c r="AO3" s="44"/>
       <c r="AP3" s="44"/>
       <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
+      <c r="AR3" s="44">
+        <v>4799</v>
+      </c>
+      <c r="AS3" s="44">
+        <v>4445</v>
+      </c>
+      <c r="AT3" s="44">
+        <v>4824</v>
+      </c>
+      <c r="AU3" s="44">
+        <v>4746</v>
+      </c>
+      <c r="AV3" s="44">
+        <v>4486</v>
+      </c>
+      <c r="AW3" s="44">
+        <v>4331</v>
+      </c>
       <c r="AX3" s="44">
         <v>4497</v>
       </c>
@@ -3297,22 +3329,19 @@
         <v>3970</v>
       </c>
       <c r="BL3" s="44">
-        <f>BH3*0.9</f>
-        <v>3033.9</v>
+        <v>3064</v>
       </c>
       <c r="BM3" s="44">
-        <f t="shared" ref="BM3:BM11" si="1">BI3*0.9</f>
-        <v>3400.2000000000003</v>
+        <v>3234</v>
       </c>
       <c r="BN3" s="44">
-        <f t="shared" ref="BN3:BN11" si="2">BJ3*0.9</f>
-        <v>3569.4</v>
+        <v>3508</v>
       </c>
       <c r="BO3" s="44"/>
-      <c r="BP3" s="45"/>
+      <c r="BP3" s="44"/>
       <c r="BQ3" s="44"/>
       <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
+      <c r="BS3" s="45"/>
       <c r="BT3" s="44"/>
       <c r="BU3" s="44"/>
       <c r="BV3" s="44"/>
@@ -3328,29 +3357,29 @@
       <c r="CF3" s="44"/>
       <c r="CG3" s="44"/>
       <c r="CH3" s="44"/>
-      <c r="CI3" s="46"/>
-      <c r="CJ3" s="46"/>
-      <c r="CK3" s="46"/>
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
       <c r="CL3" s="46"/>
-      <c r="CM3" s="46">
+      <c r="CM3" s="46"/>
+      <c r="CN3" s="46"/>
+      <c r="CO3" s="46"/>
+      <c r="CP3" s="46">
         <f>SUM(AY3:BB3)</f>
         <v>16928</v>
       </c>
-      <c r="CN3" s="46">
+      <c r="CQ3" s="46">
         <f>SUM(BC3:BF3)</f>
         <v>15939</v>
       </c>
-      <c r="CO3" s="46">
+      <c r="CR3" s="46">
         <f>SUM(BG3:BJ3)</f>
         <v>15460</v>
       </c>
-      <c r="CP3" s="46">
+      <c r="CS3" s="46">
         <f>SUM(BK3:BN3)</f>
-        <v>13973.5</v>
-      </c>
-      <c r="CQ3" s="46"/>
-      <c r="CR3" s="46"/>
-      <c r="CS3" s="46"/>
+        <v>13776</v>
+      </c>
       <c r="CT3" s="46"/>
       <c r="CU3" s="46"/>
       <c r="CV3" s="46"/>
@@ -3392,8 +3421,11 @@
       <c r="EF3" s="46"/>
       <c r="EG3" s="46"/>
       <c r="EH3" s="46"/>
+      <c r="EI3" s="46"/>
+      <c r="EJ3" s="46"/>
+      <c r="EK3" s="46"/>
     </row>
-    <row r="4" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
         <v>184</v>
@@ -3438,13 +3470,26 @@
       <c r="AN4" s="44"/>
       <c r="AO4" s="44"/>
       <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
+      <c r="AR4" s="44">
+        <f>2587-AR5</f>
+        <v>179</v>
+      </c>
+      <c r="AS4" s="44">
+        <f>2527-AS5</f>
+        <v>195</v>
+      </c>
+      <c r="AT4" s="44">
+        <v>206</v>
+      </c>
+      <c r="AU4" s="44">
+        <v>231</v>
+      </c>
+      <c r="AV4" s="44">
+        <v>272</v>
+      </c>
+      <c r="AW4" s="44">
+        <v>301</v>
+      </c>
       <c r="AX4" s="44">
         <v>439</v>
       </c>
@@ -3488,22 +3533,19 @@
         <v>518</v>
       </c>
       <c r="BL4" s="44">
-        <f t="shared" ref="BL4:BL11" si="3">BH4*0.9</f>
-        <v>464.40000000000003</v>
+        <v>447</v>
       </c>
       <c r="BM4" s="44">
-        <f t="shared" si="1"/>
-        <v>436.5</v>
+        <v>574</v>
       </c>
       <c r="BN4" s="44">
-        <f t="shared" si="2"/>
-        <v>454.5</v>
+        <v>634</v>
       </c>
       <c r="BO4" s="44"/>
-      <c r="BP4" s="45"/>
+      <c r="BP4" s="44"/>
       <c r="BQ4" s="44"/>
       <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
+      <c r="BS4" s="45"/>
       <c r="BT4" s="44"/>
       <c r="BU4" s="44"/>
       <c r="BV4" s="44"/>
@@ -3519,29 +3561,29 @@
       <c r="CF4" s="44"/>
       <c r="CG4" s="44"/>
       <c r="CH4" s="44"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="46"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
       <c r="CL4" s="46"/>
-      <c r="CM4" s="46">
-        <f t="shared" ref="CM4:CM9" si="4">SUM(AY4:BB4)</f>
+      <c r="CM4" s="46"/>
+      <c r="CN4" s="46"/>
+      <c r="CO4" s="46"/>
+      <c r="CP4" s="46">
+        <f t="shared" ref="CP4:CP9" si="1">SUM(AY4:BB4)</f>
         <v>1385</v>
       </c>
-      <c r="CN4" s="46">
-        <f t="shared" ref="CN4:CN9" si="5">SUM(BC4:BF4)</f>
+      <c r="CQ4" s="46">
+        <f t="shared" ref="CQ4:CQ9" si="2">SUM(BC4:BF4)</f>
         <v>1748</v>
       </c>
-      <c r="CO4" s="46">
-        <f t="shared" ref="CO4:CO9" si="6">SUM(BG4:BJ4)</f>
+      <c r="CR4" s="46">
+        <f t="shared" ref="CR4:CR9" si="3">SUM(BG4:BJ4)</f>
         <v>2003</v>
       </c>
-      <c r="CP4" s="46">
-        <f t="shared" ref="CP4:CP9" si="7">SUM(BK4:BN4)</f>
-        <v>1873.4</v>
-      </c>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46"/>
+      <c r="CS4" s="46">
+        <f t="shared" ref="CS4:CS9" si="4">SUM(BK4:BN4)</f>
+        <v>2173</v>
+      </c>
       <c r="CT4" s="46"/>
       <c r="CU4" s="46"/>
       <c r="CV4" s="46"/>
@@ -3583,8 +3625,11 @@
       <c r="EF4" s="46"/>
       <c r="EG4" s="46"/>
       <c r="EH4" s="46"/>
+      <c r="EI4" s="46"/>
+      <c r="EJ4" s="46"/>
+      <c r="EK4" s="46"/>
     </row>
-    <row r="5" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
         <v>128</v>
@@ -3648,12 +3693,24 @@
       <c r="AO5" s="44"/>
       <c r="AP5" s="44"/>
       <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
+      <c r="AR5" s="44">
+        <v>2408</v>
+      </c>
+      <c r="AS5" s="44">
+        <v>2332</v>
+      </c>
+      <c r="AT5" s="44">
+        <v>2239</v>
+      </c>
+      <c r="AU5" s="44">
+        <v>2545</v>
+      </c>
+      <c r="AV5" s="44">
+        <v>2303</v>
+      </c>
+      <c r="AW5" s="44">
+        <v>2318</v>
+      </c>
       <c r="AX5" s="44">
         <v>2419</v>
       </c>
@@ -3697,22 +3754,19 @@
         <v>1805</v>
       </c>
       <c r="BL5" s="44">
-        <f t="shared" si="3"/>
-        <v>1607.4</v>
+        <v>1470</v>
       </c>
       <c r="BM5" s="44">
-        <f t="shared" si="1"/>
-        <v>1709.1000000000001</v>
+        <v>1355</v>
       </c>
       <c r="BN5" s="44">
-        <f t="shared" si="2"/>
-        <v>1451.7</v>
+        <v>1214</v>
       </c>
       <c r="BO5" s="44"/>
-      <c r="BP5" s="45"/>
+      <c r="BP5" s="44"/>
       <c r="BQ5" s="44"/>
       <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
+      <c r="BS5" s="45"/>
       <c r="BT5" s="44"/>
       <c r="BU5" s="44"/>
       <c r="BV5" s="44"/>
@@ -3728,29 +3782,29 @@
       <c r="CF5" s="44"/>
       <c r="CG5" s="44"/>
       <c r="CH5" s="44"/>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
+      <c r="CI5" s="44"/>
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44"/>
       <c r="CL5" s="46"/>
-      <c r="CM5" s="46">
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46">
+        <f t="shared" si="1"/>
+        <v>9634</v>
+      </c>
+      <c r="CQ5" s="46">
+        <f t="shared" si="2"/>
+        <v>9492</v>
+      </c>
+      <c r="CR5" s="46">
+        <f t="shared" si="3"/>
+        <v>7673</v>
+      </c>
+      <c r="CS5" s="46">
         <f t="shared" si="4"/>
-        <v>9634</v>
-      </c>
-      <c r="CN5" s="46">
-        <f t="shared" si="5"/>
-        <v>9492</v>
-      </c>
-      <c r="CO5" s="46">
-        <f t="shared" si="6"/>
-        <v>7673</v>
-      </c>
-      <c r="CP5" s="46">
-        <f t="shared" si="7"/>
-        <v>6573.2</v>
-      </c>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
+        <v>5844</v>
+      </c>
       <c r="CT5" s="46"/>
       <c r="CU5" s="46"/>
       <c r="CV5" s="46"/>
@@ -3792,8 +3846,11 @@
       <c r="EF5" s="46"/>
       <c r="EG5" s="46"/>
       <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
     </row>
-    <row r="6" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
         <v>185</v>
@@ -3837,14 +3894,26 @@
       <c r="AM6" s="44"/>
       <c r="AN6" s="44"/>
       <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
+      <c r="AR6" s="44">
+        <f>4936-AR3</f>
+        <v>137</v>
+      </c>
+      <c r="AS6" s="44">
+        <f>4609-AS3</f>
+        <v>164</v>
+      </c>
+      <c r="AT6" s="44">
+        <v>199</v>
+      </c>
+      <c r="AU6" s="44">
+        <v>212</v>
+      </c>
+      <c r="AV6" s="44">
+        <v>257</v>
+      </c>
+      <c r="AW6" s="44">
+        <v>278</v>
+      </c>
       <c r="AX6" s="44">
         <v>246</v>
       </c>
@@ -3888,22 +3957,19 @@
         <v>971</v>
       </c>
       <c r="BL6" s="44">
-        <f t="shared" si="3"/>
-        <v>643.5</v>
+        <v>986</v>
       </c>
       <c r="BM6" s="44">
-        <f t="shared" si="1"/>
-        <v>726.30000000000007</v>
+        <v>864</v>
       </c>
       <c r="BN6" s="44">
-        <f t="shared" si="2"/>
-        <v>657</v>
+        <v>909</v>
       </c>
       <c r="BO6" s="44"/>
-      <c r="BP6" s="45"/>
+      <c r="BP6" s="44"/>
       <c r="BQ6" s="44"/>
       <c r="BR6" s="44"/>
-      <c r="BS6" s="44"/>
+      <c r="BS6" s="45"/>
       <c r="BT6" s="44"/>
       <c r="BU6" s="44"/>
       <c r="BV6" s="44"/>
@@ -3919,29 +3985,29 @@
       <c r="CF6" s="44"/>
       <c r="CG6" s="44"/>
       <c r="CH6" s="44"/>
-      <c r="CI6" s="46"/>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="46"/>
+      <c r="CI6" s="44"/>
+      <c r="CJ6" s="44"/>
+      <c r="CK6" s="44"/>
       <c r="CL6" s="46"/>
-      <c r="CM6" s="46">
+      <c r="CM6" s="46"/>
+      <c r="CN6" s="46"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="46">
+        <f t="shared" si="1"/>
+        <v>1291</v>
+      </c>
+      <c r="CQ6" s="46">
+        <f t="shared" si="2"/>
+        <v>1711</v>
+      </c>
+      <c r="CR6" s="46">
+        <f t="shared" si="3"/>
+        <v>2889</v>
+      </c>
+      <c r="CS6" s="46">
         <f t="shared" si="4"/>
-        <v>1291</v>
-      </c>
-      <c r="CN6" s="46">
-        <f t="shared" si="5"/>
-        <v>1711</v>
-      </c>
-      <c r="CO6" s="46">
-        <f t="shared" si="6"/>
-        <v>2889</v>
-      </c>
-      <c r="CP6" s="46">
-        <f t="shared" si="7"/>
-        <v>2997.8</v>
-      </c>
-      <c r="CQ6" s="46"/>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="46"/>
+        <v>3730</v>
+      </c>
       <c r="CT6" s="46"/>
       <c r="CU6" s="46"/>
       <c r="CV6" s="46"/>
@@ -3983,8 +4049,11 @@
       <c r="EF6" s="46"/>
       <c r="EG6" s="46"/>
       <c r="EH6" s="46"/>
+      <c r="EI6" s="46"/>
+      <c r="EJ6" s="46"/>
+      <c r="EK6" s="46"/>
     </row>
-    <row r="7" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
         <v>129</v>
@@ -4058,12 +4127,24 @@
       <c r="AO7" s="44"/>
       <c r="AP7" s="44"/>
       <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
+      <c r="AR7" s="44">
+        <v>1952</v>
+      </c>
+      <c r="AS7" s="44">
+        <v>2156</v>
+      </c>
+      <c r="AT7" s="44">
+        <v>2172</v>
+      </c>
+      <c r="AU7" s="44">
+        <v>2147</v>
+      </c>
+      <c r="AV7" s="44">
+        <v>2495</v>
+      </c>
+      <c r="AW7" s="44">
+        <v>2306</v>
+      </c>
       <c r="AX7" s="44">
         <v>2311</v>
       </c>
@@ -4107,22 +4188,19 @@
         <v>2179</v>
       </c>
       <c r="BL7" s="44">
-        <f t="shared" si="3"/>
-        <v>2042.1000000000001</v>
+        <v>1747</v>
       </c>
       <c r="BM7" s="44">
-        <f t="shared" si="1"/>
-        <v>2045.7</v>
+        <v>1910</v>
       </c>
       <c r="BN7" s="44">
-        <f t="shared" si="2"/>
-        <v>2022.3</v>
+        <v>1916</v>
       </c>
       <c r="BO7" s="44"/>
-      <c r="BP7" s="45"/>
+      <c r="BP7" s="44"/>
       <c r="BQ7" s="44"/>
       <c r="BR7" s="44"/>
-      <c r="BS7" s="44"/>
+      <c r="BS7" s="45"/>
       <c r="BT7" s="44"/>
       <c r="BU7" s="44"/>
       <c r="BV7" s="44"/>
@@ -4138,29 +4216,29 @@
       <c r="CF7" s="44"/>
       <c r="CG7" s="44"/>
       <c r="CH7" s="44"/>
-      <c r="CI7" s="46"/>
-      <c r="CJ7" s="46"/>
-      <c r="CK7" s="46"/>
+      <c r="CI7" s="44"/>
+      <c r="CJ7" s="44"/>
+      <c r="CK7" s="44"/>
       <c r="CL7" s="46"/>
-      <c r="CM7" s="46">
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="46"/>
+      <c r="CO7" s="46"/>
+      <c r="CP7" s="46">
+        <f t="shared" si="1"/>
+        <v>8968</v>
+      </c>
+      <c r="CQ7" s="46">
+        <f t="shared" si="2"/>
+        <v>9729</v>
+      </c>
+      <c r="CR7" s="46">
+        <f t="shared" si="3"/>
+        <v>9353</v>
+      </c>
+      <c r="CS7" s="46">
         <f t="shared" si="4"/>
-        <v>8968</v>
-      </c>
-      <c r="CN7" s="46">
-        <f t="shared" si="5"/>
-        <v>9729</v>
-      </c>
-      <c r="CO7" s="46">
-        <f t="shared" si="6"/>
-        <v>9353</v>
-      </c>
-      <c r="CP7" s="46">
-        <f t="shared" si="7"/>
-        <v>8289.1</v>
-      </c>
-      <c r="CQ7" s="46"/>
-      <c r="CR7" s="46"/>
-      <c r="CS7" s="46"/>
+        <v>7752</v>
+      </c>
       <c r="CT7" s="46"/>
       <c r="CU7" s="46"/>
       <c r="CV7" s="46"/>
@@ -4202,8 +4280,11 @@
       <c r="EF7" s="46"/>
       <c r="EG7" s="46"/>
       <c r="EH7" s="46"/>
+      <c r="EI7" s="46"/>
+      <c r="EJ7" s="46"/>
+      <c r="EK7" s="46"/>
     </row>
-    <row r="8" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
         <v>130</v>
@@ -4267,12 +4348,24 @@
       <c r="AO8" s="44"/>
       <c r="AP8" s="44"/>
       <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
+      <c r="AR8" s="44">
+        <v>3023</v>
+      </c>
+      <c r="AS8" s="44">
+        <v>2560</v>
+      </c>
+      <c r="AT8" s="44">
+        <v>2832</v>
+      </c>
+      <c r="AU8" s="44">
+        <v>2620</v>
+      </c>
+      <c r="AV8" s="44">
+        <v>2342</v>
+      </c>
+      <c r="AW8" s="44">
+        <v>2138</v>
+      </c>
       <c r="AX8" s="44">
         <v>2207</v>
       </c>
@@ -4316,22 +4409,19 @@
         <v>1173</v>
       </c>
       <c r="BL8" s="44">
-        <f t="shared" si="3"/>
-        <v>1029.6000000000001</v>
+        <v>753</v>
       </c>
       <c r="BM8" s="44">
-        <f t="shared" si="1"/>
-        <v>864.9</v>
+        <v>984</v>
       </c>
       <c r="BN8" s="44">
-        <f t="shared" si="2"/>
-        <v>863.1</v>
+        <v>1024</v>
       </c>
       <c r="BO8" s="44"/>
-      <c r="BP8" s="45"/>
+      <c r="BP8" s="44"/>
       <c r="BQ8" s="44"/>
       <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
+      <c r="BS8" s="45"/>
       <c r="BT8" s="44"/>
       <c r="BU8" s="44"/>
       <c r="BV8" s="44"/>
@@ -4347,29 +4437,29 @@
       <c r="CF8" s="44"/>
       <c r="CG8" s="44"/>
       <c r="CH8" s="44"/>
-      <c r="CI8" s="46"/>
-      <c r="CJ8" s="46"/>
-      <c r="CK8" s="46"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="44"/>
+      <c r="CK8" s="44"/>
       <c r="CL8" s="46"/>
-      <c r="CM8" s="46">
+      <c r="CM8" s="46"/>
+      <c r="CN8" s="46"/>
+      <c r="CO8" s="46"/>
+      <c r="CP8" s="46">
+        <f t="shared" si="1"/>
+        <v>7027</v>
+      </c>
+      <c r="CQ8" s="46">
+        <f t="shared" si="2"/>
+        <v>5678</v>
+      </c>
+      <c r="CR8" s="46">
+        <f t="shared" si="3"/>
+        <v>4579</v>
+      </c>
+      <c r="CS8" s="46">
         <f t="shared" si="4"/>
-        <v>7027</v>
-      </c>
-      <c r="CN8" s="46">
-        <f t="shared" si="5"/>
-        <v>5678</v>
-      </c>
-      <c r="CO8" s="46">
-        <f t="shared" si="6"/>
-        <v>4579</v>
-      </c>
-      <c r="CP8" s="46">
-        <f t="shared" si="7"/>
-        <v>3930.6000000000004</v>
-      </c>
-      <c r="CQ8" s="46"/>
-      <c r="CR8" s="46"/>
-      <c r="CS8" s="46"/>
+        <v>3934</v>
+      </c>
       <c r="CT8" s="46"/>
       <c r="CU8" s="46"/>
       <c r="CV8" s="46"/>
@@ -4411,8 +4501,11 @@
       <c r="EF8" s="46"/>
       <c r="EG8" s="46"/>
       <c r="EH8" s="46"/>
+      <c r="EI8" s="46"/>
+      <c r="EJ8" s="46"/>
+      <c r="EK8" s="46"/>
     </row>
-    <row r="9" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35" t="s">
         <v>183</v>
@@ -4456,14 +4549,26 @@
       <c r="AM9" s="44"/>
       <c r="AN9" s="44"/>
       <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
+      <c r="AR9" s="44">
+        <f>5357-AR7-AR8</f>
+        <v>382</v>
+      </c>
+      <c r="AS9" s="44">
+        <f>5158-AS7-AS8</f>
+        <v>442</v>
+      </c>
+      <c r="AT9" s="44">
+        <v>452</v>
+      </c>
+      <c r="AU9" s="44">
+        <v>477</v>
+      </c>
+      <c r="AV9" s="44">
+        <v>574</v>
+      </c>
+      <c r="AW9" s="44">
+        <v>575</v>
+      </c>
       <c r="AX9" s="44">
         <v>584</v>
       </c>
@@ -4507,22 +4612,19 @@
         <v>781</v>
       </c>
       <c r="BL9" s="44">
-        <f t="shared" si="3"/>
-        <v>621.9</v>
+        <v>854</v>
       </c>
       <c r="BM9" s="44">
-        <f t="shared" si="1"/>
-        <v>634.5</v>
+        <v>798</v>
       </c>
       <c r="BN9" s="44">
-        <f t="shared" si="2"/>
-        <v>626.4</v>
+        <v>786</v>
       </c>
       <c r="BO9" s="44"/>
-      <c r="BP9" s="45"/>
+      <c r="BP9" s="44"/>
       <c r="BQ9" s="44"/>
       <c r="BR9" s="44"/>
-      <c r="BS9" s="44"/>
+      <c r="BS9" s="45"/>
       <c r="BT9" s="44"/>
       <c r="BU9" s="44"/>
       <c r="BV9" s="44"/>
@@ -4538,29 +4640,29 @@
       <c r="CF9" s="44"/>
       <c r="CG9" s="44"/>
       <c r="CH9" s="44"/>
-      <c r="CI9" s="46"/>
-      <c r="CJ9" s="46"/>
-      <c r="CK9" s="46"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="44"/>
+      <c r="CK9" s="44"/>
       <c r="CL9" s="46"/>
-      <c r="CM9" s="46">
+      <c r="CM9" s="46"/>
+      <c r="CN9" s="46"/>
+      <c r="CO9" s="46"/>
+      <c r="CP9" s="46">
+        <f t="shared" si="1"/>
+        <v>2444</v>
+      </c>
+      <c r="CQ9" s="46">
+        <f t="shared" si="2"/>
+        <v>2657</v>
+      </c>
+      <c r="CR9" s="46">
+        <f t="shared" si="3"/>
+        <v>2809</v>
+      </c>
+      <c r="CS9" s="46">
         <f t="shared" si="4"/>
-        <v>2444</v>
-      </c>
-      <c r="CN9" s="46">
-        <f t="shared" si="5"/>
-        <v>2657</v>
-      </c>
-      <c r="CO9" s="46">
-        <f t="shared" si="6"/>
-        <v>2809</v>
-      </c>
-      <c r="CP9" s="46">
-        <f t="shared" si="7"/>
-        <v>2663.8</v>
-      </c>
-      <c r="CQ9" s="46"/>
-      <c r="CR9" s="46"/>
-      <c r="CS9" s="46"/>
+        <v>3219</v>
+      </c>
       <c r="CT9" s="46"/>
       <c r="CU9" s="46"/>
       <c r="CV9" s="46"/>
@@ -4602,8 +4704,11 @@
       <c r="EF9" s="46"/>
       <c r="EG9" s="46"/>
       <c r="EH9" s="46"/>
+      <c r="EI9" s="46"/>
+      <c r="EJ9" s="46"/>
+      <c r="EK9" s="46"/>
     </row>
-    <row r="10" spans="1:138" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
         <v>131</v>
@@ -4654,55 +4759,55 @@
         <v>6705</v>
       </c>
       <c r="P10" s="44">
-        <f t="shared" ref="P10:AB10" si="8">SUM(P3:P8)</f>
+        <f t="shared" ref="P10:AB10" si="5">SUM(P3:P8)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="X10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Y10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="Z10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="AA10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9457</v>
       </c>
       <c r="AB10" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>10492</v>
       </c>
       <c r="AC10" s="46"/>
@@ -4736,85 +4841,103 @@
       <c r="AO10" s="44"/>
       <c r="AP10" s="44"/>
       <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
+      <c r="AR10" s="44">
+        <f>SUM(AR3:AR9)</f>
+        <v>12880</v>
+      </c>
+      <c r="AS10" s="44">
+        <f>SUM(AS3:AS9)</f>
+        <v>12294</v>
+      </c>
+      <c r="AT10" s="44">
+        <f t="shared" ref="AS10:AU10" si="6">SUM(AT3:AT9)</f>
+        <v>12924</v>
+      </c>
+      <c r="AU10" s="44">
+        <f t="shared" si="6"/>
+        <v>12978</v>
+      </c>
+      <c r="AV10" s="44">
+        <f t="shared" ref="AV10:BN10" si="7">SUM(AV3:AV9)</f>
+        <v>12729</v>
+      </c>
+      <c r="AW10" s="44">
+        <f t="shared" si="7"/>
+        <v>12247</v>
+      </c>
       <c r="AX10" s="44">
-        <f t="shared" ref="AX10:BN10" si="9">SUM(AX3:AX9)</f>
+        <f t="shared" si="7"/>
         <v>12703</v>
       </c>
       <c r="AY10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13227</v>
       </c>
       <c r="AZ10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11292</v>
       </c>
       <c r="BA10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11209</v>
       </c>
       <c r="BB10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11949</v>
       </c>
       <c r="BC10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12331</v>
       </c>
       <c r="BD10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11116</v>
       </c>
       <c r="BE10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11619</v>
       </c>
       <c r="BF10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11888</v>
       </c>
       <c r="BG10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12650</v>
       </c>
       <c r="BH10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10492</v>
       </c>
       <c r="BI10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10908</v>
       </c>
       <c r="BJ10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10716</v>
       </c>
       <c r="BK10" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11397</v>
       </c>
       <c r="BL10" s="44">
-        <f t="shared" si="9"/>
-        <v>9442.8000000000011</v>
+        <f t="shared" si="7"/>
+        <v>9321</v>
       </c>
       <c r="BM10" s="44">
-        <f t="shared" si="9"/>
-        <v>9817.2000000000007</v>
+        <f t="shared" si="7"/>
+        <v>9719</v>
       </c>
       <c r="BN10" s="44">
-        <f t="shared" si="9"/>
-        <v>9644.4</v>
+        <f t="shared" si="7"/>
+        <v>9991</v>
       </c>
       <c r="BO10" s="44"/>
-      <c r="BP10" s="45"/>
+      <c r="BP10" s="44"/>
       <c r="BQ10" s="44"/>
       <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
+      <c r="BS10" s="45"/>
       <c r="BT10" s="44"/>
       <c r="BU10" s="44"/>
       <c r="BV10" s="44"/>
@@ -4822,50 +4945,50 @@
       <c r="BX10" s="44"/>
       <c r="BY10" s="44"/>
       <c r="BZ10" s="44"/>
-      <c r="CA10" s="44">
+      <c r="CA10" s="44"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="44">
         <f>SUM(C10:F10)</f>
         <v>17317</v>
       </c>
-      <c r="CB10" s="44">
-        <f t="shared" ref="CB10:CB11" si="10">SUM(G10:J10)</f>
+      <c r="CE10" s="44">
+        <f t="shared" ref="CE10:CE11" si="8">SUM(G10:J10)</f>
         <v>21471</v>
       </c>
-      <c r="CC10" s="44">
-        <f t="shared" ref="CC10:CC11" si="11">SUM(K10:N10)</f>
+      <c r="CF10" s="44">
+        <f t="shared" ref="CF10:CF11" si="9">SUM(K10:N10)</f>
         <v>26601</v>
       </c>
-      <c r="CD10" s="44">
+      <c r="CG10" s="44">
         <v>28765</v>
       </c>
-      <c r="CE10" s="44">
+      <c r="CH10" s="44">
         <v>34821</v>
       </c>
-      <c r="CF10" s="44"/>
-      <c r="CG10" s="44"/>
-      <c r="CH10" s="44"/>
-      <c r="CI10" s="46"/>
-      <c r="CJ10" s="46"/>
-      <c r="CK10" s="46"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="44"/>
+      <c r="CK10" s="44"/>
       <c r="CL10" s="46"/>
-      <c r="CM10" s="46">
-        <f>SUM(CM3:CM9)</f>
+      <c r="CM10" s="46"/>
+      <c r="CN10" s="46"/>
+      <c r="CO10" s="46"/>
+      <c r="CP10" s="46">
+        <f>SUM(CP3:CP9)</f>
         <v>47677</v>
       </c>
-      <c r="CN10" s="46">
-        <f t="shared" ref="CN10:CP10" si="12">SUM(CN3:CN9)</f>
+      <c r="CQ10" s="46">
+        <f t="shared" ref="CQ10:CS10" si="10">SUM(CQ3:CQ9)</f>
         <v>46954</v>
       </c>
-      <c r="CO10" s="46">
-        <f t="shared" si="12"/>
+      <c r="CR10" s="46">
+        <f t="shared" si="10"/>
         <v>44766</v>
       </c>
-      <c r="CP10" s="46">
-        <f t="shared" si="12"/>
-        <v>40301.4</v>
-      </c>
-      <c r="CQ10" s="46"/>
-      <c r="CR10" s="46"/>
-      <c r="CS10" s="46"/>
+      <c r="CS10" s="46">
+        <f t="shared" si="10"/>
+        <v>40428</v>
+      </c>
       <c r="CT10" s="46"/>
       <c r="CU10" s="46"/>
       <c r="CV10" s="46"/>
@@ -4907,8 +5030,11 @@
       <c r="EF10" s="46"/>
       <c r="EG10" s="46"/>
       <c r="EH10" s="46"/>
+      <c r="EI10" s="46"/>
+      <c r="EJ10" s="46"/>
+      <c r="EK10" s="46"/>
     </row>
-    <row r="11" spans="1:138" ht="12.75" customHeight="1">
+    <row r="11" spans="1:141" ht="12.75" customHeight="1">
       <c r="A11" s="41"/>
       <c r="B11" s="47" t="s">
         <v>132</v>
@@ -5010,12 +5136,24 @@
       <c r="AO11" s="44"/>
       <c r="AP11" s="44"/>
       <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
+      <c r="AR11" s="44">
+        <v>2335</v>
+      </c>
+      <c r="AS11" s="44">
+        <v>2386</v>
+      </c>
+      <c r="AT11" s="44">
+        <v>2178</v>
+      </c>
+      <c r="AU11" s="44">
+        <v>2415</v>
+      </c>
+      <c r="AV11" s="44">
+        <v>2180</v>
+      </c>
+      <c r="AW11" s="44">
+        <v>2237</v>
+      </c>
       <c r="AX11" s="44">
         <v>2204</v>
       </c>
@@ -5059,22 +5197,19 @@
         <v>2012</v>
       </c>
       <c r="BL11" s="44">
-        <f t="shared" si="3"/>
-        <v>1665.9</v>
+        <v>1967</v>
       </c>
       <c r="BM11" s="44">
-        <f t="shared" si="1"/>
-        <v>1847.7</v>
+        <v>1626</v>
       </c>
       <c r="BN11" s="44">
-        <f t="shared" si="2"/>
-        <v>1773</v>
+        <v>1989</v>
       </c>
       <c r="BO11" s="44"/>
-      <c r="BP11" s="43"/>
-      <c r="BQ11" s="42"/>
-      <c r="BR11" s="42"/>
-      <c r="BS11" s="42"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="43"/>
       <c r="BT11" s="42"/>
       <c r="BU11" s="42"/>
       <c r="BV11" s="42"/>
@@ -5082,57 +5217,57 @@
       <c r="BX11" s="42"/>
       <c r="BY11" s="42"/>
       <c r="BZ11" s="42"/>
-      <c r="CA11" s="44">
-        <f t="shared" ref="CA11:CA30" si="13">SUM(C11:F11)</f>
+      <c r="CA11" s="42"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="42"/>
+      <c r="CD11" s="44">
+        <f t="shared" ref="CD11:CD30" si="11">SUM(C11:F11)</f>
         <v>11804</v>
       </c>
-      <c r="CB11" s="44">
-        <f t="shared" si="10"/>
+      <c r="CE11" s="44">
+        <f t="shared" si="8"/>
         <v>11315</v>
       </c>
-      <c r="CC11" s="44">
-        <f t="shared" si="11"/>
+      <c r="CF11" s="44">
+        <f t="shared" si="9"/>
         <v>11827</v>
       </c>
-      <c r="CD11" s="44">
+      <c r="CG11" s="44">
         <v>10785</v>
       </c>
-      <c r="CE11" s="44">
+      <c r="CH11" s="44">
         <v>11302</v>
       </c>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="40"/>
-      <c r="CJ11" s="46"/>
-      <c r="CK11" s="46"/>
-      <c r="CL11" s="46"/>
-      <c r="CM11" s="46">
-        <f t="shared" ref="CM11" si="14">SUM(AY11:BB11)</f>
+      <c r="CI11" s="42"/>
+      <c r="CJ11" s="42"/>
+      <c r="CK11" s="42"/>
+      <c r="CL11" s="40"/>
+      <c r="CM11" s="46"/>
+      <c r="CN11" s="46"/>
+      <c r="CO11" s="46"/>
+      <c r="CP11" s="46">
+        <f t="shared" ref="CP11" si="12">SUM(AY11:BB11)</f>
         <v>8873</v>
       </c>
-      <c r="CN11" s="46">
-        <f t="shared" ref="CN11" si="15">SUM(BC11:BF11)</f>
+      <c r="CQ11" s="46">
+        <f t="shared" ref="CQ11" si="13">SUM(BC11:BF11)</f>
         <v>9052</v>
       </c>
-      <c r="CO11" s="46">
-        <f t="shared" ref="CO11" si="16">SUM(BG11:BJ11)</f>
+      <c r="CR11" s="46">
+        <f t="shared" ref="CR11" si="14">SUM(BG11:BJ11)</f>
         <v>8186</v>
       </c>
-      <c r="CP11" s="46">
-        <f t="shared" ref="CP11" si="17">SUM(BK11:BN11)</f>
-        <v>7298.6</v>
-      </c>
-      <c r="CQ11" s="46"/>
-      <c r="CR11" s="46"/>
-      <c r="CS11" s="46"/>
+      <c r="CS11" s="46">
+        <f t="shared" ref="CS11" si="15">SUM(BK11:BN11)</f>
+        <v>7594</v>
+      </c>
       <c r="CT11" s="46"/>
       <c r="CU11" s="46"/>
       <c r="CV11" s="46"/>
       <c r="CW11" s="46"/>
-      <c r="CX11" s="40"/>
-      <c r="CY11" s="40"/>
-      <c r="CZ11" s="40"/>
+      <c r="CX11" s="46"/>
+      <c r="CY11" s="46"/>
+      <c r="CZ11" s="46"/>
       <c r="DA11" s="40"/>
       <c r="DB11" s="40"/>
       <c r="DC11" s="40"/>
@@ -5167,8 +5302,11 @@
       <c r="EF11" s="40"/>
       <c r="EG11" s="40"/>
       <c r="EH11" s="40"/>
+      <c r="EI11" s="40"/>
+      <c r="EJ11" s="40"/>
+      <c r="EK11" s="40"/>
     </row>
-    <row r="12" spans="1:138" ht="12.75" customHeight="1">
+    <row r="12" spans="1:141" ht="12.75" customHeight="1">
       <c r="A12" s="41"/>
       <c r="B12" s="47" t="s">
         <v>194</v>
@@ -5214,14 +5352,32 @@
       <c r="AO12" s="44"/>
       <c r="AP12" s="44"/>
       <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
+      <c r="AR12" s="44">
+        <f t="shared" ref="AR12" si="16">+AR11+AR10</f>
+        <v>15215</v>
+      </c>
+      <c r="AS12" s="44">
+        <f t="shared" ref="AS12:AU12" si="17">+AS11+AS10</f>
+        <v>14680</v>
+      </c>
+      <c r="AT12" s="44">
+        <f t="shared" si="17"/>
+        <v>15102</v>
+      </c>
+      <c r="AU12" s="44">
+        <f t="shared" si="17"/>
+        <v>15393</v>
+      </c>
+      <c r="AV12" s="44">
+        <f t="shared" ref="AV12:BE12" si="18">+AV11+AV10</f>
+        <v>14909</v>
+      </c>
+      <c r="AW12" s="44">
+        <f t="shared" si="18"/>
+        <v>14484</v>
+      </c>
       <c r="AX12" s="44">
-        <f t="shared" ref="AX12:BE12" si="18">+AX11+AX10</f>
+        <f t="shared" si="18"/>
         <v>14907</v>
       </c>
       <c r="AY12" s="44">
@@ -5253,46 +5409,46 @@
         <v>14010</v>
       </c>
       <c r="BF12" s="44">
-        <f>+BF11+BF10</f>
+        <f t="shared" ref="BF12:BK12" si="19">+BF11+BF10</f>
         <v>13973</v>
       </c>
       <c r="BG12" s="44">
-        <f>+BG11+BG10</f>
+        <f t="shared" si="19"/>
         <v>14962</v>
       </c>
       <c r="BH12" s="44">
-        <f>+BH11+BH10</f>
+        <f t="shared" si="19"/>
         <v>12343</v>
       </c>
       <c r="BI12" s="44">
-        <f>+BI11+BI10</f>
+        <f t="shared" si="19"/>
         <v>12961</v>
       </c>
       <c r="BJ12" s="44">
-        <f>+BJ11+BJ10</f>
+        <f t="shared" si="19"/>
         <v>12686</v>
       </c>
       <c r="BK12" s="44">
-        <f>+BK11+BK10</f>
+        <f t="shared" si="19"/>
         <v>13409</v>
       </c>
       <c r="BL12" s="44">
-        <f t="shared" ref="BL12:BN12" si="19">+BL11+BL10</f>
-        <v>11108.7</v>
+        <f t="shared" ref="BL12:BN12" si="20">+BL11+BL10</f>
+        <v>11288</v>
       </c>
       <c r="BM12" s="44">
-        <f t="shared" si="19"/>
-        <v>11664.900000000001</v>
+        <f t="shared" si="20"/>
+        <v>11345</v>
       </c>
       <c r="BN12" s="44">
-        <f t="shared" si="19"/>
-        <v>11417.4</v>
+        <f t="shared" si="20"/>
+        <v>11980</v>
       </c>
       <c r="BO12" s="44"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="42"/>
-      <c r="BR12" s="42"/>
-      <c r="BS12" s="42"/>
+      <c r="BP12" s="44"/>
+      <c r="BQ12" s="44"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="43"/>
       <c r="BT12" s="42"/>
       <c r="BU12" s="42"/>
       <c r="BV12" s="42"/>
@@ -5300,44 +5456,44 @@
       <c r="BX12" s="42"/>
       <c r="BY12" s="42"/>
       <c r="BZ12" s="42"/>
-      <c r="CA12" s="44"/>
-      <c r="CB12" s="44"/>
-      <c r="CC12" s="44"/>
-      <c r="CD12" s="42"/>
-      <c r="CE12" s="42"/>
-      <c r="CF12" s="42"/>
+      <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="44"/>
+      <c r="CE12" s="44"/>
+      <c r="CF12" s="44"/>
       <c r="CG12" s="42"/>
       <c r="CH12" s="42"/>
-      <c r="CI12" s="40"/>
-      <c r="CJ12" s="46"/>
-      <c r="CK12" s="46"/>
-      <c r="CL12" s="46"/>
-      <c r="CM12" s="46">
-        <f>CM11+CM10</f>
-        <v>56550</v>
-      </c>
-      <c r="CN12" s="46">
-        <f>CN11+CN10</f>
-        <v>56006</v>
-      </c>
-      <c r="CO12" s="46">
-        <f>CO11+CO10</f>
-        <v>52952</v>
-      </c>
+      <c r="CI12" s="42"/>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="42"/>
+      <c r="CL12" s="40"/>
+      <c r="CM12" s="46"/>
+      <c r="CN12" s="46"/>
+      <c r="CO12" s="46"/>
       <c r="CP12" s="46">
         <f>CP11+CP10</f>
-        <v>47600</v>
-      </c>
-      <c r="CQ12" s="46"/>
-      <c r="CR12" s="46"/>
-      <c r="CS12" s="46"/>
+        <v>56550</v>
+      </c>
+      <c r="CQ12" s="46">
+        <f>CQ11+CQ10</f>
+        <v>56006</v>
+      </c>
+      <c r="CR12" s="46">
+        <f>CR11+CR10</f>
+        <v>52952</v>
+      </c>
+      <c r="CS12" s="46">
+        <f>CS11+CS10</f>
+        <v>48022</v>
+      </c>
       <c r="CT12" s="46"/>
       <c r="CU12" s="46"/>
       <c r="CV12" s="46"/>
       <c r="CW12" s="46"/>
-      <c r="CX12" s="40"/>
-      <c r="CY12" s="40"/>
-      <c r="CZ12" s="40"/>
+      <c r="CX12" s="46"/>
+      <c r="CY12" s="46"/>
+      <c r="CZ12" s="46"/>
       <c r="DA12" s="40"/>
       <c r="DB12" s="40"/>
       <c r="DC12" s="40"/>
@@ -5372,8 +5528,11 @@
       <c r="EF12" s="40"/>
       <c r="EG12" s="40"/>
       <c r="EH12" s="40"/>
+      <c r="EI12" s="40"/>
+      <c r="EJ12" s="40"/>
+      <c r="EK12" s="40"/>
     </row>
-    <row r="13" spans="1:138" ht="12.75" customHeight="1">
+    <row r="13" spans="1:141" ht="12.75" customHeight="1">
       <c r="A13" s="41"/>
       <c r="B13" s="47"/>
       <c r="C13" s="45"/>
@@ -5441,10 +5600,10 @@
       <c r="BM13" s="44"/>
       <c r="BN13" s="44"/>
       <c r="BO13" s="44"/>
-      <c r="BP13" s="43"/>
-      <c r="BQ13" s="42"/>
-      <c r="BR13" s="42"/>
-      <c r="BS13" s="42"/>
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44"/>
+      <c r="BR13" s="44"/>
+      <c r="BS13" s="43"/>
       <c r="BT13" s="42"/>
       <c r="BU13" s="42"/>
       <c r="BV13" s="42"/>
@@ -5452,18 +5611,18 @@
       <c r="BX13" s="42"/>
       <c r="BY13" s="42"/>
       <c r="BZ13" s="42"/>
-      <c r="CA13" s="44"/>
-      <c r="CB13" s="44"/>
-      <c r="CC13" s="44"/>
-      <c r="CD13" s="42"/>
-      <c r="CE13" s="42"/>
-      <c r="CF13" s="42"/>
+      <c r="CA13" s="42"/>
+      <c r="CB13" s="42"/>
+      <c r="CC13" s="42"/>
+      <c r="CD13" s="44"/>
+      <c r="CE13" s="44"/>
+      <c r="CF13" s="44"/>
       <c r="CG13" s="42"/>
       <c r="CH13" s="42"/>
-      <c r="CI13" s="40"/>
-      <c r="CJ13" s="46"/>
-      <c r="CK13" s="46"/>
-      <c r="CL13" s="46"/>
+      <c r="CI13" s="42"/>
+      <c r="CJ13" s="42"/>
+      <c r="CK13" s="42"/>
+      <c r="CL13" s="40"/>
       <c r="CM13" s="46"/>
       <c r="CN13" s="46"/>
       <c r="CO13" s="46"/>
@@ -5475,9 +5634,9 @@
       <c r="CU13" s="46"/>
       <c r="CV13" s="46"/>
       <c r="CW13" s="46"/>
-      <c r="CX13" s="40"/>
-      <c r="CY13" s="40"/>
-      <c r="CZ13" s="40"/>
+      <c r="CX13" s="46"/>
+      <c r="CY13" s="46"/>
+      <c r="CZ13" s="46"/>
       <c r="DA13" s="40"/>
       <c r="DB13" s="40"/>
       <c r="DC13" s="40"/>
@@ -5512,8 +5671,11 @@
       <c r="EF13" s="40"/>
       <c r="EG13" s="40"/>
       <c r="EH13" s="40"/>
+      <c r="EI13" s="40"/>
+      <c r="EJ13" s="40"/>
+      <c r="EK13" s="40"/>
     </row>
-    <row r="14" spans="1:138" ht="12.75" customHeight="1">
+    <row r="14" spans="1:141" ht="12.75" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="47" t="s">
         <v>133</v>
@@ -5602,12 +5764,24 @@
       <c r="AO14" s="44"/>
       <c r="AP14" s="44"/>
       <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
+      <c r="AR14" s="44">
+        <v>5729</v>
+      </c>
+      <c r="AS14" s="44">
+        <v>6115</v>
+      </c>
+      <c r="AT14" s="44">
+        <v>6500</v>
+      </c>
+      <c r="AU14" s="44">
+        <v>5722</v>
+      </c>
+      <c r="AV14" s="44">
+        <v>5415</v>
+      </c>
+      <c r="AW14" s="44">
+        <v>5370</v>
+      </c>
       <c r="AX14" s="44">
         <v>5427</v>
       </c>
@@ -5651,22 +5825,19 @@
         <v>2815</v>
       </c>
       <c r="BL14" s="44">
-        <f t="shared" ref="BK14:BN14" si="20">+BH14*0.9</f>
-        <v>2439</v>
+        <v>1836</v>
       </c>
       <c r="BM14" s="44">
-        <f t="shared" si="20"/>
-        <v>2670.3</v>
+        <v>2227</v>
       </c>
       <c r="BN14" s="44">
-        <f t="shared" si="20"/>
-        <v>2990.7000000000003</v>
+        <v>1786</v>
       </c>
       <c r="BO14" s="44"/>
-      <c r="BP14" s="43"/>
-      <c r="BQ14" s="42"/>
-      <c r="BR14" s="42"/>
-      <c r="BS14" s="42"/>
+      <c r="BP14" s="44"/>
+      <c r="BQ14" s="44"/>
+      <c r="BR14" s="44"/>
+      <c r="BS14" s="43"/>
       <c r="BT14" s="42"/>
       <c r="BU14" s="42"/>
       <c r="BV14" s="42"/>
@@ -5674,56 +5845,56 @@
       <c r="BX14" s="42"/>
       <c r="BY14" s="42"/>
       <c r="BZ14" s="42"/>
-      <c r="CA14" s="44">
+      <c r="CA14" s="42"/>
+      <c r="CB14" s="42"/>
+      <c r="CC14" s="42"/>
+      <c r="CD14" s="44">
         <v>0</v>
       </c>
-      <c r="CB14" s="44">
+      <c r="CE14" s="44">
         <f>SUM(G14:J14)</f>
         <v>87</v>
       </c>
-      <c r="CC14" s="44">
+      <c r="CF14" s="44">
         <f>SUM(K14:N14)</f>
         <v>2317</v>
       </c>
-      <c r="CD14" s="44">
+      <c r="CG14" s="44">
         <v>5991</v>
       </c>
-      <c r="CE14" s="44">
+      <c r="CH14" s="44">
         <v>9495</v>
       </c>
-      <c r="CF14" s="42"/>
-      <c r="CG14" s="42"/>
-      <c r="CH14" s="42"/>
-      <c r="CI14" s="40"/>
-      <c r="CJ14" s="46"/>
-      <c r="CK14" s="46"/>
-      <c r="CL14" s="46"/>
-      <c r="CM14" s="46">
-        <f t="shared" ref="CM14:CM19" si="21">SUM(AY14:BB14)</f>
+      <c r="CI14" s="42"/>
+      <c r="CJ14" s="42"/>
+      <c r="CK14" s="42"/>
+      <c r="CL14" s="40"/>
+      <c r="CM14" s="46"/>
+      <c r="CN14" s="46"/>
+      <c r="CO14" s="46"/>
+      <c r="CP14" s="46">
+        <f t="shared" ref="CP14:CP19" si="21">SUM(AY14:BB14)</f>
         <v>18747</v>
       </c>
-      <c r="CN14" s="46">
-        <f t="shared" ref="CN14:CN19" si="22">SUM(BC14:BF14)</f>
+      <c r="CQ14" s="46">
+        <f t="shared" ref="CQ14:CQ19" si="22">SUM(BC14:BF14)</f>
         <v>15054</v>
       </c>
-      <c r="CO14" s="46">
-        <f t="shared" ref="CO14:CO19" si="23">SUM(BG14:BJ14)</f>
+      <c r="CR14" s="46">
+        <f t="shared" ref="CR14:CR19" si="23">SUM(BG14:BJ14)</f>
         <v>12322</v>
       </c>
-      <c r="CP14" s="46">
-        <f t="shared" ref="CP14:CP19" si="24">SUM(BK14:BN14)</f>
-        <v>10915</v>
-      </c>
-      <c r="CQ14" s="46"/>
-      <c r="CR14" s="46"/>
-      <c r="CS14" s="46"/>
+      <c r="CS14" s="46">
+        <f t="shared" ref="CS14:CS19" si="24">SUM(BK14:BN14)</f>
+        <v>8664</v>
+      </c>
       <c r="CT14" s="46"/>
       <c r="CU14" s="46"/>
       <c r="CV14" s="46"/>
       <c r="CW14" s="46"/>
-      <c r="CX14" s="40"/>
-      <c r="CY14" s="40"/>
-      <c r="CZ14" s="40"/>
+      <c r="CX14" s="46"/>
+      <c r="CY14" s="46"/>
+      <c r="CZ14" s="46"/>
       <c r="DA14" s="40"/>
       <c r="DB14" s="40"/>
       <c r="DC14" s="40"/>
@@ -5758,8 +5929,11 @@
       <c r="EF14" s="40"/>
       <c r="EG14" s="40"/>
       <c r="EH14" s="40"/>
+      <c r="EI14" s="40"/>
+      <c r="EJ14" s="40"/>
+      <c r="EK14" s="40"/>
     </row>
-    <row r="15" spans="1:138" ht="12.75" customHeight="1">
+    <row r="15" spans="1:141" ht="12.75" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="47" t="s">
         <v>181</v>
@@ -5805,12 +5979,24 @@
       <c r="AO15" s="44"/>
       <c r="AP15" s="44"/>
       <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
+      <c r="AR15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="44">
+        <v>0</v>
+      </c>
       <c r="AX15" s="44">
         <v>50</v>
       </c>
@@ -5854,22 +6040,19 @@
         <v>4356</v>
       </c>
       <c r="BL15" s="44">
-        <f>+BH15*1.8</f>
-        <v>3909.6</v>
+        <v>3988</v>
       </c>
       <c r="BM15" s="44">
-        <f>+BI15*1.6</f>
-        <v>4817.6000000000004</v>
+        <v>4496</v>
       </c>
       <c r="BN15" s="44">
-        <f>+BJ15*1.7</f>
-        <v>6890.0999999999995</v>
+        <v>5910</v>
       </c>
       <c r="BO15" s="44"/>
-      <c r="BP15" s="43"/>
-      <c r="BQ15" s="42"/>
-      <c r="BR15" s="42"/>
-      <c r="BS15" s="42"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="43"/>
       <c r="BT15" s="42"/>
       <c r="BU15" s="42"/>
       <c r="BV15" s="42"/>
@@ -5877,44 +6060,44 @@
       <c r="BX15" s="42"/>
       <c r="BY15" s="42"/>
       <c r="BZ15" s="42"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="42"/>
-      <c r="CE15" s="42"/>
-      <c r="CF15" s="42"/>
+      <c r="CA15" s="42"/>
+      <c r="CB15" s="42"/>
+      <c r="CC15" s="42"/>
+      <c r="CD15" s="44"/>
+      <c r="CE15" s="44"/>
+      <c r="CF15" s="44"/>
       <c r="CG15" s="42"/>
       <c r="CH15" s="42"/>
-      <c r="CI15" s="40"/>
-      <c r="CJ15" s="46"/>
-      <c r="CK15" s="46"/>
-      <c r="CL15" s="46"/>
-      <c r="CM15" s="46">
+      <c r="CI15" s="42"/>
+      <c r="CJ15" s="42"/>
+      <c r="CK15" s="42"/>
+      <c r="CL15" s="40"/>
+      <c r="CM15" s="46"/>
+      <c r="CN15" s="46"/>
+      <c r="CO15" s="46"/>
+      <c r="CP15" s="46">
         <f t="shared" si="21"/>
         <v>1873</v>
       </c>
-      <c r="CN15" s="46">
+      <c r="CQ15" s="46">
         <f t="shared" si="22"/>
         <v>4838</v>
       </c>
-      <c r="CO15" s="46">
+      <c r="CR15" s="46">
         <f t="shared" si="23"/>
         <v>11299</v>
       </c>
-      <c r="CP15" s="46">
+      <c r="CS15" s="46">
         <f t="shared" si="24"/>
-        <v>19973.3</v>
-      </c>
-      <c r="CQ15" s="46"/>
-      <c r="CR15" s="46"/>
-      <c r="CS15" s="46"/>
+        <v>18750</v>
+      </c>
       <c r="CT15" s="46"/>
       <c r="CU15" s="46"/>
       <c r="CV15" s="46"/>
       <c r="CW15" s="46"/>
-      <c r="CX15" s="40"/>
-      <c r="CY15" s="40"/>
-      <c r="CZ15" s="40"/>
+      <c r="CX15" s="46"/>
+      <c r="CY15" s="46"/>
+      <c r="CZ15" s="46"/>
       <c r="DA15" s="40"/>
       <c r="DB15" s="40"/>
       <c r="DC15" s="40"/>
@@ -5949,8 +6132,11 @@
       <c r="EF15" s="40"/>
       <c r="EG15" s="40"/>
       <c r="EH15" s="40"/>
+      <c r="EI15" s="40"/>
+      <c r="EJ15" s="40"/>
+      <c r="EK15" s="40"/>
     </row>
-    <row r="16" spans="1:138" ht="12.75" customHeight="1">
+    <row r="16" spans="1:141" ht="12.75" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="47" t="s">
         <v>182</v>
@@ -5996,12 +6182,24 @@
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
+      <c r="AR16" s="44">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="44">
+        <v>540</v>
+      </c>
+      <c r="AT16" s="44">
+        <v>992</v>
+      </c>
+      <c r="AU16" s="44">
+        <v>1425</v>
+      </c>
+      <c r="AV16" s="44">
+        <v>2325</v>
+      </c>
+      <c r="AW16" s="44">
+        <v>3122</v>
+      </c>
       <c r="AX16" s="44">
         <v>4365</v>
       </c>
@@ -6045,22 +6243,19 @@
         <v>19640</v>
       </c>
       <c r="BL16" s="44">
-        <f>+BH16*1.3</f>
-        <v>18653.7</v>
+        <v>22101</v>
       </c>
       <c r="BM16" s="44">
-        <f>+BI16*1.3</f>
-        <v>21307</v>
+        <v>23912</v>
       </c>
       <c r="BN16" s="44">
-        <f>+BJ16*1.3</f>
-        <v>22068.799999999999</v>
+        <v>30065</v>
       </c>
       <c r="BO16" s="44"/>
-      <c r="BP16" s="43"/>
-      <c r="BQ16" s="42"/>
-      <c r="BR16" s="42"/>
-      <c r="BS16" s="42"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="44"/>
+      <c r="BR16" s="44"/>
+      <c r="BS16" s="43"/>
       <c r="BT16" s="42"/>
       <c r="BU16" s="42"/>
       <c r="BV16" s="42"/>
@@ -6068,44 +6263,44 @@
       <c r="BX16" s="42"/>
       <c r="BY16" s="42"/>
       <c r="BZ16" s="42"/>
-      <c r="CA16" s="44"/>
-      <c r="CB16" s="44"/>
-      <c r="CC16" s="44"/>
-      <c r="CD16" s="42"/>
-      <c r="CE16" s="42"/>
-      <c r="CF16" s="42"/>
+      <c r="CA16" s="42"/>
+      <c r="CB16" s="42"/>
+      <c r="CC16" s="42"/>
+      <c r="CD16" s="44"/>
+      <c r="CE16" s="44"/>
+      <c r="CF16" s="44"/>
       <c r="CG16" s="42"/>
       <c r="CH16" s="42"/>
-      <c r="CI16" s="40"/>
-      <c r="CJ16" s="46"/>
-      <c r="CK16" s="46"/>
-      <c r="CL16" s="46"/>
-      <c r="CM16" s="46">
+      <c r="CI16" s="42"/>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="42"/>
+      <c r="CL16" s="40"/>
+      <c r="CM16" s="46"/>
+      <c r="CN16" s="46"/>
+      <c r="CO16" s="46"/>
+      <c r="CP16" s="46">
         <f t="shared" si="21"/>
         <v>21211</v>
       </c>
-      <c r="CN16" s="46">
+      <c r="CQ16" s="46">
         <f t="shared" si="22"/>
         <v>33705</v>
       </c>
-      <c r="CO16" s="46">
+      <c r="CR16" s="46">
         <f t="shared" si="23"/>
         <v>59750</v>
       </c>
-      <c r="CP16" s="46">
+      <c r="CS16" s="46">
         <f t="shared" si="24"/>
-        <v>81669.5</v>
-      </c>
-      <c r="CQ16" s="46"/>
-      <c r="CR16" s="46"/>
-      <c r="CS16" s="46"/>
+        <v>95718</v>
+      </c>
       <c r="CT16" s="46"/>
       <c r="CU16" s="46"/>
       <c r="CV16" s="46"/>
       <c r="CW16" s="46"/>
-      <c r="CX16" s="40"/>
-      <c r="CY16" s="40"/>
-      <c r="CZ16" s="40"/>
+      <c r="CX16" s="46"/>
+      <c r="CY16" s="46"/>
+      <c r="CZ16" s="46"/>
       <c r="DA16" s="40"/>
       <c r="DB16" s="40"/>
       <c r="DC16" s="40"/>
@@ -6140,8 +6335,11 @@
       <c r="EF16" s="40"/>
       <c r="EG16" s="40"/>
       <c r="EH16" s="40"/>
+      <c r="EI16" s="40"/>
+      <c r="EJ16" s="40"/>
+      <c r="EK16" s="40"/>
     </row>
-    <row r="17" spans="1:138" ht="12.75" customHeight="1">
+    <row r="17" spans="1:141" ht="12.75" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="47" t="s">
         <v>134</v>
@@ -6251,10 +6449,10 @@
       <c r="BM17" s="44"/>
       <c r="BN17" s="44"/>
       <c r="BO17" s="44"/>
-      <c r="BP17" s="43"/>
-      <c r="BQ17" s="42"/>
-      <c r="BR17" s="42"/>
-      <c r="BS17" s="42"/>
+      <c r="BP17" s="44"/>
+      <c r="BQ17" s="44"/>
+      <c r="BR17" s="44"/>
+      <c r="BS17" s="43"/>
       <c r="BT17" s="42"/>
       <c r="BU17" s="42"/>
       <c r="BV17" s="42"/>
@@ -6262,57 +6460,57 @@
       <c r="BX17" s="42"/>
       <c r="BY17" s="42"/>
       <c r="BZ17" s="42"/>
-      <c r="CA17" s="44">
-        <f t="shared" si="13"/>
+      <c r="CA17" s="42"/>
+      <c r="CB17" s="42"/>
+      <c r="CC17" s="42"/>
+      <c r="CD17" s="44">
+        <f t="shared" si="11"/>
         <v>1844</v>
       </c>
-      <c r="CB17" s="44">
-        <f t="shared" ref="CB17:CB28" si="25">SUM(G17:J17)</f>
+      <c r="CE17" s="44">
+        <f t="shared" ref="CE17:CE28" si="25">SUM(G17:J17)</f>
         <v>2064</v>
       </c>
-      <c r="CC17" s="44">
+      <c r="CF17" s="44">
         <f>SUM(K17:N17)</f>
         <v>2214</v>
       </c>
-      <c r="CD17" s="44">
+      <c r="CG17" s="44">
         <v>2309</v>
       </c>
-      <c r="CE17" s="44">
+      <c r="CH17" s="44">
         <v>2511</v>
       </c>
-      <c r="CF17" s="42"/>
-      <c r="CG17" s="42"/>
-      <c r="CH17" s="42"/>
-      <c r="CI17" s="40"/>
-      <c r="CJ17" s="46"/>
-      <c r="CK17" s="46"/>
-      <c r="CL17" s="46"/>
-      <c r="CM17" s="46">
+      <c r="CI17" s="42"/>
+      <c r="CJ17" s="42"/>
+      <c r="CK17" s="42"/>
+      <c r="CL17" s="40"/>
+      <c r="CM17" s="46"/>
+      <c r="CN17" s="46"/>
+      <c r="CO17" s="46"/>
+      <c r="CP17" s="46">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="CN17" s="46">
+      <c r="CQ17" s="46">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CO17" s="46">
+      <c r="CR17" s="46">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="CP17" s="46">
+      <c r="CS17" s="46">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="CQ17" s="46"/>
-      <c r="CR17" s="46"/>
-      <c r="CS17" s="46"/>
       <c r="CT17" s="46"/>
       <c r="CU17" s="46"/>
       <c r="CV17" s="46"/>
       <c r="CW17" s="46"/>
-      <c r="CX17" s="40"/>
-      <c r="CY17" s="40"/>
-      <c r="CZ17" s="40"/>
+      <c r="CX17" s="46"/>
+      <c r="CY17" s="46"/>
+      <c r="CZ17" s="46"/>
       <c r="DA17" s="40"/>
       <c r="DB17" s="40"/>
       <c r="DC17" s="40"/>
@@ -6347,8 +6545,11 @@
       <c r="EF17" s="40"/>
       <c r="EG17" s="40"/>
       <c r="EH17" s="40"/>
+      <c r="EI17" s="40"/>
+      <c r="EJ17" s="40"/>
+      <c r="EK17" s="40"/>
     </row>
-    <row r="18" spans="1:138" ht="12.75" customHeight="1">
+    <row r="18" spans="1:141" ht="12.75" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="47" t="s">
         <v>186</v>
@@ -6425,22 +6626,19 @@
         <v>4563</v>
       </c>
       <c r="BL18" s="44">
-        <f t="shared" ref="BK18:BN18" si="26">+BK18+500</f>
-        <v>5063</v>
+        <v>7518</v>
       </c>
       <c r="BM18" s="44">
-        <f t="shared" si="26"/>
-        <v>5563</v>
+        <v>9648</v>
       </c>
       <c r="BN18" s="44">
-        <f t="shared" si="26"/>
-        <v>6063</v>
+        <v>9614</v>
       </c>
       <c r="BO18" s="44"/>
-      <c r="BP18" s="43"/>
-      <c r="BQ18" s="42"/>
-      <c r="BR18" s="42"/>
-      <c r="BS18" s="42"/>
+      <c r="BP18" s="44"/>
+      <c r="BQ18" s="44"/>
+      <c r="BR18" s="44"/>
+      <c r="BS18" s="43"/>
       <c r="BT18" s="42"/>
       <c r="BU18" s="42"/>
       <c r="BV18" s="42"/>
@@ -6448,44 +6646,44 @@
       <c r="BX18" s="42"/>
       <c r="BY18" s="42"/>
       <c r="BZ18" s="42"/>
-      <c r="CA18" s="44"/>
-      <c r="CB18" s="44"/>
-      <c r="CC18" s="44"/>
-      <c r="CD18" s="42"/>
-      <c r="CE18" s="42"/>
-      <c r="CF18" s="42"/>
+      <c r="CA18" s="42"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+      <c r="CD18" s="44"/>
+      <c r="CE18" s="44"/>
+      <c r="CF18" s="44"/>
       <c r="CG18" s="42"/>
       <c r="CH18" s="42"/>
-      <c r="CI18" s="40"/>
-      <c r="CJ18" s="46"/>
-      <c r="CK18" s="46"/>
-      <c r="CL18" s="46"/>
-      <c r="CM18" s="46">
+      <c r="CI18" s="42"/>
+      <c r="CJ18" s="42"/>
+      <c r="CK18" s="42"/>
+      <c r="CL18" s="40"/>
+      <c r="CM18" s="46"/>
+      <c r="CN18" s="46"/>
+      <c r="CO18" s="46"/>
+      <c r="CP18" s="46">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="CN18" s="46">
+      <c r="CQ18" s="46">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CO18" s="46">
+      <c r="CR18" s="46">
         <f t="shared" si="23"/>
         <v>6188</v>
       </c>
-      <c r="CP18" s="46">
+      <c r="CS18" s="46">
         <f t="shared" si="24"/>
-        <v>21252</v>
-      </c>
-      <c r="CQ18" s="46"/>
-      <c r="CR18" s="46"/>
-      <c r="CS18" s="46"/>
+        <v>31343</v>
+      </c>
       <c r="CT18" s="46"/>
       <c r="CU18" s="46"/>
       <c r="CV18" s="46"/>
       <c r="CW18" s="46"/>
-      <c r="CX18" s="40"/>
-      <c r="CY18" s="40"/>
-      <c r="CZ18" s="40"/>
+      <c r="CX18" s="46"/>
+      <c r="CY18" s="46"/>
+      <c r="CZ18" s="46"/>
       <c r="DA18" s="40"/>
       <c r="DB18" s="40"/>
       <c r="DC18" s="40"/>
@@ -6520,8 +6718,11 @@
       <c r="EF18" s="40"/>
       <c r="EG18" s="40"/>
       <c r="EH18" s="40"/>
+      <c r="EI18" s="40"/>
+      <c r="EJ18" s="40"/>
+      <c r="EK18" s="40"/>
     </row>
-    <row r="19" spans="1:138" ht="12.75" customHeight="1">
+    <row r="19" spans="1:141" ht="12.75" customHeight="1">
       <c r="A19" s="41"/>
       <c r="B19" s="47" t="s">
         <v>187</v>
@@ -6567,12 +6768,24 @@
       <c r="AO19" s="44"/>
       <c r="AP19" s="44"/>
       <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
+      <c r="AR19" s="44">
+        <v>883</v>
+      </c>
+      <c r="AS19" s="44">
+        <v>987</v>
+      </c>
+      <c r="AT19" s="44">
+        <v>1229</v>
+      </c>
+      <c r="AU19" s="44">
+        <v>1211</v>
+      </c>
+      <c r="AV19" s="44">
+        <v>1462</v>
+      </c>
+      <c r="AW19" s="44">
+        <v>1442</v>
+      </c>
       <c r="AX19" s="44">
         <v>1564</v>
       </c>
@@ -6616,22 +6829,19 @@
         <v>3279</v>
       </c>
       <c r="BL19" s="44">
-        <f>+BH19*1.3</f>
-        <v>3200.6</v>
+        <v>2788</v>
       </c>
       <c r="BM19" s="44">
-        <f>+BI19*1.3</f>
-        <v>4126.2</v>
+        <v>2607</v>
       </c>
       <c r="BN19" s="44">
-        <f>+BJ19*1.3</f>
-        <v>3954.6</v>
+        <v>1615</v>
       </c>
       <c r="BO19" s="44"/>
-      <c r="BP19" s="43"/>
-      <c r="BQ19" s="42"/>
-      <c r="BR19" s="42"/>
-      <c r="BS19" s="42"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="44"/>
+      <c r="BR19" s="44"/>
+      <c r="BS19" s="43"/>
       <c r="BT19" s="42"/>
       <c r="BU19" s="42"/>
       <c r="BV19" s="42"/>
@@ -6639,44 +6849,44 @@
       <c r="BX19" s="42"/>
       <c r="BY19" s="42"/>
       <c r="BZ19" s="42"/>
-      <c r="CA19" s="44"/>
-      <c r="CB19" s="44"/>
-      <c r="CC19" s="44"/>
-      <c r="CD19" s="42"/>
-      <c r="CE19" s="42"/>
-      <c r="CF19" s="42"/>
+      <c r="CA19" s="42"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="42"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
       <c r="CG19" s="42"/>
       <c r="CH19" s="42"/>
-      <c r="CI19" s="40"/>
-      <c r="CJ19" s="46"/>
-      <c r="CK19" s="46"/>
-      <c r="CL19" s="46"/>
-      <c r="CM19" s="46">
+      <c r="CI19" s="42"/>
+      <c r="CJ19" s="42"/>
+      <c r="CK19" s="42"/>
+      <c r="CL19" s="40"/>
+      <c r="CM19" s="46"/>
+      <c r="CN19" s="46"/>
+      <c r="CO19" s="46"/>
+      <c r="CP19" s="46">
         <f t="shared" si="21"/>
         <v>5608</v>
       </c>
-      <c r="CN19" s="46">
+      <c r="CQ19" s="46">
         <f t="shared" si="22"/>
         <v>8400</v>
       </c>
-      <c r="CO19" s="46">
+      <c r="CR19" s="46">
         <f t="shared" si="23"/>
         <v>10676</v>
       </c>
-      <c r="CP19" s="46">
+      <c r="CS19" s="46">
         <f t="shared" si="24"/>
-        <v>14560.4</v>
-      </c>
-      <c r="CQ19" s="46"/>
-      <c r="CR19" s="46"/>
-      <c r="CS19" s="46"/>
+        <v>10289</v>
+      </c>
       <c r="CT19" s="46"/>
       <c r="CU19" s="46"/>
       <c r="CV19" s="46"/>
       <c r="CW19" s="46"/>
-      <c r="CX19" s="40"/>
-      <c r="CY19" s="40"/>
-      <c r="CZ19" s="40"/>
+      <c r="CX19" s="46"/>
+      <c r="CY19" s="46"/>
+      <c r="CZ19" s="46"/>
       <c r="DA19" s="40"/>
       <c r="DB19" s="40"/>
       <c r="DC19" s="40"/>
@@ -6711,8 +6921,11 @@
       <c r="EF19" s="40"/>
       <c r="EG19" s="40"/>
       <c r="EH19" s="40"/>
+      <c r="EI19" s="40"/>
+      <c r="EJ19" s="40"/>
+      <c r="EK19" s="40"/>
     </row>
-    <row r="20" spans="1:138" ht="12.75" customHeight="1">
+    <row r="20" spans="1:141" ht="12.75" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="47"/>
       <c r="C20" s="45"/>
@@ -6780,10 +6993,10 @@
       <c r="BM20" s="44"/>
       <c r="BN20" s="44"/>
       <c r="BO20" s="44"/>
-      <c r="BP20" s="43"/>
-      <c r="BQ20" s="42"/>
-      <c r="BR20" s="42"/>
-      <c r="BS20" s="42"/>
+      <c r="BP20" s="44"/>
+      <c r="BQ20" s="44"/>
+      <c r="BR20" s="44"/>
+      <c r="BS20" s="43"/>
       <c r="BT20" s="42"/>
       <c r="BU20" s="42"/>
       <c r="BV20" s="42"/>
@@ -6791,18 +7004,18 @@
       <c r="BX20" s="42"/>
       <c r="BY20" s="42"/>
       <c r="BZ20" s="42"/>
-      <c r="CA20" s="44"/>
-      <c r="CB20" s="44"/>
-      <c r="CC20" s="44"/>
-      <c r="CD20" s="42"/>
-      <c r="CE20" s="42"/>
-      <c r="CF20" s="42"/>
+      <c r="CA20" s="42"/>
+      <c r="CB20" s="42"/>
+      <c r="CC20" s="42"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="44"/>
+      <c r="CF20" s="44"/>
       <c r="CG20" s="42"/>
       <c r="CH20" s="42"/>
-      <c r="CI20" s="40"/>
-      <c r="CJ20" s="46"/>
-      <c r="CK20" s="46"/>
-      <c r="CL20" s="46"/>
+      <c r="CI20" s="42"/>
+      <c r="CJ20" s="42"/>
+      <c r="CK20" s="42"/>
+      <c r="CL20" s="40"/>
       <c r="CM20" s="46"/>
       <c r="CN20" s="46"/>
       <c r="CO20" s="46"/>
@@ -6814,9 +7027,9 @@
       <c r="CU20" s="46"/>
       <c r="CV20" s="46"/>
       <c r="CW20" s="46"/>
-      <c r="CX20" s="40"/>
-      <c r="CY20" s="40"/>
-      <c r="CZ20" s="40"/>
+      <c r="CX20" s="46"/>
+      <c r="CY20" s="46"/>
+      <c r="CZ20" s="46"/>
       <c r="DA20" s="40"/>
       <c r="DB20" s="40"/>
       <c r="DC20" s="40"/>
@@ -6851,8 +7064,11 @@
       <c r="EF20" s="40"/>
       <c r="EG20" s="40"/>
       <c r="EH20" s="40"/>
+      <c r="EI20" s="40"/>
+      <c r="EJ20" s="40"/>
+      <c r="EK20" s="40"/>
     </row>
-    <row r="21" spans="1:138" ht="12.75" customHeight="1">
+    <row r="21" spans="1:141" ht="12.75" customHeight="1">
       <c r="A21" s="41"/>
       <c r="B21" s="47" t="s">
         <v>135</v>
@@ -6954,12 +7170,24 @@
       <c r="AO21" s="44"/>
       <c r="AP21" s="44"/>
       <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
+      <c r="AR21" s="44">
+        <v>1206</v>
+      </c>
+      <c r="AS21" s="44">
+        <v>1044</v>
+      </c>
+      <c r="AT21" s="44">
+        <v>1074</v>
+      </c>
+      <c r="AU21" s="44">
+        <v>1067</v>
+      </c>
+      <c r="AV21" s="44">
+        <v>1125</v>
+      </c>
+      <c r="AW21" s="44">
+        <v>1038</v>
+      </c>
       <c r="AX21" s="44">
         <v>1017</v>
       </c>
@@ -7003,22 +7231,19 @@
         <v>729</v>
       </c>
       <c r="BL21" s="44">
-        <f t="shared" ref="BK21:BN21" si="27">+BH21*0.9</f>
-        <v>747</v>
+        <v>667</v>
       </c>
       <c r="BM21" s="44">
-        <f t="shared" si="27"/>
-        <v>718.2</v>
+        <v>594</v>
       </c>
       <c r="BN21" s="44">
-        <f t="shared" si="27"/>
-        <v>641.70000000000005</v>
+        <v>322</v>
       </c>
       <c r="BO21" s="44"/>
-      <c r="BP21" s="43"/>
-      <c r="BQ21" s="42"/>
-      <c r="BR21" s="42"/>
-      <c r="BS21" s="42"/>
+      <c r="BP21" s="44"/>
+      <c r="BQ21" s="44"/>
+      <c r="BR21" s="44"/>
+      <c r="BS21" s="43"/>
       <c r="BT21" s="42"/>
       <c r="BU21" s="42"/>
       <c r="BV21" s="42"/>
@@ -7026,57 +7251,57 @@
       <c r="BX21" s="42"/>
       <c r="BY21" s="42"/>
       <c r="BZ21" s="42"/>
-      <c r="CA21" s="44">
-        <f t="shared" si="13"/>
+      <c r="CA21" s="42"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="42"/>
+      <c r="CD21" s="44">
+        <f t="shared" si="11"/>
         <v>2391</v>
       </c>
-      <c r="CB21" s="44">
+      <c r="CE21" s="44">
         <f t="shared" si="25"/>
         <v>2652</v>
       </c>
-      <c r="CC21" s="44">
+      <c r="CF21" s="44">
         <f>SUM(K21:N21)</f>
         <v>2751</v>
       </c>
-      <c r="CD21" s="44">
+      <c r="CG21" s="44">
         <v>2575</v>
       </c>
-      <c r="CE21" s="44">
+      <c r="CH21" s="44">
         <v>2758</v>
       </c>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="40"/>
-      <c r="CJ21" s="46"/>
-      <c r="CK21" s="46"/>
-      <c r="CL21" s="46"/>
-      <c r="CM21" s="46">
-        <f t="shared" ref="CM21" si="28">SUM(AY21:BB21)</f>
+      <c r="CI21" s="42"/>
+      <c r="CJ21" s="42"/>
+      <c r="CK21" s="42"/>
+      <c r="CL21" s="40"/>
+      <c r="CM21" s="46"/>
+      <c r="CN21" s="46"/>
+      <c r="CO21" s="46"/>
+      <c r="CP21" s="46">
+        <f t="shared" ref="CP21" si="26">SUM(AY21:BB21)</f>
         <v>4031</v>
       </c>
-      <c r="CN21" s="46">
-        <f t="shared" ref="CN21" si="29">SUM(BC21:BF21)</f>
+      <c r="CQ21" s="46">
+        <f t="shared" ref="CQ21" si="27">SUM(BC21:BF21)</f>
         <v>3594</v>
       </c>
-      <c r="CO21" s="46">
-        <f t="shared" ref="CO21" si="30">SUM(BG21:BJ21)</f>
+      <c r="CR21" s="46">
+        <f t="shared" ref="CR21" si="28">SUM(BG21:BJ21)</f>
         <v>3225</v>
       </c>
-      <c r="CP21" s="46">
-        <f t="shared" ref="CP21" si="31">SUM(BK21:BN21)</f>
-        <v>2835.8999999999996</v>
-      </c>
-      <c r="CQ21" s="46"/>
-      <c r="CR21" s="46"/>
-      <c r="CS21" s="46"/>
+      <c r="CS21" s="46">
+        <f t="shared" ref="CS21" si="29">SUM(BK21:BN21)</f>
+        <v>2312</v>
+      </c>
       <c r="CT21" s="46"/>
       <c r="CU21" s="46"/>
       <c r="CV21" s="46"/>
       <c r="CW21" s="46"/>
-      <c r="CX21" s="40"/>
-      <c r="CY21" s="40"/>
-      <c r="CZ21" s="40"/>
+      <c r="CX21" s="46"/>
+      <c r="CY21" s="46"/>
+      <c r="CZ21" s="46"/>
       <c r="DA21" s="40"/>
       <c r="DB21" s="40"/>
       <c r="DC21" s="40"/>
@@ -7111,8 +7336,11 @@
       <c r="EF21" s="40"/>
       <c r="EG21" s="40"/>
       <c r="EH21" s="40"/>
+      <c r="EI21" s="40"/>
+      <c r="EJ21" s="40"/>
+      <c r="EK21" s="40"/>
     </row>
-    <row r="22" spans="1:138" ht="12.75" customHeight="1">
+    <row r="22" spans="1:141" ht="12.75" customHeight="1">
       <c r="A22" s="41"/>
       <c r="B22" s="47"/>
       <c r="C22" s="45"/>
@@ -7180,10 +7408,10 @@
       <c r="BM22" s="44"/>
       <c r="BN22" s="44"/>
       <c r="BO22" s="44"/>
-      <c r="BP22" s="43"/>
-      <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
+      <c r="BP22" s="44"/>
+      <c r="BQ22" s="44"/>
+      <c r="BR22" s="44"/>
+      <c r="BS22" s="43"/>
       <c r="BT22" s="42"/>
       <c r="BU22" s="42"/>
       <c r="BV22" s="42"/>
@@ -7191,18 +7419,18 @@
       <c r="BX22" s="42"/>
       <c r="BY22" s="42"/>
       <c r="BZ22" s="42"/>
-      <c r="CA22" s="44"/>
-      <c r="CB22" s="44"/>
-      <c r="CC22" s="44"/>
-      <c r="CD22" s="42"/>
-      <c r="CE22" s="42"/>
-      <c r="CF22" s="42"/>
+      <c r="CA22" s="42"/>
+      <c r="CB22" s="42"/>
+      <c r="CC22" s="42"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="44"/>
+      <c r="CF22" s="44"/>
       <c r="CG22" s="42"/>
       <c r="CH22" s="42"/>
-      <c r="CI22" s="40"/>
-      <c r="CJ22" s="46"/>
-      <c r="CK22" s="46"/>
-      <c r="CL22" s="46"/>
+      <c r="CI22" s="42"/>
+      <c r="CJ22" s="42"/>
+      <c r="CK22" s="42"/>
+      <c r="CL22" s="40"/>
       <c r="CM22" s="46"/>
       <c r="CN22" s="46"/>
       <c r="CO22" s="46"/>
@@ -7214,9 +7442,9 @@
       <c r="CU22" s="46"/>
       <c r="CV22" s="46"/>
       <c r="CW22" s="46"/>
-      <c r="CX22" s="40"/>
-      <c r="CY22" s="40"/>
-      <c r="CZ22" s="40"/>
+      <c r="CX22" s="46"/>
+      <c r="CY22" s="46"/>
+      <c r="CZ22" s="46"/>
       <c r="DA22" s="40"/>
       <c r="DB22" s="40"/>
       <c r="DC22" s="40"/>
@@ -7251,8 +7479,11 @@
       <c r="EF22" s="40"/>
       <c r="EG22" s="40"/>
       <c r="EH22" s="40"/>
+      <c r="EI22" s="40"/>
+      <c r="EJ22" s="40"/>
+      <c r="EK22" s="40"/>
     </row>
-    <row r="23" spans="1:138" ht="12.75" customHeight="1">
+    <row r="23" spans="1:141" ht="12.75" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="47" t="s">
         <v>28</v>
@@ -7355,12 +7586,24 @@
       <c r="AO23" s="44"/>
       <c r="AP23" s="44"/>
       <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
+      <c r="AR23" s="44">
+        <v>1886</v>
+      </c>
+      <c r="AS23" s="44">
+        <v>1885</v>
+      </c>
+      <c r="AT23" s="44">
+        <v>1956</v>
+      </c>
+      <c r="AU23" s="44">
+        <v>2012</v>
+      </c>
+      <c r="AV23" s="44">
+        <v>2163</v>
+      </c>
+      <c r="AW23" s="44">
+        <v>1985</v>
+      </c>
       <c r="AX23" s="44">
         <v>1959</v>
       </c>
@@ -7404,22 +7647,19 @@
         <v>2101</v>
       </c>
       <c r="BL23" s="44">
-        <f t="shared" ref="BL23:BL27" si="32">+BH23*0.9</f>
-        <v>1816.2</v>
+        <v>1794</v>
       </c>
       <c r="BM23" s="44">
-        <f t="shared" ref="BM23:BM27" si="33">+BI23*0.9</f>
-        <v>1897.2</v>
+        <v>2078</v>
       </c>
       <c r="BN23" s="44">
-        <f t="shared" ref="BN23:BN27" si="34">+BJ23*0.9</f>
-        <v>1719.9</v>
+        <v>1985</v>
       </c>
       <c r="BO23" s="44"/>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
+      <c r="BP23" s="44"/>
+      <c r="BQ23" s="44"/>
+      <c r="BR23" s="44"/>
+      <c r="BS23" s="43"/>
       <c r="BT23" s="42"/>
       <c r="BU23" s="42"/>
       <c r="BV23" s="42"/>
@@ -7427,57 +7667,57 @@
       <c r="BX23" s="42"/>
       <c r="BY23" s="42"/>
       <c r="BZ23" s="42"/>
-      <c r="CA23" s="44">
-        <f t="shared" si="13"/>
+      <c r="CA23" s="42"/>
+      <c r="CB23" s="42"/>
+      <c r="CC23" s="42"/>
+      <c r="CD23" s="44">
+        <f t="shared" si="11"/>
         <v>6396</v>
       </c>
-      <c r="CB23" s="44">
+      <c r="CE23" s="44">
         <f t="shared" si="25"/>
         <v>7072</v>
       </c>
-      <c r="CC23" s="44">
+      <c r="CF23" s="44">
         <f>SUM(K23:N23)</f>
         <v>8030</v>
       </c>
-      <c r="CD23" s="44">
+      <c r="CG23" s="44">
         <v>8347</v>
       </c>
-      <c r="CE23" s="44">
+      <c r="CH23" s="44">
         <v>8933</v>
       </c>
-      <c r="CF23" s="42"/>
-      <c r="CG23" s="42"/>
-      <c r="CH23" s="42"/>
-      <c r="CI23" s="40"/>
-      <c r="CJ23" s="46"/>
-      <c r="CK23" s="46"/>
-      <c r="CL23" s="46"/>
-      <c r="CM23" s="46">
-        <f t="shared" ref="CM23:CM30" si="35">SUM(AY23:BB23)</f>
+      <c r="CI23" s="42"/>
+      <c r="CJ23" s="42"/>
+      <c r="CK23" s="42"/>
+      <c r="CL23" s="40"/>
+      <c r="CM23" s="46"/>
+      <c r="CN23" s="46"/>
+      <c r="CO23" s="46"/>
+      <c r="CP23" s="46">
+        <f t="shared" ref="CP23:CP30" si="30">SUM(AY23:BB23)</f>
         <v>7203</v>
       </c>
-      <c r="CN23" s="46">
-        <f t="shared" ref="CN23:CN30" si="36">SUM(BC23:BF23)</f>
+      <c r="CQ23" s="46">
+        <f t="shared" ref="CQ23:CQ30" si="31">SUM(BC23:BF23)</f>
         <v>7221</v>
       </c>
-      <c r="CO23" s="46">
-        <f t="shared" ref="CO23:CO30" si="37">SUM(BG23:BJ23)</f>
+      <c r="CR23" s="46">
+        <f t="shared" ref="CR23:CR30" si="32">SUM(BG23:BJ23)</f>
         <v>8308</v>
       </c>
-      <c r="CP23" s="46">
-        <f t="shared" ref="CP23:CP30" si="38">SUM(BK23:BN23)</f>
-        <v>7534.2999999999993</v>
-      </c>
-      <c r="CQ23" s="46"/>
-      <c r="CR23" s="46"/>
-      <c r="CS23" s="46"/>
+      <c r="CS23" s="46">
+        <f t="shared" ref="CS23:CS30" si="33">SUM(BK23:BN23)</f>
+        <v>7958</v>
+      </c>
       <c r="CT23" s="46"/>
       <c r="CU23" s="46"/>
       <c r="CV23" s="46"/>
       <c r="CW23" s="46"/>
-      <c r="CX23" s="40"/>
-      <c r="CY23" s="40"/>
-      <c r="CZ23" s="40"/>
+      <c r="CX23" s="46"/>
+      <c r="CY23" s="46"/>
+      <c r="CZ23" s="46"/>
       <c r="DA23" s="40"/>
       <c r="DB23" s="40"/>
       <c r="DC23" s="40"/>
@@ -7512,8 +7752,11 @@
       <c r="EF23" s="40"/>
       <c r="EG23" s="40"/>
       <c r="EH23" s="40"/>
+      <c r="EI23" s="40"/>
+      <c r="EJ23" s="40"/>
+      <c r="EK23" s="40"/>
     </row>
-    <row r="24" spans="1:138" ht="12.75" customHeight="1">
+    <row r="24" spans="1:141" ht="12.75" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="47" t="s">
         <v>188</v>
@@ -7597,22 +7840,19 @@
         <v>660</v>
       </c>
       <c r="BL24" s="44">
-        <f t="shared" si="32"/>
-        <v>557.1</v>
+        <v>688</v>
       </c>
       <c r="BM24" s="44">
-        <f t="shared" si="33"/>
-        <v>460.8</v>
+        <v>549</v>
       </c>
       <c r="BN24" s="44">
-        <f t="shared" si="34"/>
-        <v>577.80000000000007</v>
+        <v>525</v>
       </c>
       <c r="BO24" s="44"/>
-      <c r="BP24" s="43"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="43"/>
       <c r="BT24" s="42"/>
       <c r="BU24" s="42"/>
       <c r="BV24" s="42"/>
@@ -7620,44 +7860,44 @@
       <c r="BX24" s="42"/>
       <c r="BY24" s="42"/>
       <c r="BZ24" s="42"/>
-      <c r="CA24" s="44"/>
-      <c r="CB24" s="44"/>
-      <c r="CC24" s="44"/>
-      <c r="CD24" s="42"/>
-      <c r="CE24" s="42"/>
-      <c r="CF24" s="42"/>
+      <c r="CA24" s="42"/>
+      <c r="CB24" s="42"/>
+      <c r="CC24" s="42"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="44"/>
+      <c r="CF24" s="44"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="42"/>
-      <c r="CI24" s="40"/>
-      <c r="CJ24" s="46"/>
-      <c r="CK24" s="46"/>
-      <c r="CL24" s="46"/>
-      <c r="CM24" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI24" s="42"/>
+      <c r="CJ24" s="42"/>
+      <c r="CK24" s="42"/>
+      <c r="CL24" s="40"/>
+      <c r="CM24" s="46"/>
+      <c r="CN24" s="46"/>
+      <c r="CO24" s="46"/>
+      <c r="CP24" s="46">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CN24" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ24" s="46">
+        <f t="shared" si="31"/>
         <v>2112</v>
       </c>
-      <c r="CO24" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR24" s="46">
+        <f t="shared" si="32"/>
         <v>2338</v>
       </c>
-      <c r="CP24" s="46">
-        <f t="shared" si="38"/>
-        <v>2255.6999999999998</v>
-      </c>
-      <c r="CQ24" s="46"/>
-      <c r="CR24" s="46"/>
-      <c r="CS24" s="46"/>
+      <c r="CS24" s="46">
+        <f t="shared" si="33"/>
+        <v>2422</v>
+      </c>
       <c r="CT24" s="46"/>
       <c r="CU24" s="46"/>
       <c r="CV24" s="46"/>
       <c r="CW24" s="46"/>
-      <c r="CX24" s="40"/>
-      <c r="CY24" s="40"/>
-      <c r="CZ24" s="40"/>
+      <c r="CX24" s="46"/>
+      <c r="CY24" s="46"/>
+      <c r="CZ24" s="46"/>
       <c r="DA24" s="40"/>
       <c r="DB24" s="40"/>
       <c r="DC24" s="40"/>
@@ -7692,8 +7932,11 @@
       <c r="EF24" s="40"/>
       <c r="EG24" s="40"/>
       <c r="EH24" s="40"/>
+      <c r="EI24" s="40"/>
+      <c r="EJ24" s="40"/>
+      <c r="EK24" s="40"/>
     </row>
-    <row r="25" spans="1:138" ht="12.75" customHeight="1">
+    <row r="25" spans="1:141" ht="12.75" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="47" t="s">
         <v>189</v>
@@ -7739,12 +7982,24 @@
       <c r="AO25" s="44"/>
       <c r="AP25" s="44"/>
       <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
+      <c r="AR25" s="44">
+        <v>339</v>
+      </c>
+      <c r="AS25" s="44">
+        <v>323</v>
+      </c>
+      <c r="AT25" s="44">
+        <v>396</v>
+      </c>
+      <c r="AU25" s="44">
+        <v>393</v>
+      </c>
+      <c r="AV25" s="44">
+        <v>369</v>
+      </c>
+      <c r="AW25" s="44">
+        <v>357</v>
+      </c>
       <c r="AX25" s="44">
         <v>406</v>
       </c>
@@ -7788,22 +8043,19 @@
         <v>197</v>
       </c>
       <c r="BL25" s="44">
-        <f t="shared" si="32"/>
-        <v>145.80000000000001</v>
+        <v>250</v>
       </c>
       <c r="BM25" s="44">
-        <f t="shared" si="33"/>
-        <v>174.6</v>
+        <v>285</v>
       </c>
       <c r="BN25" s="44">
-        <f t="shared" si="34"/>
-        <v>203.4</v>
+        <v>329</v>
       </c>
       <c r="BO25" s="44"/>
-      <c r="BP25" s="43"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="42"/>
-      <c r="BS25" s="42"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="43"/>
       <c r="BT25" s="42"/>
       <c r="BU25" s="42"/>
       <c r="BV25" s="42"/>
@@ -7811,44 +8063,44 @@
       <c r="BX25" s="42"/>
       <c r="BY25" s="42"/>
       <c r="BZ25" s="42"/>
-      <c r="CA25" s="44"/>
-      <c r="CB25" s="44"/>
-      <c r="CC25" s="44"/>
-      <c r="CD25" s="42"/>
-      <c r="CE25" s="42"/>
-      <c r="CF25" s="42"/>
+      <c r="CA25" s="42"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
       <c r="CG25" s="42"/>
       <c r="CH25" s="42"/>
-      <c r="CI25" s="40"/>
-      <c r="CJ25" s="46"/>
-      <c r="CK25" s="46"/>
-      <c r="CL25" s="46"/>
-      <c r="CM25" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI25" s="42"/>
+      <c r="CJ25" s="42"/>
+      <c r="CK25" s="42"/>
+      <c r="CL25" s="40"/>
+      <c r="CM25" s="46"/>
+      <c r="CN25" s="46"/>
+      <c r="CO25" s="46"/>
+      <c r="CP25" s="46">
+        <f t="shared" si="30"/>
         <v>1462</v>
       </c>
-      <c r="CN25" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ25" s="46">
+        <f t="shared" si="31"/>
         <v>637</v>
       </c>
-      <c r="CO25" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR25" s="46">
+        <f t="shared" si="32"/>
         <v>759</v>
       </c>
-      <c r="CP25" s="46">
-        <f t="shared" si="38"/>
-        <v>720.8</v>
-      </c>
-      <c r="CQ25" s="46"/>
-      <c r="CR25" s="46"/>
-      <c r="CS25" s="46"/>
+      <c r="CS25" s="46">
+        <f t="shared" si="33"/>
+        <v>1061</v>
+      </c>
       <c r="CT25" s="46"/>
       <c r="CU25" s="46"/>
       <c r="CV25" s="46"/>
       <c r="CW25" s="46"/>
-      <c r="CX25" s="40"/>
-      <c r="CY25" s="40"/>
-      <c r="CZ25" s="40"/>
+      <c r="CX25" s="46"/>
+      <c r="CY25" s="46"/>
+      <c r="CZ25" s="46"/>
       <c r="DA25" s="40"/>
       <c r="DB25" s="40"/>
       <c r="DC25" s="40"/>
@@ -7883,8 +8135,11 @@
       <c r="EF25" s="40"/>
       <c r="EG25" s="40"/>
       <c r="EH25" s="40"/>
+      <c r="EI25" s="40"/>
+      <c r="EJ25" s="40"/>
+      <c r="EK25" s="40"/>
     </row>
-    <row r="26" spans="1:138" ht="12.75" customHeight="1">
+    <row r="26" spans="1:141" ht="12.75" customHeight="1">
       <c r="A26" s="41"/>
       <c r="B26" s="47" t="s">
         <v>190</v>
@@ -7930,12 +8185,24 @@
       <c r="AO26" s="44"/>
       <c r="AP26" s="44"/>
       <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
+      <c r="AR26" s="44">
+        <v>377</v>
+      </c>
+      <c r="AS26" s="44">
+        <v>407</v>
+      </c>
+      <c r="AT26" s="44">
+        <v>395</v>
+      </c>
+      <c r="AU26" s="44">
+        <v>385</v>
+      </c>
+      <c r="AV26" s="44">
+        <v>372</v>
+      </c>
+      <c r="AW26" s="44">
+        <v>411</v>
+      </c>
       <c r="AX26" s="44">
         <v>457</v>
       </c>
@@ -7992,22 +8259,22 @@
         <v>91</v>
       </c>
       <c r="BL26" s="44">
-        <f t="shared" si="32"/>
-        <v>57.6</v>
+        <f>2836-BL25-BL24-BL23</f>
+        <v>104</v>
       </c>
       <c r="BM26" s="44">
-        <f t="shared" si="33"/>
-        <v>63.9</v>
+        <f>2957-BM25-BM24-BM23</f>
+        <v>45</v>
       </c>
       <c r="BN26" s="44">
-        <f t="shared" si="34"/>
-        <v>91.8</v>
+        <f>2934-BN25-BN24-BN23</f>
+        <v>95</v>
       </c>
       <c r="BO26" s="44"/>
-      <c r="BP26" s="43"/>
-      <c r="BQ26" s="42"/>
-      <c r="BR26" s="42"/>
-      <c r="BS26" s="42"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="43"/>
       <c r="BT26" s="42"/>
       <c r="BU26" s="42"/>
       <c r="BV26" s="42"/>
@@ -8015,44 +8282,44 @@
       <c r="BX26" s="42"/>
       <c r="BY26" s="42"/>
       <c r="BZ26" s="42"/>
-      <c r="CA26" s="44"/>
-      <c r="CB26" s="44"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="42"/>
-      <c r="CE26" s="42"/>
-      <c r="CF26" s="42"/>
+      <c r="CA26" s="42"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
       <c r="CG26" s="42"/>
       <c r="CH26" s="42"/>
-      <c r="CI26" s="40"/>
-      <c r="CJ26" s="46"/>
-      <c r="CK26" s="46"/>
-      <c r="CL26" s="46"/>
-      <c r="CM26" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI26" s="42"/>
+      <c r="CJ26" s="42"/>
+      <c r="CK26" s="42"/>
+      <c r="CL26" s="40"/>
+      <c r="CM26" s="46"/>
+      <c r="CN26" s="46"/>
+      <c r="CO26" s="46"/>
+      <c r="CP26" s="46">
+        <f t="shared" si="30"/>
         <v>997</v>
       </c>
-      <c r="CN26" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ26" s="46">
+        <f t="shared" si="31"/>
         <v>247</v>
       </c>
-      <c r="CO26" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR26" s="46">
+        <f t="shared" si="32"/>
         <v>301</v>
       </c>
-      <c r="CP26" s="46">
-        <f t="shared" si="38"/>
-        <v>304.3</v>
-      </c>
-      <c r="CQ26" s="46"/>
-      <c r="CR26" s="46"/>
-      <c r="CS26" s="46"/>
+      <c r="CS26" s="46">
+        <f t="shared" si="33"/>
+        <v>335</v>
+      </c>
       <c r="CT26" s="46"/>
       <c r="CU26" s="46"/>
       <c r="CV26" s="46"/>
       <c r="CW26" s="46"/>
-      <c r="CX26" s="40"/>
-      <c r="CY26" s="40"/>
-      <c r="CZ26" s="40"/>
+      <c r="CX26" s="46"/>
+      <c r="CY26" s="46"/>
+      <c r="CZ26" s="46"/>
       <c r="DA26" s="40"/>
       <c r="DB26" s="40"/>
       <c r="DC26" s="40"/>
@@ -8087,8 +8354,11 @@
       <c r="EF26" s="40"/>
       <c r="EG26" s="40"/>
       <c r="EH26" s="40"/>
+      <c r="EI26" s="40"/>
+      <c r="EJ26" s="40"/>
+      <c r="EK26" s="40"/>
     </row>
-    <row r="27" spans="1:138" ht="12.75" customHeight="1">
+    <row r="27" spans="1:141" ht="12.75" customHeight="1">
       <c r="A27" s="41"/>
       <c r="B27" s="47" t="s">
         <v>191</v>
@@ -8134,12 +8404,30 @@
       <c r="AO27" s="44"/>
       <c r="AP27" s="44"/>
       <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
+      <c r="AR27" s="44">
+        <f>1703+2294-AR23-AR25</f>
+        <v>1772</v>
+      </c>
+      <c r="AS27" s="44">
+        <f>1688+2301-AS23-AS25</f>
+        <v>1781</v>
+      </c>
+      <c r="AT27" s="44">
+        <f>1962+2478-AT23-AT25</f>
+        <v>2088</v>
+      </c>
+      <c r="AU27" s="44">
+        <f>1555+2533-AU23-AU25</f>
+        <v>1683</v>
+      </c>
+      <c r="AV27" s="44">
+        <f>1758+2670-AV23-AV25</f>
+        <v>1896</v>
+      </c>
+      <c r="AW27" s="44">
+        <f>1886+2524-AW23-AW25</f>
+        <v>2068</v>
+      </c>
       <c r="AX27" s="44">
         <f>2076+2554-AX23-AX25</f>
         <v>2265</v>
@@ -8197,22 +8485,22 @@
         <v>1527</v>
       </c>
       <c r="BL27" s="44">
-        <f t="shared" si="32"/>
-        <v>2119.5</v>
+        <f>902+376</f>
+        <v>1278</v>
       </c>
       <c r="BM27" s="44">
-        <f t="shared" si="33"/>
-        <v>2000.7</v>
+        <f>542+403</f>
+        <v>945</v>
       </c>
       <c r="BN27" s="44">
-        <f t="shared" si="34"/>
-        <v>1774.8</v>
+        <f>1264+373</f>
+        <v>1637</v>
       </c>
       <c r="BO27" s="44"/>
-      <c r="BP27" s="43"/>
-      <c r="BQ27" s="42"/>
-      <c r="BR27" s="42"/>
-      <c r="BS27" s="42"/>
+      <c r="BP27" s="44"/>
+      <c r="BQ27" s="44"/>
+      <c r="BR27" s="44"/>
+      <c r="BS27" s="43"/>
       <c r="BT27" s="42"/>
       <c r="BU27" s="42"/>
       <c r="BV27" s="42"/>
@@ -8220,44 +8508,44 @@
       <c r="BX27" s="42"/>
       <c r="BY27" s="42"/>
       <c r="BZ27" s="42"/>
-      <c r="CA27" s="44"/>
-      <c r="CB27" s="44"/>
-      <c r="CC27" s="44"/>
-      <c r="CD27" s="42"/>
-      <c r="CE27" s="42"/>
-      <c r="CF27" s="42"/>
+      <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="44"/>
+      <c r="CE27" s="44"/>
+      <c r="CF27" s="44"/>
       <c r="CG27" s="42"/>
       <c r="CH27" s="42"/>
-      <c r="CI27" s="40"/>
-      <c r="CJ27" s="46"/>
-      <c r="CK27" s="46"/>
-      <c r="CL27" s="46"/>
-      <c r="CM27" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="42"/>
+      <c r="CK27" s="42"/>
+      <c r="CL27" s="40"/>
+      <c r="CM27" s="46"/>
+      <c r="CN27" s="46"/>
+      <c r="CO27" s="46"/>
+      <c r="CP27" s="46">
+        <f t="shared" si="30"/>
         <v>9264</v>
       </c>
-      <c r="CN27" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ27" s="46">
+        <f t="shared" si="31"/>
         <v>8986</v>
       </c>
-      <c r="CO27" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR27" s="46">
+        <f t="shared" si="32"/>
         <v>8836</v>
       </c>
-      <c r="CP27" s="46">
-        <f t="shared" si="38"/>
-        <v>7422</v>
-      </c>
-      <c r="CQ27" s="46"/>
-      <c r="CR27" s="46"/>
-      <c r="CS27" s="46"/>
+      <c r="CS27" s="46">
+        <f t="shared" si="33"/>
+        <v>5387</v>
+      </c>
       <c r="CT27" s="46"/>
       <c r="CU27" s="46"/>
       <c r="CV27" s="46"/>
       <c r="CW27" s="46"/>
-      <c r="CX27" s="40"/>
-      <c r="CY27" s="40"/>
-      <c r="CZ27" s="40"/>
+      <c r="CX27" s="46"/>
+      <c r="CY27" s="46"/>
+      <c r="CZ27" s="46"/>
       <c r="DA27" s="40"/>
       <c r="DB27" s="40"/>
       <c r="DC27" s="40"/>
@@ -8292,8 +8580,11 @@
       <c r="EF27" s="40"/>
       <c r="EG27" s="40"/>
       <c r="EH27" s="40"/>
+      <c r="EI27" s="40"/>
+      <c r="EJ27" s="40"/>
+      <c r="EK27" s="40"/>
     </row>
-    <row r="28" spans="1:138" ht="12.75" customHeight="1">
+    <row r="28" spans="1:141" ht="12.75" customHeight="1">
       <c r="A28" s="41"/>
       <c r="B28" s="47" t="s">
         <v>24</v>
@@ -8420,10 +8711,10 @@
       <c r="BM28" s="44"/>
       <c r="BN28" s="44"/>
       <c r="BO28" s="44"/>
-      <c r="BP28" s="43"/>
-      <c r="BQ28" s="42"/>
-      <c r="BR28" s="42"/>
-      <c r="BS28" s="42"/>
+      <c r="BP28" s="44"/>
+      <c r="BQ28" s="44"/>
+      <c r="BR28" s="44"/>
+      <c r="BS28" s="43"/>
       <c r="BT28" s="42"/>
       <c r="BU28" s="42"/>
       <c r="BV28" s="42"/>
@@ -8431,57 +8722,57 @@
       <c r="BX28" s="42"/>
       <c r="BY28" s="42"/>
       <c r="BZ28" s="42"/>
-      <c r="CA28" s="44">
-        <f t="shared" si="13"/>
+      <c r="CA28" s="42"/>
+      <c r="CB28" s="42"/>
+      <c r="CC28" s="42"/>
+      <c r="CD28" s="44">
+        <f t="shared" si="11"/>
         <v>3865</v>
       </c>
-      <c r="CB28" s="44">
+      <c r="CE28" s="44">
         <f t="shared" si="25"/>
         <v>4401</v>
       </c>
-      <c r="CC28" s="44">
-        <f t="shared" ref="CC28:CC30" si="39">SUM(K28:N28)</f>
+      <c r="CF28" s="44">
+        <f t="shared" ref="CF28:CF30" si="34">SUM(K28:N28)</f>
         <v>4803</v>
       </c>
-      <c r="CD28" s="44">
+      <c r="CG28" s="44">
         <v>5047</v>
       </c>
-      <c r="CE28" s="44">
+      <c r="CH28" s="44">
         <v>5698</v>
       </c>
-      <c r="CF28" s="42"/>
-      <c r="CG28" s="42"/>
-      <c r="CH28" s="42"/>
-      <c r="CI28" s="40"/>
-      <c r="CJ28" s="46"/>
-      <c r="CK28" s="46"/>
-      <c r="CL28" s="46"/>
-      <c r="CM28" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI28" s="42"/>
+      <c r="CJ28" s="42"/>
+      <c r="CK28" s="42"/>
+      <c r="CL28" s="40"/>
+      <c r="CM28" s="46"/>
+      <c r="CN28" s="46"/>
+      <c r="CO28" s="46"/>
+      <c r="CP28" s="46">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CN28" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ28" s="46">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CO28" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR28" s="46">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CP28" s="46">
-        <f t="shared" si="38"/>
+      <c r="CS28" s="46">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="CQ28" s="46"/>
-      <c r="CR28" s="46"/>
-      <c r="CS28" s="46"/>
       <c r="CT28" s="46"/>
       <c r="CU28" s="46"/>
       <c r="CV28" s="46"/>
       <c r="CW28" s="46"/>
-      <c r="CX28" s="40"/>
-      <c r="CY28" s="40"/>
-      <c r="CZ28" s="40"/>
+      <c r="CX28" s="46"/>
+      <c r="CY28" s="46"/>
+      <c r="CZ28" s="46"/>
       <c r="DA28" s="40"/>
       <c r="DB28" s="40"/>
       <c r="DC28" s="40"/>
@@ -8516,8 +8807,11 @@
       <c r="EF28" s="40"/>
       <c r="EG28" s="40"/>
       <c r="EH28" s="40"/>
+      <c r="EI28" s="40"/>
+      <c r="EJ28" s="40"/>
+      <c r="EK28" s="40"/>
     </row>
-    <row r="29" spans="1:138" ht="12.75" customHeight="1">
+    <row r="29" spans="1:141" ht="12.75" customHeight="1">
       <c r="A29" s="41"/>
       <c r="B29" s="47" t="s">
         <v>136</v>
@@ -8614,10 +8908,10 @@
       <c r="BM29" s="44"/>
       <c r="BN29" s="44"/>
       <c r="BO29" s="44"/>
-      <c r="BP29" s="43"/>
-      <c r="BQ29" s="42"/>
-      <c r="BR29" s="42"/>
-      <c r="BS29" s="42"/>
+      <c r="BP29" s="44"/>
+      <c r="BQ29" s="44"/>
+      <c r="BR29" s="44"/>
+      <c r="BS29" s="43"/>
       <c r="BT29" s="42"/>
       <c r="BU29" s="42"/>
       <c r="BV29" s="42"/>
@@ -8625,56 +8919,56 @@
       <c r="BX29" s="42"/>
       <c r="BY29" s="42"/>
       <c r="BZ29" s="42"/>
-      <c r="CA29" s="44">
-        <f t="shared" si="13"/>
+      <c r="CA29" s="42"/>
+      <c r="CB29" s="42"/>
+      <c r="CC29" s="42"/>
+      <c r="CD29" s="44">
+        <f t="shared" si="11"/>
         <v>1612</v>
       </c>
-      <c r="CB29" s="44">
+      <c r="CE29" s="44">
         <v>1744</v>
       </c>
-      <c r="CC29" s="44">
-        <f t="shared" si="39"/>
+      <c r="CF29" s="44">
+        <f t="shared" si="34"/>
         <v>1892</v>
       </c>
-      <c r="CD29" s="44">
+      <c r="CG29" s="44">
         <v>2054</v>
       </c>
-      <c r="CE29" s="44">
+      <c r="CH29" s="44">
         <v>2163</v>
       </c>
-      <c r="CF29" s="42"/>
-      <c r="CG29" s="42"/>
-      <c r="CH29" s="42"/>
-      <c r="CI29" s="40"/>
-      <c r="CJ29" s="46"/>
-      <c r="CK29" s="46"/>
-      <c r="CL29" s="46"/>
-      <c r="CM29" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI29" s="42"/>
+      <c r="CJ29" s="42"/>
+      <c r="CK29" s="42"/>
+      <c r="CL29" s="40"/>
+      <c r="CM29" s="46"/>
+      <c r="CN29" s="46"/>
+      <c r="CO29" s="46"/>
+      <c r="CP29" s="46">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CN29" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ29" s="46">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CO29" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR29" s="46">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CP29" s="46">
-        <f t="shared" si="38"/>
+      <c r="CS29" s="46">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="CQ29" s="46"/>
-      <c r="CR29" s="46"/>
-      <c r="CS29" s="46"/>
       <c r="CT29" s="46"/>
       <c r="CU29" s="46"/>
       <c r="CV29" s="46"/>
       <c r="CW29" s="46"/>
-      <c r="CX29" s="40"/>
-      <c r="CY29" s="40"/>
-      <c r="CZ29" s="40"/>
+      <c r="CX29" s="46"/>
+      <c r="CY29" s="46"/>
+      <c r="CZ29" s="46"/>
       <c r="DA29" s="40"/>
       <c r="DB29" s="40"/>
       <c r="DC29" s="40"/>
@@ -8709,8 +9003,11 @@
       <c r="EF29" s="40"/>
       <c r="EG29" s="40"/>
       <c r="EH29" s="40"/>
+      <c r="EI29" s="40"/>
+      <c r="EJ29" s="40"/>
+      <c r="EK29" s="40"/>
     </row>
-    <row r="30" spans="1:138" ht="12.75" customHeight="1">
+    <row r="30" spans="1:141" ht="12.75" customHeight="1">
       <c r="A30" s="41"/>
       <c r="B30" s="47" t="s">
         <v>137</v>
@@ -8824,10 +9121,10 @@
       <c r="BM30" s="44"/>
       <c r="BN30" s="44"/>
       <c r="BO30" s="44"/>
-      <c r="BP30" s="43"/>
-      <c r="BQ30" s="42"/>
-      <c r="BR30" s="42"/>
-      <c r="BS30" s="42"/>
+      <c r="BP30" s="44"/>
+      <c r="BQ30" s="44"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="43"/>
       <c r="BT30" s="42"/>
       <c r="BU30" s="42"/>
       <c r="BV30" s="42"/>
@@ -8835,56 +9132,56 @@
       <c r="BX30" s="42"/>
       <c r="BY30" s="42"/>
       <c r="BZ30" s="42"/>
-      <c r="CA30" s="44">
-        <f t="shared" si="13"/>
+      <c r="CA30" s="42"/>
+      <c r="CB30" s="42"/>
+      <c r="CC30" s="42"/>
+      <c r="CD30" s="44">
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
-      <c r="CB30" s="44">
+      <c r="CE30" s="44">
         <v>359</v>
       </c>
-      <c r="CC30" s="44">
-        <f t="shared" si="39"/>
+      <c r="CF30" s="44">
+        <f t="shared" si="34"/>
         <v>341</v>
       </c>
-      <c r="CD30" s="44">
+      <c r="CG30" s="44">
         <v>473</v>
       </c>
-      <c r="CE30" s="42">
+      <c r="CH30" s="42">
         <v>345</v>
       </c>
-      <c r="CF30" s="42"/>
-      <c r="CG30" s="42"/>
-      <c r="CH30" s="42"/>
-      <c r="CI30" s="40"/>
-      <c r="CJ30" s="46"/>
-      <c r="CK30" s="46"/>
-      <c r="CL30" s="46"/>
-      <c r="CM30" s="46">
-        <f t="shared" si="35"/>
+      <c r="CI30" s="42"/>
+      <c r="CJ30" s="42"/>
+      <c r="CK30" s="42"/>
+      <c r="CL30" s="40"/>
+      <c r="CM30" s="46"/>
+      <c r="CN30" s="46"/>
+      <c r="CO30" s="46"/>
+      <c r="CP30" s="46">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CN30" s="46">
-        <f t="shared" si="36"/>
+      <c r="CQ30" s="46">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CO30" s="46">
-        <f t="shared" si="37"/>
+      <c r="CR30" s="46">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CP30" s="46">
-        <f t="shared" si="38"/>
+      <c r="CS30" s="46">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="CQ30" s="46"/>
-      <c r="CR30" s="46"/>
-      <c r="CS30" s="46"/>
       <c r="CT30" s="46"/>
       <c r="CU30" s="46"/>
       <c r="CV30" s="46"/>
       <c r="CW30" s="46"/>
-      <c r="CX30" s="40"/>
-      <c r="CY30" s="40"/>
-      <c r="CZ30" s="40"/>
+      <c r="CX30" s="46"/>
+      <c r="CY30" s="46"/>
+      <c r="CZ30" s="46"/>
       <c r="DA30" s="40"/>
       <c r="DB30" s="40"/>
       <c r="DC30" s="40"/>
@@ -8919,62 +9216,65 @@
       <c r="EF30" s="40"/>
       <c r="EG30" s="40"/>
       <c r="EH30" s="40"/>
+      <c r="EI30" s="40"/>
+      <c r="EJ30" s="40"/>
+      <c r="EK30" s="40"/>
     </row>
-    <row r="31" spans="1:138" s="12" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:141" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31:O31" si="40">SUM(C10:C30)</f>
+        <f t="shared" ref="C31:O31" si="35">SUM(C10:C30)</f>
         <v>10614</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>11110</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>11246</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>12583</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>12498</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>13001</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>12545</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>13121</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>13674</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>15394</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>15584</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>16124</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>15693</v>
       </c>
       <c r="P31" s="15"/>
@@ -8997,135 +9297,135 @@
         <v>21629</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" ref="AC31:AT31" si="41">SUM(AC10:AC30)</f>
+        <f t="shared" ref="AC31:AT31" si="36">SUM(AC10:AC30)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AE31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>24929</v>
       </c>
       <c r="AF31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>26729</v>
       </c>
       <c r="AG31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>26416</v>
       </c>
       <c r="AH31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>28415</v>
       </c>
       <c r="AI31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>26586</v>
       </c>
       <c r="AJ31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>26476</v>
       </c>
       <c r="AK31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>26394</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>27865</v>
       </c>
       <c r="AM31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AN31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f>SUM(AR12:AR30)</f>
+        <v>27407</v>
       </c>
       <c r="AS31" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f>SUM(AS12:AS30)</f>
+        <v>27762</v>
       </c>
       <c r="AT31" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f>SUM(AT12:AT30)</f>
+        <v>29732</v>
       </c>
       <c r="AU31" s="15">
-        <f t="shared" ref="AU31:BN31" si="42">SUM(AU12:AU27)</f>
-        <v>0</v>
+        <f t="shared" ref="AU31:BI31" si="37">SUM(AU12:AU27)</f>
+        <v>29291</v>
       </c>
       <c r="AV31" s="15">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>30036</v>
       </c>
       <c r="AW31" s="15">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>30277</v>
       </c>
       <c r="AX31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>32417</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>33875</v>
       </c>
       <c r="AZ31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>30006</v>
       </c>
       <c r="BA31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>30927</v>
       </c>
       <c r="BB31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>32138</v>
       </c>
       <c r="BC31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>33804</v>
       </c>
       <c r="BD31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>33041</v>
       </c>
       <c r="BE31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>35622</v>
       </c>
       <c r="BF31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>38333</v>
       </c>
       <c r="BG31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>42031</v>
       </c>
       <c r="BH31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>41265</v>
       </c>
       <c r="BI31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>45566</v>
       </c>
       <c r="BJ31" s="15">
@@ -9138,138 +9438,141 @@
       </c>
       <c r="BL31" s="15">
         <f>SUM(BL12:BL27)</f>
-        <v>49817.799999999996</v>
+        <v>54300</v>
       </c>
       <c r="BM31" s="15">
         <f>SUM(BM12:BM27)</f>
-        <v>55464.399999999994</v>
+        <v>58731</v>
       </c>
       <c r="BN31" s="15">
         <f>SUM(BN12:BN27)</f>
-        <v>58394.000000000007</v>
+        <v>65863</v>
       </c>
       <c r="BO31" s="15"/>
-      <c r="BP31" s="13"/>
-      <c r="BQ31" s="13">
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="13"/>
+      <c r="BT31" s="13">
         <v>13647</v>
       </c>
-      <c r="BR31" s="13">
+      <c r="BU31" s="13">
         <v>16423</v>
       </c>
-      <c r="BS31" s="13">
+      <c r="BV31" s="13">
         <v>20485</v>
       </c>
-      <c r="BT31" s="13">
+      <c r="BW31" s="13">
         <v>23385</v>
       </c>
-      <c r="BU31" s="13">
+      <c r="BX31" s="13">
         <v>24866</v>
       </c>
-      <c r="BV31" s="13"/>
-      <c r="BW31" s="13"/>
-      <c r="BX31" s="13"/>
       <c r="BY31" s="13"/>
       <c r="BZ31" s="13"/>
-      <c r="CA31" s="13">
-        <f>SUM(CA10:CA30)</f>
-        <v>45553</v>
-      </c>
-      <c r="CB31" s="13">
-        <f>SUM(CB10:CB30)</f>
-        <v>51165</v>
-      </c>
-      <c r="CC31" s="13">
-        <f>SUM(CC10:CC30)</f>
-        <v>60776</v>
-      </c>
+      <c r="CA31" s="13"/>
+      <c r="CB31" s="13"/>
+      <c r="CC31" s="13"/>
       <c r="CD31" s="13">
         <f>SUM(CD10:CD30)</f>
-        <v>66346</v>
+        <v>45553</v>
       </c>
       <c r="CE31" s="13">
         <f>SUM(CE10:CE30)</f>
+        <v>51165</v>
+      </c>
+      <c r="CF31" s="13">
+        <f>SUM(CF10:CF30)</f>
+        <v>60776</v>
+      </c>
+      <c r="CG31" s="13">
+        <f>SUM(CG10:CG30)</f>
+        <v>66346</v>
+      </c>
+      <c r="CH31" s="13">
+        <f>SUM(CH10:CH30)</f>
         <v>78026</v>
       </c>
-      <c r="CF31" s="13">
+      <c r="CI31" s="13">
         <v>83572</v>
       </c>
-      <c r="CG31" s="13">
+      <c r="CJ31" s="13">
         <v>88806</v>
       </c>
-      <c r="CH31" s="59">
+      <c r="CK31" s="59">
         <v>107927</v>
       </c>
-      <c r="CI31" s="59">
+      <c r="CL31" s="59">
         <v>111780</v>
       </c>
-      <c r="CJ31" s="59">
+      <c r="CM31" s="59">
         <v>111696</v>
       </c>
-      <c r="CK31" s="59">
+      <c r="CN31" s="59">
         <v>111831</v>
       </c>
-      <c r="CL31" s="59">
+      <c r="CO31" s="59">
         <v>122021</v>
-      </c>
-      <c r="CM31" s="59">
-        <f>SUM(CM12:CM30)</f>
-        <v>126946</v>
-      </c>
-      <c r="CN31" s="59">
-        <f>SUM(CN12:CN30)</f>
-        <v>140800</v>
-      </c>
-      <c r="CO31" s="59">
-        <f>SUM(CO12:CO30)</f>
-        <v>176954</v>
       </c>
       <c r="CP31" s="59">
         <f>SUM(CP12:CP30)</f>
-        <v>217043.19999999995</v>
-      </c>
-      <c r="CQ31" s="59"/>
-      <c r="CR31" s="59"/>
-      <c r="CS31" s="59"/>
+        <v>126946</v>
+      </c>
+      <c r="CQ31" s="59">
+        <f>SUM(CQ12:CQ30)</f>
+        <v>140800</v>
+      </c>
+      <c r="CR31" s="59">
+        <f>SUM(CR12:CR30)</f>
+        <v>176954</v>
+      </c>
+      <c r="CS31" s="59">
+        <f>SUM(CS12:CS30)</f>
+        <v>232261</v>
+      </c>
       <c r="CT31" s="59"/>
       <c r="CU31" s="59"/>
       <c r="CV31" s="59"/>
       <c r="CW31" s="59"/>
+      <c r="CX31" s="59"/>
+      <c r="CY31" s="59"/>
+      <c r="CZ31" s="59"/>
     </row>
-    <row r="32" spans="1:138" ht="12.75" customHeight="1">
+    <row r="32" spans="1:141" ht="12.75" customHeight="1">
       <c r="A32" s="41"/>
       <c r="B32" s="47" t="s">
         <v>138</v>
       </c>
       <c r="C32" s="44">
-        <f t="shared" ref="C32:J32" si="43">C31-C33</f>
+        <f t="shared" ref="C32:J32" si="38">C31-C33</f>
         <v>2413</v>
       </c>
       <c r="D32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2554</v>
       </c>
       <c r="E32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2606</v>
       </c>
       <c r="F32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2536</v>
       </c>
       <c r="G32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2508</v>
       </c>
       <c r="H32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2610</v>
       </c>
       <c r="I32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2713</v>
       </c>
       <c r="J32" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>2694</v>
       </c>
       <c r="K32" s="44">
@@ -9334,19 +9637,19 @@
         <v>5432</v>
       </c>
       <c r="AY32" s="44">
-        <f t="shared" ref="AY32:BB32" si="44">AY31-AY33</f>
+        <f t="shared" ref="AY32:BB32" si="39">AY31-AY33</f>
         <v>5386</v>
       </c>
       <c r="AZ32" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>4772</v>
       </c>
       <c r="BA32" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>5155</v>
       </c>
       <c r="BB32" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>5619</v>
       </c>
       <c r="BC32" s="44">
@@ -9375,7 +9678,7 @@
         <v>7200</v>
       </c>
       <c r="BJ32" s="44">
-        <f t="shared" ref="BJ32:BN32" si="45">+BJ31-BJ33</f>
+        <f t="shared" ref="BJ32:BN32" si="40">+BJ31-BJ33</f>
         <v>7213.8000000000029</v>
       </c>
       <c r="BK32" s="44">
@@ -9383,69 +9686,69 @@
         <v>7471.3799999999974</v>
       </c>
       <c r="BL32" s="44">
-        <f t="shared" si="45"/>
-        <v>6974.4919999999984</v>
+        <f t="shared" si="40"/>
+        <v>7602</v>
       </c>
       <c r="BM32" s="44">
-        <f t="shared" si="45"/>
-        <v>7210.372000000003</v>
+        <f t="shared" si="40"/>
+        <v>7635.0299999999988</v>
       </c>
       <c r="BN32" s="44">
-        <f t="shared" si="45"/>
-        <v>7591.2200000000012</v>
+        <f t="shared" si="40"/>
+        <v>8562.1900000000023</v>
       </c>
       <c r="BO32" s="44"/>
       <c r="BP32" s="44"/>
-      <c r="BQ32" s="44">
+      <c r="BQ32" s="44"/>
+      <c r="BR32" s="44"/>
+      <c r="BS32" s="44"/>
+      <c r="BT32" s="44">
         <v>-3751</v>
       </c>
-      <c r="BR32" s="44">
+      <c r="BU32" s="44">
         <v>-4227</v>
       </c>
-      <c r="BS32" s="44">
-        <f>BS33-BS31</f>
+      <c r="BV32" s="44">
+        <f>BV33-BV31</f>
         <v>-5016</v>
       </c>
-      <c r="BT32" s="44">
-        <f>BT33-BT31</f>
+      <c r="BW32" s="44">
+        <f>BW33-BW31</f>
         <v>-6036</v>
       </c>
-      <c r="BU32" s="44">
-        <f>BU33-BU31</f>
+      <c r="BX32" s="44">
+        <f>BX33-BX31</f>
         <v>-6598</v>
       </c>
-      <c r="BV32" s="44"/>
-      <c r="BW32" s="44"/>
-      <c r="BX32" s="44"/>
       <c r="BY32" s="44"/>
       <c r="BZ32" s="44"/>
       <c r="CA32" s="44"/>
-      <c r="CB32" s="44">
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+      <c r="CE32" s="44">
         <f>SUM(G32:J32)</f>
         <v>10525</v>
       </c>
-      <c r="CC32" s="44">
+      <c r="CF32" s="44">
         <v>11680</v>
       </c>
-      <c r="CD32" s="44">
+      <c r="CG32" s="44">
         <v>12589</v>
       </c>
-      <c r="CE32" s="44">
+      <c r="CH32" s="44">
         <v>13465</v>
       </c>
-      <c r="CF32" s="44"/>
-      <c r="CG32" s="44">
+      <c r="CI32" s="44"/>
+      <c r="CJ32" s="44">
         <v>14562</v>
       </c>
-      <c r="CH32" s="44">
+      <c r="CK32" s="44">
         <v>16188</v>
       </c>
-      <c r="CI32" s="46">
+      <c r="CL32" s="46">
         <v>17183</v>
       </c>
-      <c r="CJ32" s="46"/>
-      <c r="CK32" s="46"/>
-      <c r="CL32" s="46"/>
       <c r="CM32" s="46"/>
       <c r="CN32" s="46"/>
       <c r="CO32" s="46"/>
@@ -9457,9 +9760,9 @@
       <c r="CU32" s="46"/>
       <c r="CV32" s="46"/>
       <c r="CW32" s="46"/>
-      <c r="CX32" s="40"/>
-      <c r="CY32" s="40"/>
-      <c r="CZ32" s="40"/>
+      <c r="CX32" s="46"/>
+      <c r="CY32" s="46"/>
+      <c r="CZ32" s="46"/>
       <c r="DA32" s="40"/>
       <c r="DB32" s="40"/>
       <c r="DC32" s="40"/>
@@ -9494,8 +9797,11 @@
       <c r="EF32" s="40"/>
       <c r="EG32" s="40"/>
       <c r="EH32" s="40"/>
+      <c r="EI32" s="40"/>
+      <c r="EJ32" s="40"/>
+      <c r="EK32" s="40"/>
     </row>
-    <row r="33" spans="1:138" ht="12.75" customHeight="1">
+    <row r="33" spans="1:141" ht="12.75" customHeight="1">
       <c r="A33" s="41"/>
       <c r="B33" s="47" t="s">
         <v>139</v>
@@ -9616,7 +9922,7 @@
         <v>38366</v>
       </c>
       <c r="BJ33" s="44">
-        <f t="shared" ref="BJ33" si="46">+BJ31*0.85</f>
+        <f t="shared" ref="BJ33" si="41">+BJ31*0.85</f>
         <v>40878.199999999997</v>
       </c>
       <c r="BK33" s="44">
@@ -9625,97 +9931,97 @@
       </c>
       <c r="BL33" s="44">
         <f>+BL31*0.86</f>
-        <v>42843.307999999997</v>
+        <v>46698</v>
       </c>
       <c r="BM33" s="44">
         <f>+BM31*0.87</f>
-        <v>48254.027999999991</v>
+        <v>51095.97</v>
       </c>
       <c r="BN33" s="44">
         <f>+BN31*0.87</f>
-        <v>50802.780000000006</v>
+        <v>57300.81</v>
       </c>
       <c r="BO33" s="44"/>
       <c r="BP33" s="44"/>
-      <c r="BQ33" s="44">
-        <f>BQ31+BQ32</f>
+      <c r="BQ33" s="44"/>
+      <c r="BR33" s="44"/>
+      <c r="BS33" s="44"/>
+      <c r="BT33" s="44">
+        <f>BT31+BT32</f>
         <v>9896</v>
       </c>
-      <c r="BR33" s="44">
-        <f>BR31+BR32</f>
+      <c r="BU33" s="44">
+        <f>BU31+BU32</f>
         <v>12196</v>
       </c>
-      <c r="BS33" s="44">
+      <c r="BV33" s="44">
         <v>15469</v>
       </c>
-      <c r="BT33" s="44">
+      <c r="BW33" s="44">
         <v>17349</v>
       </c>
-      <c r="BU33" s="44">
+      <c r="BX33" s="44">
         <v>18268</v>
       </c>
-      <c r="BV33" s="44"/>
-      <c r="BW33" s="44"/>
-      <c r="BX33" s="44"/>
       <c r="BY33" s="44"/>
       <c r="BZ33" s="44"/>
       <c r="CA33" s="44"/>
-      <c r="CB33" s="44">
-        <f>CB31-CB32</f>
+      <c r="CB33" s="44"/>
+      <c r="CC33" s="44"/>
+      <c r="CD33" s="44"/>
+      <c r="CE33" s="44">
+        <f>CE31-CE32</f>
         <v>40640</v>
       </c>
-      <c r="CC33" s="44">
-        <f>+CC31-CC32</f>
+      <c r="CF33" s="44">
+        <f>+CF31-CF32</f>
         <v>49096</v>
       </c>
-      <c r="CD33" s="44">
-        <f>+CD31-CD32</f>
-        <v>53757</v>
-      </c>
-      <c r="CE33" s="44">
-        <f>+CE31-CE32</f>
-        <v>64561</v>
-      </c>
-      <c r="CF33" s="44"/>
       <c r="CG33" s="44">
         <f>+CG31-CG32</f>
-        <v>74244</v>
+        <v>53757</v>
       </c>
       <c r="CH33" s="44">
         <f>+CH31-CH32</f>
+        <v>64561</v>
+      </c>
+      <c r="CI33" s="44"/>
+      <c r="CJ33" s="44">
+        <f>+CJ31-CJ32</f>
+        <v>74244</v>
+      </c>
+      <c r="CK33" s="44">
+        <f>+CK31-CK32</f>
         <v>91739</v>
       </c>
-      <c r="CI33" s="46">
-        <f>+CI31-CI32</f>
+      <c r="CL33" s="46">
+        <f>+CL31-CL32</f>
         <v>94597</v>
       </c>
-      <c r="CJ33" s="46">
+      <c r="CM33" s="46">
         <v>94064</v>
       </c>
-      <c r="CK33" s="46">
+      <c r="CN33" s="46">
         <v>94214</v>
       </c>
-      <c r="CL33" s="46">
+      <c r="CO33" s="46">
         <v>101933</v>
       </c>
-      <c r="CM33" s="46">
+      <c r="CP33" s="46">
         <v>106014</v>
       </c>
-      <c r="CN33" s="46">
+      <c r="CQ33" s="46">
         <v>117142</v>
       </c>
-      <c r="CO33" s="46"/>
-      <c r="CP33" s="46"/>
-      <c r="CQ33" s="46"/>
       <c r="CR33" s="46"/>
       <c r="CS33" s="46"/>
       <c r="CT33" s="46"/>
       <c r="CU33" s="46"/>
       <c r="CV33" s="46"/>
       <c r="CW33" s="46"/>
-      <c r="CX33" s="40"/>
-      <c r="CY33" s="40"/>
-      <c r="CZ33" s="40"/>
+      <c r="CX33" s="46"/>
+      <c r="CY33" s="46"/>
+      <c r="CZ33" s="46"/>
       <c r="DA33" s="40"/>
       <c r="DB33" s="40"/>
       <c r="DC33" s="40"/>
@@ -9750,8 +10056,11 @@
       <c r="EF33" s="40"/>
       <c r="EG33" s="40"/>
       <c r="EH33" s="40"/>
+      <c r="EI33" s="40"/>
+      <c r="EJ33" s="40"/>
+      <c r="EK33" s="40"/>
     </row>
-    <row r="34" spans="1:138" ht="12.75" customHeight="1">
+    <row r="34" spans="1:141" ht="12.75" customHeight="1">
       <c r="A34" s="41"/>
       <c r="B34" s="47" t="s">
         <v>140</v>
@@ -9878,89 +10187,89 @@
       </c>
       <c r="BL34" s="44">
         <f>+BL31*0.24</f>
-        <v>11956.271999999999</v>
+        <v>13032</v>
       </c>
       <c r="BM34" s="44">
         <f>+BM31*0.26</f>
-        <v>14420.743999999999</v>
+        <v>15270.060000000001</v>
       </c>
       <c r="BN34" s="44">
         <f>+BN31*0.3</f>
-        <v>17518.2</v>
+        <v>19758.899999999998</v>
       </c>
       <c r="BO34" s="44"/>
       <c r="BP34" s="44"/>
-      <c r="BQ34" s="44">
+      <c r="BQ34" s="44"/>
+      <c r="BR34" s="44"/>
+      <c r="BS34" s="44"/>
+      <c r="BT34" s="44">
         <v>-4212</v>
       </c>
-      <c r="BR34" s="44">
+      <c r="BU34" s="44">
         <v>-4812</v>
       </c>
-      <c r="BS34" s="44">
+      <c r="BV34" s="44">
         <v>-6013</v>
       </c>
-      <c r="BT34" s="44">
+      <c r="BW34" s="44">
         <v>-6951</v>
       </c>
-      <c r="BU34" s="44">
+      <c r="BX34" s="44">
         <v>-7187</v>
       </c>
-      <c r="BV34" s="44"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="44"/>
       <c r="BY34" s="44"/>
       <c r="BZ34" s="44"/>
       <c r="CA34" s="44"/>
-      <c r="CB34" s="44">
+      <c r="CB34" s="44"/>
+      <c r="CC34" s="44"/>
+      <c r="CD34" s="44"/>
+      <c r="CE34" s="44">
         <f>SUM(G34:J34)</f>
         <v>15420</v>
       </c>
-      <c r="CC34" s="44">
+      <c r="CF34" s="44">
         <v>18195</v>
       </c>
-      <c r="CD34" s="44">
+      <c r="CG34" s="44">
         <v>19004</v>
       </c>
-      <c r="CE34" s="44">
+      <c r="CH34" s="44">
         <v>21544</v>
       </c>
-      <c r="CF34" s="44"/>
-      <c r="CG34" s="44">
+      <c r="CI34" s="44"/>
+      <c r="CJ34" s="44">
         <v>23223</v>
       </c>
-      <c r="CH34" s="44">
+      <c r="CK34" s="44">
         <v>28312</v>
       </c>
-      <c r="CI34" s="46">
+      <c r="CL34" s="46">
         <v>28377</v>
       </c>
-      <c r="CJ34" s="46">
+      <c r="CM34" s="46">
         <v>28340</v>
       </c>
-      <c r="CK34" s="46">
+      <c r="CN34" s="46">
         <v>29397</v>
       </c>
-      <c r="CL34" s="46">
+      <c r="CO34" s="46">
         <v>31823</v>
       </c>
-      <c r="CM34" s="46">
+      <c r="CP34" s="46">
         <v>32928</v>
       </c>
-      <c r="CN34" s="46">
+      <c r="CQ34" s="46">
         <v>37008</v>
       </c>
-      <c r="CO34" s="46"/>
-      <c r="CP34" s="46"/>
-      <c r="CQ34" s="46"/>
       <c r="CR34" s="46"/>
       <c r="CS34" s="46"/>
       <c r="CT34" s="46"/>
       <c r="CU34" s="46"/>
       <c r="CV34" s="46"/>
       <c r="CW34" s="46"/>
-      <c r="CX34" s="40"/>
-      <c r="CY34" s="40"/>
-      <c r="CZ34" s="40"/>
+      <c r="CX34" s="46"/>
+      <c r="CY34" s="46"/>
+      <c r="CZ34" s="46"/>
       <c r="DA34" s="40"/>
       <c r="DB34" s="40"/>
       <c r="DC34" s="40"/>
@@ -9995,8 +10304,11 @@
       <c r="EF34" s="40"/>
       <c r="EG34" s="40"/>
       <c r="EH34" s="40"/>
+      <c r="EI34" s="40"/>
+      <c r="EJ34" s="40"/>
+      <c r="EK34" s="40"/>
     </row>
-    <row r="35" spans="1:138" ht="12.75" customHeight="1">
+    <row r="35" spans="1:141" ht="12.75" customHeight="1">
       <c r="A35" s="41"/>
       <c r="B35" s="47" t="s">
         <v>141</v>
@@ -10117,98 +10429,98 @@
         <v>5633</v>
       </c>
       <c r="BJ35" s="44">
-        <f t="shared" ref="BJ35:BN35" si="47">+BJ31*0.11</f>
+        <f t="shared" ref="BJ35:BN35" si="42">+BJ31*0.11</f>
         <v>5290.12</v>
       </c>
       <c r="BK35" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>5870.37</v>
       </c>
       <c r="BL35" s="44">
-        <f t="shared" si="47"/>
-        <v>5479.9579999999996</v>
+        <f t="shared" si="42"/>
+        <v>5973</v>
       </c>
       <c r="BM35" s="44">
-        <f t="shared" si="47"/>
-        <v>6101.0839999999998</v>
+        <f t="shared" si="42"/>
+        <v>6460.41</v>
       </c>
       <c r="BN35" s="44">
-        <f t="shared" si="47"/>
-        <v>6423.3400000000011</v>
+        <f t="shared" si="42"/>
+        <v>7244.93</v>
       </c>
       <c r="BO35" s="44"/>
       <c r="BP35" s="44"/>
-      <c r="BQ35" s="44">
+      <c r="BQ35" s="44"/>
+      <c r="BR35" s="44"/>
+      <c r="BS35" s="44"/>
+      <c r="BT35" s="44">
         <v>-2795</v>
       </c>
-      <c r="BR35" s="44">
+      <c r="BU35" s="44">
         <v>-2748</v>
       </c>
-      <c r="BS35" s="44">
+      <c r="BV35" s="44">
         <v>-3407</v>
       </c>
-      <c r="BT35" s="44">
+      <c r="BW35" s="44">
         <v>-3872</v>
       </c>
-      <c r="BU35" s="44">
+      <c r="BX35" s="44">
         <v>-3952</v>
       </c>
-      <c r="BV35" s="44"/>
-      <c r="BW35" s="44"/>
-      <c r="BX35" s="44"/>
       <c r="BY35" s="44"/>
       <c r="BZ35" s="44"/>
       <c r="CA35" s="44"/>
-      <c r="CB35" s="44">
+      <c r="CB35" s="44"/>
+      <c r="CC35" s="44"/>
+      <c r="CD35" s="44"/>
+      <c r="CE35" s="44">
         <f>SUM(G35:J35)</f>
         <v>7864</v>
       </c>
-      <c r="CC35" s="44">
+      <c r="CF35" s="44">
         <v>9602</v>
       </c>
-      <c r="CD35" s="44">
+      <c r="CG35" s="44">
         <v>9628</v>
       </c>
-      <c r="CE35" s="44">
+      <c r="CH35" s="44">
         <v>10897</v>
       </c>
-      <c r="CF35" s="44"/>
-      <c r="CG35" s="44">
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="44">
         <v>13762</v>
       </c>
-      <c r="CH35" s="44">
+      <c r="CK35" s="44">
         <v>13608</v>
       </c>
-      <c r="CI35" s="46">
+      <c r="CL35" s="46">
         <v>14563</v>
       </c>
-      <c r="CJ35" s="46">
+      <c r="CM35" s="46">
         <v>14014</v>
       </c>
-      <c r="CK35" s="46">
+      <c r="CN35" s="46">
         <v>14805</v>
       </c>
-      <c r="CL35" s="46">
+      <c r="CO35" s="46">
         <v>14220</v>
       </c>
-      <c r="CM35" s="46">
+      <c r="CP35" s="46">
         <v>15462</v>
       </c>
-      <c r="CN35" s="46">
+      <c r="CQ35" s="46">
         <v>17772</v>
       </c>
-      <c r="CO35" s="46"/>
-      <c r="CP35" s="46"/>
-      <c r="CQ35" s="46"/>
       <c r="CR35" s="46"/>
       <c r="CS35" s="46"/>
       <c r="CT35" s="46"/>
       <c r="CU35" s="46"/>
       <c r="CV35" s="46"/>
       <c r="CW35" s="46"/>
-      <c r="CX35" s="40"/>
-      <c r="CY35" s="40"/>
-      <c r="CZ35" s="40"/>
+      <c r="CX35" s="46"/>
+      <c r="CY35" s="46"/>
+      <c r="CZ35" s="46"/>
       <c r="DA35" s="40"/>
       <c r="DB35" s="40"/>
       <c r="DC35" s="40"/>
@@ -10243,8 +10555,11 @@
       <c r="EF35" s="40"/>
       <c r="EG35" s="40"/>
       <c r="EH35" s="40"/>
+      <c r="EI35" s="40"/>
+      <c r="EJ35" s="40"/>
+      <c r="EK35" s="40"/>
     </row>
-    <row r="36" spans="1:138" ht="12.75" customHeight="1">
+    <row r="36" spans="1:141" ht="12.75" customHeight="1">
       <c r="A36" s="41"/>
       <c r="B36" s="47" t="s">
         <v>201</v>
@@ -10362,98 +10677,98 @@
         <v>1158</v>
       </c>
       <c r="BJ36" s="44">
-        <f t="shared" ref="BJ36:BN36" si="48">+BF36*1.01</f>
+        <f t="shared" ref="BJ36:BN36" si="43">+BF36*1.01</f>
         <v>1201.9000000000001</v>
       </c>
       <c r="BK36" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>979.7</v>
       </c>
       <c r="BL36" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>1000.91</v>
       </c>
       <c r="BM36" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>1169.58</v>
       </c>
       <c r="BN36" s="44">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>1213.9190000000001</v>
       </c>
       <c r="BO36" s="44"/>
       <c r="BP36" s="44"/>
-      <c r="BQ36" s="44">
+      <c r="BQ36" s="44"/>
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44"/>
+      <c r="BT36" s="44">
         <v>-1397</v>
       </c>
-      <c r="BR36" s="44">
+      <c r="BU36" s="44">
         <v>-1721</v>
       </c>
-      <c r="BS36" s="44">
+      <c r="BV36" s="44">
         <v>-1917</v>
       </c>
-      <c r="BT36" s="44">
+      <c r="BW36" s="44">
         <v>-1931</v>
       </c>
-      <c r="BU36" s="44">
+      <c r="BX36" s="44">
         <v>-1960</v>
       </c>
-      <c r="BV36" s="44"/>
-      <c r="BW36" s="44"/>
-      <c r="BX36" s="44"/>
       <c r="BY36" s="44"/>
       <c r="BZ36" s="44"/>
       <c r="CA36" s="44"/>
-      <c r="CB36" s="44">
+      <c r="CB36" s="44"/>
+      <c r="CC36" s="44"/>
+      <c r="CD36" s="44"/>
+      <c r="CE36" s="44">
         <f>SUM(G36:J36)</f>
         <v>2764</v>
       </c>
-      <c r="CC36" s="44">
+      <c r="CF36" s="44">
         <v>3065</v>
       </c>
-      <c r="CD36" s="44">
+      <c r="CG36" s="44">
         <v>3245</v>
       </c>
-      <c r="CE36" s="44">
+      <c r="CH36" s="44">
         <v>3312</v>
       </c>
-      <c r="CF36" s="44"/>
-      <c r="CG36" s="44">
+      <c r="CI36" s="44"/>
+      <c r="CJ36" s="44">
         <v>3537</v>
       </c>
-      <c r="CH36" s="44">
+      <c r="CK36" s="44">
         <v>3857</v>
       </c>
-      <c r="CI36" s="46">
+      <c r="CL36" s="46">
         <v>3962</v>
       </c>
-      <c r="CJ36" s="46">
+      <c r="CM36" s="46">
         <v>3784</v>
       </c>
-      <c r="CK36" s="46">
+      <c r="CN36" s="46">
         <v>3916</v>
       </c>
-      <c r="CL36" s="46">
+      <c r="CO36" s="46">
         <v>4007</v>
       </c>
-      <c r="CM36" s="46">
+      <c r="CP36" s="46">
         <v>3958</v>
       </c>
-      <c r="CN36" s="46">
+      <c r="CQ36" s="46">
         <v>4050</v>
       </c>
-      <c r="CO36" s="46"/>
-      <c r="CP36" s="46"/>
-      <c r="CQ36" s="46"/>
       <c r="CR36" s="46"/>
       <c r="CS36" s="46"/>
       <c r="CT36" s="46"/>
       <c r="CU36" s="46"/>
       <c r="CV36" s="46"/>
       <c r="CW36" s="46"/>
-      <c r="CX36" s="40"/>
-      <c r="CY36" s="40"/>
-      <c r="CZ36" s="40"/>
+      <c r="CX36" s="46"/>
+      <c r="CY36" s="46"/>
+      <c r="CZ36" s="46"/>
       <c r="DA36" s="40"/>
       <c r="DB36" s="40"/>
       <c r="DC36" s="40"/>
@@ -10488,8 +10803,11 @@
       <c r="EF36" s="40"/>
       <c r="EG36" s="40"/>
       <c r="EH36" s="40"/>
+      <c r="EI36" s="40"/>
+      <c r="EJ36" s="40"/>
+      <c r="EK36" s="40"/>
     </row>
-    <row r="37" spans="1:138" ht="12.75" customHeight="1">
+    <row r="37" spans="1:141" ht="12.75" customHeight="1">
       <c r="A37" s="41"/>
       <c r="B37" s="47" t="s">
         <v>137</v>
@@ -10607,71 +10925,71 @@
         <v>-60</v>
       </c>
       <c r="BJ37" s="44">
-        <f t="shared" ref="BJ37:BN37" si="49">AVERAGE(BF37:BI37)</f>
+        <f t="shared" ref="BJ37:BN37" si="44">AVERAGE(BF37:BI37)</f>
         <v>-149.25</v>
       </c>
       <c r="BK37" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>-187.5625</v>
       </c>
       <c r="BL37" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>-136.453125</v>
       </c>
       <c r="BM37" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>-133.31640625</v>
       </c>
       <c r="BN37" s="44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>-151.6455078125</v>
       </c>
       <c r="BO37" s="44"/>
       <c r="BP37" s="44"/>
-      <c r="BQ37" s="44">
+      <c r="BQ37" s="44"/>
+      <c r="BR37" s="44"/>
+      <c r="BS37" s="44"/>
+      <c r="BT37" s="44">
         <v>1441</v>
       </c>
-      <c r="BR37" s="44">
+      <c r="BU37" s="44">
         <v>612</v>
       </c>
-      <c r="BS37" s="44">
+      <c r="BV37" s="44">
         <v>571</v>
       </c>
-      <c r="BT37" s="44">
+      <c r="BW37" s="44">
         <v>815</v>
       </c>
-      <c r="BU37" s="44">
+      <c r="BX37" s="44">
         <v>758</v>
       </c>
-      <c r="BV37" s="44"/>
-      <c r="BW37" s="44"/>
-      <c r="BX37" s="44"/>
       <c r="BY37" s="44"/>
       <c r="BZ37" s="44"/>
       <c r="CA37" s="44"/>
       <c r="CB37" s="44"/>
-      <c r="CC37" s="44">
+      <c r="CC37" s="44"/>
+      <c r="CD37" s="44"/>
+      <c r="CE37" s="44"/>
+      <c r="CF37" s="44">
         <v>-657</v>
       </c>
-      <c r="CD37" s="44">
+      <c r="CG37" s="44">
         <v>-494</v>
       </c>
-      <c r="CE37" s="44">
+      <c r="CH37" s="44">
         <v>-666</v>
       </c>
-      <c r="CF37" s="44"/>
-      <c r="CG37" s="44">
+      <c r="CI37" s="44"/>
+      <c r="CJ37" s="44">
         <v>-770</v>
       </c>
-      <c r="CH37" s="44">
+      <c r="CK37" s="44">
         <v>-3482</v>
       </c>
-      <c r="CI37" s="46">
+      <c r="CL37" s="46">
         <v>-737</v>
       </c>
-      <c r="CJ37" s="46"/>
-      <c r="CK37" s="46"/>
-      <c r="CL37" s="46"/>
       <c r="CM37" s="46"/>
       <c r="CN37" s="46"/>
       <c r="CO37" s="46"/>
@@ -10683,9 +11001,9 @@
       <c r="CU37" s="46"/>
       <c r="CV37" s="46"/>
       <c r="CW37" s="46"/>
-      <c r="CX37" s="40"/>
-      <c r="CY37" s="40"/>
-      <c r="CZ37" s="40"/>
+      <c r="CX37" s="46"/>
+      <c r="CY37" s="46"/>
+      <c r="CZ37" s="46"/>
       <c r="DA37" s="40"/>
       <c r="DB37" s="40"/>
       <c r="DC37" s="40"/>
@@ -10720,46 +11038,49 @@
       <c r="EF37" s="40"/>
       <c r="EG37" s="40"/>
       <c r="EH37" s="40"/>
+      <c r="EI37" s="40"/>
+      <c r="EJ37" s="40"/>
+      <c r="EK37" s="40"/>
     </row>
-    <row r="38" spans="1:138" ht="12.75" customHeight="1">
+    <row r="38" spans="1:141" ht="12.75" customHeight="1">
       <c r="A38" s="41"/>
       <c r="B38" s="47" t="s">
         <v>142</v>
       </c>
       <c r="C38" s="44">
-        <f t="shared" ref="C38:K38" si="50">SUM(C34:C36)-C37</f>
+        <f t="shared" ref="C38:K38" si="45">SUM(C34:C36)-C37</f>
         <v>5152</v>
       </c>
       <c r="D38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>5555</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>5366</v>
       </c>
       <c r="F38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>6673</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>6180</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>6301</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>6018</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>7208</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>6602</v>
       </c>
       <c r="L38" s="44">
@@ -10816,165 +11137,165 @@
       <c r="AV38" s="44"/>
       <c r="AW38" s="44"/>
       <c r="AX38" s="44">
-        <f t="shared" ref="AX38:BB38" si="51">SUM(AX34:AX37)</f>
+        <f t="shared" ref="AX38:BB38" si="46">SUM(AX34:AX37)</f>
         <v>15112</v>
       </c>
       <c r="AY38" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>12187</v>
       </c>
       <c r="AZ38" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>11396</v>
       </c>
       <c r="BA38" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>12964</v>
       </c>
       <c r="BB38" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>15341</v>
       </c>
       <c r="BC38" s="44">
-        <f t="shared" ref="BC38:BH38" si="52">SUM(BC34:BC37)</f>
+        <f t="shared" ref="BC38:BH38" si="47">SUM(BC34:BC37)</f>
         <v>13011</v>
       </c>
       <c r="BD38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>12715</v>
       </c>
       <c r="BE38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>14314</v>
       </c>
       <c r="BF38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>18458</v>
       </c>
       <c r="BG38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>15967</v>
       </c>
       <c r="BH38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>16805</v>
       </c>
       <c r="BI38" s="44">
-        <f t="shared" ref="BI38:BN38" si="53">SUM(BI34:BI37)</f>
+        <f t="shared" ref="BI38:BN38" si="48">SUM(BI34:BI37)</f>
         <v>18182</v>
       </c>
       <c r="BJ38" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20770.370000000003</v>
       </c>
       <c r="BK38" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>19470.587500000001</v>
       </c>
       <c r="BL38" s="44">
-        <f t="shared" si="53"/>
-        <v>18300.686874999999</v>
+        <f t="shared" si="48"/>
+        <v>19869.456875</v>
       </c>
       <c r="BM38" s="44">
-        <f t="shared" si="53"/>
-        <v>21558.091593749996</v>
+        <f t="shared" si="48"/>
+        <v>22766.733593750003</v>
       </c>
       <c r="BN38" s="44">
-        <f t="shared" si="53"/>
-        <v>25003.813492187503</v>
+        <f t="shared" si="48"/>
+        <v>28066.1034921875</v>
       </c>
       <c r="BO38" s="44"/>
       <c r="BP38" s="44"/>
-      <c r="BQ38" s="44">
-        <f>BQ33+SUM(BQ34:BQ37)</f>
-        <v>2933</v>
-      </c>
-      <c r="BR38" s="44">
-        <f>BR33+SUM(BR34:BR37)</f>
-        <v>3527</v>
-      </c>
-      <c r="BS38" s="44">
-        <f>BS33+SUM(BS34:BS37)</f>
-        <v>4703</v>
-      </c>
+      <c r="BQ38" s="44"/>
+      <c r="BR38" s="44"/>
+      <c r="BS38" s="44"/>
       <c r="BT38" s="44">
         <f>BT33+SUM(BT34:BT37)</f>
-        <v>5410</v>
+        <v>2933</v>
       </c>
       <c r="BU38" s="44">
         <f>BU33+SUM(BU34:BU37)</f>
+        <v>3527</v>
+      </c>
+      <c r="BV38" s="44">
+        <f>BV33+SUM(BV34:BV37)</f>
+        <v>4703</v>
+      </c>
+      <c r="BW38" s="44">
+        <f>BW33+SUM(BW34:BW37)</f>
+        <v>5410</v>
+      </c>
+      <c r="BX38" s="44">
+        <f>BX33+SUM(BX34:BX37)</f>
         <v>5927</v>
       </c>
-      <c r="BV38" s="44"/>
-      <c r="BW38" s="44"/>
-      <c r="BX38" s="44"/>
       <c r="BY38" s="44"/>
       <c r="BZ38" s="44"/>
       <c r="CA38" s="44"/>
-      <c r="CB38" s="44">
-        <f>SUM(CB34:CB36)</f>
+      <c r="CB38" s="44"/>
+      <c r="CC38" s="44"/>
+      <c r="CD38" s="44"/>
+      <c r="CE38" s="44">
+        <f>SUM(CE34:CE36)</f>
         <v>26048</v>
       </c>
-      <c r="CC38" s="44">
-        <f>SUM(CC34:CC37)</f>
+      <c r="CF38" s="44">
+        <f>SUM(CF34:CF37)</f>
         <v>30205</v>
-      </c>
-      <c r="CD38" s="44">
-        <f>SUM(CD34:CD37)</f>
-        <v>31383</v>
-      </c>
-      <c r="CE38" s="44">
-        <f>SUM(CE34:CE37)</f>
-        <v>35087</v>
-      </c>
-      <c r="CF38" s="44">
-        <f>SUM(CF34:CF36)</f>
-        <v>0</v>
       </c>
       <c r="CG38" s="44">
         <f>SUM(CG34:CG37)</f>
-        <v>39752</v>
+        <v>31383</v>
       </c>
       <c r="CH38" s="44">
         <f>SUM(CH34:CH37)</f>
+        <v>35087</v>
+      </c>
+      <c r="CI38" s="44">
+        <f>SUM(CI34:CI36)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ38" s="44">
+        <f>SUM(CJ34:CJ37)</f>
+        <v>39752</v>
+      </c>
+      <c r="CK38" s="44">
+        <f>SUM(CK34:CK37)</f>
         <v>42295</v>
       </c>
-      <c r="CI38" s="44">
-        <f>SUM(CI34:CI37)</f>
+      <c r="CL38" s="44">
+        <f>SUM(CL34:CL37)</f>
         <v>46165</v>
       </c>
-      <c r="CJ38" s="46">
-        <f>SUM(CJ34:CJ36)</f>
+      <c r="CM38" s="46">
+        <f>SUM(CM34:CM36)</f>
         <v>46138</v>
       </c>
-      <c r="CK38" s="46">
-        <f t="shared" ref="CK38:CM38" si="54">SUM(CK34:CK36)</f>
+      <c r="CN38" s="46">
+        <f t="shared" ref="CN38:CP38" si="49">SUM(CN34:CN36)</f>
         <v>48118</v>
       </c>
-      <c r="CL38" s="46">
-        <f t="shared" si="54"/>
+      <c r="CO38" s="46">
+        <f t="shared" si="49"/>
         <v>50050</v>
       </c>
-      <c r="CM38" s="46">
-        <f t="shared" si="54"/>
+      <c r="CP38" s="46">
+        <f t="shared" si="49"/>
         <v>52348</v>
       </c>
-      <c r="CN38" s="46">
-        <f>SUM(CN34:CN36)</f>
+      <c r="CQ38" s="46">
+        <f>SUM(CQ34:CQ36)</f>
         <v>58830</v>
       </c>
-      <c r="CO38" s="46"/>
-      <c r="CP38" s="46"/>
-      <c r="CQ38" s="46"/>
       <c r="CR38" s="46"/>
       <c r="CS38" s="46"/>
       <c r="CT38" s="46"/>
       <c r="CU38" s="46"/>
       <c r="CV38" s="46"/>
       <c r="CW38" s="46"/>
-      <c r="CX38" s="40"/>
-      <c r="CY38" s="40"/>
-      <c r="CZ38" s="40"/>
+      <c r="CX38" s="46"/>
+      <c r="CY38" s="46"/>
+      <c r="CZ38" s="46"/>
       <c r="DA38" s="40"/>
       <c r="DB38" s="40"/>
       <c r="DC38" s="40"/>
@@ -11009,46 +11330,49 @@
       <c r="EF38" s="40"/>
       <c r="EG38" s="40"/>
       <c r="EH38" s="40"/>
+      <c r="EI38" s="40"/>
+      <c r="EJ38" s="40"/>
+      <c r="EK38" s="40"/>
     </row>
-    <row r="39" spans="1:138" ht="12.75" customHeight="1">
+    <row r="39" spans="1:141" ht="12.75" customHeight="1">
       <c r="A39" s="41"/>
       <c r="B39" s="47" t="s">
         <v>202</v>
       </c>
       <c r="C39" s="44">
-        <f t="shared" ref="C39:K39" si="55">C33-C38</f>
+        <f t="shared" ref="C39:K39" si="50">C33-C38</f>
         <v>3049</v>
       </c>
       <c r="D39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>3001</v>
       </c>
       <c r="E39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>3274</v>
       </c>
       <c r="F39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>3374</v>
       </c>
       <c r="G39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>3810</v>
       </c>
       <c r="H39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>4090</v>
       </c>
       <c r="I39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>3814</v>
       </c>
       <c r="J39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>3219</v>
       </c>
       <c r="K39" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>4382</v>
       </c>
       <c r="L39" s="44">
@@ -11105,166 +11429,166 @@
       <c r="AV39" s="44"/>
       <c r="AW39" s="44"/>
       <c r="AX39" s="44">
-        <f t="shared" ref="AX39:BB39" si="56">AX33-AX38</f>
+        <f t="shared" ref="AX39:BB39" si="51">AX33-AX38</f>
         <v>11873</v>
       </c>
       <c r="AY39" s="44">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>16302</v>
       </c>
       <c r="AZ39" s="44">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>13838</v>
       </c>
       <c r="BA39" s="44">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>12808</v>
       </c>
       <c r="BB39" s="44">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>11178</v>
       </c>
       <c r="BC39" s="44">
-        <f t="shared" ref="BC39:BH39" si="57">BC33-BC38</f>
+        <f t="shared" ref="BC39:BH39" si="52">BC33-BC38</f>
         <v>14982</v>
       </c>
       <c r="BD39" s="44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>14779</v>
       </c>
       <c r="BE39" s="44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>15249</v>
       </c>
       <c r="BF39" s="44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>13634</v>
       </c>
       <c r="BG39" s="44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>19147</v>
       </c>
       <c r="BH39" s="44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>18391</v>
       </c>
       <c r="BI39" s="44">
-        <f t="shared" ref="BI39:BN39" si="58">BI33-BI38</f>
+        <f t="shared" ref="BI39:BN39" si="53">BI33-BI38</f>
         <v>20184</v>
       </c>
       <c r="BJ39" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>20107.829999999994</v>
       </c>
       <c r="BK39" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>26425.032500000001</v>
       </c>
       <c r="BL39" s="44">
-        <f t="shared" si="58"/>
-        <v>24542.621124999998</v>
+        <f t="shared" si="53"/>
+        <v>26828.543125</v>
       </c>
       <c r="BM39" s="44">
-        <f t="shared" si="58"/>
-        <v>26695.936406249995</v>
+        <f t="shared" si="53"/>
+        <v>28329.236406249998</v>
       </c>
       <c r="BN39" s="44">
-        <f t="shared" si="58"/>
-        <v>25798.966507812504</v>
+        <f t="shared" si="53"/>
+        <v>29234.706507812498</v>
       </c>
       <c r="BO39" s="44"/>
       <c r="BP39" s="44"/>
-      <c r="BQ39" s="44">
+      <c r="BQ39" s="44"/>
+      <c r="BR39" s="44"/>
+      <c r="BS39" s="44"/>
+      <c r="BT39" s="44">
         <v>-26</v>
       </c>
-      <c r="BR39" s="44">
+      <c r="BU39" s="44">
         <v>2</v>
       </c>
-      <c r="BS39" s="44">
+      <c r="BV39" s="44">
         <v>3</v>
       </c>
-      <c r="BT39" s="44">
+      <c r="BW39" s="44">
         <v>49</v>
       </c>
-      <c r="BU39" s="44">
+      <c r="BX39" s="44">
         <v>27</v>
       </c>
-      <c r="BV39" s="44">
+      <c r="BY39" s="44">
         <f>-63-41-45+78+9-2-2+7</f>
         <v>-59</v>
       </c>
-      <c r="BW39" s="44">
+      <c r="BZ39" s="44">
         <f>-38-44+7-32-31+4+5+12</f>
         <v>-117</v>
       </c>
-      <c r="BX39" s="44"/>
-      <c r="BY39" s="44"/>
-      <c r="BZ39" s="44"/>
       <c r="CA39" s="44"/>
-      <c r="CB39" s="44">
-        <f t="shared" ref="CB39:CI39" si="59">CB33-CB38</f>
+      <c r="CB39" s="44"/>
+      <c r="CC39" s="44"/>
+      <c r="CD39" s="44"/>
+      <c r="CE39" s="44">
+        <f t="shared" ref="CE39:CL39" si="54">CE33-CE38</f>
         <v>14592</v>
       </c>
-      <c r="CC39" s="44">
-        <f t="shared" si="59"/>
+      <c r="CF39" s="44">
+        <f t="shared" si="54"/>
         <v>18891</v>
       </c>
-      <c r="CD39" s="44">
-        <f>CD33-CD38</f>
+      <c r="CG39" s="44">
+        <f>CG33-CG38</f>
         <v>22374</v>
       </c>
-      <c r="CE39" s="44">
-        <f>CE33-CE38</f>
+      <c r="CH39" s="44">
+        <f>CH33-CH38</f>
         <v>29474</v>
       </c>
-      <c r="CF39" s="44">
-        <f t="shared" si="59"/>
+      <c r="CI39" s="44">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="CG39" s="44">
-        <f t="shared" si="59"/>
+      <c r="CJ39" s="44">
+        <f t="shared" si="54"/>
         <v>34492</v>
       </c>
-      <c r="CH39" s="44">
-        <f t="shared" si="59"/>
+      <c r="CK39" s="44">
+        <f t="shared" si="54"/>
         <v>49444</v>
       </c>
-      <c r="CI39" s="44">
-        <f t="shared" si="59"/>
+      <c r="CL39" s="44">
+        <f t="shared" si="54"/>
         <v>48432</v>
       </c>
-      <c r="CJ39" s="46">
-        <f>CJ33-CJ38</f>
+      <c r="CM39" s="46">
+        <f>CM33-CM38</f>
         <v>47926</v>
       </c>
-      <c r="CK39" s="46">
-        <f t="shared" ref="CK39:CN39" si="60">CK33-CK38</f>
+      <c r="CN39" s="46">
+        <f t="shared" ref="CN39:CQ39" si="55">CN33-CN38</f>
         <v>46096</v>
       </c>
-      <c r="CL39" s="46">
-        <f t="shared" si="60"/>
+      <c r="CO39" s="46">
+        <f t="shared" si="55"/>
         <v>51883</v>
       </c>
-      <c r="CM39" s="46">
-        <f t="shared" si="60"/>
+      <c r="CP39" s="46">
+        <f t="shared" si="55"/>
         <v>53666</v>
       </c>
-      <c r="CN39" s="46">
-        <f t="shared" si="60"/>
+      <c r="CQ39" s="46">
+        <f t="shared" si="55"/>
         <v>58312</v>
       </c>
-      <c r="CO39" s="46"/>
-      <c r="CP39" s="46"/>
-      <c r="CQ39" s="46"/>
       <c r="CR39" s="46"/>
       <c r="CS39" s="46"/>
       <c r="CT39" s="46"/>
       <c r="CU39" s="46"/>
       <c r="CV39" s="46"/>
       <c r="CW39" s="46"/>
-      <c r="CX39" s="40"/>
-      <c r="CY39" s="40"/>
-      <c r="CZ39" s="40"/>
+      <c r="CX39" s="46"/>
+      <c r="CY39" s="46"/>
+      <c r="CZ39" s="46"/>
       <c r="DA39" s="40"/>
       <c r="DB39" s="40"/>
       <c r="DC39" s="40"/>
@@ -11299,8 +11623,11 @@
       <c r="EF39" s="40"/>
       <c r="EG39" s="40"/>
       <c r="EH39" s="40"/>
+      <c r="EI39" s="40"/>
+      <c r="EJ39" s="40"/>
+      <c r="EK39" s="40"/>
     </row>
-    <row r="40" spans="1:138" ht="12.75" customHeight="1">
+    <row r="40" spans="1:141" ht="12.75" customHeight="1">
       <c r="A40" s="41"/>
       <c r="B40" s="47" t="s">
         <v>205</v>
@@ -11387,43 +11714,43 @@
       <c r="BN40" s="44"/>
       <c r="BO40" s="44"/>
       <c r="BP40" s="44"/>
-      <c r="BQ40" s="44">
+      <c r="BQ40" s="44"/>
+      <c r="BR40" s="44"/>
+      <c r="BS40" s="44"/>
+      <c r="BT40" s="44">
         <v>379</v>
       </c>
-      <c r="BR40" s="44">
+      <c r="BU40" s="44">
         <v>218</v>
       </c>
-      <c r="BS40" s="44">
+      <c r="BV40" s="44">
         <v>539</v>
       </c>
-      <c r="BT40" s="44">
+      <c r="BW40" s="44">
         <v>368</v>
       </c>
-      <c r="BU40" s="44">
+      <c r="BX40" s="44">
         <v>555</v>
       </c>
-      <c r="BV40" s="44">
+      <c r="BY40" s="44">
         <f>421+446+177+438</f>
         <v>1482</v>
       </c>
-      <c r="BW40" s="44">
+      <c r="BZ40" s="44">
         <f>178+104+125+491</f>
         <v>898</v>
       </c>
-      <c r="BX40" s="38"/>
-      <c r="BY40" s="38"/>
-      <c r="BZ40" s="38"/>
       <c r="CA40" s="38"/>
       <c r="CB40" s="38"/>
-      <c r="CC40" s="44"/>
+      <c r="CC40" s="38"/>
       <c r="CD40" s="38"/>
       <c r="CE40" s="38"/>
       <c r="CF40" s="44"/>
-      <c r="CG40" s="44"/>
-      <c r="CH40" s="44"/>
-      <c r="CI40" s="46"/>
-      <c r="CJ40" s="46"/>
-      <c r="CK40" s="46"/>
+      <c r="CG40" s="38"/>
+      <c r="CH40" s="38"/>
+      <c r="CI40" s="44"/>
+      <c r="CJ40" s="44"/>
+      <c r="CK40" s="44"/>
       <c r="CL40" s="46"/>
       <c r="CM40" s="46"/>
       <c r="CN40" s="46"/>
@@ -11436,9 +11763,9 @@
       <c r="CU40" s="46"/>
       <c r="CV40" s="46"/>
       <c r="CW40" s="46"/>
-      <c r="CX40" s="40"/>
-      <c r="CY40" s="40"/>
-      <c r="CZ40" s="40"/>
+      <c r="CX40" s="46"/>
+      <c r="CY40" s="46"/>
+      <c r="CZ40" s="46"/>
       <c r="DA40" s="40"/>
       <c r="DB40" s="40"/>
       <c r="DC40" s="40"/>
@@ -11473,8 +11800,11 @@
       <c r="EF40" s="40"/>
       <c r="EG40" s="40"/>
       <c r="EH40" s="40"/>
+      <c r="EI40" s="40"/>
+      <c r="EJ40" s="40"/>
+      <c r="EK40" s="40"/>
     </row>
-    <row r="41" spans="1:138" ht="12.75" customHeight="1">
+    <row r="41" spans="1:141" ht="12.75" customHeight="1">
       <c r="A41" s="41"/>
       <c r="B41" s="47" t="s">
         <v>143</v>
@@ -11563,43 +11893,43 @@
       <c r="BN41" s="44"/>
       <c r="BO41" s="44"/>
       <c r="BP41" s="44"/>
-      <c r="BQ41" s="44">
+      <c r="BQ41" s="44"/>
+      <c r="BR41" s="44"/>
+      <c r="BS41" s="44"/>
+      <c r="BT41" s="44">
         <v>-110</v>
       </c>
-      <c r="BR41" s="44">
+      <c r="BU41" s="44">
         <v>-398</v>
       </c>
-      <c r="BS41" s="44">
+      <c r="BV41" s="44">
         <v>-361</v>
       </c>
-      <c r="BT41" s="44">
+      <c r="BW41" s="44">
         <v>-132</v>
       </c>
-      <c r="BU41" s="44">
+      <c r="BX41" s="44">
         <v>-181</v>
       </c>
-      <c r="BV41" s="44">
+      <c r="BY41" s="44">
         <f>-133-116-103-117</f>
         <v>-469</v>
       </c>
-      <c r="BW41" s="44">
+      <c r="BZ41" s="44">
         <f>-22-44-52-186</f>
         <v>-304</v>
       </c>
-      <c r="BX41" s="38"/>
-      <c r="BY41" s="38"/>
-      <c r="BZ41" s="38"/>
       <c r="CA41" s="38"/>
       <c r="CB41" s="38"/>
-      <c r="CC41" s="44"/>
-      <c r="CD41" s="44"/>
-      <c r="CE41" s="44"/>
+      <c r="CC41" s="38"/>
+      <c r="CD41" s="38"/>
+      <c r="CE41" s="38"/>
       <c r="CF41" s="44"/>
       <c r="CG41" s="44"/>
       <c r="CH41" s="44"/>
-      <c r="CI41" s="46"/>
-      <c r="CJ41" s="46"/>
-      <c r="CK41" s="46"/>
+      <c r="CI41" s="44"/>
+      <c r="CJ41" s="44"/>
+      <c r="CK41" s="44"/>
       <c r="CL41" s="46"/>
       <c r="CM41" s="46"/>
       <c r="CN41" s="46"/>
@@ -11612,9 +11942,9 @@
       <c r="CU41" s="46"/>
       <c r="CV41" s="46"/>
       <c r="CW41" s="46"/>
-      <c r="CX41" s="40"/>
-      <c r="CY41" s="40"/>
-      <c r="CZ41" s="40"/>
+      <c r="CX41" s="46"/>
+      <c r="CY41" s="46"/>
+      <c r="CZ41" s="46"/>
       <c r="DA41" s="40"/>
       <c r="DB41" s="40"/>
       <c r="DC41" s="40"/>
@@ -11649,8 +11979,11 @@
       <c r="EF41" s="40"/>
       <c r="EG41" s="40"/>
       <c r="EH41" s="40"/>
+      <c r="EI41" s="40"/>
+      <c r="EJ41" s="40"/>
+      <c r="EK41" s="40"/>
     </row>
-    <row r="42" spans="1:138" ht="12.75" customHeight="1">
+    <row r="42" spans="1:141" ht="12.75" customHeight="1">
       <c r="A42" s="41"/>
       <c r="B42" s="47" t="s">
         <v>144</v>
@@ -11772,88 +12105,88 @@
         <v>2152</v>
       </c>
       <c r="BJ42" s="44">
-        <f t="shared" ref="BJ42:BN42" si="61">AVERAGE(BF42:BI42)</f>
+        <f t="shared" ref="BJ42:BN42" si="56">AVERAGE(BF42:BI42)</f>
         <v>1374.25</v>
       </c>
       <c r="BK42" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>1587.5625</v>
       </c>
       <c r="BL42" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>1677.453125</v>
       </c>
       <c r="BM42" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>1697.81640625</v>
       </c>
       <c r="BN42" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>1584.2705078125</v>
       </c>
       <c r="BO42" s="44"/>
       <c r="BP42" s="44"/>
-      <c r="BQ42" s="44">
-        <f t="shared" ref="BQ42:BW42" si="62">BQ38+SUM(BQ39:BQ41)</f>
+      <c r="BQ42" s="44"/>
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="44">
+        <f t="shared" ref="BT42:BZ42" si="57">BT38+SUM(BT39:BT41)</f>
         <v>3176</v>
       </c>
-      <c r="BR42" s="44">
-        <f t="shared" si="62"/>
+      <c r="BU42" s="44">
+        <f t="shared" si="57"/>
         <v>3349</v>
       </c>
-      <c r="BS42" s="44">
-        <f t="shared" si="62"/>
+      <c r="BV42" s="44">
+        <f t="shared" si="57"/>
         <v>4884</v>
       </c>
-      <c r="BT42" s="44">
-        <f t="shared" si="62"/>
+      <c r="BW42" s="44">
+        <f t="shared" si="57"/>
         <v>5695</v>
       </c>
-      <c r="BU42" s="44">
-        <f t="shared" si="62"/>
+      <c r="BX42" s="44">
+        <f t="shared" si="57"/>
         <v>6328</v>
       </c>
-      <c r="BV42" s="44">
-        <f t="shared" si="62"/>
+      <c r="BY42" s="44">
+        <f t="shared" si="57"/>
         <v>954</v>
       </c>
-      <c r="BW42" s="44">
-        <f t="shared" si="62"/>
+      <c r="BZ42" s="44">
+        <f t="shared" si="57"/>
         <v>477</v>
       </c>
-      <c r="BX42" s="38"/>
-      <c r="BY42" s="38"/>
-      <c r="BZ42" s="38"/>
       <c r="CA42" s="38"/>
       <c r="CB42" s="38"/>
-      <c r="CC42" s="44">
+      <c r="CC42" s="38"/>
+      <c r="CD42" s="38"/>
+      <c r="CE42" s="38"/>
+      <c r="CF42" s="44">
         <f>1452-2057</f>
         <v>-605</v>
       </c>
-      <c r="CD42" s="44">
+      <c r="CG42" s="44">
         <f>514-963</f>
         <v>-449</v>
       </c>
-      <c r="CE42" s="44">
+      <c r="CH42" s="44">
         <f>125-1788</f>
         <v>-1663</v>
       </c>
-      <c r="CF42" s="44"/>
-      <c r="CG42" s="44">
+      <c r="CI42" s="44"/>
+      <c r="CJ42" s="44">
         <f>167-563</f>
         <v>-396</v>
       </c>
-      <c r="CH42" s="44">
+      <c r="CK42" s="44">
         <f>85-6046</f>
         <v>-5961</v>
       </c>
-      <c r="CI42" s="46">
+      <c r="CL42" s="46">
         <f>92-726</f>
         <v>-634</v>
       </c>
-      <c r="CJ42" s="46"/>
-      <c r="CK42" s="46"/>
-      <c r="CL42" s="46"/>
       <c r="CM42" s="46"/>
       <c r="CN42" s="46"/>
       <c r="CO42" s="46"/>
@@ -11865,9 +12198,9 @@
       <c r="CU42" s="46"/>
       <c r="CV42" s="46"/>
       <c r="CW42" s="46"/>
-      <c r="CX42" s="40"/>
-      <c r="CY42" s="40"/>
-      <c r="CZ42" s="40"/>
+      <c r="CX42" s="46"/>
+      <c r="CY42" s="46"/>
+      <c r="CZ42" s="46"/>
       <c r="DA42" s="40"/>
       <c r="DB42" s="40"/>
       <c r="DC42" s="40"/>
@@ -11902,62 +12235,65 @@
       <c r="EF42" s="40"/>
       <c r="EG42" s="40"/>
       <c r="EH42" s="40"/>
+      <c r="EI42" s="40"/>
+      <c r="EJ42" s="40"/>
+      <c r="EK42" s="40"/>
     </row>
-    <row r="43" spans="1:138" ht="12.75" customHeight="1">
+    <row r="43" spans="1:141" ht="12.75" customHeight="1">
       <c r="A43" s="41"/>
       <c r="B43" s="47" t="s">
         <v>203</v>
       </c>
       <c r="C43" s="44">
-        <f t="shared" ref="C43:O43" si="63">SUM(C39:C42)</f>
+        <f t="shared" ref="C43:O43" si="58">SUM(C39:C42)</f>
         <v>3824</v>
       </c>
       <c r="D43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3406</v>
       </c>
       <c r="E43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3588</v>
       </c>
       <c r="F43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3070</v>
       </c>
       <c r="G43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3505</v>
       </c>
       <c r="H43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3884</v>
       </c>
       <c r="I43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3607</v>
       </c>
       <c r="J43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>2992</v>
       </c>
       <c r="K43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>4317</v>
       </c>
       <c r="L43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>4608</v>
       </c>
       <c r="M43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>4656</v>
       </c>
       <c r="N43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>4907.2000000000007</v>
       </c>
       <c r="O43" s="44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>5290</v>
       </c>
       <c r="P43" s="44"/>
@@ -11998,23 +12334,23 @@
       <c r="AV43" s="44"/>
       <c r="AW43" s="44"/>
       <c r="AX43" s="44">
-        <f t="shared" ref="AX43:BB43" si="64">AX39-AX42</f>
+        <f t="shared" ref="AX43:BB43" si="59">AX39-AX42</f>
         <v>11079</v>
       </c>
       <c r="AY43" s="44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>15021</v>
       </c>
       <c r="AZ43" s="44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>13416</v>
       </c>
       <c r="BA43" s="44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>12691</v>
       </c>
       <c r="BB43" s="44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>12002</v>
       </c>
       <c r="BC43" s="44">
@@ -12026,103 +12362,103 @@
         <v>14917</v>
       </c>
       <c r="BE43" s="44">
-        <f t="shared" ref="BE43:BN43" si="65">BE39-BE42</f>
+        <f t="shared" ref="BE43:BN43" si="60">BE39-BE42</f>
         <v>15112</v>
       </c>
       <c r="BF43" s="44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>13113</v>
       </c>
       <c r="BG43" s="44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>17919</v>
       </c>
       <c r="BH43" s="44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>16795</v>
       </c>
       <c r="BI43" s="44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>18032</v>
       </c>
       <c r="BJ43" s="44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>18733.579999999994</v>
       </c>
       <c r="BK43" s="44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>24837.47</v>
       </c>
       <c r="BL43" s="44">
-        <f t="shared" si="65"/>
-        <v>22865.167999999998</v>
+        <f t="shared" si="60"/>
+        <v>25151.09</v>
       </c>
       <c r="BM43" s="44">
-        <f t="shared" si="65"/>
-        <v>24998.119999999995</v>
+        <f t="shared" si="60"/>
+        <v>26631.42</v>
       </c>
       <c r="BN43" s="44">
-        <f t="shared" si="65"/>
-        <v>24214.696000000004</v>
+        <f t="shared" si="60"/>
+        <v>27650.435999999998</v>
       </c>
       <c r="BO43" s="44"/>
       <c r="BP43" s="44"/>
-      <c r="BQ43" s="44">
+      <c r="BQ43" s="44"/>
+      <c r="BR43" s="44"/>
+      <c r="BS43" s="44"/>
+      <c r="BT43" s="44">
         <v>-1160</v>
       </c>
-      <c r="BR43" s="44">
+      <c r="BU43" s="44">
         <v>-1348</v>
       </c>
-      <c r="BS43" s="44">
+      <c r="BV43" s="44">
         <v>-1730</v>
       </c>
-      <c r="BT43" s="44">
+      <c r="BW43" s="44">
         <v>-2075</v>
       </c>
-      <c r="BU43" s="44">
+      <c r="BX43" s="44">
         <v>-2212</v>
       </c>
-      <c r="BV43" s="44"/>
-      <c r="BW43" s="44"/>
-      <c r="BX43" s="44"/>
       <c r="BY43" s="44"/>
       <c r="BZ43" s="44"/>
       <c r="CA43" s="44"/>
-      <c r="CB43" s="44">
-        <f t="shared" ref="CB43:CF43" si="66">CB39+SUM(CB40:CB42)</f>
+      <c r="CB43" s="44"/>
+      <c r="CC43" s="44"/>
+      <c r="CD43" s="44"/>
+      <c r="CE43" s="44">
+        <f t="shared" ref="CE43:CI43" si="61">CE39+SUM(CE40:CE42)</f>
         <v>14592</v>
       </c>
-      <c r="CC43" s="44">
-        <f t="shared" si="66"/>
+      <c r="CF43" s="44">
+        <f t="shared" si="61"/>
         <v>18286</v>
       </c>
-      <c r="CD43" s="44">
-        <f t="shared" si="66"/>
+      <c r="CG43" s="44">
+        <f t="shared" si="61"/>
         <v>21925</v>
       </c>
-      <c r="CE43" s="44">
-        <f t="shared" si="66"/>
+      <c r="CH43" s="44">
+        <f t="shared" si="61"/>
         <v>27811</v>
       </c>
-      <c r="CF43" s="44">
-        <f t="shared" si="66"/>
+      <c r="CI43" s="44">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="CG43" s="44">
-        <f>CG39+SUM(CG40:CG42)</f>
+      <c r="CJ43" s="44">
+        <f>CJ39+SUM(CJ40:CJ42)</f>
         <v>34096</v>
       </c>
-      <c r="CH43" s="44">
-        <f>CH39+SUM(CH40:CH42)</f>
+      <c r="CK43" s="44">
+        <f>CK39+SUM(CK40:CK42)</f>
         <v>43483</v>
       </c>
-      <c r="CI43" s="44">
-        <f>CI39+SUM(CI40:CI42)</f>
+      <c r="CL43" s="44">
+        <f>CL39+SUM(CL40:CL42)</f>
         <v>47798</v>
       </c>
-      <c r="CJ43" s="46"/>
-      <c r="CK43" s="46"/>
-      <c r="CL43" s="46"/>
       <c r="CM43" s="46"/>
       <c r="CN43" s="46"/>
       <c r="CO43" s="46"/>
@@ -12134,9 +12470,9 @@
       <c r="CU43" s="46"/>
       <c r="CV43" s="46"/>
       <c r="CW43" s="46"/>
-      <c r="CX43" s="40"/>
-      <c r="CY43" s="40"/>
-      <c r="CZ43" s="40"/>
+      <c r="CX43" s="46"/>
+      <c r="CY43" s="46"/>
+      <c r="CZ43" s="46"/>
       <c r="DA43" s="40"/>
       <c r="DB43" s="40"/>
       <c r="DC43" s="40"/>
@@ -12171,42 +12507,45 @@
       <c r="EF43" s="40"/>
       <c r="EG43" s="40"/>
       <c r="EH43" s="40"/>
+      <c r="EI43" s="40"/>
+      <c r="EJ43" s="40"/>
+      <c r="EK43" s="40"/>
     </row>
-    <row r="44" spans="1:138" ht="12.75" customHeight="1">
+    <row r="44" spans="1:141" ht="12.75" customHeight="1">
       <c r="A44" s="41"/>
       <c r="B44" s="47" t="s">
         <v>208</v>
       </c>
       <c r="C44" s="44">
-        <f t="shared" ref="C44:J44" si="67">C43-C45</f>
+        <f t="shared" ref="C44:J44" si="62">C43-C45</f>
         <v>1644</v>
       </c>
       <c r="D44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>935</v>
       </c>
       <c r="E44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>924</v>
       </c>
       <c r="F44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>740</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>806</v>
       </c>
       <c r="H44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>893</v>
       </c>
       <c r="I44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>852</v>
       </c>
       <c r="J44" s="44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>669</v>
       </c>
       <c r="K44" s="44">
@@ -12300,85 +12639,85 @@
         <v>3627</v>
       </c>
       <c r="BJ44" s="44">
-        <f t="shared" ref="BJ44:BN44" si="68">+BJ43*0.2</f>
+        <f t="shared" ref="BJ44:BN44" si="63">+BJ43*0.2</f>
         <v>3746.715999999999</v>
       </c>
       <c r="BK44" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>4967.4940000000006</v>
       </c>
       <c r="BL44" s="44">
-        <f t="shared" si="68"/>
-        <v>4573.0335999999998</v>
+        <f t="shared" si="63"/>
+        <v>5030.2180000000008</v>
       </c>
       <c r="BM44" s="44">
-        <f t="shared" si="68"/>
-        <v>4999.6239999999998</v>
+        <f t="shared" si="63"/>
+        <v>5326.2839999999997</v>
       </c>
       <c r="BN44" s="44">
-        <f t="shared" si="68"/>
-        <v>4842.9392000000007</v>
+        <f t="shared" si="63"/>
+        <v>5530.0871999999999</v>
       </c>
       <c r="BO44" s="44"/>
       <c r="BP44" s="44"/>
-      <c r="BQ44" s="44">
-        <f t="shared" ref="BQ44:BW44" si="69">BQ42+BQ43</f>
+      <c r="BQ44" s="44"/>
+      <c r="BR44" s="44"/>
+      <c r="BS44" s="44"/>
+      <c r="BT44" s="44">
+        <f t="shared" ref="BT44:BZ44" si="64">BT42+BT43</f>
         <v>2016</v>
       </c>
-      <c r="BR44" s="44">
-        <f t="shared" si="69"/>
+      <c r="BU44" s="44">
+        <f t="shared" si="64"/>
         <v>2001</v>
       </c>
-      <c r="BS44" s="44">
-        <f t="shared" si="69"/>
+      <c r="BV44" s="44">
+        <f t="shared" si="64"/>
         <v>3154</v>
       </c>
-      <c r="BT44" s="44">
-        <f t="shared" si="69"/>
+      <c r="BW44" s="44">
+        <f t="shared" si="64"/>
         <v>3620</v>
       </c>
-      <c r="BU44" s="44">
-        <f t="shared" si="69"/>
+      <c r="BX44" s="44">
+        <f t="shared" si="64"/>
         <v>4116</v>
       </c>
-      <c r="BV44" s="44">
-        <f t="shared" si="69"/>
+      <c r="BY44" s="44">
+        <f t="shared" si="64"/>
         <v>954</v>
       </c>
-      <c r="BW44" s="44">
-        <f t="shared" si="69"/>
+      <c r="BZ44" s="44">
+        <f t="shared" si="64"/>
         <v>477</v>
       </c>
-      <c r="BX44" s="38"/>
-      <c r="BY44" s="38"/>
-      <c r="BZ44" s="38"/>
       <c r="CA44" s="38"/>
-      <c r="CB44" s="44">
-        <f>+CB43*0.35</f>
+      <c r="CB44" s="38"/>
+      <c r="CC44" s="38"/>
+      <c r="CD44" s="38"/>
+      <c r="CE44" s="44">
+        <f>+CE43*0.35</f>
         <v>5107.2</v>
       </c>
-      <c r="CC44" s="44">
+      <c r="CF44" s="44">
         <v>3883</v>
       </c>
-      <c r="CD44" s="44">
+      <c r="CG44" s="44">
         <v>4828</v>
       </c>
-      <c r="CE44" s="44">
+      <c r="CH44" s="44">
         <v>6379</v>
       </c>
-      <c r="CF44" s="44"/>
-      <c r="CG44" s="44">
+      <c r="CI44" s="44"/>
+      <c r="CJ44" s="44">
         <v>7615</v>
       </c>
-      <c r="CH44" s="44">
+      <c r="CK44" s="44">
         <v>8623</v>
       </c>
-      <c r="CI44" s="46">
+      <c r="CL44" s="46">
         <v>9873</v>
       </c>
-      <c r="CJ44" s="46"/>
-      <c r="CK44" s="46"/>
-      <c r="CL44" s="46"/>
       <c r="CM44" s="46"/>
       <c r="CN44" s="46"/>
       <c r="CO44" s="46"/>
@@ -12390,9 +12729,9 @@
       <c r="CU44" s="46"/>
       <c r="CV44" s="46"/>
       <c r="CW44" s="46"/>
-      <c r="CX44" s="40"/>
-      <c r="CY44" s="40"/>
-      <c r="CZ44" s="40"/>
+      <c r="CX44" s="46"/>
+      <c r="CY44" s="46"/>
+      <c r="CZ44" s="46"/>
       <c r="DA44" s="40"/>
       <c r="DB44" s="40"/>
       <c r="DC44" s="40"/>
@@ -12427,8 +12766,11 @@
       <c r="EF44" s="40"/>
       <c r="EG44" s="40"/>
       <c r="EH44" s="40"/>
+      <c r="EI44" s="40"/>
+      <c r="EJ44" s="40"/>
+      <c r="EK44" s="40"/>
     </row>
-    <row r="45" spans="1:138" ht="12.75" customHeight="1">
+    <row r="45" spans="1:141" ht="12.75" customHeight="1">
       <c r="A45" s="41"/>
       <c r="B45" s="47" t="s">
         <v>204</v>
@@ -12515,23 +12857,23 @@
       <c r="AV45" s="44"/>
       <c r="AW45" s="44"/>
       <c r="AX45" s="44">
-        <f t="shared" ref="AX45:BB45" si="70">AX43-AX44</f>
+        <f t="shared" ref="AX45:BB45" si="65">AX43-AX44</f>
         <v>8717</v>
       </c>
       <c r="AY45" s="44">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>11897</v>
       </c>
       <c r="AZ45" s="44">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>10625</v>
       </c>
       <c r="BA45" s="44">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>10298</v>
       </c>
       <c r="BB45" s="44">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9318</v>
       </c>
       <c r="BC45" s="44">
@@ -12543,15 +12885,15 @@
         <v>12123</v>
       </c>
       <c r="BE45" s="44">
-        <f t="shared" ref="BE45:BG45" si="71">BE43-BE44</f>
+        <f t="shared" ref="BE45:BG45" si="66">BE43-BE44</f>
         <v>12119</v>
       </c>
       <c r="BF45" s="44">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>10892</v>
       </c>
       <c r="BG45" s="44">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>14210</v>
       </c>
       <c r="BH45" s="44">
@@ -12559,314 +12901,317 @@
         <v>13318</v>
       </c>
       <c r="BI45" s="44">
-        <f t="shared" ref="BI45:BN45" si="72">BI43-BI44</f>
+        <f t="shared" ref="BI45:BN45" si="67">BI43-BI44</f>
         <v>14405</v>
       </c>
       <c r="BJ45" s="44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>14986.863999999996</v>
       </c>
       <c r="BK45" s="44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>19869.976000000002</v>
       </c>
       <c r="BL45" s="44">
-        <f t="shared" si="72"/>
-        <v>18292.134399999999</v>
+        <f t="shared" si="67"/>
+        <v>20120.871999999999</v>
       </c>
       <c r="BM45" s="44">
-        <f t="shared" si="72"/>
-        <v>19998.495999999996</v>
+        <f t="shared" si="67"/>
+        <v>21305.135999999999</v>
       </c>
       <c r="BN45" s="44">
-        <f t="shared" si="72"/>
-        <v>19371.756800000003</v>
+        <f t="shared" si="67"/>
+        <v>22120.3488</v>
       </c>
       <c r="BO45" s="44"/>
       <c r="BP45" s="44"/>
-      <c r="BQ45" s="11">
-        <f t="shared" ref="BQ45:BU45" si="73">BQ44/BQ46</f>
+      <c r="BQ45" s="44"/>
+      <c r="BR45" s="44"/>
+      <c r="BS45" s="44"/>
+      <c r="BT45" s="11">
+        <f t="shared" ref="BT45:BX45" si="68">BT44/BT46</f>
         <v>5.4339622641509431</v>
       </c>
-      <c r="BR45" s="11">
-        <f t="shared" si="73"/>
+      <c r="BU45" s="11">
+        <f t="shared" si="68"/>
         <v>5.5909784351966199</v>
       </c>
-      <c r="BS45" s="11">
-        <f t="shared" si="73"/>
+      <c r="BV45" s="11">
+        <f t="shared" si="68"/>
         <v>9.0298275927642493</v>
       </c>
-      <c r="BT45" s="11">
-        <f t="shared" si="73"/>
+      <c r="BW45" s="11">
+        <f t="shared" si="68"/>
         <v>10.449736117774917</v>
       </c>
-      <c r="BU45" s="11">
-        <f t="shared" si="73"/>
+      <c r="BX45" s="11">
+        <f t="shared" si="68"/>
         <v>11.849703476124272</v>
       </c>
-      <c r="BV45" s="11"/>
-      <c r="BW45" s="11"/>
-      <c r="BX45" s="44"/>
-      <c r="BY45" s="44"/>
-      <c r="BZ45" s="44"/>
+      <c r="BY45" s="11"/>
+      <c r="BZ45" s="11"/>
       <c r="CA45" s="44"/>
-      <c r="CB45" s="44">
-        <f t="shared" ref="CB45:CI45" si="74">CB43-CB44</f>
+      <c r="CB45" s="44"/>
+      <c r="CC45" s="44"/>
+      <c r="CD45" s="44"/>
+      <c r="CE45" s="44">
+        <f t="shared" ref="CE45:CL45" si="69">CE43-CE44</f>
         <v>9484.7999999999993</v>
       </c>
-      <c r="CC45" s="44">
-        <f>CC43-CC44</f>
+      <c r="CF45" s="44">
+        <f>CF43-CF44</f>
         <v>14403</v>
       </c>
-      <c r="CD45" s="44">
-        <f t="shared" si="74"/>
+      <c r="CG45" s="44">
+        <f t="shared" si="69"/>
         <v>17097</v>
       </c>
-      <c r="CE45" s="44">
-        <f t="shared" si="74"/>
+      <c r="CH45" s="44">
+        <f t="shared" si="69"/>
         <v>21432</v>
       </c>
-      <c r="CF45" s="44">
-        <f t="shared" si="74"/>
+      <c r="CI45" s="44">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="CG45" s="44">
-        <f t="shared" si="74"/>
+      <c r="CJ45" s="44">
+        <f t="shared" si="69"/>
         <v>26481</v>
       </c>
-      <c r="CH45" s="44">
-        <f t="shared" si="74"/>
+      <c r="CK45" s="44">
+        <f t="shared" si="69"/>
         <v>34860</v>
       </c>
-      <c r="CI45" s="44">
-        <f t="shared" si="74"/>
+      <c r="CL45" s="44">
+        <f t="shared" si="69"/>
         <v>37925</v>
       </c>
-      <c r="CJ45" s="46"/>
-      <c r="CK45" s="46"/>
-      <c r="CL45" s="46"/>
       <c r="CM45" s="46"/>
       <c r="CN45" s="46"/>
-      <c r="CO45" s="46">
-        <f t="shared" ref="CO45:DN45" si="75">CN45*(1+$CZ$49)</f>
+      <c r="CO45" s="46"/>
+      <c r="CP45" s="46"/>
+      <c r="CQ45" s="46"/>
+      <c r="CR45" s="46">
+        <f t="shared" ref="CR45:DQ45" si="70">CQ45*(1+$DC$49)</f>
         <v>0</v>
       </c>
-      <c r="CP45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CS45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CQ45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CT45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CR45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CU45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CS45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CV45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CT45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CW45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CU45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CX45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CV45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CY45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CW45" s="46">
-        <f t="shared" si="75"/>
+      <c r="CZ45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CX45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DA45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CY45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DB45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="CZ45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DC45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DA45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DD45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DB45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DE45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DC45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DF45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DD45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DG45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DE45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DH45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DF45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DI45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DG45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DJ45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DH45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DK45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DI45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DL45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DJ45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DM45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DK45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DN45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DL45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DO45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DM45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DP45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DN45" s="46">
-        <f t="shared" si="75"/>
+      <c r="DQ45" s="46">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DO45" s="46">
-        <f t="shared" ref="DO45:EH45" si="76">DN45*(1+$CZ$49)</f>
+      <c r="DR45" s="46">
+        <f t="shared" ref="DR45:EK45" si="71">DQ45*(1+$DC$49)</f>
         <v>0</v>
       </c>
-      <c r="DP45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DS45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DQ45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DT45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DR45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DU45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DS45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DV45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DT45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DW45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DU45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DX45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DV45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DY45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DW45" s="46">
-        <f t="shared" si="76"/>
+      <c r="DZ45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DX45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EA45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DY45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EB45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DZ45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EC45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EA45" s="46">
-        <f t="shared" si="76"/>
+      <c r="ED45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EB45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EE45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EC45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EF45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="ED45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EG45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EE45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EH45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EF45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EI45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EG45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EJ45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EH45" s="46">
-        <f t="shared" si="76"/>
+      <c r="EK45" s="46">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:138" s="12" customFormat="1" ht="12.75" customHeight="1">
+    <row r="46" spans="1:141" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:J46" si="77">C45/C47</f>
+        <f t="shared" ref="C46:J46" si="72">C45/C47</f>
         <v>3.4807600191601473</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>3.994503718073068</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>4.3359375</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>3.7923177083333335</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>4.4050922147870084</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>4.9202171409771349</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>4.5809777186564684</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>3.9028897849462361</v>
       </c>
       <c r="K46" s="11">
@@ -12927,23 +13272,23 @@
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11">
-        <f t="shared" ref="AX46:BB46" si="78">AX45/AX47</f>
+        <f t="shared" ref="AX46:BB46" si="73">AX45/AX47</f>
         <v>3.6884864384547029</v>
       </c>
       <c r="AY46" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>5.0522337353490743</v>
       </c>
       <c r="AZ46" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>4.5311100686596442</v>
       </c>
       <c r="BA46" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>4.4100895036615135</v>
       </c>
       <c r="BB46" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>4.0075695669003482</v>
       </c>
       <c r="BC46" s="11">
@@ -12955,15 +13300,15 @@
         <v>5.256471404413996</v>
       </c>
       <c r="BE46" s="11">
-        <f t="shared" ref="BE46:BG46" si="79">BE45/BE47</f>
+        <f t="shared" ref="BE46:BG46" si="74">BE45/BE47</f>
         <v>5.2753232055021106</v>
       </c>
       <c r="BF46" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>4.7550860036671621</v>
       </c>
       <c r="BG46" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>6.223448517496605</v>
       </c>
       <c r="BH46" s="11">
@@ -12971,70 +13316,73 @@
         <v>5.8512367646412722</v>
       </c>
       <c r="BI46" s="11">
-        <f t="shared" ref="BI46:BN46" si="80">BI45/BI47</f>
+        <f t="shared" ref="BI46:BN46" si="75">BI45/BI47</f>
         <v>6.3500110204981262</v>
       </c>
       <c r="BJ46" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>6.6065082653735931</v>
       </c>
       <c r="BK46" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>8.7590813312761746</v>
       </c>
       <c r="BL46" s="11">
-        <f t="shared" si="80"/>
-        <v>8.0635373154066556</v>
+        <f t="shared" si="75"/>
+        <v>8.8696812871941813</v>
       </c>
       <c r="BM46" s="11">
-        <f t="shared" si="80"/>
-        <v>8.8157355080449609</v>
+        <f t="shared" si="75"/>
+        <v>9.3917284549261613</v>
       </c>
       <c r="BN46" s="11">
-        <f t="shared" si="80"/>
-        <v>8.5394563808684172</v>
+        <f t="shared" si="75"/>
+        <v>9.7510905003306156</v>
       </c>
       <c r="BO46" s="11"/>
-      <c r="BP46" s="10"/>
-      <c r="BQ46" s="44">
+      <c r="BP46" s="11"/>
+      <c r="BQ46" s="11"/>
+      <c r="BR46" s="11"/>
+      <c r="BS46" s="10"/>
+      <c r="BT46" s="44">
         <v>371</v>
       </c>
-      <c r="BR46" s="44">
+      <c r="BU46" s="44">
         <v>357.89800000000002</v>
       </c>
-      <c r="BS46" s="44">
+      <c r="BV46" s="44">
         <v>349.28684602210484</v>
       </c>
-      <c r="BT46" s="44">
+      <c r="BW46" s="44">
         <v>346.42023101831342</v>
       </c>
-      <c r="BU46" s="44">
+      <c r="BX46" s="44">
         <v>347.35046394141801</v>
       </c>
-      <c r="BV46" s="44"/>
-      <c r="BW46" s="44"/>
-      <c r="BX46" s="10"/>
-      <c r="BY46" s="10"/>
-      <c r="BZ46" s="10"/>
+      <c r="BY46" s="44"/>
+      <c r="BZ46" s="44"/>
       <c r="CA46" s="10"/>
       <c r="CB46" s="10"/>
-      <c r="CC46" s="11">
-        <f t="shared" ref="CC46:CE46" si="81">CC45/CC47</f>
+      <c r="CC46" s="10"/>
+      <c r="CD46" s="10"/>
+      <c r="CE46" s="10"/>
+      <c r="CF46" s="11">
+        <f t="shared" ref="CF46:CH46" si="76">CF45/CF47</f>
         <v>24.600453988798879</v>
       </c>
-      <c r="CD46" s="11">
-        <f t="shared" si="81"/>
+      <c r="CG46" s="11">
+        <f t="shared" si="76"/>
         <v>29.987792300730359</v>
       </c>
-      <c r="CE46" s="11">
-        <f t="shared" si="81"/>
+      <c r="CH46" s="11">
+        <f t="shared" si="76"/>
         <v>38.849452931835813</v>
       </c>
-      <c r="CF46" s="11"/>
-      <c r="CG46" s="11"/>
-      <c r="CH46" s="11"/>
+      <c r="CI46" s="11"/>
+      <c r="CJ46" s="11"/>
+      <c r="CK46" s="11"/>
     </row>
-    <row r="47" spans="1:138" ht="12.75" customHeight="1">
+    <row r="47" spans="1:141" ht="12.75" customHeight="1">
       <c r="B47" s="47" t="s">
         <v>11</v>
       </c>
@@ -13150,82 +13498,82 @@
         <v>2268.5</v>
       </c>
       <c r="BJ47" s="44">
-        <f t="shared" ref="BJ47:BN47" si="82">+BI47</f>
+        <f t="shared" ref="BJ47:BN47" si="77">+BI47</f>
         <v>2268.5</v>
       </c>
       <c r="BK47" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>2268.5</v>
       </c>
       <c r="BL47" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>2268.5</v>
       </c>
       <c r="BM47" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>2268.5</v>
       </c>
       <c r="BN47" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>2268.5</v>
       </c>
       <c r="BO47" s="44"/>
-      <c r="BP47" s="48"/>
-      <c r="BQ47" s="44">
-        <f>BQ44</f>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="44"/>
+      <c r="BR47" s="44"/>
+      <c r="BS47" s="48"/>
+      <c r="BT47" s="44">
+        <f>BT44</f>
         <v>2016</v>
       </c>
-      <c r="BR47" s="44">
-        <f t="shared" ref="BR47:BW47" si="83">BR44</f>
+      <c r="BU47" s="44">
+        <f t="shared" ref="BU47:BZ47" si="78">BU44</f>
         <v>2001</v>
       </c>
-      <c r="BS47" s="44">
-        <f t="shared" si="83"/>
+      <c r="BV47" s="44">
+        <f t="shared" si="78"/>
         <v>3154</v>
       </c>
-      <c r="BT47" s="44">
-        <f t="shared" si="83"/>
+      <c r="BW47" s="44">
+        <f t="shared" si="78"/>
         <v>3620</v>
       </c>
-      <c r="BU47" s="44">
-        <f t="shared" si="83"/>
+      <c r="BX47" s="44">
+        <f t="shared" si="78"/>
         <v>4116</v>
       </c>
-      <c r="BV47" s="44">
-        <f t="shared" si="83"/>
+      <c r="BY47" s="44">
+        <f t="shared" si="78"/>
         <v>954</v>
       </c>
-      <c r="BW47" s="44">
-        <f t="shared" si="83"/>
+      <c r="BZ47" s="44">
+        <f t="shared" si="78"/>
         <v>477</v>
       </c>
-      <c r="BX47" s="44"/>
-      <c r="BY47" s="44"/>
-      <c r="BZ47" s="44"/>
       <c r="CA47" s="44"/>
       <c r="CB47" s="44"/>
-      <c r="CC47" s="44">
+      <c r="CC47" s="44"/>
+      <c r="CD47" s="44"/>
+      <c r="CE47" s="44"/>
+      <c r="CF47" s="44">
         <v>585.47699999999998</v>
       </c>
-      <c r="CD47" s="44">
+      <c r="CG47" s="44">
         <v>570.13199999999995</v>
       </c>
-      <c r="CE47" s="44">
+      <c r="CH47" s="44">
         <v>551.66800000000001</v>
       </c>
-      <c r="CF47" s="44"/>
-      <c r="CG47" s="44">
+      <c r="CI47" s="44"/>
+      <c r="CJ47" s="44">
         <v>2630.2179999999998</v>
       </c>
-      <c r="CH47" s="44">
+      <c r="CK47" s="44">
         <v>2577.6979999999999</v>
       </c>
-      <c r="CI47" s="46">
+      <c r="CL47" s="46">
         <v>2534.7289999999998</v>
       </c>
-      <c r="CL47" s="40"/>
-      <c r="CM47" s="40"/>
-      <c r="CN47" s="40"/>
       <c r="CO47" s="40"/>
       <c r="CP47" s="40"/>
       <c r="CQ47" s="40"/>
@@ -13272,8 +13620,11 @@
       <c r="EF47" s="40"/>
       <c r="EG47" s="40"/>
       <c r="EH47" s="40"/>
+      <c r="EI47" s="40"/>
+      <c r="EJ47" s="40"/>
+      <c r="EK47" s="40"/>
     </row>
-    <row r="48" spans="1:138" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="48" spans="1:141" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B48" s="47"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
@@ -13359,10 +13710,10 @@
       <c r="CF48" s="51"/>
       <c r="CG48" s="51"/>
       <c r="CH48" s="51"/>
-      <c r="CI48" s="41"/>
+      <c r="CI48" s="51"/>
+      <c r="CJ48" s="51"/>
+      <c r="CK48" s="51"/>
       <c r="CL48" s="41"/>
-      <c r="CM48" s="41"/>
-      <c r="CN48" s="41"/>
       <c r="CO48" s="41"/>
       <c r="CP48" s="41"/>
       <c r="CQ48" s="41"/>
@@ -13373,9 +13724,9 @@
       <c r="CV48" s="41"/>
       <c r="CW48" s="41"/>
       <c r="CX48" s="41"/>
+      <c r="CY48" s="41"/>
+      <c r="CZ48" s="41"/>
       <c r="DA48" s="41"/>
-      <c r="DB48" s="41"/>
-      <c r="DC48" s="41"/>
       <c r="DD48" s="41"/>
       <c r="DE48" s="41"/>
       <c r="DF48" s="41"/>
@@ -13407,8 +13758,11 @@
       <c r="EF48" s="41"/>
       <c r="EG48" s="41"/>
       <c r="EH48" s="41"/>
+      <c r="EI48" s="41"/>
+      <c r="EJ48" s="41"/>
+      <c r="EK48" s="41"/>
     </row>
-    <row r="49" spans="2:138" ht="12.75" customHeight="1">
+    <row r="49" spans="2:141" ht="12.75" customHeight="1">
       <c r="B49" s="47" t="s">
         <v>149</v>
       </c>
@@ -13417,39 +13771,39 @@
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
       <c r="G49" s="54">
-        <f t="shared" ref="G49:O49" si="84">G31/C31-1</f>
+        <f t="shared" ref="G49:O49" si="79">G31/C31-1</f>
         <v>0.17750141322781232</v>
       </c>
       <c r="H49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.17020702070207028</v>
       </c>
       <c r="I49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.11550773608394094</v>
       </c>
       <c r="J49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>4.2756099499324574E-2</v>
       </c>
       <c r="K49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>9.4095055208833323E-2</v>
       </c>
       <c r="L49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.18406276440273817</v>
       </c>
       <c r="M49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.24224790753288161</v>
       </c>
       <c r="N49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.22886975078119054</v>
       </c>
       <c r="O49" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.14765247915752533</v>
       </c>
       <c r="P49" s="54"/>
@@ -13489,41 +13843,44 @@
       <c r="AX49" s="54"/>
       <c r="AY49" s="54"/>
       <c r="AZ49" s="54"/>
-      <c r="BA49" s="54"/>
+      <c r="BA49" s="54">
+        <f t="shared" ref="BA49:BH49" si="80">BA31/AW31-1</f>
+        <v>2.1468441391155002E-2</v>
+      </c>
       <c r="BB49" s="54">
-        <f t="shared" ref="BB49:BH49" si="85">BB31/AX31-1</f>
+        <f t="shared" si="80"/>
         <v>-8.6065953049325739E-3</v>
       </c>
       <c r="BC49" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>-2.0959409594095701E-3</v>
       </c>
       <c r="BD49" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.10114643737919082</v>
       </c>
       <c r="BE49" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.15180909884566884</v>
       </c>
       <c r="BF49" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.19276246188312895</v>
       </c>
       <c r="BG49" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.24337356525854936</v>
       </c>
       <c r="BH49" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.24890287824218404</v>
       </c>
       <c r="BI49" s="54">
-        <f t="shared" ref="BI49:BN49" si="86">BI31/BE31-1</f>
+        <f t="shared" ref="BI49:BJ49" si="81">BI31/BE31-1</f>
         <v>0.27915333221043181</v>
       </c>
       <c r="BJ49" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.2545848224767171</v>
       </c>
       <c r="BK49" s="54">
@@ -13532,115 +13889,115 @@
       </c>
       <c r="BL49" s="54">
         <f>BL31/BH31-1</f>
-        <v>0.20726523688355747</v>
+        <v>0.31588513267902574</v>
       </c>
       <c r="BM49" s="54">
         <f>BM31/BI31-1</f>
-        <v>0.21723214677610492</v>
+        <v>0.28892156432427685</v>
       </c>
       <c r="BN49" s="54">
         <f>BN31/BJ31-1</f>
-        <v>0.21421442235714894</v>
+        <v>0.36952091824003985</v>
       </c>
       <c r="BO49" s="54"/>
-      <c r="BP49" s="53"/>
-      <c r="BQ49" s="53"/>
-      <c r="BR49" s="55">
-        <f>BR31/BQ31-1</f>
-        <v>0.20341466989081858</v>
-      </c>
-      <c r="BS49" s="55">
-        <f>BS31/BR31-1</f>
-        <v>0.24733605309626738</v>
-      </c>
-      <c r="BT49" s="55">
-        <f>BT31/BS31-1</f>
-        <v>0.14156700024408098</v>
-      </c>
+      <c r="BP49" s="54"/>
+      <c r="BQ49" s="54"/>
+      <c r="BR49" s="54"/>
+      <c r="BS49" s="53"/>
+      <c r="BT49" s="53"/>
       <c r="BU49" s="55">
         <f>BU31/BT31-1</f>
-        <v>6.333119521060504E-2</v>
+        <v>0.20341466989081858</v>
       </c>
       <c r="BV49" s="55">
         <f>BV31/BU31-1</f>
+        <v>0.24733605309626738</v>
+      </c>
+      <c r="BW49" s="55">
+        <f>BW31/BV31-1</f>
+        <v>0.14156700024408098</v>
+      </c>
+      <c r="BX49" s="55">
+        <f>BX31/BW31-1</f>
+        <v>6.333119521060504E-2</v>
+      </c>
+      <c r="BY49" s="55">
+        <f>BY31/BX31-1</f>
         <v>-1</v>
       </c>
-      <c r="BW49" s="55"/>
-      <c r="BX49" s="55"/>
-      <c r="BY49" s="55"/>
       <c r="BZ49" s="55"/>
       <c r="CA49" s="55"/>
       <c r="CB49" s="55"/>
-      <c r="CC49" s="55">
-        <f t="shared" ref="CC49:CO49" si="87">CC31/CB31-1</f>
+      <c r="CC49" s="55"/>
+      <c r="CD49" s="55"/>
+      <c r="CE49" s="55"/>
+      <c r="CF49" s="55">
+        <f t="shared" ref="CF49:CR49" si="82">CF31/CE31-1</f>
         <v>0.18784325222319942</v>
       </c>
-      <c r="CD49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CG49" s="55">
+        <f t="shared" si="82"/>
         <v>9.164801895485053E-2</v>
       </c>
-      <c r="CE49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CH49" s="55">
+        <f t="shared" si="82"/>
         <v>0.17604678503602322</v>
       </c>
-      <c r="CF49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CI49" s="55">
+        <f t="shared" si="82"/>
         <v>7.1078871145515699E-2</v>
       </c>
-      <c r="CG49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CJ49" s="55">
+        <f t="shared" si="82"/>
         <v>6.262863159910026E-2</v>
       </c>
-      <c r="CH49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CK49" s="55">
+        <f t="shared" si="82"/>
         <v>0.21531202846654507</v>
       </c>
-      <c r="CI49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CL49" s="55">
+        <f t="shared" si="82"/>
         <v>3.5700056519684553E-2</v>
       </c>
-      <c r="CJ49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CM49" s="55">
+        <f t="shared" si="82"/>
         <v>-7.5147611379500212E-4</v>
       </c>
-      <c r="CK49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CN49" s="55">
+        <f t="shared" si="82"/>
         <v>1.208637730984119E-3</v>
       </c>
-      <c r="CL49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CO49" s="55">
+        <f t="shared" si="82"/>
         <v>9.1119635879139071E-2</v>
       </c>
-      <c r="CM49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CP49" s="55">
+        <f t="shared" si="82"/>
         <v>4.0361904918005953E-2</v>
       </c>
-      <c r="CN49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CQ49" s="55">
+        <f t="shared" si="82"/>
         <v>0.10913301718841084</v>
       </c>
-      <c r="CO49" s="55">
-        <f t="shared" si="87"/>
+      <c r="CR49" s="55">
+        <f t="shared" si="82"/>
         <v>0.25677556818181824</v>
       </c>
-      <c r="CP49" s="55"/>
-      <c r="CQ49" s="55"/>
-      <c r="CR49" s="55"/>
       <c r="CS49" s="55"/>
       <c r="CT49" s="55"/>
       <c r="CU49" s="55"/>
       <c r="CV49" s="55"/>
       <c r="CW49" s="55"/>
-      <c r="CX49" s="40"/>
-      <c r="CY49" s="49" t="s">
+      <c r="CX49" s="55"/>
+      <c r="CY49" s="55"/>
+      <c r="CZ49" s="55"/>
+      <c r="DA49" s="40"/>
+      <c r="DB49" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="CZ49" s="50">
+      <c r="DC49" s="50">
         <v>0.02</v>
       </c>
-      <c r="DA49" s="40"/>
-      <c r="DB49" s="40"/>
-      <c r="DC49" s="40"/>
       <c r="DD49" s="40"/>
       <c r="DE49" s="40"/>
       <c r="DF49" s="40"/>
@@ -13672,8 +14029,11 @@
       <c r="EF49" s="40"/>
       <c r="EG49" s="40"/>
       <c r="EH49" s="40"/>
+      <c r="EI49" s="40"/>
+      <c r="EJ49" s="40"/>
+      <c r="EK49" s="40"/>
     </row>
-    <row r="50" spans="2:138" ht="12.75" customHeight="1">
+    <row r="50" spans="2:141" ht="12.75" customHeight="1">
       <c r="B50" s="47" t="s">
         <v>150</v>
       </c>
@@ -13744,11 +14104,11 @@
       <c r="BM50" s="54"/>
       <c r="BN50" s="54"/>
       <c r="BO50" s="54"/>
-      <c r="BP50" s="53"/>
-      <c r="BQ50" s="53"/>
-      <c r="BR50" s="55"/>
-      <c r="BS50" s="55"/>
-      <c r="BT50" s="55"/>
+      <c r="BP50" s="54"/>
+      <c r="BQ50" s="54"/>
+      <c r="BR50" s="54"/>
+      <c r="BS50" s="53"/>
+      <c r="BT50" s="53"/>
       <c r="BU50" s="55"/>
       <c r="BV50" s="55"/>
       <c r="BW50" s="55"/>
@@ -13757,20 +14117,20 @@
       <c r="BZ50" s="55"/>
       <c r="CA50" s="55"/>
       <c r="CB50" s="55"/>
-      <c r="CC50" s="55" t="s">
-        <v>151</v>
-      </c>
+      <c r="CC50" s="55"/>
       <c r="CD50" s="55"/>
       <c r="CE50" s="55"/>
-      <c r="CF50" s="55"/>
+      <c r="CF50" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="CG50" s="55"/>
       <c r="CH50" s="55"/>
-      <c r="CI50" s="40"/>
-      <c r="CJ50" s="40"/>
-      <c r="CK50" s="37"/>
+      <c r="CI50" s="55"/>
+      <c r="CJ50" s="55"/>
+      <c r="CK50" s="55"/>
       <c r="CL50" s="40"/>
       <c r="CM50" s="40"/>
-      <c r="CN50" s="40"/>
+      <c r="CN50" s="37"/>
       <c r="CO50" s="40"/>
       <c r="CP50" s="40"/>
       <c r="CQ50" s="40"/>
@@ -13781,15 +14141,15 @@
       <c r="CV50" s="40"/>
       <c r="CW50" s="40"/>
       <c r="CX50" s="40"/>
-      <c r="CY50" s="49" t="s">
+      <c r="CY50" s="40"/>
+      <c r="CZ50" s="40"/>
+      <c r="DA50" s="40"/>
+      <c r="DB50" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="CZ50" s="50">
+      <c r="DC50" s="50">
         <v>0.1</v>
       </c>
-      <c r="DA50" s="40"/>
-      <c r="DB50" s="40"/>
-      <c r="DC50" s="40"/>
       <c r="DD50" s="40"/>
       <c r="DE50" s="40"/>
       <c r="DF50" s="40"/>
@@ -13821,8 +14181,11 @@
       <c r="EF50" s="40"/>
       <c r="EG50" s="40"/>
       <c r="EH50" s="40"/>
+      <c r="EI50" s="40"/>
+      <c r="EJ50" s="40"/>
+      <c r="EK50" s="40"/>
     </row>
-    <row r="51" spans="2:138" ht="12.75" customHeight="1">
+    <row r="51" spans="2:141" ht="12.75" customHeight="1">
       <c r="B51" s="47" t="s">
         <v>192</v>
       </c>
@@ -13876,65 +14239,68 @@
       <c r="AX51" s="54"/>
       <c r="AY51" s="54"/>
       <c r="AZ51" s="54"/>
-      <c r="BA51" s="54"/>
+      <c r="BA51" s="55">
+        <f t="shared" ref="BA51:BH51" si="83">BA16/AW16-1</f>
+        <v>0.73991031390134521</v>
+      </c>
       <c r="BB51" s="55">
-        <f t="shared" ref="BB51:BN51" si="88">BB16/AX16-1</f>
+        <f t="shared" si="83"/>
         <v>0.41764032073310431</v>
       </c>
       <c r="BC51" s="55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.40105152471083061</v>
       </c>
       <c r="BD51" s="55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.53742762613730366</v>
       </c>
       <c r="BE51" s="55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.63696612665684826</v>
       </c>
       <c r="BF51" s="55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.73173884938590827</v>
       </c>
       <c r="BG51" s="55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.80651456019213441</v>
       </c>
       <c r="BH51" s="55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.9299260255548083</v>
       </c>
       <c r="BI51" s="55">
-        <f>BI16/BE16-1</f>
+        <f t="shared" ref="BI51:BN51" si="84">BI16/BE16-1</f>
         <v>0.84322986954565904</v>
       </c>
       <c r="BJ51" s="55">
-        <f>BJ16/BF16-1</f>
+        <f t="shared" si="84"/>
         <v>0.58417319895483399</v>
       </c>
       <c r="BK51" s="55">
-        <f>BK16/BG16-1</f>
+        <f t="shared" si="84"/>
         <v>0.63190693809721643</v>
       </c>
       <c r="BL51" s="55">
-        <f>BL16/BH16-1</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="84"/>
+        <v>0.54024670708760203</v>
       </c>
       <c r="BM51" s="55">
-        <f>BM16/BI16-1</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="84"/>
+        <v>0.45893837705918239</v>
       </c>
       <c r="BN51" s="55">
-        <f>BN16/BJ16-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="BO51" s="54"/>
-      <c r="BP51" s="53"/>
-      <c r="BQ51" s="53"/>
-      <c r="BR51" s="55"/>
-      <c r="BS51" s="55"/>
-      <c r="BT51" s="55"/>
+        <f t="shared" si="84"/>
+        <v>0.77102968897266733</v>
+      </c>
+      <c r="BO51" s="55"/>
+      <c r="BP51" s="55"/>
+      <c r="BQ51" s="54"/>
+      <c r="BR51" s="54"/>
+      <c r="BS51" s="53"/>
+      <c r="BT51" s="53"/>
       <c r="BU51" s="55"/>
       <c r="BV51" s="55"/>
       <c r="BW51" s="55"/>
@@ -13949,12 +14315,12 @@
       <c r="CF51" s="55"/>
       <c r="CG51" s="55"/>
       <c r="CH51" s="55"/>
-      <c r="CI51" s="40"/>
-      <c r="CJ51" s="40"/>
-      <c r="CK51" s="37"/>
+      <c r="CI51" s="55"/>
+      <c r="CJ51" s="55"/>
+      <c r="CK51" s="55"/>
       <c r="CL51" s="40"/>
       <c r="CM51" s="40"/>
-      <c r="CN51" s="40"/>
+      <c r="CN51" s="37"/>
       <c r="CO51" s="40"/>
       <c r="CP51" s="40"/>
       <c r="CQ51" s="40"/>
@@ -13965,16 +14331,16 @@
       <c r="CV51" s="40"/>
       <c r="CW51" s="40"/>
       <c r="CX51" s="40"/>
-      <c r="CY51" s="49" t="s">
+      <c r="CY51" s="40"/>
+      <c r="CZ51" s="40"/>
+      <c r="DA51" s="40"/>
+      <c r="DB51" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="CZ51" s="46">
-        <f>NPV(CZ50,CE45:ES45)+CD45+Main!J5-Main!J6</f>
+      <c r="DC51" s="46">
+        <f>NPV(DC50,CH45:EV45)+CG45+Main!J5-Main!J6</f>
         <v>115271.49383735584</v>
       </c>
-      <c r="DA51" s="40"/>
-      <c r="DB51" s="40"/>
-      <c r="DC51" s="40"/>
       <c r="DD51" s="40"/>
       <c r="DE51" s="40"/>
       <c r="DF51" s="40"/>
@@ -14006,8 +14372,11 @@
       <c r="EF51" s="40"/>
       <c r="EG51" s="40"/>
       <c r="EH51" s="40"/>
+      <c r="EI51" s="40"/>
+      <c r="EJ51" s="40"/>
+      <c r="EK51" s="40"/>
     </row>
-    <row r="52" spans="2:138" ht="12.75" customHeight="1">
+    <row r="52" spans="2:141" ht="12.75" customHeight="1">
       <c r="B52" s="47" t="s">
         <v>193</v>
       </c>
@@ -14061,33 +14430,36 @@
       <c r="AX52" s="54"/>
       <c r="AY52" s="54"/>
       <c r="AZ52" s="54"/>
-      <c r="BA52" s="54"/>
+      <c r="BA52" s="55">
+        <f t="shared" ref="BA52:BN52" si="85">SUM(BA14:BA19)/SUM(AW14:AW19)-1</f>
+        <v>0.20686531105294947</v>
+      </c>
       <c r="BB52" s="55">
-        <f t="shared" ref="BB52:BN52" si="89">SUM(BB14:BB19)/SUM(AX14:AX19)-1</f>
+        <f t="shared" si="85"/>
         <v>0.15421707873049262</v>
       </c>
       <c r="BC52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.11244806094182835</v>
       </c>
       <c r="BD52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.31081710612130808</v>
       </c>
       <c r="BE52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.35507548586204019</v>
       </c>
       <c r="BF52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.43038359285985561</v>
       </c>
       <c r="BG52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.62026301455139676</v>
       </c>
       <c r="BH52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.62584405430378842</v>
       </c>
       <c r="BI52" s="55">
@@ -14095,31 +14467,31 @@
         <v>0.64341991874923066</v>
       </c>
       <c r="BJ52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.58462110349954854</v>
       </c>
       <c r="BK52" s="55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.66424935164729604</v>
       </c>
       <c r="BL52" s="55">
-        <f t="shared" si="89"/>
-        <v>0.45431057095392147</v>
+        <f t="shared" si="85"/>
+        <v>0.67137361196117862</v>
       </c>
       <c r="BM52" s="55">
-        <f t="shared" si="89"/>
-        <v>0.44140604517023108</v>
+        <f t="shared" si="85"/>
+        <v>0.60642720701149866</v>
       </c>
       <c r="BN52" s="55">
-        <f t="shared" si="89"/>
-        <v>0.40640750670241288</v>
-      </c>
-      <c r="BO52" s="54"/>
-      <c r="BP52" s="53"/>
-      <c r="BQ52" s="53"/>
-      <c r="BR52" s="55"/>
-      <c r="BS52" s="55"/>
-      <c r="BT52" s="55"/>
+        <f t="shared" si="85"/>
+        <v>0.64175603217158184</v>
+      </c>
+      <c r="BO52" s="55"/>
+      <c r="BP52" s="55"/>
+      <c r="BQ52" s="54"/>
+      <c r="BR52" s="54"/>
+      <c r="BS52" s="53"/>
+      <c r="BT52" s="53"/>
       <c r="BU52" s="55"/>
       <c r="BV52" s="55"/>
       <c r="BW52" s="55"/>
@@ -14134,12 +14506,12 @@
       <c r="CF52" s="55"/>
       <c r="CG52" s="55"/>
       <c r="CH52" s="55"/>
-      <c r="CI52" s="40"/>
-      <c r="CJ52" s="40"/>
-      <c r="CK52" s="37"/>
+      <c r="CI52" s="55"/>
+      <c r="CJ52" s="55"/>
+      <c r="CK52" s="55"/>
       <c r="CL52" s="40"/>
       <c r="CM52" s="40"/>
-      <c r="CN52" s="40"/>
+      <c r="CN52" s="37"/>
       <c r="CO52" s="40"/>
       <c r="CP52" s="40"/>
       <c r="CQ52" s="40"/>
@@ -14150,16 +14522,16 @@
       <c r="CV52" s="40"/>
       <c r="CW52" s="40"/>
       <c r="CX52" s="40"/>
-      <c r="CY52" s="37" t="s">
+      <c r="CY52" s="40"/>
+      <c r="CZ52" s="40"/>
+      <c r="DA52" s="40"/>
+      <c r="DB52" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="CZ52" s="52">
-        <f>CZ51/Main!$J$3</f>
+      <c r="DC52" s="52">
+        <f>DC51/Main!$J$3</f>
         <v>51.081934697046819</v>
       </c>
-      <c r="DA52" s="40"/>
-      <c r="DB52" s="40"/>
-      <c r="DC52" s="40"/>
       <c r="DD52" s="40"/>
       <c r="DE52" s="40"/>
       <c r="DF52" s="40"/>
@@ -14191,8 +14563,11 @@
       <c r="EF52" s="40"/>
       <c r="EG52" s="40"/>
       <c r="EH52" s="40"/>
+      <c r="EI52" s="40"/>
+      <c r="EJ52" s="40"/>
+      <c r="EK52" s="40"/>
     </row>
-    <row r="53" spans="2:138" ht="12.75" customHeight="1">
+    <row r="53" spans="2:141" ht="12.75" customHeight="1">
       <c r="B53" s="47" t="s">
         <v>200</v>
       </c>
@@ -14246,33 +14621,36 @@
       <c r="AX53" s="54"/>
       <c r="AY53" s="54"/>
       <c r="AZ53" s="54"/>
-      <c r="BA53" s="54"/>
+      <c r="BA53" s="55">
+        <f t="shared" ref="BA53:BN53" si="86">BA19/AW19-1</f>
+        <v>-7.2122052704576944E-2</v>
+      </c>
       <c r="BB53" s="55">
-        <f t="shared" ref="BB53:BN53" si="90">BB19/AX19-1</f>
+        <f t="shared" si="86"/>
         <v>-0.11445012787723785</v>
       </c>
       <c r="BC53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>-1.6487000634115456E-2</v>
       </c>
       <c r="BD53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.52293577981651373</v>
       </c>
       <c r="BE53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.79222720478325859</v>
       </c>
       <c r="BF53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.77545126353790605</v>
       </c>
       <c r="BG53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.28820116054158618</v>
       </c>
       <c r="BH53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.23594377510040165</v>
       </c>
       <c r="BI53" s="55">
@@ -14280,7 +14658,7 @@
         <v>0.32360300250208507</v>
       </c>
       <c r="BJ53" s="55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.23708824725498179</v>
       </c>
       <c r="BK53" s="55">
@@ -14288,23 +14666,23 @@
         <v>0.64114114114114118</v>
       </c>
       <c r="BL53" s="55">
-        <f t="shared" si="90"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="86"/>
+        <v>0.13241267262388301</v>
       </c>
       <c r="BM53" s="55">
-        <f t="shared" si="90"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="86"/>
+        <v>-0.17863894139886582</v>
       </c>
       <c r="BN53" s="55">
-        <f t="shared" si="90"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="BO53" s="54"/>
-      <c r="BP53" s="53"/>
-      <c r="BQ53" s="53"/>
-      <c r="BR53" s="55"/>
-      <c r="BS53" s="55"/>
-      <c r="BT53" s="55"/>
+        <f t="shared" si="86"/>
+        <v>-0.46909927679158447</v>
+      </c>
+      <c r="BO53" s="55"/>
+      <c r="BP53" s="55"/>
+      <c r="BQ53" s="54"/>
+      <c r="BR53" s="54"/>
+      <c r="BS53" s="53"/>
+      <c r="BT53" s="53"/>
       <c r="BU53" s="55"/>
       <c r="BV53" s="55"/>
       <c r="BW53" s="55"/>
@@ -14319,12 +14697,12 @@
       <c r="CF53" s="55"/>
       <c r="CG53" s="55"/>
       <c r="CH53" s="55"/>
-      <c r="CI53" s="40"/>
-      <c r="CJ53" s="40"/>
-      <c r="CK53" s="37"/>
+      <c r="CI53" s="55"/>
+      <c r="CJ53" s="55"/>
+      <c r="CK53" s="55"/>
       <c r="CL53" s="40"/>
       <c r="CM53" s="40"/>
-      <c r="CN53" s="40"/>
+      <c r="CN53" s="37"/>
       <c r="CO53" s="40"/>
       <c r="CP53" s="40"/>
       <c r="CQ53" s="40"/>
@@ -14335,11 +14713,11 @@
       <c r="CV53" s="40"/>
       <c r="CW53" s="40"/>
       <c r="CX53" s="40"/>
-      <c r="CY53" s="37"/>
-      <c r="CZ53" s="52"/>
+      <c r="CY53" s="40"/>
+      <c r="CZ53" s="40"/>
       <c r="DA53" s="40"/>
-      <c r="DB53" s="40"/>
-      <c r="DC53" s="40"/>
+      <c r="DB53" s="37"/>
+      <c r="DC53" s="52"/>
       <c r="DD53" s="40"/>
       <c r="DE53" s="40"/>
       <c r="DF53" s="40"/>
@@ -14371,8 +14749,11 @@
       <c r="EF53" s="40"/>
       <c r="EG53" s="40"/>
       <c r="EH53" s="40"/>
+      <c r="EI53" s="40"/>
+      <c r="EJ53" s="40"/>
+      <c r="EK53" s="40"/>
     </row>
-    <row r="54" spans="2:138" ht="12.75" customHeight="1">
+    <row r="54" spans="2:141" ht="12.75" customHeight="1">
       <c r="B54" s="47" t="s">
         <v>195</v>
       </c>
@@ -14426,33 +14807,36 @@
       <c r="AX54" s="54"/>
       <c r="AY54" s="54"/>
       <c r="AZ54" s="54"/>
-      <c r="BA54" s="54"/>
+      <c r="BA54" s="55">
+        <f t="shared" ref="BA54:BN54" si="87">BA12/AW12-1</f>
+        <v>-7.4634078983706109E-2</v>
+      </c>
       <c r="BB54" s="55">
-        <f t="shared" ref="BB54:BN54" si="91">BB12/AX12-1</f>
+        <f t="shared" si="87"/>
         <v>-8.5865700677534074E-2</v>
       </c>
       <c r="BC54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>-6.5853965062209419E-2</v>
       </c>
       <c r="BD54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>-3.3000146993973245E-2</v>
       </c>
       <c r="BE54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>4.5288368275759217E-2</v>
       </c>
       <c r="BF54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>2.5390768327584912E-2</v>
       </c>
       <c r="BG54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>6.4576886855913784E-3</v>
       </c>
       <c r="BH54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>-6.1868207038078604E-2</v>
       </c>
       <c r="BI54" s="55">
@@ -14460,31 +14844,31 @@
         <v>-7.487508922198427E-2</v>
       </c>
       <c r="BJ54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>-9.2106204823588333E-2</v>
       </c>
       <c r="BK54" s="55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>-0.1037962839192621</v>
       </c>
       <c r="BL54" s="55">
-        <f t="shared" si="91"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="87"/>
+        <v>-8.5473547759863933E-2</v>
       </c>
       <c r="BM54" s="55">
-        <f t="shared" si="91"/>
-        <v>-9.9999999999999867E-2</v>
+        <f t="shared" si="87"/>
+        <v>-0.12468173752025302</v>
       </c>
       <c r="BN54" s="55">
-        <f t="shared" si="91"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="BO54" s="54"/>
-      <c r="BP54" s="53"/>
-      <c r="BQ54" s="53"/>
-      <c r="BR54" s="55"/>
-      <c r="BS54" s="55"/>
-      <c r="BT54" s="55"/>
+        <f t="shared" si="87"/>
+        <v>-5.565189973198803E-2</v>
+      </c>
+      <c r="BO54" s="55"/>
+      <c r="BP54" s="55"/>
+      <c r="BQ54" s="54"/>
+      <c r="BR54" s="54"/>
+      <c r="BS54" s="53"/>
+      <c r="BT54" s="53"/>
       <c r="BU54" s="55"/>
       <c r="BV54" s="55"/>
       <c r="BW54" s="55"/>
@@ -14499,12 +14883,12 @@
       <c r="CF54" s="55"/>
       <c r="CG54" s="55"/>
       <c r="CH54" s="55"/>
-      <c r="CI54" s="40"/>
-      <c r="CJ54" s="40"/>
-      <c r="CK54" s="37"/>
+      <c r="CI54" s="55"/>
+      <c r="CJ54" s="55"/>
+      <c r="CK54" s="55"/>
       <c r="CL54" s="40"/>
       <c r="CM54" s="40"/>
-      <c r="CN54" s="40"/>
+      <c r="CN54" s="37"/>
       <c r="CO54" s="40"/>
       <c r="CP54" s="40"/>
       <c r="CQ54" s="40"/>
@@ -14515,11 +14899,11 @@
       <c r="CV54" s="40"/>
       <c r="CW54" s="40"/>
       <c r="CX54" s="40"/>
-      <c r="CY54" s="37"/>
-      <c r="CZ54" s="52"/>
+      <c r="CY54" s="40"/>
+      <c r="CZ54" s="40"/>
       <c r="DA54" s="40"/>
-      <c r="DB54" s="40"/>
-      <c r="DC54" s="40"/>
+      <c r="DB54" s="37"/>
+      <c r="DC54" s="52"/>
       <c r="DD54" s="40"/>
       <c r="DE54" s="40"/>
       <c r="DF54" s="40"/>
@@ -14551,57 +14935,60 @@
       <c r="EF54" s="40"/>
       <c r="EG54" s="40"/>
       <c r="EH54" s="40"/>
+      <c r="EI54" s="40"/>
+      <c r="EJ54" s="40"/>
+      <c r="EK54" s="40"/>
     </row>
-    <row r="55" spans="2:138" ht="12.75" customHeight="1">
+    <row r="55" spans="2:141" ht="12.75" customHeight="1">
       <c r="B55" s="37" t="s">
         <v>152</v>
       </c>
       <c r="C55" s="56">
-        <f t="shared" ref="C55:N55" si="92">C33/C31</f>
+        <f t="shared" ref="C55:N55" si="88">C33/C31</f>
         <v>0.77265875259091765</v>
       </c>
       <c r="D55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.77011701170117008</v>
       </c>
       <c r="E55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.76827316379157029</v>
       </c>
       <c r="F55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.79845823730429943</v>
       </c>
       <c r="G55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.79932789246279401</v>
       </c>
       <c r="H55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.79924621182985922</v>
       </c>
       <c r="I55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.78373854125149467</v>
       </c>
       <c r="J55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.79468028351497599</v>
       </c>
       <c r="K55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.80327629077080587</v>
       </c>
       <c r="L55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.80713264908405868</v>
       </c>
       <c r="M55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.8116016427104723</v>
       </c>
       <c r="N55" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.8</v>
       </c>
       <c r="O55" s="56"/>
@@ -14640,39 +15027,39 @@
       <c r="AV55" s="56"/>
       <c r="AW55" s="56"/>
       <c r="AX55" s="56">
-        <f t="shared" ref="AX55" si="93">AX33/AX31</f>
+        <f t="shared" ref="AX55" si="89">AX33/AX31</f>
         <v>0.83243359965450225</v>
       </c>
       <c r="AY55" s="56">
-        <f t="shared" ref="AY55:BB55" si="94">AY33/AY31</f>
+        <f t="shared" ref="AY55:BB55" si="90">AY33/AY31</f>
         <v>0.84100369003690034</v>
       </c>
       <c r="AZ55" s="56">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>0.84096514030527225</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>0.83331716623015484</v>
       </c>
       <c r="BB55" s="56">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>0.8251602464372394</v>
       </c>
       <c r="BC55" s="56">
-        <f t="shared" ref="BC55:BF55" si="95">BC33/BC31</f>
+        <f t="shared" ref="BC55:BF55" si="91">BC33/BC31</f>
         <v>0.82809726659566918</v>
       </c>
       <c r="BD55" s="56">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>0.83211767198329345</v>
       </c>
       <c r="BE55" s="56">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>0.82990848352141933</v>
       </c>
       <c r="BF55" s="56">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>0.83718988860772703</v>
       </c>
       <c r="BG55" s="56">
@@ -14680,7 +15067,7 @@
         <v>0.83543099141110133</v>
       </c>
       <c r="BH55" s="56">
-        <f t="shared" ref="BH55:BN55" si="96">BH33/BH31</f>
+        <f t="shared" ref="BH55:BN55" si="92">BH33/BH31</f>
         <v>0.85292620865139945</v>
       </c>
       <c r="BI55" s="56">
@@ -14688,29 +15075,29 @@
         <v>0.8419874467804942</v>
       </c>
       <c r="BJ55" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0.85</v>
       </c>
       <c r="BK55" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0.8600000000000001</v>
       </c>
       <c r="BL55" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0.86</v>
       </c>
       <c r="BM55" s="56">
-        <f t="shared" si="96"/>
-        <v>0.86999999999999988</v>
+        <f t="shared" si="92"/>
+        <v>0.87</v>
       </c>
       <c r="BN55" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0.87</v>
       </c>
       <c r="BO55" s="56"/>
-      <c r="BP55" s="39"/>
-      <c r="BQ55" s="39"/>
-      <c r="BR55" s="39"/>
+      <c r="BP55" s="56"/>
+      <c r="BQ55" s="56"/>
+      <c r="BR55" s="56"/>
       <c r="BS55" s="39"/>
       <c r="BT55" s="39"/>
       <c r="BU55" s="39"/>
@@ -14720,76 +15107,76 @@
       <c r="BY55" s="39"/>
       <c r="BZ55" s="39"/>
       <c r="CA55" s="39"/>
-      <c r="CB55" s="56">
-        <f t="shared" ref="CB55:CP55" si="97">CB33/CB31</f>
+      <c r="CB55" s="39"/>
+      <c r="CC55" s="39"/>
+      <c r="CD55" s="39"/>
+      <c r="CE55" s="56">
+        <f t="shared" ref="CE55:CS55" si="93">CE33/CE31</f>
         <v>0.79429297371249874</v>
       </c>
-      <c r="CC55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CF55" s="56">
+        <f t="shared" si="93"/>
         <v>0.80781887587205481</v>
       </c>
-      <c r="CD55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CG55" s="56">
+        <f t="shared" si="93"/>
         <v>0.81025231362855332</v>
       </c>
-      <c r="CE55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CH55" s="56">
+        <f t="shared" si="93"/>
         <v>0.82742931843231748</v>
       </c>
-      <c r="CF55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CI55" s="56">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="CG55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CJ55" s="56">
+        <f t="shared" si="93"/>
         <v>0.83602459293290998</v>
       </c>
-      <c r="CH55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CK55" s="56">
+        <f t="shared" si="93"/>
         <v>0.85000972879816916</v>
       </c>
-      <c r="CI55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CL55" s="56">
+        <f t="shared" si="93"/>
         <v>0.84627840400787258</v>
       </c>
-      <c r="CJ55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CM55" s="56">
+        <f t="shared" si="93"/>
         <v>0.84214295946139517</v>
       </c>
-      <c r="CK55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CN55" s="56">
+        <f t="shared" si="93"/>
         <v>0.84246765208215968</v>
       </c>
-      <c r="CL55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CO55" s="56">
+        <f t="shared" si="93"/>
         <v>0.8353725997983954</v>
       </c>
-      <c r="CM55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CP55" s="56">
+        <f t="shared" si="93"/>
         <v>0.83511099207537065</v>
       </c>
-      <c r="CN55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CQ55" s="56">
+        <f t="shared" si="93"/>
         <v>0.83197443181818187</v>
       </c>
-      <c r="CO55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CR55" s="56">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="CP55" s="56">
-        <f t="shared" si="97"/>
+      <c r="CS55" s="56">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="CQ55" s="56"/>
-      <c r="CR55" s="56"/>
-      <c r="CS55" s="56"/>
       <c r="CT55" s="56"/>
       <c r="CU55" s="56"/>
       <c r="CV55" s="56"/>
       <c r="CW55" s="56"/>
-      <c r="CX55" s="40"/>
-      <c r="CY55" s="40"/>
-      <c r="CZ55" s="40"/>
+      <c r="CX55" s="56"/>
+      <c r="CY55" s="56"/>
+      <c r="CZ55" s="56"/>
       <c r="DA55" s="40"/>
       <c r="DB55" s="40"/>
       <c r="DC55" s="40"/>
@@ -14824,8 +15211,11 @@
       <c r="EF55" s="40"/>
       <c r="EG55" s="40"/>
       <c r="EH55" s="40"/>
+      <c r="EI55" s="40"/>
+      <c r="EJ55" s="40"/>
+      <c r="EK55" s="40"/>
     </row>
-    <row r="56" spans="2:138" ht="12.75" customHeight="1">
+    <row r="56" spans="2:141" ht="12.75" customHeight="1">
       <c r="B56" s="37" t="s">
         <v>206</v>
       </c>
@@ -14877,23 +15267,23 @@
       <c r="AV56" s="56"/>
       <c r="AW56" s="56"/>
       <c r="AX56" s="56">
-        <f t="shared" ref="AX56" si="98">+AX34/AX31</f>
+        <f t="shared" ref="AX56" si="94">+AX34/AX31</f>
         <v>0.29416664095999012</v>
       </c>
       <c r="AY56" s="56">
-        <f t="shared" ref="AY56:BB56" si="99">+AY34/AY31</f>
+        <f t="shared" ref="AY56:BB56" si="95">+AY34/AY31</f>
         <v>0.22405904059040591</v>
       </c>
       <c r="AZ56" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.24655068986202761</v>
       </c>
       <c r="BA56" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.26429980276134124</v>
       </c>
       <c r="BB56" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.30387703030680191</v>
       </c>
       <c r="BC56" s="56">
@@ -14901,23 +15291,23 @@
         <v>0.24423145189918352</v>
       </c>
       <c r="BD56" s="56">
-        <f t="shared" ref="BD56:BN56" si="100">+BD34/BD31</f>
+        <f t="shared" ref="BD56:BN56" si="96">+BD34/BD31</f>
         <v>0.24215368784237765</v>
       </c>
       <c r="BE56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.25599348717084947</v>
       </c>
       <c r="BF56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.30344611692275586</v>
       </c>
       <c r="BG56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.24227355999143491</v>
       </c>
       <c r="BH56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.26269235429540772</v>
       </c>
       <c r="BI56" s="56">
@@ -14925,29 +15315,29 @@
         <v>0.25130579818285564</v>
       </c>
       <c r="BJ56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.3</v>
       </c>
       <c r="BK56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.24</v>
       </c>
       <c r="BL56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.24</v>
       </c>
       <c r="BM56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.26</v>
       </c>
       <c r="BN56" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.3</v>
       </c>
       <c r="BO56" s="56"/>
-      <c r="BP56" s="39"/>
-      <c r="BQ56" s="39"/>
-      <c r="BR56" s="39"/>
+      <c r="BP56" s="56"/>
+      <c r="BQ56" s="56"/>
+      <c r="BR56" s="56"/>
       <c r="BS56" s="39"/>
       <c r="BT56" s="39"/>
       <c r="BU56" s="39"/>
@@ -14957,16 +15347,16 @@
       <c r="BY56" s="39"/>
       <c r="BZ56" s="39"/>
       <c r="CA56" s="39"/>
-      <c r="CB56" s="56"/>
-      <c r="CC56" s="56"/>
-      <c r="CD56" s="56"/>
+      <c r="CB56" s="39"/>
+      <c r="CC56" s="39"/>
+      <c r="CD56" s="39"/>
       <c r="CE56" s="56"/>
       <c r="CF56" s="56"/>
       <c r="CG56" s="56"/>
       <c r="CH56" s="56"/>
-      <c r="CI56" s="40"/>
-      <c r="CJ56" s="40"/>
-      <c r="CK56" s="40"/>
+      <c r="CI56" s="56"/>
+      <c r="CJ56" s="56"/>
+      <c r="CK56" s="56"/>
       <c r="CL56" s="40"/>
       <c r="CM56" s="40"/>
       <c r="CN56" s="40"/>
@@ -15016,8 +15406,11 @@
       <c r="EF56" s="40"/>
       <c r="EG56" s="40"/>
       <c r="EH56" s="40"/>
+      <c r="EI56" s="40"/>
+      <c r="EJ56" s="40"/>
+      <c r="EK56" s="40"/>
     </row>
-    <row r="57" spans="2:138" ht="12.75" customHeight="1">
+    <row r="57" spans="2:141" ht="12.75" customHeight="1">
       <c r="B57" s="37" t="s">
         <v>207</v>
       </c>
@@ -15069,7 +15462,7 @@
       <c r="AV57" s="56"/>
       <c r="AW57" s="56"/>
       <c r="AX57" s="56">
-        <f t="shared" ref="AX57" si="101">+AX35/AX31</f>
+        <f t="shared" ref="AX57" si="97">+AX35/AX31</f>
         <v>0.13523768393127064</v>
       </c>
       <c r="AY57" s="56">
@@ -15077,39 +15470,39 @@
         <v>0.11149815498154982</v>
       </c>
       <c r="AZ57" s="56">
-        <f t="shared" ref="AZ57:BN57" si="102">+AZ35/AZ31</f>
+        <f t="shared" ref="AZ57:BN57" si="98">+AZ35/AZ31</f>
         <v>0.10967806438712258</v>
       </c>
       <c r="BA57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.12645908106185533</v>
       </c>
       <c r="BB57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.13949218993092288</v>
       </c>
       <c r="BC57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11667258312625725</v>
       </c>
       <c r="BD57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11936684725038589</v>
       </c>
       <c r="BE57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11936443770703498</v>
       </c>
       <c r="BF57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.14692301672188454</v>
       </c>
       <c r="BG57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.12386095976779044</v>
       </c>
       <c r="BH57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.124148794377802</v>
       </c>
       <c r="BI57" s="56">
@@ -15117,29 +15510,29 @@
         <v>0.12362287670631611</v>
       </c>
       <c r="BJ57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11</v>
       </c>
       <c r="BK57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11</v>
       </c>
       <c r="BL57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11</v>
       </c>
       <c r="BM57" s="56">
-        <f t="shared" si="102"/>
-        <v>0.11000000000000001</v>
+        <f t="shared" si="98"/>
+        <v>0.11</v>
       </c>
       <c r="BN57" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.11</v>
       </c>
       <c r="BO57" s="56"/>
-      <c r="BP57" s="39"/>
-      <c r="BQ57" s="39"/>
-      <c r="BR57" s="39"/>
+      <c r="BP57" s="56"/>
+      <c r="BQ57" s="56"/>
+      <c r="BR57" s="56"/>
       <c r="BS57" s="39"/>
       <c r="BT57" s="39"/>
       <c r="BU57" s="39"/>
@@ -15149,16 +15542,16 @@
       <c r="BY57" s="39"/>
       <c r="BZ57" s="39"/>
       <c r="CA57" s="39"/>
-      <c r="CB57" s="56"/>
-      <c r="CC57" s="56"/>
-      <c r="CD57" s="56"/>
+      <c r="CB57" s="39"/>
+      <c r="CC57" s="39"/>
+      <c r="CD57" s="39"/>
       <c r="CE57" s="56"/>
       <c r="CF57" s="56"/>
       <c r="CG57" s="56"/>
       <c r="CH57" s="56"/>
-      <c r="CI57" s="40"/>
-      <c r="CJ57" s="40"/>
-      <c r="CK57" s="40"/>
+      <c r="CI57" s="56"/>
+      <c r="CJ57" s="56"/>
+      <c r="CK57" s="56"/>
       <c r="CL57" s="40"/>
       <c r="CM57" s="40"/>
       <c r="CN57" s="40"/>
@@ -15208,8 +15601,11 @@
       <c r="EF57" s="40"/>
       <c r="EG57" s="40"/>
       <c r="EH57" s="40"/>
+      <c r="EI57" s="40"/>
+      <c r="EJ57" s="40"/>
+      <c r="EK57" s="40"/>
     </row>
-    <row r="58" spans="2:138" ht="12.75" customHeight="1">
+    <row r="58" spans="2:141" ht="12.75" customHeight="1">
       <c r="B58" s="37" t="s">
         <v>153</v>
       </c>
@@ -15218,43 +15614,43 @@
         <v>0.42991631799163182</v>
       </c>
       <c r="D58" s="56">
-        <f t="shared" ref="D58:M58" si="103">D44/D43</f>
+        <f t="shared" ref="D58:M58" si="99">D44/D43</f>
         <v>0.27451556077510275</v>
       </c>
       <c r="E58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.25752508361204013</v>
       </c>
       <c r="F58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.24104234527687296</v>
       </c>
       <c r="G58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.22995720399429387</v>
       </c>
       <c r="H58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.22991761071060762</v>
       </c>
       <c r="I58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.23620737454948712</v>
       </c>
       <c r="J58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.22359625668449198</v>
       </c>
       <c r="K58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.23002084781097984</v>
       </c>
       <c r="L58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.23003472222222221</v>
       </c>
       <c r="M58" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>0.23002577319587628</v>
       </c>
       <c r="N58" s="56">
@@ -15297,43 +15693,43 @@
       <c r="AV58" s="56"/>
       <c r="AW58" s="56"/>
       <c r="AX58" s="56">
-        <f t="shared" ref="AX58" si="104">+AX44/AX43</f>
+        <f t="shared" ref="AX58" si="100">+AX44/AX43</f>
         <v>0.21319613683545446</v>
       </c>
       <c r="AY58" s="56">
-        <f t="shared" ref="AY58:BB58" si="105">+AY44/AY43</f>
+        <f t="shared" ref="AY58:BB58" si="101">+AY44/AY43</f>
         <v>0.20797550096531522</v>
       </c>
       <c r="AZ58" s="56">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v>0.20803518187239117</v>
       </c>
       <c r="BA58" s="56">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v>0.18855882121188244</v>
       </c>
       <c r="BB58" s="56">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v>0.22362939510081653</v>
       </c>
       <c r="BC58" s="56">
-        <f t="shared" ref="BC58:BG58" si="106">+BC44/BC43</f>
+        <f t="shared" ref="BC58:BG58" si="102">+BC44/BC43</f>
         <v>0.20799347471451876</v>
       </c>
       <c r="BD58" s="56">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>0.18730307702621171</v>
       </c>
       <c r="BE58" s="56">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>0.19805452620434091</v>
       </c>
       <c r="BF58" s="56">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>0.16937390375962785</v>
       </c>
       <c r="BG58" s="56">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>0.20698699704224566</v>
       </c>
       <c r="BH58" s="56">
@@ -15345,29 +15741,29 @@
         <v>0.20114241348713399</v>
       </c>
       <c r="BJ58" s="56">
-        <f t="shared" ref="BJ58:BN58" si="107">+BJ44/BJ43</f>
+        <f t="shared" ref="BJ58:BN58" si="103">+BJ44/BJ43</f>
         <v>0.2</v>
       </c>
       <c r="BK58" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v>0.2</v>
       </c>
       <c r="BL58" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BM58" s="56">
+        <f t="shared" si="103"/>
         <v>0.2</v>
       </c>
-      <c r="BM58" s="56">
-        <f t="shared" si="107"/>
-        <v>0.20000000000000004</v>
-      </c>
       <c r="BN58" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v>0.2</v>
       </c>
       <c r="BO58" s="56"/>
-      <c r="BP58" s="39"/>
-      <c r="BQ58" s="39"/>
-      <c r="BR58" s="39"/>
+      <c r="BP58" s="56"/>
+      <c r="BQ58" s="56"/>
+      <c r="BR58" s="56"/>
       <c r="BS58" s="39"/>
       <c r="BT58" s="39"/>
       <c r="BU58" s="39"/>
@@ -15384,9 +15780,9 @@
       <c r="CF58" s="39"/>
       <c r="CG58" s="39"/>
       <c r="CH58" s="39"/>
-      <c r="CI58" s="40"/>
-      <c r="CJ58" s="40"/>
-      <c r="CK58" s="40"/>
+      <c r="CI58" s="39"/>
+      <c r="CJ58" s="39"/>
+      <c r="CK58" s="39"/>
       <c r="CL58" s="40"/>
       <c r="CM58" s="40"/>
       <c r="CN58" s="40"/>
@@ -15436,8 +15832,11 @@
       <c r="EF58" s="40"/>
       <c r="EG58" s="40"/>
       <c r="EH58" s="40"/>
+      <c r="EI58" s="40"/>
+      <c r="EJ58" s="40"/>
+      <c r="EK58" s="40"/>
     </row>
-    <row r="59" spans="2:138" ht="12.75" customHeight="1">
+    <row r="59" spans="2:141" ht="12.75" customHeight="1">
       <c r="B59" s="37" t="s">
         <v>154</v>
       </c>
@@ -15446,35 +15845,35 @@
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="56">
-        <f t="shared" ref="G59:N59" si="108">+G46/C46-1</f>
+        <f t="shared" ref="G59:N59" si="104">+G46/C46-1</f>
         <v>0.26555470372527656</v>
       </c>
       <c r="H59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>0.2317467921523495</v>
       </c>
       <c r="I59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>5.6513780158608862E-2</v>
       </c>
       <c r="J59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>2.9156860030458143E-2</v>
       </c>
       <c r="K59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>0.27248103257280354</v>
       </c>
       <c r="L59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>0.2244971740943098</v>
       </c>
       <c r="M59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>0.34395333855076848</v>
       </c>
       <c r="N59" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>0.59020839337398123</v>
       </c>
       <c r="O59" s="56"/>
@@ -15530,9 +15929,9 @@
       <c r="BM59" s="56"/>
       <c r="BN59" s="56"/>
       <c r="BO59" s="56"/>
-      <c r="BP59" s="39"/>
-      <c r="BQ59" s="39"/>
-      <c r="BR59" s="39"/>
+      <c r="BP59" s="56"/>
+      <c r="BQ59" s="56"/>
+      <c r="BR59" s="56"/>
       <c r="BS59" s="39"/>
       <c r="BT59" s="39"/>
       <c r="BU59" s="39"/>
@@ -15549,9 +15948,9 @@
       <c r="CF59" s="39"/>
       <c r="CG59" s="39"/>
       <c r="CH59" s="39"/>
-      <c r="CI59" s="40"/>
-      <c r="CJ59" s="40"/>
-      <c r="CK59" s="40"/>
+      <c r="CI59" s="39"/>
+      <c r="CJ59" s="39"/>
+      <c r="CK59" s="39"/>
       <c r="CL59" s="40"/>
       <c r="CM59" s="40"/>
       <c r="CN59" s="40"/>
@@ -15601,8 +16000,11 @@
       <c r="EF59" s="40"/>
       <c r="EG59" s="40"/>
       <c r="EH59" s="40"/>
+      <c r="EI59" s="40"/>
+      <c r="EJ59" s="40"/>
+      <c r="EK59" s="40"/>
     </row>
-    <row r="61" spans="2:138" ht="12.75" customHeight="1">
+    <row r="61" spans="2:141" ht="12.75" customHeight="1">
       <c r="B61" s="37" t="s">
         <v>155</v>
       </c>
@@ -15692,9 +16094,9 @@
       <c r="CF61" s="39"/>
       <c r="CG61" s="39"/>
       <c r="CH61" s="39"/>
-      <c r="CI61" s="40"/>
-      <c r="CJ61" s="40"/>
-      <c r="CK61" s="40"/>
+      <c r="CI61" s="39"/>
+      <c r="CJ61" s="39"/>
+      <c r="CK61" s="39"/>
       <c r="CL61" s="40"/>
       <c r="CM61" s="40"/>
       <c r="CN61" s="40"/>
@@ -15744,8 +16146,11 @@
       <c r="EF61" s="40"/>
       <c r="EG61" s="40"/>
       <c r="EH61" s="40"/>
+      <c r="EI61" s="40"/>
+      <c r="EJ61" s="40"/>
+      <c r="EK61" s="40"/>
     </row>
-    <row r="63" spans="2:138" ht="12.75" customHeight="1">
+    <row r="63" spans="2:141" ht="12.75" customHeight="1">
       <c r="B63" s="37" t="s">
         <v>156</v>
       </c>
@@ -15835,9 +16240,9 @@
       <c r="CF63" s="39"/>
       <c r="CG63" s="39"/>
       <c r="CH63" s="39"/>
-      <c r="CI63" s="40"/>
-      <c r="CJ63" s="40"/>
-      <c r="CK63" s="40"/>
+      <c r="CI63" s="39"/>
+      <c r="CJ63" s="39"/>
+      <c r="CK63" s="39"/>
       <c r="CL63" s="40"/>
       <c r="CM63" s="40"/>
       <c r="CN63" s="40"/>
@@ -15887,8 +16292,11 @@
       <c r="EF63" s="40"/>
       <c r="EG63" s="40"/>
       <c r="EH63" s="40"/>
+      <c r="EI63" s="40"/>
+      <c r="EJ63" s="40"/>
+      <c r="EK63" s="40"/>
     </row>
-    <row r="64" spans="2:138" ht="12.75" customHeight="1">
+    <row r="64" spans="2:141" ht="12.75" customHeight="1">
       <c r="B64" s="37" t="s">
         <v>157</v>
       </c>
@@ -15978,9 +16386,9 @@
       <c r="CF64" s="39"/>
       <c r="CG64" s="39"/>
       <c r="CH64" s="39"/>
-      <c r="CI64" s="40"/>
-      <c r="CJ64" s="40"/>
-      <c r="CK64" s="40"/>
+      <c r="CI64" s="39"/>
+      <c r="CJ64" s="39"/>
+      <c r="CK64" s="39"/>
       <c r="CL64" s="40"/>
       <c r="CM64" s="40"/>
       <c r="CN64" s="40"/>
@@ -16030,8 +16438,11 @@
       <c r="EF64" s="40"/>
       <c r="EG64" s="40"/>
       <c r="EH64" s="40"/>
+      <c r="EI64" s="40"/>
+      <c r="EJ64" s="40"/>
+      <c r="EK64" s="40"/>
     </row>
-    <row r="65" spans="2:138" ht="12.75" customHeight="1">
+    <row r="65" spans="2:141" ht="12.75" customHeight="1">
       <c r="B65" s="37" t="s">
         <v>158</v>
       </c>
@@ -16121,9 +16532,9 @@
       <c r="CF65" s="39"/>
       <c r="CG65" s="39"/>
       <c r="CH65" s="39"/>
-      <c r="CI65" s="40"/>
-      <c r="CJ65" s="40"/>
-      <c r="CK65" s="40"/>
+      <c r="CI65" s="39"/>
+      <c r="CJ65" s="39"/>
+      <c r="CK65" s="39"/>
       <c r="CL65" s="40"/>
       <c r="CM65" s="40"/>
       <c r="CN65" s="40"/>
@@ -16173,8 +16584,11 @@
       <c r="EF65" s="40"/>
       <c r="EG65" s="40"/>
       <c r="EH65" s="40"/>
+      <c r="EI65" s="40"/>
+      <c r="EJ65" s="40"/>
+      <c r="EK65" s="40"/>
     </row>
-    <row r="66" spans="2:138" ht="12.75" customHeight="1">
+    <row r="66" spans="2:141" ht="12.75" customHeight="1">
       <c r="B66" s="37" t="s">
         <v>159</v>
       </c>
@@ -16264,9 +16678,9 @@
       <c r="CF66" s="39"/>
       <c r="CG66" s="39"/>
       <c r="CH66" s="39"/>
-      <c r="CI66" s="40"/>
-      <c r="CJ66" s="40"/>
-      <c r="CK66" s="40"/>
+      <c r="CI66" s="39"/>
+      <c r="CJ66" s="39"/>
+      <c r="CK66" s="39"/>
       <c r="CL66" s="40"/>
       <c r="CM66" s="40"/>
       <c r="CN66" s="40"/>
@@ -16316,8 +16730,11 @@
       <c r="EF66" s="40"/>
       <c r="EG66" s="40"/>
       <c r="EH66" s="40"/>
+      <c r="EI66" s="40"/>
+      <c r="EJ66" s="40"/>
+      <c r="EK66" s="40"/>
     </row>
-    <row r="68" spans="2:138" ht="12.75" customHeight="1">
+    <row r="68" spans="2:141" ht="12.75" customHeight="1">
       <c r="B68" s="37" t="s">
         <v>160</v>
       </c>
@@ -16425,36 +16842,36 @@
       <c r="BX68" s="39"/>
       <c r="BY68" s="39"/>
       <c r="BZ68" s="39"/>
-      <c r="CA68" s="57">
+      <c r="CA68" s="39"/>
+      <c r="CB68" s="39"/>
+      <c r="CC68" s="39"/>
+      <c r="CD68" s="57">
         <v>27068</v>
       </c>
-      <c r="CB68" s="57">
+      <c r="CE68" s="57">
         <v>29329</v>
       </c>
-      <c r="CC68" s="57">
+      <c r="CF68" s="57">
         <v>30483</v>
       </c>
-      <c r="CD68" s="57">
+      <c r="CG68" s="57">
         <v>32632</v>
       </c>
-      <c r="CE68" s="57">
+      <c r="CH68" s="57">
         <v>34731</v>
       </c>
-      <c r="CF68" s="57">
+      <c r="CI68" s="57">
         <v>38436</v>
       </c>
-      <c r="CG68" s="57">
+      <c r="CJ68" s="57">
         <v>41450</v>
       </c>
-      <c r="CH68" s="57">
+      <c r="CK68" s="57">
         <v>41222</v>
       </c>
-      <c r="CI68" s="46">
+      <c r="CL68" s="46">
         <v>42446</v>
       </c>
-      <c r="CJ68" s="40"/>
-      <c r="CK68" s="40"/>
-      <c r="CL68" s="40"/>
       <c r="CM68" s="40"/>
       <c r="CN68" s="40"/>
       <c r="CO68" s="40"/>
@@ -16503,8 +16920,11 @@
       <c r="EF68" s="40"/>
       <c r="EG68" s="40"/>
       <c r="EH68" s="40"/>
+      <c r="EI68" s="40"/>
+      <c r="EJ68" s="40"/>
+      <c r="EK68" s="40"/>
     </row>
-    <row r="70" spans="2:138" ht="12.75" customHeight="1">
+    <row r="70" spans="2:141" ht="12.75" customHeight="1">
       <c r="B70" s="37" t="s">
         <v>223</v>
       </c>
@@ -16513,15 +16933,15 @@
         <v>11437</v>
       </c>
       <c r="BJ70" s="64">
-        <f t="shared" ref="BJ70:BK70" si="109">+BJ71-BJ80</f>
+        <f t="shared" ref="BJ70:BK70" si="105">+BJ71-BJ80</f>
         <v>0</v>
       </c>
       <c r="BK70" s="64">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:138" ht="12.75" customHeight="1">
+    <row r="71" spans="2:141" ht="12.75" customHeight="1">
       <c r="B71" s="37" t="s">
         <v>210</v>
       </c>
@@ -16530,7 +16950,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="72" spans="2:138" ht="12.75" customHeight="1">
+    <row r="72" spans="2:141" ht="12.75" customHeight="1">
       <c r="B72" s="37" t="s">
         <v>137</v>
       </c>
@@ -16539,7 +16959,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="73" spans="2:138" ht="12.75" customHeight="1">
+    <row r="73" spans="2:141" ht="12.75" customHeight="1">
       <c r="B73" s="37" t="s">
         <v>216</v>
       </c>
@@ -16548,7 +16968,7 @@
         <v>13844</v>
       </c>
     </row>
-    <row r="74" spans="2:138" ht="12.75" customHeight="1">
+    <row r="74" spans="2:141" ht="12.75" customHeight="1">
       <c r="B74" s="37" t="s">
         <v>215</v>
       </c>
@@ -16556,7 +16976,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="75" spans="2:138" ht="12.75" customHeight="1">
+    <row r="75" spans="2:141" ht="12.75" customHeight="1">
       <c r="B75" s="37" t="s">
         <v>214</v>
       </c>
@@ -16564,7 +16984,7 @@
         <v>23222</v>
       </c>
     </row>
-    <row r="76" spans="2:138" ht="12.75" customHeight="1">
+    <row r="76" spans="2:141" ht="12.75" customHeight="1">
       <c r="B76" s="37" t="s">
         <v>213</v>
       </c>
@@ -16572,7 +16992,7 @@
         <v>63641</v>
       </c>
     </row>
-    <row r="77" spans="2:138" ht="12.75" customHeight="1">
+    <row r="77" spans="2:141" ht="12.75" customHeight="1">
       <c r="B77" s="37" t="s">
         <v>212</v>
       </c>
@@ -16580,7 +17000,7 @@
         <v>46924</v>
       </c>
     </row>
-    <row r="78" spans="2:138" ht="12.75" customHeight="1">
+    <row r="78" spans="2:141" ht="12.75" customHeight="1">
       <c r="B78" s="37" t="s">
         <v>211</v>
       </c>
@@ -16589,7 +17009,7 @@
         <v>242836</v>
       </c>
     </row>
-    <row r="80" spans="2:138" ht="12.75" customHeight="1">
+    <row r="80" spans="2:141" ht="12.75" customHeight="1">
       <c r="B80" s="37" t="s">
         <v>217</v>
       </c>
@@ -16679,7 +17099,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -16769,11 +17189,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="63"/>
+    <col min="2" max="2" width="12.83203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16851,10 +17271,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="63"/>
+    <col min="2" max="16384" width="9.1640625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16879,11 +17299,11 @@
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16979,11 +17399,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17035,11 +17455,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/NOVOB.xlsx
+++ b/NOVOB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76C3AE-B3CB-4F4E-8EBF-552B91929653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB6A9F-73F4-400F-B707-F7BA85140719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38160" yWindow="500" windowWidth="22140" windowHeight="19640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33450" yWindow="2175" windowWidth="28755" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="25" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0"/>
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2175,23 +2175,23 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="24"/>
-    <col min="7" max="7" width="9.6640625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="7" max="7" width="9.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="24" customWidth="1"/>
     <col min="10" max="10" width="10" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="24"/>
+    <col min="11" max="11" width="7.7109375" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>2622169.1999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>2610732.1999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="F8" s="26"/>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>227</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>238</v>
       </c>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>241</v>
       </c>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>252</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="G14" s="30"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -2495,7 +2495,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>42</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>46</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>49</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="F21" s="26"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>51</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
         <v>53</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="31" t="s">
         <v>55</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>58</v>
       </c>
@@ -2642,18 +2642,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E27" s="24" t="s">
         <v>224</v>
       </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E28" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E30" s="24" t="s">
         <v>226</v>
       </c>
@@ -2677,29 +2677,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BD36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM8" sqref="BM8"/>
+      <selection pane="bottomRight" activeCell="BN56" sqref="BN56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="18" customWidth="1"/>
-    <col min="3" max="56" width="6.83203125" style="6" customWidth="1"/>
-    <col min="57" max="68" width="7.83203125" style="6" customWidth="1"/>
-    <col min="69" max="70" width="6.83203125" style="6" customWidth="1"/>
-    <col min="71" max="78" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.6640625" style="6" customWidth="1"/>
-    <col min="80" max="81" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="7.6640625" style="6" customWidth="1"/>
-    <col min="90" max="104" width="7.6640625" style="7" customWidth="1"/>
-    <col min="105" max="16384" width="9.1640625" style="7"/>
+    <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
+    <col min="3" max="56" width="6.85546875" style="6" customWidth="1"/>
+    <col min="57" max="68" width="7.85546875" style="6" customWidth="1"/>
+    <col min="69" max="70" width="6.85546875" style="6" customWidth="1"/>
+    <col min="71" max="78" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="6" customWidth="1"/>
+    <col min="80" max="81" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="89" width="7.7109375" style="6" customWidth="1"/>
+    <col min="90" max="104" width="7.7109375" style="7" customWidth="1"/>
+    <col min="105" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" ht="12.75" customHeight="1">
+    <row r="1" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>60</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="EJ1" s="40"/>
       <c r="EK1" s="40"/>
     </row>
-    <row r="2" spans="1:141" ht="12.75" customHeight="1">
+    <row r="2" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="36"/>
       <c r="C2" s="42" t="s">
@@ -3204,7 +3204,7 @@
       <c r="EJ2" s="40"/>
       <c r="EK2" s="40"/>
     </row>
-    <row r="3" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
         <v>127</v>
@@ -3425,7 +3425,7 @@
       <c r="EJ3" s="46"/>
       <c r="EK3" s="46"/>
     </row>
-    <row r="4" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
         <v>184</v>
@@ -3629,7 +3629,7 @@
       <c r="EJ4" s="46"/>
       <c r="EK4" s="46"/>
     </row>
-    <row r="5" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
         <v>128</v>
@@ -3850,7 +3850,7 @@
       <c r="EJ5" s="46"/>
       <c r="EK5" s="46"/>
     </row>
-    <row r="6" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
         <v>185</v>
@@ -4053,7 +4053,7 @@
       <c r="EJ6" s="46"/>
       <c r="EK6" s="46"/>
     </row>
-    <row r="7" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
         <v>129</v>
@@ -4284,7 +4284,7 @@
       <c r="EJ7" s="46"/>
       <c r="EK7" s="46"/>
     </row>
-    <row r="8" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
         <v>130</v>
@@ -4505,7 +4505,7 @@
       <c r="EJ8" s="46"/>
       <c r="EK8" s="46"/>
     </row>
-    <row r="9" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35" t="s">
         <v>183</v>
@@ -4708,7 +4708,7 @@
       <c r="EJ9" s="46"/>
       <c r="EK9" s="46"/>
     </row>
-    <row r="10" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:141" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
         <v>131</v>
@@ -4850,7 +4850,7 @@
         <v>12294</v>
       </c>
       <c r="AT10" s="44">
-        <f t="shared" ref="AS10:AU10" si="6">SUM(AT3:AT9)</f>
+        <f t="shared" ref="AT10:AU10" si="6">SUM(AT3:AT9)</f>
         <v>12924</v>
       </c>
       <c r="AU10" s="44">
@@ -5034,7 +5034,7 @@
       <c r="EJ10" s="46"/>
       <c r="EK10" s="46"/>
     </row>
-    <row r="11" spans="1:141" ht="12.75" customHeight="1">
+    <row r="11" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="47" t="s">
         <v>132</v>
@@ -5306,7 +5306,7 @@
       <c r="EJ11" s="40"/>
       <c r="EK11" s="40"/>
     </row>
-    <row r="12" spans="1:141" ht="12.75" customHeight="1">
+    <row r="12" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="47" t="s">
         <v>194</v>
@@ -5532,7 +5532,7 @@
       <c r="EJ12" s="40"/>
       <c r="EK12" s="40"/>
     </row>
-    <row r="13" spans="1:141" ht="12.75" customHeight="1">
+    <row r="13" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="47"/>
       <c r="C13" s="45"/>
@@ -5675,7 +5675,7 @@
       <c r="EJ13" s="40"/>
       <c r="EK13" s="40"/>
     </row>
-    <row r="14" spans="1:141" ht="12.75" customHeight="1">
+    <row r="14" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="47" t="s">
         <v>133</v>
@@ -5933,7 +5933,7 @@
       <c r="EJ14" s="40"/>
       <c r="EK14" s="40"/>
     </row>
-    <row r="15" spans="1:141" ht="12.75" customHeight="1">
+    <row r="15" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="47" t="s">
         <v>181</v>
@@ -6136,7 +6136,7 @@
       <c r="EJ15" s="40"/>
       <c r="EK15" s="40"/>
     </row>
-    <row r="16" spans="1:141" ht="12.75" customHeight="1">
+    <row r="16" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="47" t="s">
         <v>182</v>
@@ -6339,7 +6339,7 @@
       <c r="EJ16" s="40"/>
       <c r="EK16" s="40"/>
     </row>
-    <row r="17" spans="1:141" ht="12.75" customHeight="1">
+    <row r="17" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="47" t="s">
         <v>134</v>
@@ -6549,7 +6549,7 @@
       <c r="EJ17" s="40"/>
       <c r="EK17" s="40"/>
     </row>
-    <row r="18" spans="1:141" ht="12.75" customHeight="1">
+    <row r="18" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="47" t="s">
         <v>186</v>
@@ -6722,7 +6722,7 @@
       <c r="EJ18" s="40"/>
       <c r="EK18" s="40"/>
     </row>
-    <row r="19" spans="1:141" ht="12.75" customHeight="1">
+    <row r="19" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="47" t="s">
         <v>187</v>
@@ -6925,7 +6925,7 @@
       <c r="EJ19" s="40"/>
       <c r="EK19" s="40"/>
     </row>
-    <row r="20" spans="1:141" ht="12.75" customHeight="1">
+    <row r="20" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="47"/>
       <c r="C20" s="45"/>
@@ -7068,7 +7068,7 @@
       <c r="EJ20" s="40"/>
       <c r="EK20" s="40"/>
     </row>
-    <row r="21" spans="1:141" ht="12.75" customHeight="1">
+    <row r="21" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="47" t="s">
         <v>135</v>
@@ -7340,7 +7340,7 @@
       <c r="EJ21" s="40"/>
       <c r="EK21" s="40"/>
     </row>
-    <row r="22" spans="1:141" ht="12.75" customHeight="1">
+    <row r="22" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="47"/>
       <c r="C22" s="45"/>
@@ -7483,7 +7483,7 @@
       <c r="EJ22" s="40"/>
       <c r="EK22" s="40"/>
     </row>
-    <row r="23" spans="1:141" ht="12.75" customHeight="1">
+    <row r="23" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="47" t="s">
         <v>28</v>
@@ -7756,7 +7756,7 @@
       <c r="EJ23" s="40"/>
       <c r="EK23" s="40"/>
     </row>
-    <row r="24" spans="1:141" ht="12.75" customHeight="1">
+    <row r="24" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="47" t="s">
         <v>188</v>
@@ -7936,7 +7936,7 @@
       <c r="EJ24" s="40"/>
       <c r="EK24" s="40"/>
     </row>
-    <row r="25" spans="1:141" ht="12.75" customHeight="1">
+    <row r="25" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="47" t="s">
         <v>189</v>
@@ -8051,7 +8051,10 @@
       <c r="BN25" s="44">
         <v>329</v>
       </c>
-      <c r="BO25" s="44"/>
+      <c r="BO25" s="55">
+        <f>SUM(BN14:BN19)/BN31</f>
+        <v>0.74381671044440734</v>
+      </c>
       <c r="BP25" s="44"/>
       <c r="BQ25" s="44"/>
       <c r="BR25" s="44"/>
@@ -8139,7 +8142,7 @@
       <c r="EJ25" s="40"/>
       <c r="EK25" s="40"/>
     </row>
-    <row r="26" spans="1:141" ht="12.75" customHeight="1">
+    <row r="26" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="47" t="s">
         <v>190</v>
@@ -8358,7 +8361,7 @@
       <c r="EJ26" s="40"/>
       <c r="EK26" s="40"/>
     </row>
-    <row r="27" spans="1:141" ht="12.75" customHeight="1">
+    <row r="27" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="47" t="s">
         <v>191</v>
@@ -8584,7 +8587,7 @@
       <c r="EJ27" s="40"/>
       <c r="EK27" s="40"/>
     </row>
-    <row r="28" spans="1:141" ht="12.75" customHeight="1">
+    <row r="28" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="47" t="s">
         <v>24</v>
@@ -8811,7 +8814,7 @@
       <c r="EJ28" s="40"/>
       <c r="EK28" s="40"/>
     </row>
-    <row r="29" spans="1:141" ht="12.75" customHeight="1">
+    <row r="29" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="47" t="s">
         <v>136</v>
@@ -9007,7 +9010,7 @@
       <c r="EJ29" s="40"/>
       <c r="EK29" s="40"/>
     </row>
-    <row r="30" spans="1:141" ht="12.75" customHeight="1">
+    <row r="30" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="47" t="s">
         <v>137</v>
@@ -9220,7 +9223,7 @@
       <c r="EJ30" s="40"/>
       <c r="EK30" s="40"/>
     </row>
-    <row r="31" spans="1:141" s="12" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:141" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>209</v>
@@ -9297,7 +9300,7 @@
         <v>21629</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" ref="AC31:AT31" si="36">SUM(AC10:AC30)</f>
+        <f t="shared" ref="AC31:AQ31" si="36">SUM(AC10:AC30)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="15">
@@ -9538,7 +9541,7 @@
       <c r="CY31" s="59"/>
       <c r="CZ31" s="59"/>
     </row>
-    <row r="32" spans="1:141" ht="12.75" customHeight="1">
+    <row r="32" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="47" t="s">
         <v>138</v>
@@ -9801,7 +9804,7 @@
       <c r="EJ32" s="40"/>
       <c r="EK32" s="40"/>
     </row>
-    <row r="33" spans="1:141" ht="12.75" customHeight="1">
+    <row r="33" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="47" t="s">
         <v>139</v>
@@ -10060,7 +10063,7 @@
       <c r="EJ33" s="40"/>
       <c r="EK33" s="40"/>
     </row>
-    <row r="34" spans="1:141" ht="12.75" customHeight="1">
+    <row r="34" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="47" t="s">
         <v>140</v>
@@ -10308,7 +10311,7 @@
       <c r="EJ34" s="40"/>
       <c r="EK34" s="40"/>
     </row>
-    <row r="35" spans="1:141" ht="12.75" customHeight="1">
+    <row r="35" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="47" t="s">
         <v>141</v>
@@ -10559,7 +10562,7 @@
       <c r="EJ35" s="40"/>
       <c r="EK35" s="40"/>
     </row>
-    <row r="36" spans="1:141" ht="12.75" customHeight="1">
+    <row r="36" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="47" t="s">
         <v>201</v>
@@ -10807,7 +10810,7 @@
       <c r="EJ36" s="40"/>
       <c r="EK36" s="40"/>
     </row>
-    <row r="37" spans="1:141" ht="12.75" customHeight="1">
+    <row r="37" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="47" t="s">
         <v>137</v>
@@ -11042,7 +11045,7 @@
       <c r="EJ37" s="40"/>
       <c r="EK37" s="40"/>
     </row>
-    <row r="38" spans="1:141" ht="12.75" customHeight="1">
+    <row r="38" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="47" t="s">
         <v>142</v>
@@ -11334,7 +11337,7 @@
       <c r="EJ38" s="40"/>
       <c r="EK38" s="40"/>
     </row>
-    <row r="39" spans="1:141" ht="12.75" customHeight="1">
+    <row r="39" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="47" t="s">
         <v>202</v>
@@ -11627,7 +11630,7 @@
       <c r="EJ39" s="40"/>
       <c r="EK39" s="40"/>
     </row>
-    <row r="40" spans="1:141" ht="12.75" customHeight="1">
+    <row r="40" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="47" t="s">
         <v>205</v>
@@ -11804,7 +11807,7 @@
       <c r="EJ40" s="40"/>
       <c r="EK40" s="40"/>
     </row>
-    <row r="41" spans="1:141" ht="12.75" customHeight="1">
+    <row r="41" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="47" t="s">
         <v>143</v>
@@ -11983,7 +11986,7 @@
       <c r="EJ41" s="40"/>
       <c r="EK41" s="40"/>
     </row>
-    <row r="42" spans="1:141" ht="12.75" customHeight="1">
+    <row r="42" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41"/>
       <c r="B42" s="47" t="s">
         <v>144</v>
@@ -12239,7 +12242,7 @@
       <c r="EJ42" s="40"/>
       <c r="EK42" s="40"/>
     </row>
-    <row r="43" spans="1:141" ht="12.75" customHeight="1">
+    <row r="43" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="47" t="s">
         <v>203</v>
@@ -12511,7 +12514,7 @@
       <c r="EJ43" s="40"/>
       <c r="EK43" s="40"/>
     </row>
-    <row r="44" spans="1:141" ht="12.75" customHeight="1">
+    <row r="44" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="47" t="s">
         <v>208</v>
@@ -12770,7 +12773,7 @@
       <c r="EJ44" s="40"/>
       <c r="EK44" s="40"/>
     </row>
-    <row r="45" spans="1:141" ht="12.75" customHeight="1">
+    <row r="45" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="47" t="s">
         <v>204</v>
@@ -13177,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:141" s="12" customFormat="1" ht="12.75" customHeight="1">
+    <row r="46" spans="1:141" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
@@ -13382,7 +13385,7 @@
       <c r="CJ46" s="11"/>
       <c r="CK46" s="11"/>
     </row>
-    <row r="47" spans="1:141" ht="12.75" customHeight="1">
+    <row r="47" spans="1:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="47" t="s">
         <v>11</v>
       </c>
@@ -13624,7 +13627,7 @@
       <c r="EJ47" s="40"/>
       <c r="EK47" s="40"/>
     </row>
-    <row r="48" spans="1:141" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="48" spans="1:141" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="47"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
@@ -13762,7 +13765,7 @@
       <c r="EJ48" s="41"/>
       <c r="EK48" s="41"/>
     </row>
-    <row r="49" spans="2:141" ht="12.75" customHeight="1">
+    <row r="49" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="47" t="s">
         <v>149</v>
       </c>
@@ -14033,7 +14036,7 @@
       <c r="EJ49" s="40"/>
       <c r="EK49" s="40"/>
     </row>
-    <row r="50" spans="2:141" ht="12.75" customHeight="1">
+    <row r="50" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="47" t="s">
         <v>150</v>
       </c>
@@ -14185,7 +14188,7 @@
       <c r="EJ50" s="40"/>
       <c r="EK50" s="40"/>
     </row>
-    <row r="51" spans="2:141" ht="12.75" customHeight="1">
+    <row r="51" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="47" t="s">
         <v>192</v>
       </c>
@@ -14376,7 +14379,7 @@
       <c r="EJ51" s="40"/>
       <c r="EK51" s="40"/>
     </row>
-    <row r="52" spans="2:141" ht="12.75" customHeight="1">
+    <row r="52" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="47" t="s">
         <v>193</v>
       </c>
@@ -14567,7 +14570,7 @@
       <c r="EJ52" s="40"/>
       <c r="EK52" s="40"/>
     </row>
-    <row r="53" spans="2:141" ht="12.75" customHeight="1">
+    <row r="53" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="47" t="s">
         <v>200</v>
       </c>
@@ -14753,7 +14756,7 @@
       <c r="EJ53" s="40"/>
       <c r="EK53" s="40"/>
     </row>
-    <row r="54" spans="2:141" ht="12.75" customHeight="1">
+    <row r="54" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="47" t="s">
         <v>195</v>
       </c>
@@ -14939,7 +14942,7 @@
       <c r="EJ54" s="40"/>
       <c r="EK54" s="40"/>
     </row>
-    <row r="55" spans="2:141" ht="12.75" customHeight="1">
+    <row r="55" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="37" t="s">
         <v>152</v>
       </c>
@@ -15215,7 +15218,7 @@
       <c r="EJ55" s="40"/>
       <c r="EK55" s="40"/>
     </row>
-    <row r="56" spans="2:141" ht="12.75" customHeight="1">
+    <row r="56" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="37" t="s">
         <v>206</v>
       </c>
@@ -15410,7 +15413,7 @@
       <c r="EJ56" s="40"/>
       <c r="EK56" s="40"/>
     </row>
-    <row r="57" spans="2:141" ht="12.75" customHeight="1">
+    <row r="57" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="37" t="s">
         <v>207</v>
       </c>
@@ -15605,7 +15608,7 @@
       <c r="EJ57" s="40"/>
       <c r="EK57" s="40"/>
     </row>
-    <row r="58" spans="2:141" ht="12.75" customHeight="1">
+    <row r="58" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="37" t="s">
         <v>153</v>
       </c>
@@ -15836,7 +15839,7 @@
       <c r="EJ58" s="40"/>
       <c r="EK58" s="40"/>
     </row>
-    <row r="59" spans="2:141" ht="12.75" customHeight="1">
+    <row r="59" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="37" t="s">
         <v>154</v>
       </c>
@@ -16004,7 +16007,7 @@
       <c r="EJ59" s="40"/>
       <c r="EK59" s="40"/>
     </row>
-    <row r="61" spans="2:141" ht="12.75" customHeight="1">
+    <row r="61" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="37" t="s">
         <v>155</v>
       </c>
@@ -16150,7 +16153,7 @@
       <c r="EJ61" s="40"/>
       <c r="EK61" s="40"/>
     </row>
-    <row r="63" spans="2:141" ht="12.75" customHeight="1">
+    <row r="63" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="37" t="s">
         <v>156</v>
       </c>
@@ -16296,7 +16299,7 @@
       <c r="EJ63" s="40"/>
       <c r="EK63" s="40"/>
     </row>
-    <row r="64" spans="2:141" ht="12.75" customHeight="1">
+    <row r="64" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="37" t="s">
         <v>157</v>
       </c>
@@ -16442,7 +16445,7 @@
       <c r="EJ64" s="40"/>
       <c r="EK64" s="40"/>
     </row>
-    <row r="65" spans="2:141" ht="12.75" customHeight="1">
+    <row r="65" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="37" t="s">
         <v>158</v>
       </c>
@@ -16588,7 +16591,7 @@
       <c r="EJ65" s="40"/>
       <c r="EK65" s="40"/>
     </row>
-    <row r="66" spans="2:141" ht="12.75" customHeight="1">
+    <row r="66" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="37" t="s">
         <v>159</v>
       </c>
@@ -16734,7 +16737,7 @@
       <c r="EJ66" s="40"/>
       <c r="EK66" s="40"/>
     </row>
-    <row r="68" spans="2:141" ht="12.75" customHeight="1">
+    <row r="68" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="37" t="s">
         <v>160</v>
       </c>
@@ -16924,7 +16927,7 @@
       <c r="EJ68" s="40"/>
       <c r="EK68" s="40"/>
     </row>
-    <row r="70" spans="2:141" ht="12.75" customHeight="1">
+    <row r="70" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="37" t="s">
         <v>223</v>
       </c>
@@ -16941,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:141" ht="12.75" customHeight="1">
+    <row r="71" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="37" t="s">
         <v>210</v>
       </c>
@@ -16950,7 +16953,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="72" spans="2:141" ht="12.75" customHeight="1">
+    <row r="72" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="37" t="s">
         <v>137</v>
       </c>
@@ -16959,7 +16962,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="73" spans="2:141" ht="12.75" customHeight="1">
+    <row r="73" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37" t="s">
         <v>216</v>
       </c>
@@ -16968,7 +16971,7 @@
         <v>13844</v>
       </c>
     </row>
-    <row r="74" spans="2:141" ht="12.75" customHeight="1">
+    <row r="74" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="37" t="s">
         <v>215</v>
       </c>
@@ -16976,7 +16979,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="75" spans="2:141" ht="12.75" customHeight="1">
+    <row r="75" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37" t="s">
         <v>214</v>
       </c>
@@ -16984,7 +16987,7 @@
         <v>23222</v>
       </c>
     </row>
-    <row r="76" spans="2:141" ht="12.75" customHeight="1">
+    <row r="76" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="37" t="s">
         <v>213</v>
       </c>
@@ -16992,7 +16995,7 @@
         <v>63641</v>
       </c>
     </row>
-    <row r="77" spans="2:141" ht="12.75" customHeight="1">
+    <row r="77" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
         <v>212</v>
       </c>
@@ -17000,7 +17003,7 @@
         <v>46924</v>
       </c>
     </row>
-    <row r="78" spans="2:141" ht="12.75" customHeight="1">
+    <row r="78" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="37" t="s">
         <v>211</v>
       </c>
@@ -17009,7 +17012,7 @@
         <v>242836</v>
       </c>
     </row>
-    <row r="80" spans="2:141" ht="12.75" customHeight="1">
+    <row r="80" spans="2:141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="37" t="s">
         <v>217</v>
       </c>
@@ -17018,7 +17021,7 @@
         <v>32552</v>
       </c>
     </row>
-    <row r="81" spans="2:61" ht="12.75" customHeight="1">
+    <row r="81" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37" t="s">
         <v>218</v>
       </c>
@@ -17027,7 +17030,7 @@
         <v>90045</v>
       </c>
     </row>
-    <row r="82" spans="2:61" ht="12.75" customHeight="1">
+    <row r="82" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="37" t="s">
         <v>137</v>
       </c>
@@ -17036,7 +17039,7 @@
         <v>21629</v>
       </c>
     </row>
-    <row r="83" spans="2:61" ht="12.75" customHeight="1">
+    <row r="83" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37" t="s">
         <v>216</v>
       </c>
@@ -17044,7 +17047,7 @@
         <v>7397</v>
       </c>
     </row>
-    <row r="84" spans="2:61" ht="12.75" customHeight="1">
+    <row r="84" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="37" t="s">
         <v>219</v>
       </c>
@@ -17052,7 +17055,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="85" spans="2:61" ht="12.75" customHeight="1">
+    <row r="85" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="37" t="s">
         <v>220</v>
       </c>
@@ -17061,7 +17064,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="86" spans="2:61" ht="12.75" customHeight="1">
+    <row r="86" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="37" t="s">
         <v>221</v>
       </c>
@@ -17069,7 +17072,7 @@
         <v>76680</v>
       </c>
     </row>
-    <row r="87" spans="2:61" ht="12.75" customHeight="1">
+    <row r="87" spans="2:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="37" t="s">
         <v>222</v>
       </c>
@@ -17099,17 +17102,17 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>228</v>
       </c>
@@ -17117,7 +17120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="63" t="s">
         <v>229</v>
       </c>
@@ -17125,7 +17128,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
         <v>242</v>
       </c>
@@ -17133,42 +17136,42 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="63" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="63" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="65" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="63" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="63" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="63" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="63" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="63" t="s">
         <v>251</v>
       </c>
@@ -17189,19 +17192,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="63"/>
+    <col min="2" max="2" width="12.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>228</v>
       </c>
@@ -17209,7 +17212,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="63" t="s">
         <v>229</v>
       </c>
@@ -17217,7 +17220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
         <v>231</v>
       </c>
@@ -17225,7 +17228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="63" t="s">
         <v>177</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="s">
         <v>1</v>
       </c>
@@ -17241,7 +17244,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>235</v>
       </c>
@@ -17249,7 +17252,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
@@ -17271,13 +17274,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="63"/>
+    <col min="2" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>60</v>
       </c>
@@ -17299,19 +17302,19 @@
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
@@ -17319,7 +17322,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
@@ -17327,7 +17330,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>164</v>
       </c>
@@ -17335,47 +17338,47 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>174</v>
       </c>
@@ -17399,19 +17402,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
@@ -17419,7 +17422,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
@@ -17427,7 +17430,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>177</v>
       </c>
@@ -17435,7 +17438,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
@@ -17455,19 +17458,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
@@ -17475,7 +17478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
@@ -17483,13 +17486,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>

--- a/NOVOB.xlsx
+++ b/NOVOB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB6A9F-73F4-400F-B707-F7BA85140719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21388EB-F628-4319-B806-66B99BCDA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33450" yWindow="2175" windowWidth="28755" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51240" yWindow="780" windowWidth="34170" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="25" r:id="rId1"/>
@@ -2678,10 +2678,10 @@
   <dimension ref="A1:EK87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BD36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN56" sqref="BN56"/>
+      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
